--- a/SPARQL/SPARQL/sparql_output.xlsx
+++ b/SPARQL/SPARQL/sparql_output.xlsx
@@ -503,27 +503,27 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['http://purls.helmholtz-metadaten.de/mwo/hasWorkPackage', 'http://purls.helmholtz-metadaten.de/mwo/hasExpertiseIn', 'http://nfdi.fiz-karlsruhe.de/ontology/fundingProject', 'http://purls.helmholtz-metadaten.de/mwo/relatedParticipantProject', 'http://nfdi.fiz-karlsruhe.de/ontology/relatedProject', 'http://purls.helmholtz-metadaten.de/mwo/hasDiscipline', 'http://nfdi.fiz-karlsruhe.de/ontology/parentOrganisation', 'http://purls.helmholtz-metadaten.de/mwo/relatedTaskArea', 'http://purls.helmholtz-metadaten.de/mwo/hasDocumentation']</t>
+          <t>['https://nfdi.fiz-karlsruhe.de/ontology/example', 'http://purls.helmholtz-metadaten.de/mwo/description', 'http://nfdi.fiz-karlsruhe.de/ontology/programmingLanguage', 'http://nfdi.fiz-karlsruhe.de/ontology/objectType', 'https://schema.org/dateCreated', 'http://purl.org/dc/terms/isPartOf', 'http://purls.helmholtz-metadaten.de/mwo/usesMethod', 'http://purls.helmholtz-metadaten.de/mwo/belongsTo', 'https://w3id.org/scholarlydata/ontology/conference-ontology.owl#duration']</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>['mwo:hasWorkPackage', 'mwo:hasExpertiseIn', 'nfdicore:fundingProject', 'mwo:relatedParticipantProject', 'nfdicore:relatedProject', 'mwo:hasDiscipline', 'nfdicore:parentOrganisation', 'mwo:relatedTaskArea', 'mwo:hasDocumentation', 'mwo:description', 'dcterms:description']</t>
+          <t>['mwo:hasWorkPackage', 'mwo:hasExpertiseIn', 'nfdicore:fundingProject', 'mwo:relatedParticipantProject', 'nfdicore:relatedProject', 'mwo:hasDiscipline', 'nfdicore:parentOrganisation', 'mwo:relatedTaskArea', 'mwo:hasDocumentation', 'mwo:description', 'dcterms:description', 'rdf:type']</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['Computational Materials Science', 'Computational Material Science', 'computational materials science', 'Computational materials science']</t>
+          <t>['Computational Material Science', 'computational materials science', 'Materials Platform for Data Science', 'Computational materials science', 'Computational Materials Science']</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['http://demo.fiz-karlsruhe.de/matwerk/E42042', 'http://demo.fiz-karlsruhe.de/matwerk/E67431', 'http://demo.fiz-karlsruhe.de/matwerk/E49517', 'http://demo.fiz-karlsruhe.de/matwerk/E71126', 'http://www.wikidata.org/entity/Q85753722']</t>
+          <t>['http://demo.fiz-karlsruhe.de/matwerk/E67431', 'http://demo.fiz-karlsruhe.de/matwerk/E42042', 'http://demo.fiz-karlsruhe.de/matwerk/E1035642', 'http://demo.fiz-karlsruhe.de/matwerk/E49517', 'http://demo.fiz-karlsruhe.de/matwerk/E71126']</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>["('http://demo.fiz-karlsruhe.de/matwerk/E11154', 'mwo:hasExpertiseIn', 'http://demo.fiz-karlsruhe.de/matwerk/E42042')", "('http://demo.fiz-karlsruhe.de/matwerk/E9257', 'mwo:hasExpertiseIn', 'http://demo.fiz-karlsruhe.de/matwerk/E42042')", "('http://demo.fiz-karlsruhe.de/matwerk/E9386', 'mwo:hasExpertiseIn', 'http://demo.fiz-karlsruhe.de/matwerk/E42042')", "('http://demo.fiz-karlsruhe.de/matwerk/E10046', 'mwo:hasExpertiseIn', 'http://demo.fiz-karlsruhe.de/matwerk/E42042')", "('http://demo.fiz-karlsruhe.de/matwerk/E21101', 'mwo:hasExpertiseIn', 'http://demo.fiz-karlsruhe.de/matwerk/E42042')", "('http://demo.fiz-karlsruhe.de/matwerk/E1246593', 'mwo:hasDiscipline', 'http://demo.fiz-karlsruhe.de/matwerk/E42042')", "('http://demo.fiz-karlsruhe.de/matwerk/E1246648', 'mwo:hasDiscipline', 'http://demo.fiz-karlsruhe.de/matwerk/E42042')", "('http://demo.fiz-karlsruhe.de/matwerk/E1247323', 'mwo:hasDiscipline', 'http://demo.fiz-karlsruhe.de/matwerk/E42042')", "('http://demo.fiz-karlsruhe.de/matwerk/E1247418', 'mwo:hasDiscipline', 'http://demo.fiz-karlsruhe.de/matwerk/E42042')", "('http://demo.fiz-karlsruhe.de/matwerk/E10317', 'mwo:hasExpertiseIn', 'http://demo.fiz-karlsruhe.de/matwerk/E67431')", "('http://demo.fiz-karlsruhe.de/matwerk/E8627', 'mwo:hasExpertiseIn', 'http://demo.fiz-karlsruhe.de/matwerk/E67431')", "('http://demo.fiz-karlsruhe.de/matwerk/E411872', 'mwo:hasDiscipline', 'http://demo.fiz-karlsruhe.de/matwerk/E67431')", "('http://demo.fiz-karlsruhe.de/matwerk/E412779', 'mwo:hasDiscipline', 'http://demo.fiz-karlsruhe.de/matwerk/E67431')", "('http://demo.fiz-karlsruhe.de/matwerk/E413687', 'mwo:hasDiscipline', 'http://demo.fiz-karlsruhe.de/matwerk/E67431')", "('http://demo.fiz-karlsruhe.de/matwerk/E415506', 'mwo:hasDiscipline', 'http://demo.fiz-karlsruhe.de/matwerk/E67431')", "('http://demo.fiz-karlsruhe.de/matwerk/E417329', 'mwo:hasDiscipline', 'http://demo.fiz-karlsruhe.de/matwerk/E67431')", "('http://demo.fiz-karlsruhe.de/matwerk/E418242', 'mwo:hasDiscipline', 'http://demo.fiz-karlsruhe.de/matwerk/E67431')", "('http://demo.fiz-karlsruhe.de/matwerk/E425582', 'mwo:hasDiscipline', 'http://demo.fiz-karlsruhe.de/matwerk/E67431')", "('http://demo.fiz-karlsruhe.de/matwerk/E426504', 'mwo:hasDiscipline', 'http://demo.fiz-karlsruhe.de/matwerk/E67431')", "('http://demo.fiz-karlsruhe.de/matwerk/E427427', 'mwo:hasDiscipline', 'http://demo.fiz-karlsruhe.de/matwerk/E67431')", "('http://demo.fiz-karlsruhe.de/matwerk/E428351', 'mwo:hasDiscipline', 'http://demo.fiz-karlsruhe.de/matwerk/E67431')", "('http://demo.fiz-karlsruhe.de/matwerk/E429276', 'mwo:hasDiscipline', 'http://demo.fiz-karlsruhe.de/matwerk/E67431')", "('http://demo.fiz-karlsruhe.de/matwerk/E431129', 'mwo:hasDiscipline', 'http://demo.fiz-karlsruhe.de/matwerk/E67431')", "('http://demo.fiz-karlsruhe.de/matwerk/E432057', 'mwo:hasDiscipline', 'http://demo.fiz-karlsruhe.de/matwerk/E67431')", "('http://demo.fiz-karlsruhe.de/matwerk/E432986', 'mwo:hasDiscipline', 'http://demo.fiz-karlsruhe.de/matwerk/E67431')", "('http://demo.fiz-karlsruhe.de/matwerk/E433916', 'mwo:hasDiscipline', 'http://demo.fiz-karlsruhe.de/matwerk/E67431')", "('http://demo.fiz-karlsruhe.de/matwerk/E434847', 'mwo:hasDiscipline', 'http://demo.fiz-karlsruhe.de/matwerk/E67431')", "('http://demo.fiz-karlsruhe.de/matwerk/E435779', 'mwo:hasDiscipline', 'http://demo.fiz-karlsruhe.de/matwerk/E67431')", "('http://demo.fiz-karlsruhe.de/matwerk/E436712', 'mwo:hasDiscipline', 'http://demo.fiz-karlsruhe.de/matwerk/E67431')", "('http://demo.fiz-karlsruhe.de/matwerk/E437646', 'mwo:hasDiscipline', 'http://demo.fiz-karlsruhe.de/matwerk/E67431')", "('http://demo.fiz-karlsruhe.de/matwerk/E438581', 'mwo:hasDiscipline', 'http://demo.fiz-karlsruhe.de/matwerk/E67431')", "('http://demo.fiz-karlsruhe.de/matwerk/E439517', 'mwo:hasDiscipline', 'http://demo.fiz-karlsruhe.de/matwerk/E67431')", "('http://demo.fiz-karlsruhe.de/matwerk/E440454', 'mwo:hasDiscipline', 'http://demo.fiz-karlsruhe.de/matwerk/E67431')", "('http://demo.fiz-karlsruhe.de/matwerk/E441392', 'mwo:hasDiscipline', 'http://demo.fiz-karlsruhe.de/matwerk/E67431')", "('http://demo.fiz-karlsruhe.de/matwerk/E442331', 'mwo:hasDiscipline', 'http://demo.fiz-karlsruhe.de/matwerk/E67431')", "('http://demo.fiz-karlsruhe.de/matwerk/E443271', 'mwo:hasDiscipline', 'http://demo.fiz-karlsruhe.de/matwerk/E67431')", "('http://demo.fiz-karlsruhe.de/matwerk/E444212', 'mwo:hasDiscipline', 'http://demo.fiz-karlsruhe.de/matwerk/E67431')", "('http://demo.fiz-karlsruhe.de/matwerk/E445154', 'mwo:hasDiscipline', 'http://demo.fiz-karlsruhe.de/matwerk/E67431')", "('http://demo.fiz-karlsruhe.de/matwerk/E446097', 'mwo:hasDiscipline', 'http://demo.fiz-karlsruhe.de/matwerk/E67431')", "('http://demo.fiz-karlsruhe.de/matwerk/E447041', 'mwo:hasDiscipline', 'http://demo.fiz-karlsruhe.de/matwerk/E67431')", "('http://demo.fiz-karlsruhe.de/matwerk/E447986', 'mwo:hasDiscipline', 'http://demo.fiz-karlsruhe.de/matwerk/E67431')", "('http://demo.fiz-karlsruhe.de/matwerk/E448932', 'mwo:hasDiscipline', 'http://demo.fiz-karlsruhe.de/matwerk/E67431')", "('http://demo.fiz-karlsruhe.de/matwerk/E449879', 'mwo:hasDiscipline', 'http://demo.fiz-karlsruhe.de/matwerk/E67431')", "('http://demo.fiz-karlsruhe.de/matwerk/E450827', 'mwo:hasDiscipline', 'http://demo.fiz-karlsruhe.de/matwerk/E67431')", "('http://demo.fiz-karlsruhe.de/matwerk/E451776', 'mwo:hasDiscipline', 'http://demo.fiz-karlsruhe.de/matwerk/E67431')", "('http://demo.fiz-karlsruhe.de/matwerk/E452726', 'mwo:hasDiscipline', 'http://demo.fiz-karlsruhe.de/matwerk/E67431')", "('http://demo.fiz-karlsruhe.de/matwerk/E453677', 'mwo:hasDiscipline', 'http://demo.fiz-karlsruhe.de/matwerk/E67431')", "('http://demo.fiz-karlsruhe.de/matwerk/E454629', 'mwo:hasDiscipline', 'http://demo.fiz-karlsruhe.de/matwerk/E67431')", "('http://demo.fiz-karlsruhe.de/matwerk/E455582', 'mwo:hasDiscipline', 'http://demo.fiz-karlsruhe.de/matwerk/E67431')", "('http://demo.fiz-karlsruhe.de/matwerk/E456536', 'mwo:hasDiscipline', 'http://demo.fiz-karlsruhe.de/matwerk/E67431')", "('http://demo.fiz-karlsruhe.de/matwerk/E458447', 'mwo:hasDiscipline', 'http://demo.fiz-karlsruhe.de/matwerk/E67431')", "('http://demo.fiz-karlsruhe.de/matwerk/E459404', 'mwo:hasDiscipline', 'http://demo.fiz-karlsruhe.de/matwerk/E67431')", "('http://demo.fiz-karlsruhe.de/matwerk/E460362', 'mwo:hasDiscipline', 'http://demo.fiz-karlsruhe.de/matwerk/E67431')", "('http://demo.fiz-karlsruhe.de/matwerk/E658232', 'mwo:hasDiscipline', 'http://demo.fiz-karlsruhe.de/matwerk/E67431')", "('http://demo.fiz-karlsruhe.de/matwerk/E457491', 'mwo:hasDiscipline', 'http://demo.fiz-karlsruhe.de/matwerk/E67431')", "('http://demo.fiz-karlsruhe.de/matwerk/E12326', 'mwo:hasExpertiseIn', 'http://demo.fiz-karlsruhe.de/matwerk/E49517')", "('http://demo.fiz-karlsruhe.de/matwerk/E12629', 'mwo:hasExpertiseIn', 'http://demo.fiz-karlsruhe.de/matwerk/E49517')", "('http://demo.fiz-karlsruhe.de/matwerk/E414596', 'mwo:hasDiscipline', 'http://demo.fiz-karlsruhe.de/matwerk/E49517')", "('http://demo.fiz-karlsruhe.de/matwerk/E553827', 'mwo:hasDiscipline', 'http://demo.fiz-karlsruhe.de/matwerk/E71126')"]</t>
+          <t>["('http://demo.fiz-karlsruhe.de/matwerk/E10317', 'mwo:hasExpertiseIn', 'http://demo.fiz-karlsruhe.de/matwerk/E67431')", "('http://demo.fiz-karlsruhe.de/matwerk/E8627', 'mwo:hasExpertiseIn', 'http://demo.fiz-karlsruhe.de/matwerk/E67431')", "('http://demo.fiz-karlsruhe.de/matwerk/E434847', 'mwo:hasDiscipline', 'http://demo.fiz-karlsruhe.de/matwerk/E67431')", "('http://demo.fiz-karlsruhe.de/matwerk/E415506', 'mwo:hasDiscipline', 'http://demo.fiz-karlsruhe.de/matwerk/E67431')", "('http://demo.fiz-karlsruhe.de/matwerk/E457491', 'mwo:hasDiscipline', 'http://demo.fiz-karlsruhe.de/matwerk/E67431')", "('http://demo.fiz-karlsruhe.de/matwerk/E432986', 'mwo:hasDiscipline', 'http://demo.fiz-karlsruhe.de/matwerk/E67431')", "('http://demo.fiz-karlsruhe.de/matwerk/E454629', 'mwo:hasDiscipline', 'http://demo.fiz-karlsruhe.de/matwerk/E67431')", "('http://demo.fiz-karlsruhe.de/matwerk/E658232', 'mwo:hasDiscipline', 'http://demo.fiz-karlsruhe.de/matwerk/E67431')", "('http://demo.fiz-karlsruhe.de/matwerk/E448932', 'mwo:hasDiscipline', 'http://demo.fiz-karlsruhe.de/matwerk/E67431')", "('http://demo.fiz-karlsruhe.de/matwerk/E436712', 'mwo:hasDiscipline', 'http://demo.fiz-karlsruhe.de/matwerk/E67431')", "('http://demo.fiz-karlsruhe.de/matwerk/E449879', 'mwo:hasDiscipline', 'http://demo.fiz-karlsruhe.de/matwerk/E67431')", "('http://demo.fiz-karlsruhe.de/matwerk/E441392', 'mwo:hasDiscipline', 'http://demo.fiz-karlsruhe.de/matwerk/E67431')", "('http://demo.fiz-karlsruhe.de/matwerk/E425582', 'mwo:hasDiscipline', 'http://demo.fiz-karlsruhe.de/matwerk/E67431')", "('http://demo.fiz-karlsruhe.de/matwerk/E455582', 'mwo:hasDiscipline', 'http://demo.fiz-karlsruhe.de/matwerk/E67431')", "('http://demo.fiz-karlsruhe.de/matwerk/E418242', 'mwo:hasDiscipline', 'http://demo.fiz-karlsruhe.de/matwerk/E67431')", "('http://demo.fiz-karlsruhe.de/matwerk/E413687', 'mwo:hasDiscipline', 'http://demo.fiz-karlsruhe.de/matwerk/E67431')", "('http://demo.fiz-karlsruhe.de/matwerk/E437646', 'mwo:hasDiscipline', 'http://demo.fiz-karlsruhe.de/matwerk/E67431')", "('http://demo.fiz-karlsruhe.de/matwerk/E442331', 'mwo:hasDiscipline', 'http://demo.fiz-karlsruhe.de/matwerk/E67431')", "('http://demo.fiz-karlsruhe.de/matwerk/E435779', 'mwo:hasDiscipline', 'http://demo.fiz-karlsruhe.de/matwerk/E67431')", "('http://demo.fiz-karlsruhe.de/matwerk/E447986', 'mwo:hasDiscipline', 'http://demo.fiz-karlsruhe.de/matwerk/E67431')", "('http://demo.fiz-karlsruhe.de/matwerk/E450827', 'mwo:hasDiscipline', 'http://demo.fiz-karlsruhe.de/matwerk/E67431')", "('http://demo.fiz-karlsruhe.de/matwerk/E458447', 'mwo:hasDiscipline', 'http://demo.fiz-karlsruhe.de/matwerk/E67431')", "('http://demo.fiz-karlsruhe.de/matwerk/E429276', 'mwo:hasDiscipline', 'http://demo.fiz-karlsruhe.de/matwerk/E67431')", "('http://demo.fiz-karlsruhe.de/matwerk/E445154', 'mwo:hasDiscipline', 'http://demo.fiz-karlsruhe.de/matwerk/E67431')", "('http://demo.fiz-karlsruhe.de/matwerk/E444212', 'mwo:hasDiscipline', 'http://demo.fiz-karlsruhe.de/matwerk/E67431')", "('http://demo.fiz-karlsruhe.de/matwerk/E417329', 'mwo:hasDiscipline', 'http://demo.fiz-karlsruhe.de/matwerk/E67431')", "('http://demo.fiz-karlsruhe.de/matwerk/E411872', 'mwo:hasDiscipline', 'http://demo.fiz-karlsruhe.de/matwerk/E67431')", "('http://demo.fiz-karlsruhe.de/matwerk/E432057', 'mwo:hasDiscipline', 'http://demo.fiz-karlsruhe.de/matwerk/E67431')", "('http://demo.fiz-karlsruhe.de/matwerk/E428351', 'mwo:hasDiscipline', 'http://demo.fiz-karlsruhe.de/matwerk/E67431')", "('http://demo.fiz-karlsruhe.de/matwerk/E427427', 'mwo:hasDiscipline', 'http://demo.fiz-karlsruhe.de/matwerk/E67431')", "('http://demo.fiz-karlsruhe.de/matwerk/E451776', 'mwo:hasDiscipline', 'http://demo.fiz-karlsruhe.de/matwerk/E67431')", "('http://demo.fiz-karlsruhe.de/matwerk/E447041', 'mwo:hasDiscipline', 'http://demo.fiz-karlsruhe.de/matwerk/E67431')", "('http://demo.fiz-karlsruhe.de/matwerk/E460362', 'mwo:hasDiscipline', 'http://demo.fiz-karlsruhe.de/matwerk/E67431')", "('http://demo.fiz-karlsruhe.de/matwerk/E439517', 'mwo:hasDiscipline', 'http://demo.fiz-karlsruhe.de/matwerk/E67431')", "('http://demo.fiz-karlsruhe.de/matwerk/E446097', 'mwo:hasDiscipline', 'http://demo.fiz-karlsruhe.de/matwerk/E67431')", "('http://demo.fiz-karlsruhe.de/matwerk/E433916', 'mwo:hasDiscipline', 'http://demo.fiz-karlsruhe.de/matwerk/E67431')", "('http://demo.fiz-karlsruhe.de/matwerk/E452726', 'mwo:hasDiscipline', 'http://demo.fiz-karlsruhe.de/matwerk/E67431')", "('http://demo.fiz-karlsruhe.de/matwerk/E426504', 'mwo:hasDiscipline', 'http://demo.fiz-karlsruhe.de/matwerk/E67431')", "('http://demo.fiz-karlsruhe.de/matwerk/E438581', 'mwo:hasDiscipline', 'http://demo.fiz-karlsruhe.de/matwerk/E67431')", "('http://demo.fiz-karlsruhe.de/matwerk/E412779', 'mwo:hasDiscipline', 'http://demo.fiz-karlsruhe.de/matwerk/E67431')", "('http://demo.fiz-karlsruhe.de/matwerk/E456536', 'mwo:hasDiscipline', 'http://demo.fiz-karlsruhe.de/matwerk/E67431')", "('http://demo.fiz-karlsruhe.de/matwerk/E440454', 'mwo:hasDiscipline', 'http://demo.fiz-karlsruhe.de/matwerk/E67431')", "('http://demo.fiz-karlsruhe.de/matwerk/E443271', 'mwo:hasDiscipline', 'http://demo.fiz-karlsruhe.de/matwerk/E67431')", "('http://demo.fiz-karlsruhe.de/matwerk/E459404', 'mwo:hasDiscipline', 'http://demo.fiz-karlsruhe.de/matwerk/E67431')", "('http://demo.fiz-karlsruhe.de/matwerk/E453677', 'mwo:hasDiscipline', 'http://demo.fiz-karlsruhe.de/matwerk/E67431')", "('http://demo.fiz-karlsruhe.de/matwerk/E431129', 'mwo:hasDiscipline', 'http://demo.fiz-karlsruhe.de/matwerk/E67431')", ('http://demo.fiz-karlsruhe.de/matwerk/E67431', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/AcademicDiscipline'), "('http://demo.fiz-karlsruhe.de/matwerk/E9257', 'mwo:hasExpertiseIn', 'http://demo.fiz-karlsruhe.de/matwerk/E42042')", "('http://demo.fiz-karlsruhe.de/matwerk/E21101', 'mwo:hasExpertiseIn', 'http://demo.fiz-karlsruhe.de/matwerk/E42042')", "('http://demo.fiz-karlsruhe.de/matwerk/E10046', 'mwo:hasExpertiseIn', 'http://demo.fiz-karlsruhe.de/matwerk/E42042')", "('http://demo.fiz-karlsruhe.de/matwerk/E9386', 'mwo:hasExpertiseIn', 'http://demo.fiz-karlsruhe.de/matwerk/E42042')", "('http://demo.fiz-karlsruhe.de/matwerk/E11154', 'mwo:hasExpertiseIn', 'http://demo.fiz-karlsruhe.de/matwerk/E42042')", "('http://demo.fiz-karlsruhe.de/matwerk/E1247418', 'mwo:hasDiscipline', 'http://demo.fiz-karlsruhe.de/matwerk/E42042')", "('http://demo.fiz-karlsruhe.de/matwerk/E1246648', 'mwo:hasDiscipline', 'http://demo.fiz-karlsruhe.de/matwerk/E42042')", "('http://demo.fiz-karlsruhe.de/matwerk/E1247323', 'mwo:hasDiscipline', 'http://demo.fiz-karlsruhe.de/matwerk/E42042')", "('http://demo.fiz-karlsruhe.de/matwerk/E1246593', 'mwo:hasDiscipline', 'http://demo.fiz-karlsruhe.de/matwerk/E42042')", ('http://demo.fiz-karlsruhe.de/matwerk/E42042', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/AcademicDiscipline'), ('http://demo.fiz-karlsruhe.de/matwerk/E1035642', 'mwo:description', '"Online materials database (known as PAULING FILE project) with nearly 2 million entries: physical properties, crystal structures, phase diagrams, available via API, ready for modern data-intensive applications. The source of these entries are about 300,000 peer-reviewed publications in materials science, processed during the last 16 years by an international team of PhD editors. The results are presented online with a quick search interface. The basic access is provided for free."'), ('http://demo.fiz-karlsruhe.de/matwerk/E1035642', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal'), "('http://demo.fiz-karlsruhe.de/matwerk/E12629', 'mwo:hasExpertiseIn', 'http://demo.fiz-karlsruhe.de/matwerk/E49517')", "('http://demo.fiz-karlsruhe.de/matwerk/E12326', 'mwo:hasExpertiseIn', 'http://demo.fiz-karlsruhe.de/matwerk/E49517')", "('http://demo.fiz-karlsruhe.de/matwerk/E414596', 'mwo:hasDiscipline', 'http://demo.fiz-karlsruhe.de/matwerk/E49517')", ('http://demo.fiz-karlsruhe.de/matwerk/E49517', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/AcademicDiscipline'), "('http://demo.fiz-karlsruhe.de/matwerk/E553827', 'mwo:hasDiscipline', 'http://demo.fiz-karlsruhe.de/matwerk/E71126')", ('http://demo.fiz-karlsruhe.de/matwerk/E71126', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/AcademicDiscipline')]</t>
         </is>
       </c>
     </row>
@@ -550,27 +550,27 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['http://nfdi.fiz-karlsruhe.de/ontology/relatedProject', 'http://purls.helmholtz-metadaten.de/mwo/relatedParticipantProject', 'http://nfdi.fiz-karlsruhe.de/ontology/fundingProject', 'http://purls.helmholtz-metadaten.de/mwo/hasRelatedResource', 'http://purls.helmholtz-metadaten.de/mwo/hasExpertiseIn', 'http://purls.helmholtz-metadaten.de/mwo/hasDocumentation', 'http://purls.helmholtz-metadaten.de/mwo/hasWorkPackage', 'http://purl.org/dc/terms/bibliographicCitation', 'http://nfdi.fiz-karlsruhe.de/ontology/parentOrganisation']</t>
+          <t>['https://schema.org/dateCreated', 'http://nfdi.fiz-karlsruhe.de/ontology/objectType', 'http://nfdi.fiz-karlsruhe.de/ontology/programmingLanguage', 'http://purls.helmholtz-metadaten.de/mwo/hasLecturer', 'http://purls.helmholtz-metadaten.de/mwo/description', 'https://w3id.org/scholarlydata/ontology/conference-ontology.owl#duration', 'https://nfdi.fiz-karlsruhe.de/ontology/example', 'http://www.w3.org/2002/07/owl#sameAs', 'http://purls.helmholtz-metadaten.de/mwo/usesMethod']</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>['nfdicore:relatedProject', 'mwo:relatedParticipantProject', 'nfdicore:fundingProject', 'mwo:hasRelatedResource', 'mwo:hasExpertiseIn', 'mwo:hasDocumentation', 'mwo:hasWorkPackage', 'dcterms:bibliographicCitation', 'nfdicore:parentOrganisation', 'mwo:description', 'dcterms:description']</t>
+          <t>['nfdicore:relatedProject', 'mwo:relatedParticipantProject', 'nfdicore:fundingProject', 'mwo:hasRelatedResource', 'mwo:hasExpertiseIn', 'mwo:hasDocumentation', 'mwo:hasWorkPackage', 'dcterms:bibliographicCitation', 'nfdicore:parentOrganisation', 'mwo:description', 'dcterms:description', 'rdf:type']</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['R. S. Elliott and E. B. Tadmor, "Knowledgebase of Interatomic Models (KIM) Application Programming Interface (API)", OpenKIM (2011). doi:10.25950/ff8f563a', 'Essential Source of Schemas and Examples (ESSE)', 'Elemental Multiperspective Material Ontology (EMMO)', 'ruby', 'Peter']</t>
+          <t>['ruby', 'R. S. Elliott and E. B. Tadmor, "Knowledgebase of Interatomic Models (KIM) Application Programming Interface (API)", OpenKIM (2011). doi:10.25950/ff8f563a', 'Julia', 'Elemental Multiperspective Material Ontology (EMMO)', 'Essential Source of Schemas and Examples (ESSE)']</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['http://demo.fiz-karlsruhe.de/matwerk/E1152404', 'http://demo.fiz-karlsruhe.de/matwerk/E837572', 'http://demo.fiz-karlsruhe.de/matwerk/E1126751', 'http://demo.fiz-karlsruhe.de/matwerk/E962192', 'http://demo.fiz-karlsruhe.de/matwerk/E17291']</t>
+          <t>['http://demo.fiz-karlsruhe.de/matwerk/E837572', 'http://demo.fiz-karlsruhe.de/matwerk/E962192', 'http://demo.fiz-karlsruhe.de/matwerk/E1126751', 'http://demo.fiz-karlsruhe.de/matwerk/E1152404', 'http://demo.fiz-karlsruhe.de/matwerk/E842754']</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>[('http://demo.fiz-karlsruhe.de/matwerk/E1152404', 'mwo:description', '"JSON schemas and examples representing structural data, characteristic properties, modeling workflows and related data about materials standardizing the diverse landscape of information"'), ('http://demo.fiz-karlsruhe.de/matwerk/E1126751', 'nfdicore:relatedProject', 'http://demo.fiz-karlsruhe.de/matwerk/E863642'), ('http://demo.fiz-karlsruhe.de/matwerk/E1126751', 'nfdicore:relatedProject', 'http://demo.fiz-karlsruhe.de/matwerk/E864956'), ('http://demo.fiz-karlsruhe.de/matwerk/E1126751', 'nfdicore:relatedProject', 'http://demo.fiz-karlsruhe.de/matwerk/E866271'), ('http://demo.fiz-karlsruhe.de/matwerk/E1126751', 'nfdicore:relatedProject', 'http://demo.fiz-karlsruhe.de/matwerk/E867587'), ('http://demo.fiz-karlsruhe.de/matwerk/E1126751', 'nfdicore:relatedProject', 'http://demo.fiz-karlsruhe.de/matwerk/E868904'), ('http://demo.fiz-karlsruhe.de/matwerk/E1126751', 'nfdicore:relatedProject', 'http://demo.fiz-karlsruhe.de/matwerk/E870222'), ('http://demo.fiz-karlsruhe.de/matwerk/E1126751', 'nfdicore:relatedProject', 'http://demo.fiz-karlsruhe.de/matwerk/E871541'), ('http://demo.fiz-karlsruhe.de/matwerk/E1126751', 'nfdicore:relatedProject', 'http://demo.fiz-karlsruhe.de/matwerk/E872861'), ('http://demo.fiz-karlsruhe.de/matwerk/E1126751', 'nfdicore:relatedProject', 'http://demo.fiz-karlsruhe.de/matwerk/E874182'), ('http://demo.fiz-karlsruhe.de/matwerk/E1126751', 'nfdicore:relatedProject', 'http://demo.fiz-karlsruhe.de/matwerk/E875504'), ('http://demo.fiz-karlsruhe.de/matwerk/E1126751', 'mwo:description', '"The Elemental Multiperspective Material Ontology (EMMO) is the result of a multidisciplinary effort within the EMMC, aimed at the development of a standard representational ontology framework based on current materials modelling and characterization knowledge."')]</t>
+          <t>[('http://demo.fiz-karlsruhe.de/matwerk/E837572', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/ProgrammingLanguage'), ('http://demo.fiz-karlsruhe.de/matwerk/E962192', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Publication'), ('http://demo.fiz-karlsruhe.de/matwerk/E1126751', 'nfdicore:relatedProject', 'http://demo.fiz-karlsruhe.de/matwerk/E871541'), ('http://demo.fiz-karlsruhe.de/matwerk/E1126751', 'nfdicore:relatedProject', 'http://demo.fiz-karlsruhe.de/matwerk/E870222'), ('http://demo.fiz-karlsruhe.de/matwerk/E1126751', 'nfdicore:relatedProject', 'http://demo.fiz-karlsruhe.de/matwerk/E875504'), ('http://demo.fiz-karlsruhe.de/matwerk/E1126751', 'nfdicore:relatedProject', 'http://demo.fiz-karlsruhe.de/matwerk/E868904'), ('http://demo.fiz-karlsruhe.de/matwerk/E1126751', 'nfdicore:relatedProject', 'http://demo.fiz-karlsruhe.de/matwerk/E863642'), ('http://demo.fiz-karlsruhe.de/matwerk/E1126751', 'nfdicore:relatedProject', 'http://demo.fiz-karlsruhe.de/matwerk/E864956'), ('http://demo.fiz-karlsruhe.de/matwerk/E1126751', 'nfdicore:relatedProject', 'http://demo.fiz-karlsruhe.de/matwerk/E872861'), ('http://demo.fiz-karlsruhe.de/matwerk/E1126751', 'nfdicore:relatedProject', 'http://demo.fiz-karlsruhe.de/matwerk/E874182'), ('http://demo.fiz-karlsruhe.de/matwerk/E1126751', 'nfdicore:relatedProject', 'http://demo.fiz-karlsruhe.de/matwerk/E866271'), ('http://demo.fiz-karlsruhe.de/matwerk/E1126751', 'nfdicore:relatedProject', 'http://demo.fiz-karlsruhe.de/matwerk/E867587'), ('http://demo.fiz-karlsruhe.de/matwerk/E1126751', 'mwo:description', '"The Elemental Multiperspective Material Ontology (EMMO) is the result of a multidisciplinary effort within the EMMC, aimed at the development of a standard representational ontology framework based on current materials modelling and characterization knowledge."'), ('http://demo.fiz-karlsruhe.de/matwerk/E1126751', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/SemanticResource'), ('http://demo.fiz-karlsruhe.de/matwerk/E1152404', 'mwo:description', '"JSON schemas and examples representing structural data, characteristic properties, modeling workflows and related data about materials standardizing the diverse landscape of information"'), ('http://demo.fiz-karlsruhe.de/matwerk/E1152404', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Specification'), ('http://demo.fiz-karlsruhe.de/matwerk/E842754', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/ProgrammingLanguage')]</t>
         </is>
       </c>
     </row>
@@ -597,27 +597,27 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['http://purls.helmholtz-metadaten.de/mwo/hasContributor', 'http://purls.helmholtz-metadaten.de/mwo/relatedParticipantProject', 'http://purls.helmholtz-metadaten.de/mwo/hasRelatedResource', 'http://nfdi.fiz-karlsruhe.de/ontology/relatedProject', 'http://purl.org/dc/terms/bibliographicCitation', 'http://www.w3.org/2002/07/owl#annotatedSource', 'http://purl.obolibrary.org/obo/IAO_0000119', 'http://purl.obolibrary.org/obo/IAO_0000114', 'http://purls.helmholtz-metadaten.de/mwo/hasAffiliation']</t>
+          <t>['http://www.geneontology.org/formats/oboInOwl#hasBroadSynonym', 'http://nfdi.fiz-karlsruhe.de/ontology/objectType', 'http://purls.helmholtz-metadaten.de/mwo/hasLecturer', 'https://schema.org/dateCreated', 'http://www.w3.org/2002/07/owl#sameAs', 'http://emmo.info/emmo#EMMO_967080e5_2f42_4eb2_a3a9_c58143e835f9', 'http://purls.helmholtz-metadaten.de/mwo/hasContactPoint', 'http://purl.org/dc/terms/bibliographicCitation', 'http://purls.helmholtz-metadaten.de/mwo/isOnline']</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>['mwo:hasContributor', 'mwo:relatedParticipantProject', 'mwo:hasRelatedResource', 'nfdicore:relatedProject', 'dcterms:bibliographicCitation', 'owl:annotatedSource', 'ns2:IAO_0000119', 'ns2:IAO_0000114', 'mwo:hasAffiliation', 'mwo:description', 'dcterms:description']</t>
+          <t>['mwo:hasContributor', 'mwo:relatedParticipantProject', 'mwo:hasRelatedResource', 'nfdicore:relatedProject', 'dcterms:bibliographicCitation', 'owl:annotatedSource', 'ns2:IAO_0000119', 'ns2:IAO_0000114', 'mwo:hasAffiliation', 'mwo:description', 'dcterms:description', 'rdf:type']</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['Framework for curation and distribution of reference datasets', 'datasets', 'dataset', 'data analysis', 'data portal', 'Image data']</t>
+          <t>['Image data', 'Framework for curation and distribution of reference datasets', 'data portal', 'datasets', 'data analysis', 'dataset']</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['http://demo.fiz-karlsruhe.de/matwerk/E1248382', 'http://demo.fiz-karlsruhe.de/matwerk/E68897', 'http://demo.fiz-karlsruhe.de/matwerk/E1172216', 'http://demo.fiz-karlsruhe.de/matwerk/E1196832', 'http://nfdi.fiz-karlsruhe.de/ontology/Dataset', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal']</t>
+          <t>['http://demo.fiz-karlsruhe.de/matwerk/E1196832', 'http://demo.fiz-karlsruhe.de/matwerk/E1172216', 'http://demo.fiz-karlsruhe.de/matwerk/E1248382', 'http://demo.fiz-karlsruhe.de/matwerk/E68897', 'http://nfdi.fiz-karlsruhe.de/ontology/Dataset', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal']</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>[('http://demo.fiz-karlsruhe.de/matwerk/E1248382', 'mwo:relatedParticipantProject', 'http://demo.fiz-karlsruhe.de/matwerk/E1247962'), ('http://demo.fiz-karlsruhe.de/matwerk/E1248382', 'mwo:relatedParticipantProject', 'http://demo.fiz-karlsruhe.de/matwerk/E1247968'), ('http://demo.fiz-karlsruhe.de/matwerk/E1248382', 'mwo:relatedParticipantProject', 'http://demo.fiz-karlsruhe.de/matwerk/E1247975'), ('http://demo.fiz-karlsruhe.de/matwerk/E1248613', 'mwo:relatedParticipantProject', 'http://demo.fiz-karlsruhe.de/matwerk/E1247962'), ('http://demo.fiz-karlsruhe.de/matwerk/E1248808', 'mwo:relatedParticipantProject', 'http://demo.fiz-karlsruhe.de/matwerk/E1247962'), ('http://demo.fiz-karlsruhe.de/matwerk/E1248937', 'mwo:relatedParticipantProject', 'http://demo.fiz-karlsruhe.de/matwerk/E1247962'), ('http://demo.fiz-karlsruhe.de/matwerk/E1172216', 'mwo:hasContributor', 'http://demo.fiz-karlsruhe.de/matwerk/E16226'), ('http://demo.fiz-karlsruhe.de/matwerk/E1172216', 'mwo:hasContributor', 'http://demo.fiz-karlsruhe.de/matwerk/E16577'), ('http://demo.fiz-karlsruhe.de/matwerk/E1172216', 'mwo:hasContributor', 'http://demo.fiz-karlsruhe.de/matwerk/E32376'), ('http://demo.fiz-karlsruhe.de/matwerk/E1172216', 'mwo:hasContributor', 'http://demo.fiz-karlsruhe.de/matwerk/E32627'), ('http://demo.fiz-karlsruhe.de/matwerk/E1172216', 'mwo:description', '"This dataset was used in the work "Material modeling for parametric, anisotropic finite hyperelasticity based on machine learning with application in optimization of metamaterials" by M. Fernández, F. Fritzen and O. Weeger"'), ('http://demo.fiz-karlsruhe.de/matwerk/E1172216', 'mwo:description', '"This dataset was used in the work "On-the-Fly Adaptivity for Nonlinear Twoscale Simulations Using Artificial Neural Networks and Reduced Order Modeling" by F. Fritzen, M. Fernández,  and F. Larsson"')]</t>
+          <t>[('http://demo.fiz-karlsruhe.de/matwerk/E1196832', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/ObjectType'), ('http://demo.fiz-karlsruhe.de/matwerk/E1172216', 'mwo:hasContributor', 'http://demo.fiz-karlsruhe.de/matwerk/E32627'), ('http://demo.fiz-karlsruhe.de/matwerk/E1172216', 'mwo:hasContributor', 'http://demo.fiz-karlsruhe.de/matwerk/E16226'), ('http://demo.fiz-karlsruhe.de/matwerk/E1172216', 'mwo:hasContributor', 'http://demo.fiz-karlsruhe.de/matwerk/E32376'), ('http://demo.fiz-karlsruhe.de/matwerk/E1172216', 'mwo:hasContributor', 'http://demo.fiz-karlsruhe.de/matwerk/E16577'), ('http://demo.fiz-karlsruhe.de/matwerk/E1172216', 'mwo:description', '"This dataset was used in the work "On-the-Fly Adaptivity for Nonlinear Twoscale Simulations Using Artificial Neural Networks and Reduced Order Modeling" by F. Fritzen, M. Fernández,  and F. Larsson"'), ('http://demo.fiz-karlsruhe.de/matwerk/E1172216', 'mwo:description', '"This dataset was used in the work "Material modeling for parametric, anisotropic finite hyperelasticity based on machine learning with application in optimization of metamaterials" by M. Fernández, F. Fritzen and O. Weeger"'), ('http://demo.fiz-karlsruhe.de/matwerk/E1172216', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Dataset'), ('http://demo.fiz-karlsruhe.de/matwerk/E1248382', 'mwo:relatedParticipantProject', 'http://demo.fiz-karlsruhe.de/matwerk/E1247968'), ('http://demo.fiz-karlsruhe.de/matwerk/E1248937', 'mwo:relatedParticipantProject', 'http://demo.fiz-karlsruhe.de/matwerk/E1247968'), ('http://demo.fiz-karlsruhe.de/matwerk/E1248382', 'mwo:relatedParticipantProject', 'http://demo.fiz-karlsruhe.de/matwerk/E1247975'), ('http://demo.fiz-karlsruhe.de/matwerk/E1248613', 'mwo:relatedParticipantProject', 'http://demo.fiz-karlsruhe.de/matwerk/E1247962'), ('http://demo.fiz-karlsruhe.de/matwerk/E1248727', 'mwo:relatedParticipantProject', 'http://demo.fiz-karlsruhe.de/matwerk/E1247975'), ('http://demo.fiz-karlsruhe.de/matwerk/E1248937', 'mwo:relatedParticipantProject', 'http://demo.fiz-karlsruhe.de/matwerk/E1247962'), ('http://demo.fiz-karlsruhe.de/matwerk/E1248382', 'mwo:relatedParticipantProject', 'http://demo.fiz-karlsruhe.de/matwerk/E1247962'), ('http://demo.fiz-karlsruhe.de/matwerk/E1248808', 'mwo:relatedParticipantProject', 'http://demo.fiz-karlsruhe.de/matwerk/E1247962'), ('http://demo.fiz-karlsruhe.de/matwerk/E68897', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/AcademicDiscipline'), "('http://demo.fiz-karlsruhe.de/matwerk/E1172216', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Dataset')", ('http://nfdi.fiz-karlsruhe.de/ontology/Dataset', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), "('http://demo.fiz-karlsruhe.de/matwerk/E1247847', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Dataset')", "('http://demo.fiz-karlsruhe.de/matwerk/E1170686', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Dataset')", "('http://demo.fiz-karlsruhe.de/matwerk/E1247370', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Dataset')", "('http://demo.fiz-karlsruhe.de/matwerk/E1247418', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Dataset')", "('http://demo.fiz-karlsruhe.de/matwerk/E1176812', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Dataset')", "('http://demo.fiz-karlsruhe.de/matwerk/E1175279', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Dataset')", "('http://demo.fiz-karlsruhe.de/matwerk/E1173747', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Dataset')", "('http://demo.fiz-karlsruhe.de/matwerk/E1079247', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal')", "('http://demo.fiz-karlsruhe.de/matwerk/E1077779', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal')", "('http://demo.fiz-karlsruhe.de/matwerk/E1054427', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal')", "('http://demo.fiz-karlsruhe.de/matwerk/E1021307', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal')", "('http://demo.fiz-karlsruhe.de/matwerk/E1066071', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal')", "('http://demo.fiz-karlsruhe.de/matwerk/E1080716', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal')", "('http://demo.fiz-karlsruhe.de/matwerk/E1089551', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal')", "('http://demo.fiz-karlsruhe.de/matwerk/E1052976', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal')", "('http://demo.fiz-karlsruhe.de/matwerk/E1060241', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal')", "('http://demo.fiz-karlsruhe.de/matwerk/E1067531', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal')", "('http://demo.fiz-karlsruhe.de/matwerk/E1011332', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal')", "('http://demo.fiz-karlsruhe.de/matwerk/E1027029', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal')", "('http://demo.fiz-karlsruhe.de/matwerk/E1015601', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal')", "('http://demo.fiz-karlsruhe.de/matwerk/E1055879', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal')", "('http://demo.fiz-karlsruhe.de/matwerk/E1073381', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal')", ('http://nfdi.fiz-karlsruhe.de/ontology/DataPortal', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), "('http://demo.fiz-karlsruhe.de/matwerk/E643412', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal')", "('http://demo.fiz-karlsruhe.de/matwerk/E1009911', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal')", "('http://demo.fiz-karlsruhe.de/matwerk/E1008491', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal')", "('http://demo.fiz-karlsruhe.de/matwerk/E1022736', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal')", "('http://demo.fiz-karlsruhe.de/matwerk/E1025597', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal')", "('http://demo.fiz-karlsruhe.de/matwerk/E1031331', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal')", "('http://demo.fiz-karlsruhe.de/matwerk/E1057332', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal')", "('http://demo.fiz-karlsruhe.de/matwerk/E1086602', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal')", "('http://demo.fiz-karlsruhe.de/matwerk/E1037081', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal')", "('http://demo.fiz-karlsruhe.de/matwerk/E1044291', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal')", "('http://demo.fiz-karlsruhe.de/matwerk/E1058786', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal')", "('http://demo.fiz-karlsruhe.de/matwerk/E1039962', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal')", "('http://demo.fiz-karlsruhe.de/matwerk/E1070454', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal')", "('http://demo.fiz-karlsruhe.de/matwerk/E1004237', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal')", "('http://demo.fiz-karlsruhe.de/matwerk/E1029896', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal')", "('http://demo.fiz-karlsruhe.de/matwerk/E1035642', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal')", "('http://demo.fiz-karlsruhe.de/matwerk/E1038521', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal')", "('http://demo.fiz-karlsruhe.de/matwerk/E1064612', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal')", "('http://demo.fiz-karlsruhe.de/matwerk/E1047182', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal')", "('http://demo.fiz-karlsruhe.de/matwerk/E1041404', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal')", "('http://demo.fiz-karlsruhe.de/matwerk/E1048629', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal')", "('http://demo.fiz-karlsruhe.de/matwerk/E1024166', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal')", "('http://demo.fiz-karlsruhe.de/matwerk/E1045736', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal')", "('http://demo.fiz-karlsruhe.de/matwerk/E1082186', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal')", "('http://demo.fiz-karlsruhe.de/matwerk/E1018452', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal')", "('http://demo.fiz-karlsruhe.de/matwerk/E1005654', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal')", "('http://demo.fiz-karlsruhe.de/matwerk/E1034204', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal')", "('http://demo.fiz-karlsruhe.de/matwerk/E1068992', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal')", "('http://demo.fiz-karlsruhe.de/matwerk/E1032767', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal')", "('http://demo.fiz-karlsruhe.de/matwerk/E1074846', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal')", "('http://demo.fiz-karlsruhe.de/matwerk/E1076312', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal')", "('http://demo.fiz-karlsruhe.de/matwerk/E1083657', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal')", "('http://demo.fiz-karlsruhe.de/matwerk/E1019879', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal')", "('http://demo.fiz-karlsruhe.de/matwerk/E1071917', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal')", "('http://demo.fiz-karlsruhe.de/matwerk/E1063154', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal')", "('http://demo.fiz-karlsruhe.de/matwerk/E1028462', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal')", "('http://demo.fiz-karlsruhe.de/matwerk/E1017026', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal')", "('http://demo.fiz-karlsruhe.de/matwerk/E1014177', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal')", "('http://demo.fiz-karlsruhe.de/matwerk/E1051526', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal')", "('http://demo.fiz-karlsruhe.de/matwerk/E1042847', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal')", "('http://demo.fiz-karlsruhe.de/matwerk/E1085129', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal')", "('http://demo.fiz-karlsruhe.de/matwerk/E1061697', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal')", "('http://demo.fiz-karlsruhe.de/matwerk/E1007072', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal')", "('http://demo.fiz-karlsruhe.de/matwerk/E1088076', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal')", "('http://demo.fiz-karlsruhe.de/matwerk/E1012754', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal')", "('http://demo.fiz-karlsruhe.de/matwerk/E1050077', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal')"]</t>
         </is>
       </c>
     </row>
@@ -644,27 +644,27 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['http://purls.helmholtz-metadaten.de/mwo/hasWorkPackage', 'http://purls.helmholtz-metadaten.de/mwo/hasExpertiseIn', 'http://nfdi.fiz-karlsruhe.de/ontology/fundingProject', 'http://purls.helmholtz-metadaten.de/mwo/relatedParticipantProject', 'http://nfdi.fiz-karlsruhe.de/ontology/relatedProject', 'http://purls.helmholtz-metadaten.de/mwo/hasDiscipline', 'http://nfdi.fiz-karlsruhe.de/ontology/parentOrganisation', 'http://purls.helmholtz-metadaten.de/mwo/relatedTaskArea', 'http://purls.helmholtz-metadaten.de/mwo/hasDocumentation']</t>
+          <t>['https://nfdi.fiz-karlsruhe.de/ontology/example', 'http://purls.helmholtz-metadaten.de/mwo/description', 'http://nfdi.fiz-karlsruhe.de/ontology/programmingLanguage', 'http://nfdi.fiz-karlsruhe.de/ontology/objectType', 'https://schema.org/dateCreated', 'http://purl.org/dc/terms/isPartOf', 'http://purls.helmholtz-metadaten.de/mwo/usesMethod', 'http://purls.helmholtz-metadaten.de/mwo/belongsTo', 'https://w3id.org/scholarlydata/ontology/conference-ontology.owl#duration']</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>['mwo:hasWorkPackage', 'mwo:hasExpertiseIn', 'nfdicore:fundingProject', 'mwo:relatedParticipantProject', 'nfdicore:relatedProject', 'mwo:hasDiscipline', 'nfdicore:parentOrganisation', 'mwo:relatedTaskArea', 'mwo:hasDocumentation', 'mwo:description', 'dcterms:description']</t>
+          <t>['mwo:hasWorkPackage', 'mwo:hasExpertiseIn', 'nfdicore:fundingProject', 'mwo:relatedParticipantProject', 'nfdicore:relatedProject', 'mwo:hasDiscipline', 'nfdicore:parentOrganisation', 'mwo:relatedTaskArea', 'mwo:hasDocumentation', 'mwo:description', 'dcterms:description', 'rdf:type']</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['Ebrahim Norouzi', 'Ahmad Zainul Ihsan', 'Hosni Idrissi', 'Mirza Mohtashim Alam']</t>
+          <t>['Dr. Amir Laadhar', 'Mirza Mohtashim Alam', 'Ahmad Zainul Ihsan', 'Hosni Idrissi', 'Ebrahim Norouzi']</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['http://demo.fiz-karlsruhe.de/matwerk/E1245566', 'http://demo.fiz-karlsruhe.de/matwerk/E15879', 'http://demo.fiz-karlsruhe.de/matwerk/E10181', 'http://demo.fiz-karlsruhe.de/matwerk/E31382', 'http://www.wikidata.org/entity/Q118232637']</t>
+          <t>['http://demo.fiz-karlsruhe.de/matwerk/E10181', 'http://demo.fiz-karlsruhe.de/matwerk/E15879', 'http://demo.fiz-karlsruhe.de/matwerk/E8876', 'http://demo.fiz-karlsruhe.de/matwerk/E31382', 'http://demo.fiz-karlsruhe.de/matwerk/E1245566']</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>[('http://demo.fiz-karlsruhe.de/matwerk/E1245566', 'mwo:hasExpertiseIn', 'http://demo.fiz-karlsruhe.de/matwerk/E1245567'), ('http://demo.fiz-karlsruhe.de/matwerk/E1245566', 'mwo:hasExpertiseIn', 'http://demo.fiz-karlsruhe.de/matwerk/E1245569'), ('http://demo.fiz-karlsruhe.de/matwerk/E1245566', 'mwo:hasExpertiseIn', 'http://demo.fiz-karlsruhe.de/matwerk/E1245572'), ('http://demo.fiz-karlsruhe.de/matwerk/E1245566', 'mwo:hasExpertiseIn', 'http://demo.fiz-karlsruhe.de/matwerk/E59654'), ('http://demo.fiz-karlsruhe.de/matwerk/E15879', 'mwo:hasExpertiseIn', 'http://demo.fiz-karlsruhe.de/matwerk/E1245258'), ('http://demo.fiz-karlsruhe.de/matwerk/E15879', 'mwo:hasExpertiseIn', 'http://demo.fiz-karlsruhe.de/matwerk/E1246240'), ('http://demo.fiz-karlsruhe.de/matwerk/E16052', 'mwo:hasExpertiseIn', 'http://demo.fiz-karlsruhe.de/matwerk/E1245258'), ('http://demo.fiz-karlsruhe.de/matwerk/E14862', 'mwo:hasExpertiseIn', 'http://demo.fiz-karlsruhe.de/matwerk/E1245258'), ('http://demo.fiz-karlsruhe.de/matwerk/E10181', 'mwo:hasExpertiseIn', 'http://demo.fiz-karlsruhe.de/matwerk/E39504'), ('http://demo.fiz-karlsruhe.de/matwerk/E10046', 'mwo:hasExpertiseIn', 'http://demo.fiz-karlsruhe.de/matwerk/E39504'), ('http://demo.fiz-karlsruhe.de/matwerk/E29921', 'mwo:hasExpertiseIn', 'http://demo.fiz-karlsruhe.de/matwerk/E39504')]</t>
+          <t>[('http://demo.fiz-karlsruhe.de/matwerk/E29921', 'mwo:hasExpertiseIn', 'http://demo.fiz-karlsruhe.de/matwerk/E39504'), ('http://demo.fiz-karlsruhe.de/matwerk/E10181', 'mwo:hasExpertiseIn', 'http://demo.fiz-karlsruhe.de/matwerk/E39504'), ('http://demo.fiz-karlsruhe.de/matwerk/E10046', 'mwo:hasExpertiseIn', 'http://demo.fiz-karlsruhe.de/matwerk/E39504'), ('http://demo.fiz-karlsruhe.de/matwerk/E10181', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Person'), ('http://demo.fiz-karlsruhe.de/matwerk/E16052', 'mwo:hasExpertiseIn', 'http://demo.fiz-karlsruhe.de/matwerk/E1245258'), ('http://demo.fiz-karlsruhe.de/matwerk/E15879', 'mwo:hasExpertiseIn', 'http://demo.fiz-karlsruhe.de/matwerk/E1246240'), ('http://demo.fiz-karlsruhe.de/matwerk/E15879', 'mwo:hasExpertiseIn', 'http://demo.fiz-karlsruhe.de/matwerk/E1245258'), ('http://demo.fiz-karlsruhe.de/matwerk/E14862', 'mwo:hasExpertiseIn', 'http://demo.fiz-karlsruhe.de/matwerk/E1245258'), ('http://demo.fiz-karlsruhe.de/matwerk/E15879', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Person'), ('http://demo.fiz-karlsruhe.de/matwerk/E8876', 'mwo:hasExpertiseIn', 'http://demo.fiz-karlsruhe.de/matwerk/E36779'), ('http://demo.fiz-karlsruhe.de/matwerk/E8876', 'mwo:hasExpertiseIn', 'http://demo.fiz-karlsruhe.de/matwerk/E37316'), ('http://demo.fiz-karlsruhe.de/matwerk/E8876', 'mwo:hasExpertiseIn', 'http://demo.fiz-karlsruhe.de/matwerk/E37047'), ('http://demo.fiz-karlsruhe.de/matwerk/E8876', 'mwo:hasExpertiseIn', 'http://demo.fiz-karlsruhe.de/matwerk/E37586'), ('http://demo.fiz-karlsruhe.de/matwerk/E8876', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Person'), ('http://demo.fiz-karlsruhe.de/matwerk/E31382', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Person'), ('http://demo.fiz-karlsruhe.de/matwerk/E15197', 'mwo:hasExpertiseIn', 'http://demo.fiz-karlsruhe.de/matwerk/E59654'), ('http://demo.fiz-karlsruhe.de/matwerk/E14862', 'mwo:hasExpertiseIn', 'http://demo.fiz-karlsruhe.de/matwerk/E59654'), ('http://demo.fiz-karlsruhe.de/matwerk/E1245566', 'mwo:hasExpertiseIn', 'http://demo.fiz-karlsruhe.de/matwerk/E1245567'), ('http://demo.fiz-karlsruhe.de/matwerk/E1245574', 'mwo:hasExpertiseIn', 'http://demo.fiz-karlsruhe.de/matwerk/E59654'), ('http://demo.fiz-karlsruhe.de/matwerk/E1245566', 'mwo:hasExpertiseIn', 'http://demo.fiz-karlsruhe.de/matwerk/E59654'), ('http://demo.fiz-karlsruhe.de/matwerk/E1245566', 'mwo:hasExpertiseIn', 'http://demo.fiz-karlsruhe.de/matwerk/E1245572'), ('http://demo.fiz-karlsruhe.de/matwerk/E1245566', 'mwo:hasExpertiseIn', 'http://demo.fiz-karlsruhe.de/matwerk/E1245569'), ('http://demo.fiz-karlsruhe.de/matwerk/E16052', 'mwo:hasExpertiseIn', 'http://demo.fiz-karlsruhe.de/matwerk/E59654'), ('http://demo.fiz-karlsruhe.de/matwerk/E1245566', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Person')]</t>
         </is>
       </c>
     </row>
@@ -691,27 +691,27 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['http://purls.helmholtz-metadaten.de/mwo/emailAddress', 'http://purls.helmholtz-metadaten.de/mwo/hasPostalAddress', 'http://purls.helmholtz-metadaten.de/mwo/hasWebsite', 'http://purls.helmholtz-metadaten.de/mwo/hasPostalCode', 'http://nfdi.fiz-karlsruhe.de/ontology/fileExtension', 'http://www.w3.org/2000/01/rdf-schema#comment', 'http://purls.helmholtz-metadaten.de/mwo/hasContactPoint', 'http://www.w3.org/2000/01/rdf-schema#domain', 'http://purls.helmholtz-metadaten.de/mwo/hasRepository']</t>
+          <t>['http://purl.obolibrary.org/obo/IAO_0000119', 'https://schema.org/datePublished', 'http://nfdi.fiz-karlsruhe.de/ontology/parentOrganisation', 'http://nfdi.fiz-karlsruhe.de/ontology/example', 'http://purl.obolibrary.org/obo/IAO_0000118', 'http://purls.helmholtz-metadaten.de/mwo/relatedParticipantProject', 'http://xmlns.com/foaf/0.1/surname', 'http://purl.org/dc/terms/description', 'http://purls.helmholtz-metadaten.de/mwo/usesTechnology']</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>['mwo:emailAddress', 'mwo:hasPostalAddress', 'mwo:hasWebsite', 'mwo:hasPostalCode', 'nfdicore:fileExtension', 'rdfs:comment', 'mwo:hasContactPoint', 'rdfs:domain', 'mwo:hasRepository', 'mwo:description', 'dcterms:description']</t>
+          <t>['mwo:emailAddress', 'mwo:hasPostalAddress', 'mwo:hasWebsite', 'mwo:hasPostalCode', 'nfdicore:fileExtension', 'rdfs:comment', 'mwo:hasContactPoint', 'rdfs:domain', 'mwo:hasRepository', 'mwo:description', 'dcterms:description', 'rdf:type']</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['data portal', 'ParaView', 'paraview', 'dataset']</t>
+          <t>['paraview', 'data portal', 'Standardised documentation of Simulations (MODA)', 'ParaView', 'dataset']</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['http://demo.fiz-karlsruhe.de/matwerk/E419156', 'http://demo.fiz-karlsruhe.de/matwerk/E1231097', 'http://www.wikidata.org/entity/Q474635', 'http://nfdi.fiz-karlsruhe.de/ontology/Dataset', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal']</t>
+          <t>['http://demo.fiz-karlsruhe.de/matwerk/E1231097', 'http://demo.fiz-karlsruhe.de/matwerk/E1164576', 'http://nfdi.fiz-karlsruhe.de/ontology/Dataset', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal', 'http://demo.fiz-karlsruhe.de/matwerk/E419156']</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>[('http://demo.fiz-karlsruhe.de/matwerk/E419156', 'mwo:hasWebsite', 'http://demo.fiz-karlsruhe.de/matwerk/E93236'), ('http://demo.fiz-karlsruhe.de/matwerk/E419156', 'mwo:hasContactPoint', 'http://demo.fiz-karlsruhe.de/matwerk/E689552'), ('http://demo.fiz-karlsruhe.de/matwerk/E420071', 'mwo:hasContactPoint', 'http://demo.fiz-karlsruhe.de/matwerk/E689552'), ('http://demo.fiz-karlsruhe.de/matwerk/E419156', 'mwo:hasRepository', 'http://demo.fiz-karlsruhe.de/matwerk/E163166'), ('http://demo.fiz-karlsruhe.de/matwerk/E419156', 'dcterms:description', '"ParaView is an open-source, multi-platform data analysis and visualization application based on Visualization Toolkit (VTK)."'), ('http://nfdi.fiz-karlsruhe.de/ontology/Dataset', 'rdfs:comment', '"A dataset is associated with a structured information about a resource."'), "('http://purls.helmholtz-metadaten.de/mwo/aboutMaterial', 'rdfs:domain', 'http://nfdi.fiz-karlsruhe.de/ontology/Dataset')", "('http://purls.helmholtz-metadaten.de/mwo/hasCreator', 'rdfs:domain', 'http://nfdi.fiz-karlsruhe.de/ontology/Dataset')", ('http://nfdi.fiz-karlsruhe.de/ontology/DataPortal', 'rdfs:comment', '"An online platform that provides access to data collections and datasets."')]</t>
+          <t>[('http://demo.fiz-karlsruhe.de/matwerk/E1231097', 'rdf:type', 'http://www.ebi.ac.uk/swo/SWO_0000001'), ('http://demo.fiz-karlsruhe.de/matwerk/E1164576', 'mwo:description', '"The MODA comprises a text template and a graphical workflow template which should be used to document materials modelling workflows for EU projects, but they may also find use in organisations\' documentations or in supplementary documents of scientific publications."'), ('http://demo.fiz-karlsruhe.de/matwerk/E1164576', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Specification'), ('http://nfdi.fiz-karlsruhe.de/ontology/Dataset', 'rdfs:comment', '"A dataset is associated with a structured information about a resource."'), "('http://purls.helmholtz-metadaten.de/mwo/aboutMaterial', 'rdfs:domain', 'http://nfdi.fiz-karlsruhe.de/ontology/Dataset')", "('http://purls.helmholtz-metadaten.de/mwo/hasCreator', 'rdfs:domain', 'http://nfdi.fiz-karlsruhe.de/ontology/Dataset')", "('http://demo.fiz-karlsruhe.de/matwerk/E1172216', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Dataset')", ('http://nfdi.fiz-karlsruhe.de/ontology/Dataset', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), "('http://demo.fiz-karlsruhe.de/matwerk/E1247847', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Dataset')", "('http://demo.fiz-karlsruhe.de/matwerk/E1170686', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Dataset')", "('http://demo.fiz-karlsruhe.de/matwerk/E1247370', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Dataset')", "('http://demo.fiz-karlsruhe.de/matwerk/E1247418', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Dataset')", "('http://demo.fiz-karlsruhe.de/matwerk/E1176812', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Dataset')", "('http://demo.fiz-karlsruhe.de/matwerk/E1175279', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Dataset')", "('http://demo.fiz-karlsruhe.de/matwerk/E1173747', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Dataset')", ('http://nfdi.fiz-karlsruhe.de/ontology/DataPortal', 'rdfs:comment', '"An online platform that provides access to data collections and datasets."'), "('http://demo.fiz-karlsruhe.de/matwerk/E1079247', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal')", "('http://demo.fiz-karlsruhe.de/matwerk/E1077779', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal')", "('http://demo.fiz-karlsruhe.de/matwerk/E1054427', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal')", "('http://demo.fiz-karlsruhe.de/matwerk/E1021307', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal')", "('http://demo.fiz-karlsruhe.de/matwerk/E1066071', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal')", "('http://demo.fiz-karlsruhe.de/matwerk/E1080716', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal')", "('http://demo.fiz-karlsruhe.de/matwerk/E1089551', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal')", "('http://demo.fiz-karlsruhe.de/matwerk/E1052976', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal')", "('http://demo.fiz-karlsruhe.de/matwerk/E1060241', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal')", "('http://demo.fiz-karlsruhe.de/matwerk/E1067531', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal')", "('http://demo.fiz-karlsruhe.de/matwerk/E1011332', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal')", "('http://demo.fiz-karlsruhe.de/matwerk/E1027029', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal')", "('http://demo.fiz-karlsruhe.de/matwerk/E1015601', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal')", "('http://demo.fiz-karlsruhe.de/matwerk/E1055879', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal')", "('http://demo.fiz-karlsruhe.de/matwerk/E1073381', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal')", ('http://nfdi.fiz-karlsruhe.de/ontology/DataPortal', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), "('http://demo.fiz-karlsruhe.de/matwerk/E643412', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal')", "('http://demo.fiz-karlsruhe.de/matwerk/E1009911', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal')", "('http://demo.fiz-karlsruhe.de/matwerk/E1008491', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal')", "('http://demo.fiz-karlsruhe.de/matwerk/E1022736', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal')", "('http://demo.fiz-karlsruhe.de/matwerk/E1025597', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal')", "('http://demo.fiz-karlsruhe.de/matwerk/E1031331', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal')", "('http://demo.fiz-karlsruhe.de/matwerk/E1057332', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal')", "('http://demo.fiz-karlsruhe.de/matwerk/E1086602', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal')", "('http://demo.fiz-karlsruhe.de/matwerk/E1037081', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal')", "('http://demo.fiz-karlsruhe.de/matwerk/E1044291', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal')", "('http://demo.fiz-karlsruhe.de/matwerk/E1058786', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal')", "('http://demo.fiz-karlsruhe.de/matwerk/E1039962', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal')", "('http://demo.fiz-karlsruhe.de/matwerk/E1070454', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal')", "('http://demo.fiz-karlsruhe.de/matwerk/E1004237', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal')", "('http://demo.fiz-karlsruhe.de/matwerk/E1029896', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal')", "('http://demo.fiz-karlsruhe.de/matwerk/E1035642', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal')", "('http://demo.fiz-karlsruhe.de/matwerk/E1038521', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal')", "('http://demo.fiz-karlsruhe.de/matwerk/E1064612', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal')", "('http://demo.fiz-karlsruhe.de/matwerk/E1047182', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal')", "('http://demo.fiz-karlsruhe.de/matwerk/E1041404', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal')", "('http://demo.fiz-karlsruhe.de/matwerk/E1048629', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal')", "('http://demo.fiz-karlsruhe.de/matwerk/E1024166', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal')", "('http://demo.fiz-karlsruhe.de/matwerk/E1045736', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal')", "('http://demo.fiz-karlsruhe.de/matwerk/E1082186', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal')", "('http://demo.fiz-karlsruhe.de/matwerk/E1018452', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal')", "('http://demo.fiz-karlsruhe.de/matwerk/E1005654', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal')", "('http://demo.fiz-karlsruhe.de/matwerk/E1034204', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal')", "('http://demo.fiz-karlsruhe.de/matwerk/E1068992', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal')", "('http://demo.fiz-karlsruhe.de/matwerk/E1032767', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal')", "('http://demo.fiz-karlsruhe.de/matwerk/E1074846', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal')", "('http://demo.fiz-karlsruhe.de/matwerk/E1076312', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal')", "('http://demo.fiz-karlsruhe.de/matwerk/E1083657', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal')", "('http://demo.fiz-karlsruhe.de/matwerk/E1019879', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal')", "('http://demo.fiz-karlsruhe.de/matwerk/E1071917', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal')", "('http://demo.fiz-karlsruhe.de/matwerk/E1063154', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal')", "('http://demo.fiz-karlsruhe.de/matwerk/E1028462', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal')", "('http://demo.fiz-karlsruhe.de/matwerk/E1017026', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal')", "('http://demo.fiz-karlsruhe.de/matwerk/E1014177', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal')", "('http://demo.fiz-karlsruhe.de/matwerk/E1051526', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal')", "('http://demo.fiz-karlsruhe.de/matwerk/E1042847', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal')", "('http://demo.fiz-karlsruhe.de/matwerk/E1085129', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal')", "('http://demo.fiz-karlsruhe.de/matwerk/E1061697', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal')", "('http://demo.fiz-karlsruhe.de/matwerk/E1007072', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal')", "('http://demo.fiz-karlsruhe.de/matwerk/E1088076', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal')", "('http://demo.fiz-karlsruhe.de/matwerk/E1012754', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal')", "('http://demo.fiz-karlsruhe.de/matwerk/E1050077', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal')", ('http://demo.fiz-karlsruhe.de/matwerk/E419156', 'mwo:hasWebsite', 'http://demo.fiz-karlsruhe.de/matwerk/E93236'), ('http://demo.fiz-karlsruhe.de/matwerk/E419156', 'mwo:hasContactPoint', 'http://demo.fiz-karlsruhe.de/matwerk/E689552'), ('http://demo.fiz-karlsruhe.de/matwerk/E420071', 'mwo:hasContactPoint', 'http://demo.fiz-karlsruhe.de/matwerk/E689552'), ('http://demo.fiz-karlsruhe.de/matwerk/E419156', 'mwo:hasRepository', 'http://demo.fiz-karlsruhe.de/matwerk/E163166'), ('http://demo.fiz-karlsruhe.de/matwerk/E419156', 'dcterms:description', '"ParaView is an open-source, multi-platform data analysis and visualization application based on Visualization Toolkit (VTK)."'), ('http://demo.fiz-karlsruhe.de/matwerk/E419156', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/ProcessingSoftware'), ('http://demo.fiz-karlsruhe.de/matwerk/E419156', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Resource'), ('http://demo.fiz-karlsruhe.de/matwerk/E419156', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/VisualizationSoftware'), ('http://demo.fiz-karlsruhe.de/matwerk/E419156', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/ResearchSoftware'), ('http://demo.fiz-karlsruhe.de/matwerk/E419156', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software')]</t>
         </is>
       </c>
     </row>
@@ -738,27 +738,27 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>['http://purls.helmholtz-metadaten.de/mwo/hasAffiliation', 'http://purl.obolibrary.org/obo/IAO_0000114', 'http://nfdi.fiz-karlsruhe.de/ontology/parentOrganisation', 'https://schema.org/citation', 'http://purls.helmholtz-metadaten.de/mwo/hasDocumentation', 'http://purls.helmholtz-metadaten.de/mwo/relatedParticipantProject', 'http://purl.obolibrary.org/obo/IAO_0000600', 'http://www.geneontology.org/formats/oboInOwl#hasDefinition', 'http://www.w3.org/2004/02/skos/core#definition']</t>
+          <t>['http://purls.helmholtz-metadaten.de/mwo/isOnline', 'http://purl.org/dc/terms/bibliographicCitation', 'http://purls.helmholtz-metadaten.de/mwo/usesMethod', 'http://www.w3.org/1999/02/22-rdf-syntax-ns#rest', 'https://w3id.org/scholarlydata/ontology/conference-ontology.owl#duration', 'http://nfdi.fiz-karlsruhe.de/ontology/objectType', 'http://purls.helmholtz-metadaten.de/mwo/hasVersion', 'http://xmlns.com/foaf/0.1/firstName', 'http://www.w3.org/1999/02/22-rdf-syntax-ns#type']</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>['mwo:hasAffiliation', 'ns2:IAO_0000114', 'nfdicore:parentOrganisation', 'schema:citation', 'mwo:hasDocumentation', 'mwo:relatedParticipantProject', 'ns2:IAO_0000600', 'ns4:hasDefinition', 'skos:definition', 'mwo:description', 'dcterms:description']</t>
+          <t>['mwo:hasAffiliation', 'ns2:IAO_0000114', 'nfdicore:parentOrganisation', 'schema:citation', 'mwo:hasDocumentation', 'mwo:relatedParticipantProject', 'ns2:IAO_0000600', 'ns4:hasDefinition', 'skos:definition', 'mwo:description', 'dcterms:description', 'rdf:type']</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['Volker Hofmann', 'Dr. Tilmann Hickel', 'Tilmann Hickel', 'Niklas Siemer', 'Dr.  Volker Hofmann']</t>
+          <t>['Prof. Dr.  Jörg Neugebauer', 'Markus Schilling', 'Dr.  Volker Hofmann', 'Niklas Siemer', 'Dr. Tilmann Hickel']</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['http://demo.fiz-karlsruhe.de/matwerk/E20504', 'http://www.wikidata.org/entity/Q45899344', 'http://demo.fiz-karlsruhe.de/matwerk/E9912', 'http://demo.fiz-karlsruhe.de/matwerk/E14531', 'http://www.wikidata.org/entity/Q84561074']</t>
+          <t>['http://demo.fiz-karlsruhe.de/matwerk/E33641', 'http://demo.fiz-karlsruhe.de/matwerk/E9912', 'http://demo.fiz-karlsruhe.de/matwerk/E14531', 'http://demo.fiz-karlsruhe.de/matwerk/E20504', 'http://demo.fiz-karlsruhe.de/matwerk/E21101']</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>[('http://demo.fiz-karlsruhe.de/matwerk/E20504', 'mwo:hasAffiliation', 'http://demo.fiz-karlsruhe.de/matwerk/E3416'), ('http://demo.fiz-karlsruhe.de/matwerk/E21101', 'mwo:hasAffiliation', 'http://demo.fiz-karlsruhe.de/matwerk/E3416'), ('http://demo.fiz-karlsruhe.de/matwerk/E9912', 'mwo:hasAffiliation', 'http://demo.fiz-karlsruhe.de/matwerk/E1022'), ('http://demo.fiz-karlsruhe.de/matwerk/E18956', 'mwo:hasAffiliation', 'http://demo.fiz-karlsruhe.de/matwerk/E1022'), ('http://demo.fiz-karlsruhe.de/matwerk/E10046', 'mwo:hasAffiliation', 'http://demo.fiz-karlsruhe.de/matwerk/E1022'), ('http://demo.fiz-karlsruhe.de/matwerk/E13721', 'mwo:hasAffiliation', 'http://demo.fiz-karlsruhe.de/matwerk/E1022'), ('http://demo.fiz-karlsruhe.de/matwerk/E29681', 'mwo:hasAffiliation', 'http://demo.fiz-karlsruhe.de/matwerk/E1022'), ('http://demo.fiz-karlsruhe.de/matwerk/E10181', 'mwo:hasAffiliation', 'http://demo.fiz-karlsruhe.de/matwerk/E1022'), ('http://demo.fiz-karlsruhe.de/matwerk/E1245575', 'mwo:hasAffiliation', 'http://demo.fiz-karlsruhe.de/matwerk/E1022'), ('http://demo.fiz-karlsruhe.de/matwerk/E29921', 'mwo:hasAffiliation', 'http://demo.fiz-karlsruhe.de/matwerk/E1022'), ('http://demo.fiz-karlsruhe.de/matwerk/E14531', 'mwo:hasAffiliation', 'http://demo.fiz-karlsruhe.de/matwerk/E1001'), ('http://demo.fiz-karlsruhe.de/matwerk/E14531', 'mwo:hasAffiliation', 'http://demo.fiz-karlsruhe.de/matwerk/E1245640'), ('http://demo.fiz-karlsruhe.de/matwerk/E12629', 'mwo:hasAffiliation', 'http://demo.fiz-karlsruhe.de/matwerk/E1001'), ('http://demo.fiz-karlsruhe.de/matwerk/E14204', 'mwo:hasAffiliation', 'http://demo.fiz-karlsruhe.de/matwerk/E1001'), ('http://demo.fiz-karlsruhe.de/matwerk/E21101', 'mwo:hasAffiliation', 'http://demo.fiz-karlsruhe.de/matwerk/E1001'), ('http://demo.fiz-karlsruhe.de/matwerk/E8627', 'mwo:hasAffiliation', 'http://demo.fiz-karlsruhe.de/matwerk/E1001')]</t>
+          <t>[('http://demo.fiz-karlsruhe.de/matwerk/E33641', 'mwo:hasAffiliation', 'http://demo.fiz-karlsruhe.de/matwerk/E1245640'), ('http://demo.fiz-karlsruhe.de/matwerk/E33897', 'mwo:hasAffiliation', 'http://demo.fiz-karlsruhe.de/matwerk/E1245640'), ('http://demo.fiz-karlsruhe.de/matwerk/E34412', 'mwo:hasAffiliation', 'http://demo.fiz-karlsruhe.de/matwerk/E1245619'), ('http://demo.fiz-karlsruhe.de/matwerk/E9002', 'mwo:hasAffiliation', 'http://demo.fiz-karlsruhe.de/matwerk/E1245619'), ('http://demo.fiz-karlsruhe.de/matwerk/E32879', 'mwo:hasAffiliation', 'http://demo.fiz-karlsruhe.de/matwerk/E1245619'), ('http://demo.fiz-karlsruhe.de/matwerk/E33132', 'mwo:hasAffiliation', 'http://demo.fiz-karlsruhe.de/matwerk/E1245640'), ('http://demo.fiz-karlsruhe.de/matwerk/E33386', 'mwo:hasAffiliation', 'http://demo.fiz-karlsruhe.de/matwerk/E1245640'), ('http://demo.fiz-karlsruhe.de/matwerk/E34154', 'mwo:hasAffiliation', 'http://demo.fiz-karlsruhe.de/matwerk/E1245640'), ('http://demo.fiz-karlsruhe.de/matwerk/E33641', 'mwo:hasAffiliation', 'http://demo.fiz-karlsruhe.de/matwerk/E1245619'), ('http://demo.fiz-karlsruhe.de/matwerk/E33897', 'mwo:hasAffiliation', 'http://demo.fiz-karlsruhe.de/matwerk/E1245619'), ('http://demo.fiz-karlsruhe.de/matwerk/E14531', 'mwo:hasAffiliation', 'http://demo.fiz-karlsruhe.de/matwerk/E1245640'), ('http://demo.fiz-karlsruhe.de/matwerk/E34412', 'mwo:hasAffiliation', 'http://demo.fiz-karlsruhe.de/matwerk/E1245640'), ('http://demo.fiz-karlsruhe.de/matwerk/E33132', 'mwo:hasAffiliation', 'http://demo.fiz-karlsruhe.de/matwerk/E1245619'), ('http://demo.fiz-karlsruhe.de/matwerk/E33386', 'mwo:hasAffiliation', 'http://demo.fiz-karlsruhe.de/matwerk/E1245619'), ('http://demo.fiz-karlsruhe.de/matwerk/E34154', 'mwo:hasAffiliation', 'http://demo.fiz-karlsruhe.de/matwerk/E1245619'), ('http://demo.fiz-karlsruhe.de/matwerk/E9002', 'mwo:hasAffiliation', 'http://demo.fiz-karlsruhe.de/matwerk/E1245640'), ('http://demo.fiz-karlsruhe.de/matwerk/E32879', 'mwo:hasAffiliation', 'http://demo.fiz-karlsruhe.de/matwerk/E1245640'), ('http://demo.fiz-karlsruhe.de/matwerk/E9129', 'mwo:hasAffiliation', 'http://demo.fiz-karlsruhe.de/matwerk/E1245640'), ('http://demo.fiz-karlsruhe.de/matwerk/E33641', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Person'), ('http://demo.fiz-karlsruhe.de/matwerk/E9912', 'mwo:hasAffiliation', 'http://demo.fiz-karlsruhe.de/matwerk/E1022'), ('http://demo.fiz-karlsruhe.de/matwerk/E29921', 'mwo:hasAffiliation', 'http://demo.fiz-karlsruhe.de/matwerk/E1022'), ('http://demo.fiz-karlsruhe.de/matwerk/E1245575', 'mwo:hasAffiliation', 'http://demo.fiz-karlsruhe.de/matwerk/E1022'), ('http://demo.fiz-karlsruhe.de/matwerk/E29681', 'mwo:hasAffiliation', 'http://demo.fiz-karlsruhe.de/matwerk/E1022'), ('http://demo.fiz-karlsruhe.de/matwerk/E10046', 'mwo:hasAffiliation', 'http://demo.fiz-karlsruhe.de/matwerk/E1022'), ('http://demo.fiz-karlsruhe.de/matwerk/E18956', 'mwo:hasAffiliation', 'http://demo.fiz-karlsruhe.de/matwerk/E1022'), ('http://demo.fiz-karlsruhe.de/matwerk/E13721', 'mwo:hasAffiliation', 'http://demo.fiz-karlsruhe.de/matwerk/E1022'), ('http://demo.fiz-karlsruhe.de/matwerk/E10181', 'mwo:hasAffiliation', 'http://demo.fiz-karlsruhe.de/matwerk/E1022'), ('http://demo.fiz-karlsruhe.de/matwerk/E9912', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Person'), ('http://demo.fiz-karlsruhe.de/matwerk/E8627', 'mwo:hasAffiliation', 'http://demo.fiz-karlsruhe.de/matwerk/E1001'), ('http://demo.fiz-karlsruhe.de/matwerk/E21101', 'mwo:hasAffiliation', 'http://demo.fiz-karlsruhe.de/matwerk/E1001'), ('http://demo.fiz-karlsruhe.de/matwerk/E12629', 'mwo:hasAffiliation', 'http://demo.fiz-karlsruhe.de/matwerk/E1001'), ('http://demo.fiz-karlsruhe.de/matwerk/E14204', 'mwo:hasAffiliation', 'http://demo.fiz-karlsruhe.de/matwerk/E1001'), ('http://demo.fiz-karlsruhe.de/matwerk/E14531', 'mwo:hasAffiliation', 'http://demo.fiz-karlsruhe.de/matwerk/E1001'), ('http://demo.fiz-karlsruhe.de/matwerk/E14531', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Person'), ('http://demo.fiz-karlsruhe.de/matwerk/E20504', 'mwo:hasAffiliation', 'http://demo.fiz-karlsruhe.de/matwerk/E3416'), ('http://demo.fiz-karlsruhe.de/matwerk/E21101', 'mwo:hasAffiliation', 'http://demo.fiz-karlsruhe.de/matwerk/E3416'), ('http://demo.fiz-karlsruhe.de/matwerk/E20504', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Person'), ('http://demo.fiz-karlsruhe.de/matwerk/E21101', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Person')]</t>
         </is>
       </c>
     </row>
@@ -770,7 +770,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Molecular Dynamics</t>
+          <t>Molecular Dynamics" Software?</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -785,27 +785,27 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>['http://purls.helmholtz-metadaten.de/mwo/hasDocumentation', 'http://purl.org/dc/terms/bibliographicCitation', 'http://purls.helmholtz-metadaten.de/mwo/relatedParticipantProject', 'http://purls.helmholtz-metadaten.de/mwo/hasRelatedResource', 'http://nfdi.fiz-karlsruhe.de/ontology/relatedProject', 'https://schema.org/citation', 'http://purl.obolibrary.org/obo/IAO_0000114', 'http://nfdi.fiz-karlsruhe.de/ontology/programmingLanguage', 'http://www.geneontology.org/formats/oboInOwl#hasDefinition']</t>
+          <t>['https://w3id.org/scholarlydata/ontology/conference-ontology.owl#duration', 'http://www.w3.org/2002/07/owl#sameAs', 'http://nfdi.fiz-karlsruhe.de/ontology/objectType', 'http://purls.helmholtz-metadaten.de/mwo/hasLecturer', 'https://schema.org/dateCreated', 'http://www.w3.org/1999/02/22-rdf-syntax-ns#rest', 'http://purl.org/dc/terms/bibliographicCitation', 'http://purl.obolibrary.org/obo/IAO_0000117', 'http://xmlns.com/foaf/0.1/firstName']</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>['mwo:hasDocumentation', 'dcterms:bibliographicCitation', 'mwo:relatedParticipantProject', 'mwo:hasRelatedResource', 'nfdicore:relatedProject', 'schema:citation', 'ns2:IAO_0000114', 'nfdicore:programmingLanguage', 'ns4:hasDefinition', 'mwo:description', 'dcterms:description']</t>
+          <t>['mwo:hasDocumentation', 'dcterms:bibliographicCitation', 'mwo:relatedParticipantProject', 'mwo:hasRelatedResource', 'nfdicore:relatedProject', 'schema:citation', 'ns2:IAO_0000114', 'nfdicore:programmingLanguage', 'ns4:hasDefinition', 'mwo:description', 'dcterms:description', 'rdf:type']</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['Computational Chemistry', 'Visual Molecular Dynamics', 'Quantum Chemistry', 'molecular dynamics']</t>
+          <t>['controlled vocabulary', 'Atomic Simulation Recipes', 'Atomistic simulations', 'Computational Materials Repository (CMR)', 'atomistic simulations', 'OpenBIS', 'Workshop: From Electrons to Phase Diagrams', 'PubChem', 'Graphical Interface for Materials Simulations', 'Physical Information File (PIF)', 'Cluster Expansion in Atomic Simulation Environment', 'molecular dynamics']</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['http://demo.fiz-karlsruhe.de/matwerk/E70752', 'http://demo.fiz-karlsruhe.de/matwerk/E38676', 'http://www.wikidata.org/entity/Q7936565', 'http://demo.fiz-karlsruhe.de/matwerk/E616496', 'http://demo.fiz-karlsruhe.de/matwerk/E465167']</t>
+          <t>['http://demo.fiz-karlsruhe.de/matwerk/E63482', 'http://demo.fiz-karlsruhe.de/matwerk/E469997', 'http://nfdi.fiz-karlsruhe.de/ontology/ControlledVocabulary', 'https://nfdi.fiz-karlsruhe.de/ontology/ControlledVocabulary', 'http://demo.fiz-karlsruhe.de/matwerk/E1158482', 'http://demo.fiz-karlsruhe.de/matwerk/E552776', 'http://demo.fiz-karlsruhe.de/matwerk/E616496', 'http://demo.fiz-karlsruhe.de/matwerk/E551726', 'http://demo.fiz-karlsruhe.de/matwerk/E1021307', 'http://demo.fiz-karlsruhe.de/matwerk/E1246908', 'http://demo.fiz-karlsruhe.de/matwerk/E1245300', 'http://demo.fiz-karlsruhe.de/matwerk/E488579', 'http://demo.fiz-karlsruhe.de/matwerk/E1060241']</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>[('http://demo.fiz-karlsruhe.de/matwerk/E465167', 'mwo:hasDocumentation', 'http://demo.fiz-karlsruhe.de/matwerk/E266357'), ('http://demo.fiz-karlsruhe.de/matwerk/E465167', 'dcterms:description', '"molecular modelling and visualization computer program"')]</t>
+          <t>[('http://demo.fiz-karlsruhe.de/matwerk/E63482', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/AcademicDiscipline'), ('http://demo.fiz-karlsruhe.de/matwerk/E63482', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/Method'), ('http://demo.fiz-karlsruhe.de/matwerk/E469997', 'dcterms:description', '"browser-based toolbox for electronic structure codes and supports the generation of input files for first-principles electronic structure calculations and workflows, as well as the analysis and visualization of the resulting data extracted from the output files."'), ('http://demo.fiz-karlsruhe.de/matwerk/E469997', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://nfdi.fiz-karlsruhe.de/ontology/ControlledVocabulary', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/SemanticExpressivity'), ('http://nfdi.fiz-karlsruhe.de/ontology/ControlledVocabulary', 'rdf:type', 'http://www.w3.org/2002/07/owl#NamedIndividual'), ('https://nfdi.fiz-karlsruhe.de/ontology/ControlledVocabulary', 'rdf:type', 'http://www.w3.org/2002/07/owl#NamedIndividual'), ('http://demo.fiz-karlsruhe.de/matwerk/E1158482', 'mwo:hasDocumentation', 'http://demo.fiz-karlsruhe.de/matwerk/E328646'), ('http://demo.fiz-karlsruhe.de/matwerk/E1158482', 'mwo:description', '"The Physical Information File (PIF) is a schema that is designed to impose structure on information about physical systems. Schema design, as well as tools for working with PIF-formatted files using the python (pypif) and java (jpif) programming languages are maintained by Citrine Informatics."'), ('http://demo.fiz-karlsruhe.de/matwerk/E1158482', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/MetadataSchema'), ('http://demo.fiz-karlsruhe.de/matwerk/E434847', 'mwo:hasRelatedResource', 'http://demo.fiz-karlsruhe.de/matwerk/E641147'), ('http://demo.fiz-karlsruhe.de/matwerk/E552776', 'mwo:hasRelatedResource', 'http://demo.fiz-karlsruhe.de/matwerk/E641147'), ('http://demo.fiz-karlsruhe.de/matwerk/E1060241', 'mwo:hasRelatedResource', 'http://demo.fiz-karlsruhe.de/matwerk/E641147'), ('http://demo.fiz-karlsruhe.de/matwerk/E434847', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E481691', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E458447', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E467096', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E492537', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E497507', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E479732', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E484637', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E494522', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E498504', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E433916', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E1246567', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E491546', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E466131', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E493529', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E499502', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E473879', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E475826', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E496511', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E474852', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E428351', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E477777', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E457491', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E420987', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E502502', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E483654', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E422822', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E495516', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E453677', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E411872', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E456536', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E489567', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E460362', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E1246593', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E413687', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E446097', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E485621', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E593417', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E1246648', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E500501', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E490556', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E455582', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E471936', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E468062', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E486606', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E414596', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E480711', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E504507', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E655941', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E476801', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E503504', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E478754', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E417329', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E552776', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E487592', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E552776', 'dcterms:description', '"Recipes for Atomic Scale Materials Research. Collection of python recipes for common (and not so common)\r\ntasks perfomed in atomic scale materials research. These tasks include\r\nrelaxation of structures, calculating ground states, calculating band\r\nstructures, calculating dielectric functions and so on."'), ('http://demo.fiz-karlsruhe.de/matwerk/E552776', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E616496', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/Method'), ('http://demo.fiz-karlsruhe.de/matwerk/E551726', 'dcterms:description', '"The openBIS platform has three primary functionalities: 1. Inventory management of laboratory samples, materials, protocols, equipment. 2. Laboratory notebook, to document lab experiments. 3. Data management, to store all data related to lab experiments (raw, processed, analysed data, scripts, Jupyter notebooks, etc.)."'), ('http://demo.fiz-karlsruhe.de/matwerk/E551726', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E1021307', 'schema:citation', 'http://demo.fiz-karlsruhe.de/matwerk/E971922'), ('http://demo.fiz-karlsruhe.de/matwerk/E1021307', 'mwo:description', '"PubChem is the world\'s largest collection of freely accessible chemical information. Search chemicals by name, molecular formula, structure, and other identifiers. Find chemical and physical properties, biological activities, safety and toxicity information, patents, literature citations and more."'), ('http://demo.fiz-karlsruhe.de/matwerk/E1021307', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal'), ('http://demo.fiz-karlsruhe.de/matwerk/E1246908', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/Method'), ('http://demo.fiz-karlsruhe.de/matwerk/E1245300', 'mwo:description', '"Jupyter notebooks and video recordings of the workshop. The three-day workshop focussed hands-on classes that cover the complete chain from high-throughput electronic structure calculations to the computation of phase diagrams. "'), ('http://demo.fiz-karlsruhe.de/matwerk/E1245300', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/EducationalResource'), ('http://demo.fiz-karlsruhe.de/matwerk/E488579', 'mwo:hasDocumentation', 'http://demo.fiz-karlsruhe.de/matwerk/E272954'), ('http://demo.fiz-karlsruhe.de/matwerk/E488579', 'schema:citation', 'http://demo.fiz-karlsruhe.de/matwerk/E925121'), ('http://demo.fiz-karlsruhe.de/matwerk/E488579', 'dcterms:description', '"package that automates the cumbersome setup and construction procedure of cluster expansion (CE). It provides a comprehensive list of tools for specifying parameters for CE, generating training structures, fitting effective cluster interaction (ECI) values and running Monte Carlo simulations."'), ('http://demo.fiz-karlsruhe.de/matwerk/E488579', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E1060241', 'mwo:description', '"Each CMR project consists of an ASE-database and a project page describing the data and showing examples of how to work with the data using Python and ASE."'), ('http://demo.fiz-karlsruhe.de/matwerk/E1060241', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal')]</t>
         </is>
       </c>
     </row>
@@ -832,27 +832,27 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>['http://purls.helmholtz-metadaten.de/mwo/requiredTool', 'http://purls.helmholtz-metadaten.de/mwo/hasRelatedResource', 'http://purls.helmholtz-metadaten.de/mwo/relatedParticipantProject', 'http://purls.helmholtz-metadaten.de/mwo/hasDocumentation', 'http://purls.helmholtz-metadaten.de/mwo/instrumentModel', 'http://nfdi.fiz-karlsruhe.de/ontology/relatedProject', 'https://schema.org/operatingSystem', 'http://purls.helmholtz-metadaten.de/mwo/usesTechnology', 'http://purl.obolibrary.org/obo/IAO_0000114']</t>
+          <t>['http://purls.helmholtz-metadaten.de/mwo/hasWebsite', 'http://purls.helmholtz-metadaten.de/mwo/hasLecturer', 'http://nfdi.fiz-karlsruhe.de/ontology/objectType', 'https://w3id.org/scholarlydata/ontology/conference-ontology.owl#duration', 'http://www.w3.org/2004/02/skos/core#prefLabel', 'https://schema.org/dateCreated', 'http://www.w3.org/2004/02/skos/core#definition', 'http://purls.helmholtz-metadaten.de/mwo/conformsToSpecification', 'http://purl.org/dc/terms/bibliographicCitation']</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>['mwo:requiredTool', 'mwo:hasRelatedResource', 'mwo:relatedParticipantProject', 'mwo:hasDocumentation', 'mwo:instrumentModel', 'nfdicore:relatedProject', 'schema:operatingSystem', 'mwo:usesTechnology', 'ns2:IAO_0000114', 'mwo:description', 'dcterms:description']</t>
+          <t>['mwo:requiredTool', 'mwo:hasRelatedResource', 'mwo:relatedParticipantProject', 'mwo:hasDocumentation', 'mwo:instrumentModel', 'nfdicore:relatedProject', 'schema:operatingSystem', 'mwo:usesTechnology', 'ns2:IAO_0000114', 'mwo:description', 'dcterms:description', 'rdf:type']</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['Brunswick', 'AML', 'Crystallography Open Database (COD)', 'Pizza.py Toolkit', 'Extensible Self-optimizing Phase Equilibria Infrastructure', 'Graphical Interface for Materials Simulations', 'abbreviation', 'Yet another force field', 'PMD Core Ontology', 'freud', 'MDTraj', 'Molecular Dynamics (MD)', 'OVITO basic', 'Silicon']</t>
+          <t>['MDTraj', 'Pizza.py Toolkit', 'Silicon', 'Extensible Self-optimizing Phase Equilibria Infrastructure', 'freud', 'OVITO basic', 'AML', 'PMD Core Ontology', 'acronym', 'Graphical Interface for Materials Simulations', 'Molecular Dynamics (MD)', 'Crystallography Open Database (COD)', 'abbreviation', 'Yet another force field']</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['http://demo.fiz-karlsruhe.de/matwerk/E481691', 'http://demo.fiz-karlsruhe.de/matwerk/E1247879', 'http://demo.fiz-karlsruhe.de/matwerk/E473879', 'http://demo.fiz-karlsruhe.de/matwerk/E469997', 'http://demo.fiz-karlsruhe.de/matwerk/E482672', 'http://demo.fiz-karlsruhe.de/matwerk/E487592', 'http://demo.fiz-karlsruhe.de/matwerk/E461321', 'http://demo.fiz-karlsruhe.de/matwerk/E483654', 'http://www.wikidata.org/entity/Q2773', 'http://demo.fiz-karlsruhe.de/matwerk/E1140296', 'http://demo.fiz-karlsruhe.de/matwerk/E1024166', 'http://purl.obolibrary.org/obo/NCIT_C42610', 'http://demo.fiz-karlsruhe.de/matwerk/E61379', 'http://demo.fiz-karlsruhe.de/matwerk/E491546']</t>
+          <t>['http://demo.fiz-karlsruhe.de/matwerk/E469997', 'http://purl.obolibrary.org/obo/NCIT_C42610', 'http://demo.fiz-karlsruhe.de/matwerk/E491546', 'http://demo.fiz-karlsruhe.de/matwerk/E481691', 'http://demo.fiz-karlsruhe.de/matwerk/E1247879', 'http://demo.fiz-karlsruhe.de/matwerk/E483654', 'http://purl.obolibrary.org/obo/NCIT_C93495', 'http://demo.fiz-karlsruhe.de/matwerk/E473879', 'http://demo.fiz-karlsruhe.de/matwerk/E482672', 'http://demo.fiz-karlsruhe.de/matwerk/E487592', 'http://demo.fiz-karlsruhe.de/matwerk/E461321', 'http://demo.fiz-karlsruhe.de/matwerk/E1140296', 'http://demo.fiz-karlsruhe.de/matwerk/E1024166', 'http://demo.fiz-karlsruhe.de/matwerk/E61379']</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>[('http://demo.fiz-karlsruhe.de/matwerk/E481691', 'mwo:hasDocumentation', 'http://demo.fiz-karlsruhe.de/matwerk/E270746'), ('http://demo.fiz-karlsruhe.de/matwerk/E481691', 'dcterms:description', '"Pizza.py is a loosely integrated collection of tools, many of which provide pre- and post-processing capability for the LAMMPS molecular dynamics, ChemCell cell modeling, and SPPARKS kinetic Monte Carlo packages. There are tools to create input files, convert between file formats, process log and dump files, create plots, and visualize and animate simulation snapshots. "'), ('http://demo.fiz-karlsruhe.de/matwerk/E473879', 'dcterms:description', '"Python package to automatically build the reference set for the training of Neural Network Potentials (NNPs), and eventually other machine-learned potentials, in an automated, data-driven fashion."'), ('http://demo.fiz-karlsruhe.de/matwerk/E469997', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000021'), ('http://demo.fiz-karlsruhe.de/matwerk/E411872', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000021'), ('http://demo.fiz-karlsruhe.de/matwerk/E413687', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000021'), ('http://demo.fiz-karlsruhe.de/matwerk/E464204', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000021'), ('http://demo.fiz-karlsruhe.de/matwerk/E506516', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000021'), ('http://demo.fiz-karlsruhe.de/matwerk/E529907', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000021'), ('http://demo.fiz-karlsruhe.de/matwerk/E469997', 'dcterms:description', '"browser-based toolbox for electronic structure codes and supports the generation of input files for first-principles electronic structure calculations and workflows, as well as the analysis and visualization of the resulting data extracted from the output files."'), ('http://demo.fiz-karlsruhe.de/matwerk/E482672', 'dcterms:description', '"Read, write and analyze MD trajectories with only a few lines of Python code."'), ('http://demo.fiz-karlsruhe.de/matwerk/E487592', 'mwo:hasDocumentation', 'http://demo.fiz-karlsruhe.de/matwerk/E272217'), ('http://demo.fiz-karlsruhe.de/matwerk/E487592', 'dcterms:description', '" pythonic force-field (FF) code used at the Center for Molecular Modeling (CMM) to test-drive new FF models"'), ('http://demo.fiz-karlsruhe.de/matwerk/E461321', 'mwo:hasDocumentation', 'http://demo.fiz-karlsruhe.de/matwerk/E263451'), ('http://demo.fiz-karlsruhe.de/matwerk/E461321', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000022'), ('http://demo.fiz-karlsruhe.de/matwerk/E461321', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000149'), ('http://demo.fiz-karlsruhe.de/matwerk/E461321', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_9000072'), ('http://demo.fiz-karlsruhe.de/matwerk/E1246620', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000022'), ('http://demo.fiz-karlsruhe.de/matwerk/E1246677', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000022'), ('http://demo.fiz-karlsruhe.de/matwerk/E1246707', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000022'), ('http://demo.fiz-karlsruhe.de/matwerk/E411872', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000022'), ('http://demo.fiz-karlsruhe.de/matwerk/E413687', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000022'), ('http://demo.fiz-karlsruhe.de/matwerk/E418242', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000022'), ('http://demo.fiz-karlsruhe.de/matwerk/E427427', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000022'), ('http://demo.fiz-karlsruhe.de/matwerk/E440454', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000022'), ('http://demo.fiz-karlsruhe.de/matwerk/E445154', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000022'), ('http://demo.fiz-karlsruhe.de/matwerk/E454629', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000022'), ('http://demo.fiz-karlsruhe.de/matwerk/E455582', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000022'), ('http://demo.fiz-karlsruhe.de/matwerk/E459404', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000022'), ('http://demo.fiz-karlsruhe.de/matwerk/E460362', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000022'), ('http://demo.fiz-karlsruhe.de/matwerk/E463242', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000022'), ('http://demo.fiz-karlsruhe.de/matwerk/E464204', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000022'), ('http://demo.fiz-karlsruhe.de/matwerk/E465167', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000022'), ('http://demo.fiz-karlsruhe.de/matwerk/E466131', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000022'), ('http://demo.fiz-karlsruhe.de/matwerk/E524777', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000022'), ('http://demo.fiz-karlsruhe.de/matwerk/E525801', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000022'), ('http://demo.fiz-karlsruhe.de/matwerk/E526826', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000022'), ('http://demo.fiz-karlsruhe.de/matwerk/E527852', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000022'), ('http://demo.fiz-karlsruhe.de/matwerk/E553827', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000022'), ('http://demo.fiz-karlsruhe.de/matwerk/E1246567', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000022'), ('http://demo.fiz-karlsruhe.de/matwerk/E1246593', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000022'), ('http://demo.fiz-karlsruhe.de/matwerk/E1246648', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000022'), ('http://demo.fiz-karlsruhe.de/matwerk/E419156', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000022'), ('http://demo.fiz-karlsruhe.de/matwerk/E658232', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000022'), ('http://demo.fiz-karlsruhe.de/matwerk/E461321', 'dcterms:description', '"visualization and analysis for data generated in MD, atomistic Monte-Carlo and other particle-based simulations"'), ('http://demo.fiz-karlsruhe.de/matwerk/E483654', 'mwo:hasDocumentation', 'http://demo.fiz-karlsruhe.de/matwerk/E271481'), ('http://demo.fiz-karlsruhe.de/matwerk/E483654', 'dcterms:description', '"The freud Python library provides a simple, flexible, powerful set of tools for analyzing trajectories obtained from molecular dynamics or Monte Carlo simulations. "'), ('http://demo.fiz-karlsruhe.de/matwerk/E1140296', 'nfdicore:relatedProject', 'http://demo.fiz-karlsruhe.de/matwerk/E879476'), ('http://demo.fiz-karlsruhe.de/matwerk/E1140296', 'mwo:description', '"Ontology used in Platform Material Digital (PMD)"'), ('http://demo.fiz-karlsruhe.de/matwerk/E1024166', 'mwo:description', '"Open-access collection of crystal structures of organic, inorganic, metal-organic compounds and minerals, excluding biopolymers."'), ('http://demo.fiz-karlsruhe.de/matwerk/E491546', 'dcterms:description', '"tool for creating CALPHAD databases and evaluating the uncertainty of CALPHAD models."')]</t>
+          <t>[('http://demo.fiz-karlsruhe.de/matwerk/E529907', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000021'), ('http://demo.fiz-karlsruhe.de/matwerk/E411872', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000021'), ('http://demo.fiz-karlsruhe.de/matwerk/E413687', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000021'), ('http://demo.fiz-karlsruhe.de/matwerk/E469997', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000021'), ('http://demo.fiz-karlsruhe.de/matwerk/E464204', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000021'), ('http://demo.fiz-karlsruhe.de/matwerk/E506516', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000021'), ('http://demo.fiz-karlsruhe.de/matwerk/E469997', 'dcterms:description', '"browser-based toolbox for electronic structure codes and supports the generation of input files for first-principles electronic structure calculations and workflows, as well as the analysis and visualization of the resulting data extracted from the output files."'), ('http://demo.fiz-karlsruhe.de/matwerk/E469997', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://purl.obolibrary.org/obo/NCIT_C42610', 'rdf:type', 'http://www.w3.org/2002/07/owl#AnnotationProperty'), ('http://demo.fiz-karlsruhe.de/matwerk/E491546', 'dcterms:description', '"tool for creating CALPHAD databases and evaluating the uncertainty of CALPHAD models."'), ('http://demo.fiz-karlsruhe.de/matwerk/E491546', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E481691', 'mwo:hasDocumentation', 'http://demo.fiz-karlsruhe.de/matwerk/E270746'), ('http://demo.fiz-karlsruhe.de/matwerk/E481691', 'dcterms:description', '"Pizza.py is a loosely integrated collection of tools, many of which provide pre- and post-processing capability for the LAMMPS molecular dynamics, ChemCell cell modeling, and SPPARKS kinetic Monte Carlo packages. There are tools to create input files, convert between file formats, process log and dump files, create plots, and visualize and animate simulation snapshots. "'), ('http://demo.fiz-karlsruhe.de/matwerk/E481691', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E1247879', 'rdf:type', 'http://emmo.info/emmo#EMMO_4207e895_8b83_4318_996a_72cfb32acd94'), ('http://demo.fiz-karlsruhe.de/matwerk/E483654', 'mwo:hasDocumentation', 'http://demo.fiz-karlsruhe.de/matwerk/E271481'), ('http://demo.fiz-karlsruhe.de/matwerk/E483654', 'dcterms:description', '"The freud Python library provides a simple, flexible, powerful set of tools for analyzing trajectories obtained from molecular dynamics or Monte Carlo simulations. "'), ('http://demo.fiz-karlsruhe.de/matwerk/E483654', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://purl.obolibrary.org/obo/NCIT_C93495', 'rdf:type', 'http://www.w3.org/2002/07/owl#AnnotationProperty'), ('http://demo.fiz-karlsruhe.de/matwerk/E473879', 'dcterms:description', '"Python package to automatically build the reference set for the training of Neural Network Potentials (NNPs), and eventually other machine-learned potentials, in an automated, data-driven fashion."'), ('http://demo.fiz-karlsruhe.de/matwerk/E473879', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E482672', 'dcterms:description', '"Read, write and analyze MD trajectories with only a few lines of Python code."'), ('http://demo.fiz-karlsruhe.de/matwerk/E482672', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E487592', 'mwo:hasDocumentation', 'http://demo.fiz-karlsruhe.de/matwerk/E272217'), ('http://demo.fiz-karlsruhe.de/matwerk/E487592', 'dcterms:description', '" pythonic force-field (FF) code used at the Center for Molecular Modeling (CMM) to test-drive new FF models"'), ('http://demo.fiz-karlsruhe.de/matwerk/E487592', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E461321', 'mwo:hasDocumentation', 'http://demo.fiz-karlsruhe.de/matwerk/E263451'), ('http://demo.fiz-karlsruhe.de/matwerk/E526826', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000022'), ('http://demo.fiz-karlsruhe.de/matwerk/E527852', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000022'), ('http://demo.fiz-karlsruhe.de/matwerk/E461321', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000149'), ('http://demo.fiz-karlsruhe.de/matwerk/E445154', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000022'), ('http://demo.fiz-karlsruhe.de/matwerk/E1246567', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000022'), ('http://demo.fiz-karlsruhe.de/matwerk/E464204', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000022'), ('http://demo.fiz-karlsruhe.de/matwerk/E466131', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000022'), ('http://demo.fiz-karlsruhe.de/matwerk/E525801', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000022'), ('http://demo.fiz-karlsruhe.de/matwerk/E553827', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000022'), ('http://demo.fiz-karlsruhe.de/matwerk/E454629', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_9000072'), ('http://demo.fiz-karlsruhe.de/matwerk/E526826', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_9000072'), ('http://demo.fiz-karlsruhe.de/matwerk/E440454', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000149'), ('http://demo.fiz-karlsruhe.de/matwerk/E1246677', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000022'), ('http://demo.fiz-karlsruhe.de/matwerk/E1246707', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000022'), ('http://demo.fiz-karlsruhe.de/matwerk/E460362', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000149'), ('http://demo.fiz-karlsruhe.de/matwerk/E1246620', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000149'), ('http://demo.fiz-karlsruhe.de/matwerk/E419156', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000149'), ('http://demo.fiz-karlsruhe.de/matwerk/E465167', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_9000072'), ('http://demo.fiz-karlsruhe.de/matwerk/E524777', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_9000072'), ('http://demo.fiz-karlsruhe.de/matwerk/E1246648', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000149'), ('http://demo.fiz-karlsruhe.de/matwerk/E527852', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_9000072'), ('http://demo.fiz-karlsruhe.de/matwerk/E418242', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000149'), ('http://demo.fiz-karlsruhe.de/matwerk/E466131', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_9000072'), ('http://demo.fiz-karlsruhe.de/matwerk/E1246593', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000149'), ('http://demo.fiz-karlsruhe.de/matwerk/E658232', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000149'), ('http://demo.fiz-karlsruhe.de/matwerk/E461321', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000022'), ('http://demo.fiz-karlsruhe.de/matwerk/E463242', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000149'), ('http://demo.fiz-karlsruhe.de/matwerk/E525801', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_9000072'), ('http://demo.fiz-karlsruhe.de/matwerk/E553827', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_9000072'), ('http://demo.fiz-karlsruhe.de/matwerk/E455582', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000149'), ('http://demo.fiz-karlsruhe.de/matwerk/E459404', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000022'), ('http://demo.fiz-karlsruhe.de/matwerk/E440454', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000022'), ('http://demo.fiz-karlsruhe.de/matwerk/E427427', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000022'), ('http://demo.fiz-karlsruhe.de/matwerk/E460362', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000022'), ('http://demo.fiz-karlsruhe.de/matwerk/E1246648', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000022'), ('http://demo.fiz-karlsruhe.de/matwerk/E1246620', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000022'), ('http://demo.fiz-karlsruhe.de/matwerk/E419156', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000022'), ('http://demo.fiz-karlsruhe.de/matwerk/E461321', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_9000072'), ('http://demo.fiz-karlsruhe.de/matwerk/E411872', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000022'), ('http://demo.fiz-karlsruhe.de/matwerk/E418242', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000022'), ('http://demo.fiz-karlsruhe.de/matwerk/E1246593', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000022'), ('http://demo.fiz-karlsruhe.de/matwerk/E413687', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000022'), ('http://demo.fiz-karlsruhe.de/matwerk/E658232', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000022'), ('http://demo.fiz-karlsruhe.de/matwerk/E459404', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_9000072'), ('http://demo.fiz-karlsruhe.de/matwerk/E463242', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000022'), ('http://demo.fiz-karlsruhe.de/matwerk/E526826', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000149'), ('http://demo.fiz-karlsruhe.de/matwerk/E527852', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000149'), ('http://demo.fiz-karlsruhe.de/matwerk/E524777', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000149'), ('http://demo.fiz-karlsruhe.de/matwerk/E440454', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_9000072'), ('http://demo.fiz-karlsruhe.de/matwerk/E455582', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000022'), ('http://demo.fiz-karlsruhe.de/matwerk/E465167', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000149'), ('http://demo.fiz-karlsruhe.de/matwerk/E1246648', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_9000072'), ('http://demo.fiz-karlsruhe.de/matwerk/E1246620', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_9000072'), ('http://demo.fiz-karlsruhe.de/matwerk/E419156', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_9000072'), ('http://demo.fiz-karlsruhe.de/matwerk/E466131', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000149'), ('http://demo.fiz-karlsruhe.de/matwerk/E553827', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000149'), ('http://demo.fiz-karlsruhe.de/matwerk/E413687', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_9000072'), ('http://demo.fiz-karlsruhe.de/matwerk/E418242', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_9000072'), ('http://demo.fiz-karlsruhe.de/matwerk/E463242', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_9000072'), ('http://demo.fiz-karlsruhe.de/matwerk/E454629', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000022'), ('http://demo.fiz-karlsruhe.de/matwerk/E1246677', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000149'), ('http://demo.fiz-karlsruhe.de/matwerk/E1246707', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000149'), ('http://demo.fiz-karlsruhe.de/matwerk/E525801', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000149'), ('http://demo.fiz-karlsruhe.de/matwerk/E1246593', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_9000072'), ('http://demo.fiz-karlsruhe.de/matwerk/E455582', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_9000072'), ('http://demo.fiz-karlsruhe.de/matwerk/E524777', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000022'), ('http://demo.fiz-karlsruhe.de/matwerk/E465167', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000022'), ('http://demo.fiz-karlsruhe.de/matwerk/E461321', 'dcterms:description', '"visualization and analysis for data generated in MD, atomistic Monte-Carlo and other particle-based simulations"'), ('http://demo.fiz-karlsruhe.de/matwerk/E461321', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E1140296', 'nfdicore:relatedProject', 'http://demo.fiz-karlsruhe.de/matwerk/E879476'), ('http://demo.fiz-karlsruhe.de/matwerk/E1140296', 'mwo:description', '"Ontology used in Platform Material Digital (PMD)"'), ('http://demo.fiz-karlsruhe.de/matwerk/E1140296', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/SemanticResource'), ('http://demo.fiz-karlsruhe.de/matwerk/E1024166', 'mwo:description', '"Open-access collection of crystal structures of organic, inorganic, metal-organic compounds and minerals, excluding biopolymers."'), ('http://demo.fiz-karlsruhe.de/matwerk/E1024166', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal'), ('http://demo.fiz-karlsruhe.de/matwerk/E61379', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/AcademicDiscipline')]</t>
         </is>
       </c>
     </row>
@@ -879,27 +879,27 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>['http://www.w3.org/2002/07/owl#someValuesFrom', 'http://purls.helmholtz-metadaten.de/mwo/hasWorkPackage', 'http://purls.helmholtz-metadaten.de/mwo/hasRelatedResource', 'http://purls.helmholtz-metadaten.de/mwo/relatedParticipantProject', 'http://nfdi.fiz-karlsruhe.de/ontology/relatedProject', 'http://purls.helmholtz-metadaten.de/mwo/conformsToSpecification', 'https://schema.org/operatingSystem', 'http://www.w3.org/2002/07/owl#allValuesFrom', 'http://www.w3.org/1999/02/22-rdf-syntax-ns#rest']</t>
+          <t>['http://purls.helmholtz-metadaten.de/mwo/hasWorkPackage', 'https://nfdi.fiz-karlsruhe.de/ontology/example', 'http://purls.helmholtz-metadaten.de/mwo/hasLecturer', 'http://nfdi.fiz-karlsruhe.de/ontology/objectType', 'https://schema.org/dateCreated', 'http://purls.helmholtz-metadaten.de/mwo/hasFormat', 'http://www.w3.org/2004/02/skos/core#definition', 'http://purls.helmholtz-metadaten.de/mwo/hasPostalCode', 'http://www.w3.org/2000/01/rdf-schema#label']</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>['owl:someValuesFrom', 'mwo:hasWorkPackage', 'mwo:hasRelatedResource', 'mwo:relatedParticipantProject', 'nfdicore:relatedProject', 'mwo:conformsToSpecification', 'schema:operatingSystem', 'owl:allValuesFrom', 'rdf:rest', 'mwo:description', 'dcterms:description']</t>
+          <t>['owl:someValuesFrom', 'mwo:hasWorkPackage', 'mwo:hasRelatedResource', 'mwo:relatedParticipantProject', 'nfdicore:relatedProject', 'mwo:conformsToSpecification', 'schema:operatingSystem', 'owl:allValuesFrom', 'rdf:rest', 'mwo:description', 'dcterms:description', 'rdf:type']</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['Computational Materials Science', 'Computational Material Science', 'computational materials science', 'Computational materials science']</t>
+          <t>['Computational Material Science', 'computational materials science', 'Polymer Genome', 'Computational Chemistry', 'freud', 'The Materials Data Facility (MDF)', 'matminer', 'pycalphad', 'Computational Materials Science', 'Computational materials science', 'Pyiron', 'Simmate', 'MGI JSON Schema']</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['http://demo.fiz-karlsruhe.de/matwerk/E42042', 'http://demo.fiz-karlsruhe.de/matwerk/E67431', 'http://demo.fiz-karlsruhe.de/matwerk/E49517', 'http://demo.fiz-karlsruhe.de/matwerk/E71126', 'http://www.wikidata.org/entity/Q85753722']</t>
+          <t>['http://demo.fiz-karlsruhe.de/matwerk/E1066071', 'http://demo.fiz-karlsruhe.de/matwerk/E67431', 'http://demo.fiz-karlsruhe.de/matwerk/E594506', 'http://demo.fiz-karlsruhe.de/matwerk/E497507', 'http://demo.fiz-karlsruhe.de/matwerk/E42042', 'http://demo.fiz-karlsruhe.de/matwerk/E483654', 'http://demo.fiz-karlsruhe.de/matwerk/E1161527', 'http://demo.fiz-karlsruhe.de/matwerk/E38676', 'http://demo.fiz-karlsruhe.de/matwerk/E492537', 'http://demo.fiz-karlsruhe.de/matwerk/E1067531', 'http://demo.fiz-karlsruhe.de/matwerk/E457491', 'http://demo.fiz-karlsruhe.de/matwerk/E49517', 'http://demo.fiz-karlsruhe.de/matwerk/E71126']</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('http://demo.fiz-karlsruhe.de/matwerk/E1066071', 'mwo:description', '"An informatics platform for polymer property prediction and design using machine learning"'), ('http://demo.fiz-karlsruhe.de/matwerk/E1066071', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal'), ('http://demo.fiz-karlsruhe.de/matwerk/E67431', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/AcademicDiscipline'), ('http://demo.fiz-karlsruhe.de/matwerk/E594506', 'dcterms:description', '"The Simulated Materials Ecosystem (Simmate) is a toolbox and framework for computational materials research. It lets you explore various crystal databases, predict new materials, and quickly calculate properties."'), ('http://demo.fiz-karlsruhe.de/matwerk/E594506', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E497507', 'dcterms:description', '"Python library for data mining the properties of materials."'), ('http://demo.fiz-karlsruhe.de/matwerk/E497507', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E42042', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/AcademicDiscipline'), ('http://demo.fiz-karlsruhe.de/matwerk/E483654', 'dcterms:description', '"The freud Python library provides a simple, flexible, powerful set of tools for analyzing trajectories obtained from molecular dynamics or Monte Carlo simulations. "'), ('http://demo.fiz-karlsruhe.de/matwerk/E483654', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E1161527', 'mwo:description', '"The purpose of this repository is to enable community development of JSON schema within materials science and engineering."'), ('http://demo.fiz-karlsruhe.de/matwerk/E1161527', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/MetadataSchema'), ('http://demo.fiz-karlsruhe.de/matwerk/E38676', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/AcademicDiscipline'), ('http://demo.fiz-karlsruhe.de/matwerk/E492537', 'dcterms:description', '"Python library for computational thermodynamics using the CALPHAD method."'), ('http://demo.fiz-karlsruhe.de/matwerk/E492537', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E1067531', 'mwo:description', '"A simple way to publish, discover, and access materials datasets"'), ('http://demo.fiz-karlsruhe.de/matwerk/E1067531', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal'), "('http://demo.fiz-karlsruhe.de/matwerk/E1031331', 'mwo:hasRelatedResource', 'http://demo.fiz-karlsruhe.de/matwerk/E457491')", ('http://demo.fiz-karlsruhe.de/matwerk/E457491', 'dcterms:description', '"pyiron is an integrated development environment for implementing, testing, and running simulations in computational materials science."'), ('http://demo.fiz-karlsruhe.de/matwerk/E457491', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Resource'), ('http://demo.fiz-karlsruhe.de/matwerk/E457491', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/ResearchSoftware'), ('http://demo.fiz-karlsruhe.de/matwerk/E457491', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/WorkflowEnvironment'), ('http://demo.fiz-karlsruhe.de/matwerk/E457491', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E457491', 'rdf:type', 'http://www.ebi.ac.uk/swo/SWO_0000001'), ('http://demo.fiz-karlsruhe.de/matwerk/E49517', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/AcademicDiscipline'), ('http://demo.fiz-karlsruhe.de/matwerk/E71126', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/AcademicDiscipline')]</t>
         </is>
       </c>
     </row>
@@ -926,27 +926,27 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>['http://www.w3.org/2002/07/owl#annotatedSource', 'http://purl.org/dc/terms/bibliographicCitation', 'http://www.w3.org/2000/01/rdf-schema#seeAlso', 'http://purl.obolibrary.org/obo/IAO_0000116', 'http://purl.org/dc/terms/description', 'http://purls.helmholtz-metadaten.de/mwo/description', 'http://www.w3.org/2002/07/owl#annotatedTarget', 'http://www.geneontology.org/formats/oboInOwl#hasRelatedSynonym', 'https://schema.org/citation']</t>
+          <t>['http://emmo.info/emmo#EMMO_967080e5_2f42_4eb2_a3a9_c58143e835f9', 'http://www.w3.org/2002/07/owl#sameAs', 'http://purls.helmholtz-metadaten.de/mwo/hasExpertiseIn', 'http://purl.obolibrary.org/obo/IAO_0000116', 'http://purl.obolibrary.org/obo/IAO_0000115', 'http://www.w3.org/2002/07/owl#onProperty', 'http://purls.helmholtz-metadaten.de/mwo/instrumentModel', 'http://purls.helmholtz-metadaten.de/mwo/relatedTaskArea', 'http://www.w3.org/1999/02/22-rdf-syntax-ns#rest']</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>['owl:annotatedSource', 'dcterms:bibliographicCitation', 'rdfs:seeAlso', 'ns2:IAO_0000116', 'dcterms:description', 'mwo:description', 'owl:annotatedTarget', 'ns4:hasRelatedSynonym', 'schema:citation']</t>
+          <t>['owl:annotatedSource', 'dcterms:bibliographicCitation', 'rdfs:seeAlso', 'ns2:IAO_0000116', 'dcterms:description', 'mwo:description', 'owl:annotatedTarget', 'ns4:hasRelatedSynonym', 'schema:citation', 'rdf:type']</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['Pyrho', 'Pyiron', 'pyDOE', 'cython', 'Cython', 'http://pyiron.org/swimm-workshop-2021/README.html']</t>
+          <t>['pyDOE', 'cython', 'Pyretis', 'Pyrho', 'https://github.com/pyiron/potentials-workshop-2021', 'Pyiron']</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['http://demo.fiz-karlsruhe.de/matwerk/E405551', 'http://demo.fiz-karlsruhe.de/matwerk/E510546', 'http://www.wikidata.org/entity/Q975594', 'http://demo.fiz-karlsruhe.de/matwerk/E598872', 'http://demo.fiz-karlsruhe.de/matwerk/E457491', 'http://demo.fiz-karlsruhe.de/matwerk/E845351']</t>
+          <t>['http://demo.fiz-karlsruhe.de/matwerk/E598872', 'http://demo.fiz-karlsruhe.de/matwerk/E410061', 'http://demo.fiz-karlsruhe.de/matwerk/E510546', 'http://demo.fiz-karlsruhe.de/matwerk/E457491', 'http://demo.fiz-karlsruhe.de/matwerk/E475826', 'http://demo.fiz-karlsruhe.de/matwerk/E845351']</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>[('http://demo.fiz-karlsruhe.de/matwerk/E510546', 'dcterms:description', '"Pyrho is a real-space DFT code written in Python. It is not built to be super-fast or scalable- instead, it is built to be super-readable.  There\'s a tutorial notebook (tutorial.ipynb) to guide you through the process of building Pyrho from scratch (starting with the 1D Schroedinger equation). This notebook is based on interactive lectures given by Prof. Joerg Neugebauer."'), ('http://demo.fiz-karlsruhe.de/matwerk/E457491', 'dcterms:description', '"pyiron is an integrated development environment for implementing, testing, and running simulations in computational materials science."'), ('http://demo.fiz-karlsruhe.de/matwerk/E457491', 'schema:citation', 'http://demo.fiz-karlsruhe.de/matwerk/E911576')]</t>
+          <t>[('http://demo.fiz-karlsruhe.de/matwerk/E598872', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E410061', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Website'), ('http://demo.fiz-karlsruhe.de/matwerk/E510546', 'dcterms:description', '"Pyrho is a real-space DFT code written in Python. It is not built to be super-fast or scalable- instead, it is built to be super-readable.  There\'s a tutorial notebook (tutorial.ipynb) to guide you through the process of building Pyrho from scratch (starting with the 1D Schroedinger equation). This notebook is based on interactive lectures given by Prof. Joerg Neugebauer."'), ('http://demo.fiz-karlsruhe.de/matwerk/E510546', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E457491', 'dcterms:description', '"pyiron is an integrated development environment for implementing, testing, and running simulations in computational materials science."'), ('http://demo.fiz-karlsruhe.de/matwerk/E457491', 'schema:citation', 'http://demo.fiz-karlsruhe.de/matwerk/E911576'), ('http://demo.fiz-karlsruhe.de/matwerk/E457491', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Resource'), ('http://demo.fiz-karlsruhe.de/matwerk/E457491', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/ResearchSoftware'), ('http://demo.fiz-karlsruhe.de/matwerk/E457491', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/WorkflowEnvironment'), ('http://demo.fiz-karlsruhe.de/matwerk/E457491', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E457491', 'rdf:type', 'http://www.ebi.ac.uk/swo/SWO_0000001'), ('http://demo.fiz-karlsruhe.de/matwerk/E475826', 'dcterms:description', '"Python library for rare event molecular simulations with emphasis on methods based on transition interface sampling and replica exchange transition interface sampling"'), ('http://demo.fiz-karlsruhe.de/matwerk/E475826', 'schema:citation', 'http://demo.fiz-karlsruhe.de/matwerk/E918336'), ('http://demo.fiz-karlsruhe.de/matwerk/E475826', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E845351', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/ProgrammingLanguage')]</t>
         </is>
       </c>
     </row>
@@ -973,27 +973,27 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>['http://purl.org/dc/terms/description', 'http://purls.helmholtz-metadaten.de/mwo/description', 'http://purl.org/dc/terms/bibliographicCitation', 'http://www.geneontology.org/formats/oboInOwl#hasDefinition', 'http://www.w3.org/2004/02/skos/core#definition', 'http://purls.helmholtz-metadaten.de/mwo/hasDocumentation', 'https://schema.org/citation', 'http://purl.obolibrary.org/obo/IAO_0000119', 'http://purl.obolibrary.org/obo/IAO_0000600']</t>
+          <t>['http://purl.obolibrary.org/obo/IAO_0000115', 'http://www.w3.org/2002/07/owl#onProperty', 'http://www.w3.org/2002/07/owl#sameAs', 'http://xmlns.com/foaf/0.1/firstName', 'http://www.w3.org/1999/02/22-rdf-syntax-ns#type', 'https://w3id.org/scholarlydata/ontology/conference-ontology.owl#duration', 'http://www.w3.org/1999/02/22-rdf-syntax-ns#rest', 'http://purls.helmholtz-metadaten.de/mwo/hasContactPoint', 'http://purls.helmholtz-metadaten.de/mwo/hasVersion']</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>['dcterms:description', 'mwo:description', 'dcterms:bibliographicCitation', 'ns4:hasDefinition', 'skos:definition', 'mwo:hasDocumentation', 'schema:citation', 'ns2:IAO_0000119', 'ns2:IAO_0000600']</t>
+          <t>['dcterms:description', 'mwo:description', 'dcterms:bibliographicCitation', 'ns4:hasDefinition', 'skos:definition', 'mwo:hasDocumentation', 'schema:citation', 'ns2:IAO_0000119', 'ns2:IAO_0000600', 'rdf:type']</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['Mechanical Behavior of Interface-Dominated Materials', 'hyperelastic materials', 'C.A. Becker, F. Tavazza, Z.T. Trautt, and R.A. Buarque de Macedoc (2013), "Considerations for choosing and using force fields and interatomic potentials in materials science and engineering," Current Opinion in Solid State and Materials Science, 17, 277-283. DOI: 10.1016/j.cossms.2013.10.001 L.M. Hale, Z.T. Trautt, and C.A. Becker (2018), "Evaluating variability with atomistic simulations: the effect of potential and calculation methodology on the modeling of lattice and elastic constants," Modelling and Simulation in Materials Science and Engineering, 26, 055003. DOI: 10.1088/1361-651X/aabc05', 'Image based prediction of the heat conduction tensor', 'Homogenization of elastic', 'Analytic bond-order potentials']</t>
+          <t>['The ITAP Molecular Dynamics Program', 'NGLview', 'hyperelastic materials', 'Image based prediction of the heat conduction tensor', 'pacemaker', 'Interatomic potentials repository (NIST)', 'Homogenization of elastic', 'C.A. Becker, F. Tavazza, Z.T. Trautt, and R.A. Buarque de Macedoc (2013), "Considerations for choosing and using force fields and interatomic potentials in materials science and engineering," Current Opinion in Solid State and Materials Science, 17, 277-283. DOI: 10.1016/j.cossms.2013.10.001 L.M. Hale, Z.T. Trautt, and C.A. Becker (2018), "Evaluating variability with atomistic simulations: the effect of potential and calculation methodology on the modeling of lattice and elastic constants," Modelling and Simulation in Materials Science and Engineering, 26, 055003. DOI: 10.1088/1361-651X/aabc05', 'Workshop: Workflows for atomistic simulations', 'Analytic bond-order potentials', 'mendeleev', 'potentials repository', 'Mechanical Behavior of Interface-Dominated Materials', 'The Science Hub for Atomic-scale Research at Chalmers']</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['http://demo.fiz-karlsruhe.de/matwerk/E40341', 'http://demo.fiz-karlsruhe.de/matwerk/E969137', 'http://demo.fiz-karlsruhe.de/matwerk/E47361', 'http://demo.fiz-karlsruhe.de/matwerk/E417329', 'http://demo.fiz-karlsruhe.de/matwerk/E1245850', 'http://demo.fiz-karlsruhe.de/matwerk/E67796']</t>
+          <t>['http://demo.fiz-karlsruhe.de/matwerk/E506516', 'http://demo.fiz-karlsruhe.de/matwerk/E1014177', 'http://purls.helmholtz-metadaten.de/mwo/PotentialsRepository', 'http://demo.fiz-karlsruhe.de/matwerk/E47361', 'http://demo.fiz-karlsruhe.de/matwerk/E484637', 'http://demo.fiz-karlsruhe.de/matwerk/E1245850', 'http://demo.fiz-karlsruhe.de/matwerk/E67796', 'http://demo.fiz-karlsruhe.de/matwerk/E40341', 'http://demo.fiz-karlsruhe.de/matwerk/E448932', 'http://demo.fiz-karlsruhe.de/matwerk/E417329', 'http://demo.fiz-karlsruhe.de/matwerk/E1245321', 'http://demo.fiz-karlsruhe.de/matwerk/E969137', 'http://demo.fiz-karlsruhe.de/matwerk/E499502', 'http://demo.fiz-karlsruhe.de/matwerk/E511556']</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>["('http://demo.fiz-karlsruhe.de/matwerk/E1014177', 'schema:citation', 'http://demo.fiz-karlsruhe.de/matwerk/E969137')", ('http://demo.fiz-karlsruhe.de/matwerk/E417329', 'dcterms:description', '"An open-source code providing a graphical user interface to predict the effective heat conductivity of microstructures and requires only the image data as input. The deployed methods are proposed and validated in the related paper, doi: 10.3390/mca24020057."'), ('http://demo.fiz-karlsruhe.de/matwerk/E417329', 'schema:citation', 'http://demo.fiz-karlsruhe.de/matwerk/E886116')]</t>
+          <t>[('http://demo.fiz-karlsruhe.de/matwerk/E506516', 'dcterms:description', '"Dielectric functions of metallic alloys calculated with time-dependent density functional theory.  Atoms under pressure - Electron configuration and electronegativity of the atoms under compression.  Wulff construction - The classic method for calculating equilibrium nanoparticle shapes in a modern setting. SQS – Generate special quasirandom atomic structures with a few clicks in your browser."'), ('http://demo.fiz-karlsruhe.de/matwerk/E506516', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E1014177', 'mwo:description', '"This repository provides a source for interatomic potentials (force fields), related files, and evaluation tools to help researchers obtain interatomic models and judge their quality and applicability. "'), ('http://demo.fiz-karlsruhe.de/matwerk/E1014177', 'schema:citation', 'http://demo.fiz-karlsruhe.de/matwerk/E969137'), ('http://demo.fiz-karlsruhe.de/matwerk/E1014177', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal'), ('http://purls.helmholtz-metadaten.de/mwo/PotentialsRepository', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('http://demo.fiz-karlsruhe.de/matwerk/E47361', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/AcademicDiscipline'), ('http://demo.fiz-karlsruhe.de/matwerk/E484637', 'dcterms:description', '"Jupyter widget to interactively view molecular structures and trajectories"'), ('http://demo.fiz-karlsruhe.de/matwerk/E484637', 'schema:citation', 'http://demo.fiz-karlsruhe.de/matwerk/E922404'), ('http://demo.fiz-karlsruhe.de/matwerk/E484637', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E1245850', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/AcademicDiscipline'), ('http://demo.fiz-karlsruhe.de/matwerk/E67796', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/AcademicDiscipline'), ('http://demo.fiz-karlsruhe.de/matwerk/E40341', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/AcademicDiscipline'), ('http://demo.fiz-karlsruhe.de/matwerk/E448932', 'dcterms:description', '"IMD is a software package for classical molecular dynamics simulations. Several types of interactions are supported, such as central pair potentials, EAM potentials for metals, Stillinger-Weber and Tersoff potentials for covalent systems, and Gay-Berne potentials for liquid crystals."'), ('http://demo.fiz-karlsruhe.de/matwerk/E448932', 'mwo:hasDocumentation', 'http://demo.fiz-karlsruhe.de/matwerk/E257687'), ('http://demo.fiz-karlsruhe.de/matwerk/E448932', 'schema:citation', 'http://demo.fiz-karlsruhe.de/matwerk/E907532'), ('http://demo.fiz-karlsruhe.de/matwerk/E448932', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/ResearchSoftware'), ('http://demo.fiz-karlsruhe.de/matwerk/E448932', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E417329', 'dcterms:description', '"An open-source code providing a graphical user interface to predict the effective heat conductivity of microstructures and requires only the image data as input. The deployed methods are proposed and validated in the related paper, doi: 10.3390/mca24020057."'), ('http://demo.fiz-karlsruhe.de/matwerk/E417329', 'schema:citation', 'http://demo.fiz-karlsruhe.de/matwerk/E886116'), ('http://demo.fiz-karlsruhe.de/matwerk/E417329', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/ResearchSoftware'), ('http://demo.fiz-karlsruhe.de/matwerk/E417329', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E1245321', 'mwo:description', '"Workshop lectures and videos from fitting of interatomic potentials to validating them."'), ('http://demo.fiz-karlsruhe.de/matwerk/E1245321', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/EducationalResource'), "('http://demo.fiz-karlsruhe.de/matwerk/E1014177', 'schema:citation', 'http://demo.fiz-karlsruhe.de/matwerk/E969137')", ('http://demo.fiz-karlsruhe.de/matwerk/E969137', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Publication'), ('http://demo.fiz-karlsruhe.de/matwerk/E499502', 'dcterms:description', '"A python package for accessing various properties of elements, ions and isotopes in the periodic table of elements."'), ('http://demo.fiz-karlsruhe.de/matwerk/E499502', 'mwo:hasDocumentation', 'http://demo.fiz-karlsruhe.de/matwerk/E274431'), ('http://demo.fiz-karlsruhe.de/matwerk/E499502', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E511556', 'dcterms:description', '"a tool for fitting of interatomic potentials in a general nonlinear Atomic Cluster Expansion (ACE) form. "'), ('http://demo.fiz-karlsruhe.de/matwerk/E511556', 'mwo:hasDocumentation', 'http://demo.fiz-karlsruhe.de/matwerk/E275912'), ('http://demo.fiz-karlsruhe.de/matwerk/E511556', 'schema:citation', 'http://demo.fiz-karlsruhe.de/matwerk/E945626'), ('http://demo.fiz-karlsruhe.de/matwerk/E511556', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E511556', 'rdf:type', 'http://www.ebi.ac.uk/swo/SWO_0000001')]</t>
         </is>
       </c>
     </row>
@@ -1015,32 +1015,32 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>['uses software', 'has example of usage', 'has repository', 'required tool', 'uses method', 'uses technology', 'has file Extension', 'has software', 'has annotated source ']</t>
+          <t>['uses software', 'has example of usage', 'has repository', 'required tool', 'uses method', 'uses technology', 'has file Extension', 'has annotated source ', 'has programming Language ']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>['http://www.ebi.ac.uk/swo/SWO_0000082', 'http://purl.obolibrary.org/obo/IAO_0000112', 'http://purls.helmholtz-metadaten.de/mwo/hasRepository', 'http://purls.helmholtz-metadaten.de/mwo/requiredTool', 'http://purls.helmholtz-metadaten.de/mwo/usesMethod', 'http://purls.helmholtz-metadaten.de/mwo/usesTechnology', 'http://nfdi.fiz-karlsruhe.de/ontology/fileExtension', 'https://nfdi.fiz-karlsruhe.de/ontology/Software', 'http://www.w3.org/2002/07/owl#annotatedSource']</t>
+          <t>['http://purls.helmholtz-metadaten.de/mwo/hasContributor', 'http://nfdi.fiz-karlsruhe.de/ontology/relatedProject', 'http://purls.helmholtz-metadaten.de/mwo/usesTechnology', 'http://purls.helmholtz-metadaten.de/mwo/hasWebsite', 'http://purl.obolibrary.org/obo/IAO_0000600', 'http://purls.helmholtz-metadaten.de/mwo/conformsToSpecification', 'http://purl.obolibrary.org/obo/IAO_0000118', 'http://emmo.info/emmo#EMMO_967080e5_2f42_4eb2_a3a9_c58143e835f9', 'http://purl.obolibrary.org/obo/IAO_0000117']</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>['ns3:SWO_0000082', 'ns2:IAO_0000112', 'mwo:hasRepository', 'mwo:requiredTool', 'mwo:usesMethod', 'mwo:usesTechnology', 'nfdicore:fileExtension', 'nfdicore:Software', 'owl:annotatedSource', 'mwo:description', 'dcterms:description']</t>
+          <t>['ns3:SWO_0000082', 'ns2:IAO_0000112', 'mwo:hasRepository', 'mwo:requiredTool', 'mwo:usesMethod', 'mwo:usesTechnology', 'nfdicore:fileExtension', 'owl:annotatedSource', 'nfdicore:programmingLanguage', 'mwo:description', 'dcterms:description', 'rdf:type']</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['Java', 'measurement processing', 'Materials Commons', 'Materials Cloud', 'metadata ', 'Metadata', 'Python scripts', 'Python', 'python']</t>
+          <t>['measurement processing', 'Java', 'py4vasp', 'icet', 'Calphy', 'Materials Cloud', 'OpenPathSampling', 'matminer', 'Linux', 'Python', 'Materials Commons', 'Cluster Expansion in Atomic Simulation Environment', 'Metadata', 'Plant movement', 'Python scripts', 'EQ2PC', 'python', 'Pyscal']</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['http://demo.fiz-karlsruhe.de/matwerk/E833696', 'http://demo.fiz-karlsruhe.de/matwerk/E1086602', 'http://demo.fiz-karlsruhe.de/matwerk/E69636', 'http://demo.fiz-karlsruhe.de/matwerk/E1245727', 'http://demo.fiz-karlsruhe.de/matwerk/E832406', 'http://demo.fiz-karlsruhe.de/matwerk/E836279', 'http://www.wikidata.org/entity/Q251', 'http://demo.fiz-karlsruhe.de/matwerk/E1198379', 'http://demo.fiz-karlsruhe.de/matwerk/E1027029', 'http://demo.fiz-karlsruhe.de/matwerk/E38951']</t>
+          <t>['http://demo.fiz-karlsruhe.de/matwerk/E476801', 'http://demo.fiz-karlsruhe.de/matwerk/E832406', 'http://demo.fiz-karlsruhe.de/matwerk/E1245727', 'http://demo.fiz-karlsruhe.de/matwerk/E466131', 'http://demo.fiz-karlsruhe.de/matwerk/E497507', 'http://www.ebi.ac.uk/swo/SWO_0000022', 'http://demo.fiz-karlsruhe.de/matwerk/E414596', 'http://demo.fiz-karlsruhe.de/matwerk/E489567', 'http://demo.fiz-karlsruhe.de/matwerk/E836279', 'http://demo.fiz-karlsruhe.de/matwerk/E69636', 'http://demo.fiz-karlsruhe.de/matwerk/E1198379', 'http://demo.fiz-karlsruhe.de/matwerk/E833696', 'http://demo.fiz-karlsruhe.de/matwerk/E46754', 'http://demo.fiz-karlsruhe.de/matwerk/E413687', 'http://demo.fiz-karlsruhe.de/matwerk/E411872', 'http://demo.fiz-karlsruhe.de/matwerk/E1027029', 'http://demo.fiz-karlsruhe.de/matwerk/E1086602', 'http://demo.fiz-karlsruhe.de/matwerk/E488579']</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>[('http://demo.fiz-karlsruhe.de/matwerk/E1086602', 'mwo:hasRepository', 'http://demo.fiz-karlsruhe.de/matwerk/E393056'), ('http://demo.fiz-karlsruhe.de/matwerk/E1086602', 'mwo:description', '"A site for Materials Scientists to collaborate, store and publish research. The Materials Commons is supported by the U.S. Department of Energy, Office of Basic Energy Sciences, Division of Materials Sciences and Engineering."'), "('http://demo.fiz-karlsruhe.de/matwerk/E1245255', 'mwo:requiredTool', 'http://demo.fiz-karlsruhe.de/matwerk/E836279')", "('http://demo.fiz-karlsruhe.de/matwerk/E1245256', 'mwo:requiredTool', 'http://demo.fiz-karlsruhe.de/matwerk/E836279')", "('http://demo.fiz-karlsruhe.de/matwerk/E1245258', 'mwo:requiredTool', 'http://demo.fiz-karlsruhe.de/matwerk/E836279')", ('http://demo.fiz-karlsruhe.de/matwerk/E1027029', 'mwo:hasRepository', 'http://demo.fiz-karlsruhe.de/matwerk/E390404'), "('http://demo.fiz-karlsruhe.de/matwerk/E1245291', 'mwo:requiredTool', 'http://demo.fiz-karlsruhe.de/matwerk/E1027029')", ('http://demo.fiz-karlsruhe.de/matwerk/E1027029', 'mwo:description', '"Materials Cloud is built to enable the seamless sharing and dissemination of resources in computational materials science, offering educational, research, and archiving tools; simulation software and services; and curated and raw data. These underpin published results and empower data-based discovery, compliant with data management plans and the FAIR principles."')]</t>
+          <t>[('http://demo.fiz-karlsruhe.de/matwerk/E476801', 'mwo:hasRepository', 'http://demo.fiz-karlsruhe.de/matwerk/E184316'), ('http://demo.fiz-karlsruhe.de/matwerk/E434847', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E481691', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E458447', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E467096', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E492537', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E497507', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E479732', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E484637', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E494522', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E498504', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E433916', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E1246567', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E493529', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E466131', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E499502', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E473879', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E475826', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E496511', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E474852', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E428351', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E477777', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E457491', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E420987', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E502502', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E483654', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E422822', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E495516', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E453677', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E411872', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E456536', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E489567', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E460362', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E1246593', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E413687', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E446097', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E485621', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E593417', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E1246648', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E500501', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E490556', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E455582', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E471936', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E468062', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E486606', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E414596', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E480711', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E504507', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E655941', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E476801', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E503504', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E552776', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E478754', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E417329', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E491546', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E487592', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E476801', 'dcterms:description', '"Python library to facilitate path sampling algorithms."'), ('http://demo.fiz-karlsruhe.de/matwerk/E476801', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), "('http://demo.fiz-karlsruhe.de/matwerk/E419156', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E832406')", ('http://demo.fiz-karlsruhe.de/matwerk/E832406', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/ProgrammingLanguage'), ('http://demo.fiz-karlsruhe.de/matwerk/E1245727', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/AcademicDiscipline'), ('http://demo.fiz-karlsruhe.de/matwerk/E466131', 'mwo:hasRepository', 'http://demo.fiz-karlsruhe.de/matwerk/E178907'), ('http://demo.fiz-karlsruhe.de/matwerk/E448932', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E828542'), ('http://demo.fiz-karlsruhe.de/matwerk/E436712', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E828542'), ('http://demo.fiz-karlsruhe.de/matwerk/E494522', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E828542'), ('http://demo.fiz-karlsruhe.de/matwerk/E466131', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E828542'), ('http://demo.fiz-karlsruhe.de/matwerk/E450827', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E828542'), ('http://demo.fiz-karlsruhe.de/matwerk/E447986', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E828542'), ('http://demo.fiz-karlsruhe.de/matwerk/E483654', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E828542'), ('http://demo.fiz-karlsruhe.de/matwerk/E453677', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E828542'), ('http://demo.fiz-karlsruhe.de/matwerk/E495516', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E828542'), ('http://demo.fiz-karlsruhe.de/matwerk/E419156', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E828542'), ('http://demo.fiz-karlsruhe.de/matwerk/E416417', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E828542'), ('http://demo.fiz-karlsruhe.de/matwerk/E472907', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E828542'), ('http://demo.fiz-karlsruhe.de/matwerk/E413687', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E828542'), ('http://demo.fiz-karlsruhe.de/matwerk/E452726', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E828542'), ('http://demo.fiz-karlsruhe.de/matwerk/E455582', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E828542'), ('http://demo.fiz-karlsruhe.de/matwerk/E466131', 'dcterms:description', '"Python interface to extract data from VASP calculations"'), ('http://demo.fiz-karlsruhe.de/matwerk/E466131', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E497507', 'mwo:hasRepository', 'http://demo.fiz-karlsruhe.de/matwerk/E196626'), ('http://demo.fiz-karlsruhe.de/matwerk/E497507', 'dcterms:description', '"Python library for data mining the properties of materials."'), ('http://demo.fiz-karlsruhe.de/matwerk/E497507', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://www.ebi.ac.uk/swo/SWO_0000022', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('http://demo.fiz-karlsruhe.de/matwerk/E414596', 'mwo:hasRepository', 'http://demo.fiz-karlsruhe.de/matwerk/E160896'), ('http://demo.fiz-karlsruhe.de/matwerk/E414596', 'dcterms:description', '"A python script to implement the generation of discrete periodic structures with identical 2-point correlation."'), ('http://demo.fiz-karlsruhe.de/matwerk/E414596', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/ResearchSoftware'), ('http://demo.fiz-karlsruhe.de/matwerk/E414596', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E489567', 'mwo:hasRepository', 'http://demo.fiz-karlsruhe.de/matwerk/E191654'), ('http://demo.fiz-karlsruhe.de/matwerk/E489567', 'dcterms:description', '"icet is a python tool for the construction and sampling of alloy cluster expansions."'), ('http://demo.fiz-karlsruhe.de/matwerk/E489567', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), "('http://demo.fiz-karlsruhe.de/matwerk/E1245258', 'mwo:requiredTool', 'http://demo.fiz-karlsruhe.de/matwerk/E836279')", "('http://demo.fiz-karlsruhe.de/matwerk/E1245255', 'mwo:requiredTool', 'http://demo.fiz-karlsruhe.de/matwerk/E836279')", "('http://demo.fiz-karlsruhe.de/matwerk/E1245256', 'mwo:requiredTool', 'http://demo.fiz-karlsruhe.de/matwerk/E836279')", "('http://demo.fiz-karlsruhe.de/matwerk/E489567', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279')", "('http://demo.fiz-karlsruhe.de/matwerk/E428351', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279')", "('http://demo.fiz-karlsruhe.de/matwerk/E446097', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279')", "('http://demo.fiz-karlsruhe.de/matwerk/E455582', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279')", "('http://demo.fiz-karlsruhe.de/matwerk/E496511', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279')", "('http://demo.fiz-karlsruhe.de/matwerk/E433916', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279')", "('http://demo.fiz-karlsruhe.de/matwerk/E458447', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279')", "('http://demo.fiz-karlsruhe.de/matwerk/E500501', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279')", "('http://demo.fiz-karlsruhe.de/matwerk/E473879', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279')", "('http://demo.fiz-karlsruhe.de/matwerk/E492537', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279')", "('http://demo.fiz-karlsruhe.de/matwerk/E422822', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279')", "('http://demo.fiz-karlsruhe.de/matwerk/E434847', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279')", "('http://demo.fiz-karlsruhe.de/matwerk/E478754', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279')", "('http://demo.fiz-karlsruhe.de/matwerk/E1246593', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279')", "('http://demo.fiz-karlsruhe.de/matwerk/E475826', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279')", "('http://demo.fiz-karlsruhe.de/matwerk/E479732', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279')", "('http://demo.fiz-karlsruhe.de/matwerk/E487592', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279')", "('http://demo.fiz-karlsruhe.de/matwerk/E468062', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279')", "('http://demo.fiz-karlsruhe.de/matwerk/E481691', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279')", "('http://demo.fiz-karlsruhe.de/matwerk/E498504', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279')", "('http://demo.fiz-karlsruhe.de/matwerk/E491546', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279')", "('http://demo.fiz-karlsruhe.de/matwerk/E552776', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279')", "('http://demo.fiz-karlsruhe.de/matwerk/E467096', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279')", "('http://demo.fiz-karlsruhe.de/matwerk/E655941', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279')", "('http://demo.fiz-karlsruhe.de/matwerk/E503504', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279')", "('http://demo.fiz-karlsruhe.de/matwerk/E456536', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279')", "('http://demo.fiz-karlsruhe.de/matwerk/E471936', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279')", "('http://demo.fiz-karlsruhe.de/matwerk/E417329', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279')", "('http://demo.fiz-karlsruhe.de/matwerk/E483654', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279')", "('http://demo.fiz-karlsruhe.de/matwerk/E477777', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279')", "('http://demo.fiz-karlsruhe.de/matwerk/E504507', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279')", "('http://demo.fiz-karlsruhe.de/matwerk/E484637', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279')", "('http://demo.fiz-karlsruhe.de/matwerk/E411872', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279')", "('http://demo.fiz-karlsruhe.de/matwerk/E480711', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279')", "('http://demo.fiz-karlsruhe.de/matwerk/E593417', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279')", "('http://demo.fiz-karlsruhe.de/matwerk/E1246567', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279')", "('http://demo.fiz-karlsruhe.de/matwerk/E476801', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279')", "('http://demo.fiz-karlsruhe.de/matwerk/E490556', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279')", "('http://demo.fiz-karlsruhe.de/matwerk/E499502', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279')", "('http://demo.fiz-karlsruhe.de/matwerk/E414596', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279')", "('http://demo.fiz-karlsruhe.de/matwerk/E486606', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279')", "('http://demo.fiz-karlsruhe.de/matwerk/E497507', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279')", "('http://demo.fiz-karlsruhe.de/matwerk/E494522', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279')", "('http://demo.fiz-karlsruhe.de/matwerk/E460362', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279')", "('http://demo.fiz-karlsruhe.de/matwerk/E413687', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279')", "('http://demo.fiz-karlsruhe.de/matwerk/E495516', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279')", "('http://demo.fiz-karlsruhe.de/matwerk/E502502', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279')", "('http://demo.fiz-karlsruhe.de/matwerk/E420987', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279')", "('http://demo.fiz-karlsruhe.de/matwerk/E1246648', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279')", "('http://demo.fiz-karlsruhe.de/matwerk/E453677', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279')", "('http://demo.fiz-karlsruhe.de/matwerk/E474852', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279')", "('http://demo.fiz-karlsruhe.de/matwerk/E493529', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279')", "('http://demo.fiz-karlsruhe.de/matwerk/E457491', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279')", "('http://demo.fiz-karlsruhe.de/matwerk/E485621', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279')", "('http://demo.fiz-karlsruhe.de/matwerk/E466131', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279')", ('http://demo.fiz-karlsruhe.de/matwerk/E836279', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/ProgrammingLanguage'), ('http://demo.fiz-karlsruhe.de/matwerk/E836279', 'rdf:type', 'http://www.ebi.ac.uk/swo/SWO_0000001'), ('http://demo.fiz-karlsruhe.de/matwerk/E69636', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/AcademicDiscipline'), ('http://demo.fiz-karlsruhe.de/matwerk/E1198379', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/ObjectType'), "('http://demo.fiz-karlsruhe.de/matwerk/E637757', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E833696')", "('http://demo.fiz-karlsruhe.de/matwerk/E422822', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E833696')", "('http://demo.fiz-karlsruhe.de/matwerk/E636629', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E833696')", ('http://demo.fiz-karlsruhe.de/matwerk/E833696', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/ProgrammingLanguage'), ('http://demo.fiz-karlsruhe.de/matwerk/E46754', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/AcademicDiscipline'), ('http://demo.fiz-karlsruhe.de/matwerk/E413687', 'mwo:hasRepository', 'http://demo.fiz-karlsruhe.de/matwerk/E160331'), ('http://demo.fiz-karlsruhe.de/matwerk/E450827', 'mwo:usesMethod', 'http://demo.fiz-karlsruhe.de/matwerk/E616496'), ('http://demo.fiz-karlsruhe.de/matwerk/E413687', 'mwo:usesMethod', 'http://demo.fiz-karlsruhe.de/matwerk/E63482'), ('http://demo.fiz-karlsruhe.de/matwerk/E411872', 'mwo:usesMethod', 'http://demo.fiz-karlsruhe.de/matwerk/E63482'), ('http://demo.fiz-karlsruhe.de/matwerk/E412779', 'mwo:usesMethod', 'http://demo.fiz-karlsruhe.de/matwerk/E63482'), ('http://demo.fiz-karlsruhe.de/matwerk/E448932', 'mwo:usesMethod', 'http://demo.fiz-karlsruhe.de/matwerk/E616496'), ('http://demo.fiz-karlsruhe.de/matwerk/E447986', 'mwo:usesMethod', 'http://demo.fiz-karlsruhe.de/matwerk/E616496'), ('http://demo.fiz-karlsruhe.de/matwerk/E449879', 'mwo:usesMethod', 'http://demo.fiz-karlsruhe.de/matwerk/E63482'), ('http://demo.fiz-karlsruhe.de/matwerk/E411872', 'mwo:usesMethod', 'http://demo.fiz-karlsruhe.de/matwerk/E616496'), ('http://demo.fiz-karlsruhe.de/matwerk/E460362', 'mwo:usesMethod', 'http://demo.fiz-karlsruhe.de/matwerk/E63482'), ('http://demo.fiz-karlsruhe.de/matwerk/E433916', 'mwo:usesMethod', 'http://demo.fiz-karlsruhe.de/matwerk/E63482'), ('http://demo.fiz-karlsruhe.de/matwerk/E450827', 'mwo:usesMethod', 'http://demo.fiz-karlsruhe.de/matwerk/E63482'), ('http://demo.fiz-karlsruhe.de/matwerk/E413687', 'mwo:usesMethod', 'http://demo.fiz-karlsruhe.de/matwerk/E616496'), ('http://demo.fiz-karlsruhe.de/matwerk/E412779', 'mwo:usesMethod', 'http://demo.fiz-karlsruhe.de/matwerk/E616496'), ('http://demo.fiz-karlsruhe.de/matwerk/E449879', 'mwo:usesMethod', 'http://demo.fiz-karlsruhe.de/matwerk/E616496'), ('http://demo.fiz-karlsruhe.de/matwerk/E448932', 'mwo:usesMethod', 'http://demo.fiz-karlsruhe.de/matwerk/E63482'), ('http://demo.fiz-karlsruhe.de/matwerk/E447986', 'mwo:usesMethod', 'http://demo.fiz-karlsruhe.de/matwerk/E63482'), ('http://demo.fiz-karlsruhe.de/matwerk/E433916', 'mwo:usesMethod', 'http://demo.fiz-karlsruhe.de/matwerk/E616496'), ('http://demo.fiz-karlsruhe.de/matwerk/E413687', 'dcterms:description', '"Python library written in C++ for calculation of local atomic structural environment"'), ('http://demo.fiz-karlsruhe.de/matwerk/E413687', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/ProcessingSoftware'), ('http://demo.fiz-karlsruhe.de/matwerk/E413687', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E413687', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/ResearchSoftware'), ('http://demo.fiz-karlsruhe.de/matwerk/E411872', 'mwo:hasRepository', 'http://demo.fiz-karlsruhe.de/matwerk/E159204'), ('http://demo.fiz-karlsruhe.de/matwerk/E411872', 'dcterms:description', '"Python library and command line tool for calculation of free energies"'), ('http://demo.fiz-karlsruhe.de/matwerk/E411872', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E411872', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/ResearchSoftware'), ('http://demo.fiz-karlsruhe.de/matwerk/E1027029', 'mwo:hasRepository', 'http://demo.fiz-karlsruhe.de/matwerk/E390404'), "('http://demo.fiz-karlsruhe.de/matwerk/E1245291', 'mwo:requiredTool', 'http://demo.fiz-karlsruhe.de/matwerk/E1027029')", ('http://demo.fiz-karlsruhe.de/matwerk/E1027029', 'mwo:description', '"Materials Cloud is built to enable the seamless sharing and dissemination of resources in computational materials science, offering educational, research, and archiving tools; simulation software and services; and curated and raw data. These underpin published results and empower data-based discovery, compliant with data management plans and the FAIR principles."'), ('http://demo.fiz-karlsruhe.de/matwerk/E1027029', 'rdf:type', 'http://www.ebi.ac.uk/swo/SWO_0000001'), ('http://demo.fiz-karlsruhe.de/matwerk/E1027029', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal'), ('http://demo.fiz-karlsruhe.de/matwerk/E1086602', 'mwo:hasRepository', 'http://demo.fiz-karlsruhe.de/matwerk/E393056'), ('http://demo.fiz-karlsruhe.de/matwerk/E1086602', 'mwo:description', '"A site for Materials Scientists to collaborate, store and publish research. The Materials Commons is supported by the U.S. Department of Energy, Office of Basic Energy Sciences, Division of Materials Sciences and Engineering."'), ('http://demo.fiz-karlsruhe.de/matwerk/E1086602', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal'), ('http://demo.fiz-karlsruhe.de/matwerk/E488579', 'mwo:hasRepository', 'http://demo.fiz-karlsruhe.de/matwerk/E191037'), ('http://demo.fiz-karlsruhe.de/matwerk/E488579', 'dcterms:description', '"package that automates the cumbersome setup and construction procedure of cluster expansion (CE). It provides a comprehensive list of tools for specifying parameters for CE, generating training structures, fitting effective cluster interaction (ECI) values and running Monte Carlo simulations."'), ('http://demo.fiz-karlsruhe.de/matwerk/E488579', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software')]</t>
         </is>
       </c>
     </row>
@@ -1067,7 +1067,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>['http://www.w3.org/1999/02/22-rdf-syntax-ns#type', 'http://nfdi.fiz-karlsruhe.de/ontology/objectType', 'http://purl.org/dc/elements/1.1/contributor', 'http://purls.helmholtz-metadaten.de/mwo/usesMethod', 'http://purl.obolibrary.org/obo/IAO_0000112', 'http://purl.obolibrary.org/obo/IAO_0000119', 'http://purls.helmholtz-metadaten.de/mwo/instrumentModel', 'http://www.geneontology.org/formats/oboInOwl#hasDefinition', 'http://www.w3.org/2004/02/skos/core#definition']</t>
+          <t>['http://purl.obolibrary.org/obo/IAO_0000111', 'http://purls.helmholtz-metadaten.de/mwo/hasAcronym', 'http://www.w3.org/2002/07/owl#annotatedSource', 'http://purl.obolibrary.org/obo/IAO_0000600', 'http://nfdi.fiz-karlsruhe.de/ontology/relatedProject', 'http://purls.helmholtz-metadaten.de/mwo/hasContactPoint', 'http://www.w3.org/2004/02/skos/core#prefLabel', 'http://xmlns.com/foaf/0.1/firstName', 'http://www.w3.org/1999/02/22-rdf-syntax-ns#type']</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1077,17 +1077,17 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['Jupyter notebooks', 'electronic lab notebook', 'Experimental Workflow', 'Laboratory Instrument', 'Atomic Simulation Environment']</t>
+          <t>['Atomic Simulation Environment', 'Laboratory Instrument', 'Jupyter notebooks', 'Experimental Workflow', 'electronic lab notebook']</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['http://demo.fiz-karlsruhe.de/matwerk/E1199927', 'http://purls.helmholtz-metadaten.de/mwo/ExperimentalWorkflow', 'https://w3id.org/skgo/modsci#LaboratoryInstrument', 'http://purls.helmholtz-metadaten.de/mwo/ElectronicLabNotebook', 'http://demo.fiz-karlsruhe.de/matwerk/E460362']</t>
+          <t>['https://w3id.org/skgo/modsci#LaboratoryInstrument', 'http://demo.fiz-karlsruhe.de/matwerk/E460362', 'http://purls.helmholtz-metadaten.de/mwo/ElectronicLabNotebook', 'http://demo.fiz-karlsruhe.de/matwerk/E1199927', 'http://purls.helmholtz-metadaten.de/mwo/ExperimentalWorkflow']</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>[('http://demo.fiz-karlsruhe.de/matwerk/E1199927', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/ObjectType'), ('http://demo.fiz-karlsruhe.de/matwerk/E1198379', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/ObjectType'), ('http://demo.fiz-karlsruhe.de/matwerk/E1201476', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/ObjectType'), ('http://demo.fiz-karlsruhe.de/matwerk/E1203026', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/ObjectType'), ('http://demo.fiz-karlsruhe.de/matwerk/E1204577', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/ObjectType'), ('http://demo.fiz-karlsruhe.de/matwerk/E1206129', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/ObjectType'), ('http://demo.fiz-karlsruhe.de/matwerk/E1207682', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/ObjectType'), ('http://demo.fiz-karlsruhe.de/matwerk/E1209236', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/ObjectType'), ('http://demo.fiz-karlsruhe.de/matwerk/E1213904', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/ObjectType'), ('http://demo.fiz-karlsruhe.de/matwerk/E1215462', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/ObjectType'), ('http://demo.fiz-karlsruhe.de/matwerk/E1217021', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/ObjectType'), ('http://demo.fiz-karlsruhe.de/matwerk/E1196832', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/ObjectType'), ('http://demo.fiz-karlsruhe.de/matwerk/E1210791', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/ObjectType'), ('http://demo.fiz-karlsruhe.de/matwerk/E1212347', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/ObjectType'), "('http://demo.fiz-karlsruhe.de/matwerk/E1170686', 'nfdicore:objectType', 'http://demo.fiz-karlsruhe.de/matwerk/E1199927')", ('http://purls.helmholtz-metadaten.de/mwo/ExperimentalWorkflow', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('http://nfdi.fiz-karlsruhe.de/ontology/Consortium', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('http://nfdi.fiz-karlsruhe.de/ontology/ProvidedResource', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('http://nfdi.fiz-karlsruhe.de/ontology/ServiceType', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('n1020c7c5c2274736a55b1427c54afb30b1', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('n1020c7c5c2274736a55b1427c54afb30b4', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('n1020c7c5c2274736a55b1427c54afb30b7', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('http://purls.helmholtz-metadaten.de/mwo/ChemistryDatabase', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('http://purls.helmholtz-metadaten.de/mwo/ContactPerson', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('http://purls.helmholtz-metadaten.de/mwo/CrystallographyDatabase', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('http://purls.helmholtz-metadaten.de/mwo/DataCollector', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('http://purls.helmholtz-metadaten.de/mwo/ElectronicLabNotebook', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('http://purls.helmholtz-metadaten.de/mwo/GitRepository', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('http://purls.helmholtz-metadaten.de/mwo/Lecture', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('http://purls.helmholtz-metadaten.de/mwo/MaterialsDatabase', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('http://purls.helmholtz-metadaten.de/mwo/OntologyRepository', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('http://purls.helmholtz-metadaten.de/mwo/Patent', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('http://purls.helmholtz-metadaten.de/mwo/PotentialsRepository', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('http://purls.helmholtz-metadaten.de/mwo/ProjectLeader', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('http://purls.helmholtz-metadaten.de/mwo/Seminar', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('http://purls.helmholtz-metadaten.de/mwo/SoftwareRepository', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('http://purls.helmholtz-metadaten.de/mwo/SummerSchool', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('http://purls.helmholtz-metadaten.de/mwo/TrainingCourse', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('n1020c7c5c2274736a55b1427c54afb30b10', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('n1020c7c5c2274736a55b1427c54afb30b13', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('n1020c7c5c2274736a55b1427c54afb30b16', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('n1020c7c5c2274736a55b1427c54afb30b19', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('n1020c7c5c2274736a55b1427c54afb30b22', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('n1020c7c5c2274736a55b1427c54afb30b25', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('n1020c7c5c2274736a55b1427c54afb30b28', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('n1020c7c5c2274736a55b1427c54afb30b31', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('http://www.ebi.ac.uk/swo/interface/SWO_9000054', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('http://www.ebi.ac.uk/swo/license/SWO_1000009', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('http://www.ebi.ac.uk/swo/license/SWO_1000056', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('http://www.ebi.ac.uk/swo/license/SWO_1000069', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('http://www.ebi.ac.uk/swo/license/SWO_1000095', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('http://www.ebi.ac.uk/swo/license/SWO_1000137', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('http://www.ebi.ac.uk/swo/license/SWO_1000140', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('n1020c7c5c2274736a55b1427c54afb30b42', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('https://w3id.org/scholarlydata/ontology/conference-ontology.owl#Conference', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('https://w3id.org/scholarlydata/ontology/conference-ontology.owl#Talk', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('https://w3id.org/scholarlydata/ontology/conference-ontology.owl#Tutorial', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('https://w3id.org/scholarlydata/ontology/conference-ontology.owl#Workshop', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('https://w3id.org/seo#KeynoteSpeaker', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('https://w3id.org/skgo/modsci#LaboratoryInstrument', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('http://nfdi.fiz-karlsruhe.de/ontology/Collection', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('http://nfdi.fiz-karlsruhe.de/ontology/TechnologicalMeans', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('n1020c7c5c2274736a55b1427c54afb30b45', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('http://purl.org/dc/terms/MediaType', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('http://purls.helmholtz-metadaten.de/mwo/GroupLeader', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('http://purls.helmholtz-metadaten.de/mwo/ParticipantProject', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('http://purls.helmholtz-metadaten.de/mwo/ProjectManager', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('http://purls.helmholtz-metadaten.de/mwo/ProjectMember', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('http://purls.helmholtz-metadaten.de/mwo/Supervisor', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('http://purls.helmholtz-metadaten.de/mwo/WebService', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('n1020c7c5c2274736a55b1427c54afb30b48', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('n1020c7c5c2274736a55b1427c54afb30b51', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('http://schema.org/Organization', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('http://schema.org/Person', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('http://schema.org/Project', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('http://www.ebi.ac.uk/swo/interface/SWO_9000051', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('http://www.ebi.ac.uk/swo/license/SWO_1000008', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('http://www.ebi.ac.uk/swo/license/SWO_1000103', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('https://nfdi.fiz-karlsruhe.de/ontology/Person', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('n1020c7c5c2274736a55b1427c54afb30b54', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('n1020c7c5c2274736a55b1427c54afb30b57', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('https://w3id.org/seo#InvitedSpeakers', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('https://w3id.org/skgo/modsci#ModernScience', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('https://w3id.org/skgo/modsci#ProgrammingLanguage', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('http://nfdi.fiz-karlsruhe.de/ontology/FederalState', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('http://nfdi.fiz-karlsruhe.de/ontology/Standard', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('n1020c7c5c2274736a55b1427c54afb30b60', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('http://purls.helmholtz-metadaten.de/mwo/ResearchTopic', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('http://purls.helmholtz-metadaten.de/mwo/SparqlEndpoint', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('http://purls.helmholtz-metadaten.de/mwo/Workflow', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('http://schema.org/ComputerLanguage', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('https://nfdi.fiz-karlsruhe.de/ontology/Consortium', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('https://w3id.org/skgo/modsci#ScientificInstrument', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('http://nfdi.fiz-karlsruhe.de/ontology/TaskArea', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('http://purls.helmholtz-metadaten.de/mwo/Database', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('http://purls.helmholtz-metadaten.de/mwo/ResearchGroup', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('http://purls.helmholtz-metadaten.de/mwo/UseCase', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('http://purls.helmholtz-metadaten.de/mwo/WorkflowEnvironment', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('http://schema.org/CreativeWork', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('http://schema.org/Intangible', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('http://schema.org/Service', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('http://www.ebi.ac.uk/swo/SWO_9000050', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('https://nfdi.fiz-karlsruhe.de/ontology/Project', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('http://nfdi.fiz-karlsruhe.de/ontology/Country', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('http://nfdi.fiz-karlsruhe.de/ontology/Place', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('https://w3id.org/scholarlydata/ontology/conference-ontology.owl#AcademicEvent', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('http://purls.helmholtz-metadaten.de/mwo/ComputationalWorkflow', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('http://www.ebi.ac.uk/swo/license/SWO_1000002', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('http://nfdi.fiz-karlsruhe.de/ontology/SemanticExpressivity', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('http://purls.helmholtz-metadaten.de/mwo/EducationalEvent', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('http://purls.helmholtz-metadaten.de/mwo/LargeScaleFacility', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('https://w3id.org/skgo/modsci#ScientificInstrumentManufacturer', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('http://www.ebi.ac.uk/swo/SWO_0000020', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('https://w3id.org/skgo/modsci#Technology', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('http://purls.helmholtz-metadaten.de/mwo/MetadataSchema', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('http://purls.helmholtz-metadaten.de/mwo/ProcessingSoftware', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('http://purls.helmholtz-metadaten.de/mwo/VisualizationSoftware', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('http://www.ebi.ac.uk/swo/license/SWO_1000001', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('https://nfdi.fiz-karlsruhe.de/ontology/Organization', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('http://emmo.info/emmo#EMMO_4207e895_8b83_4318_996a_72cfb32acd94', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('http://nfdi.fiz-karlsruhe.de/ontology/Dataset', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('http://purl.obolibrary.org/obo/BFO_0000023', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('http://purl.org/dc/terms/FileFormat', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('http://schema.org/Product', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('http://www.ebi.ac.uk/swo/license/SWO_1000061', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('http://www.ebi.ac.uk/swo/SWO_0000021', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('https://w3id.org/scholarlydata/ontology/conference-ontology.owl#OrganisedEvent', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('http://www.ebi.ac.uk/swo/license/SWO_1000043', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('http://nfdi.fiz-karlsruhe.de/ontology/ObjectType', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('https://w3id.org/skgo/modsci#Instrument', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('http://purls.helmholtz-metadaten.de/mwo/EducationalResource', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('http://nfdi.fiz-karlsruhe.de/ontology/ProgrammingLanguage', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('http://purls.helmholtz-metadaten.de/mwo/SemanticResource', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('http://nfdi.fiz-karlsruhe.de/ontology/Specification', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('http://www.ebi.ac.uk/swo/SWO_9000072', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('http://www.ebi.ac.uk/swo/SWO_0000149', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('http://nfdi.fiz-karlsruhe.de/ontology/City', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('http://purls.helmholtz-metadaten.de/mwo/Method', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('http://www.ebi.ac.uk/swo/SWO_0000022', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('http://www.ebi.ac.uk/swo/SWO_0000001', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('http://purls.helmholtz-metadaten.de/mwo/ContactPoint', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('http://nfdi.fiz-karlsruhe.de/ontology/Project', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('http://www.ebi.ac.uk/swo/SWO_0000002', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('http://purls.helmholtz-metadaten.de/mwo/ResearchSoftware', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('http://nfdi.fiz-karlsruhe.de/ontology/DataPortal', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('http://nfdi.fiz-karlsruhe.de/ontology/Resource', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('n1020c7c5c2274736a55b1427c54afb30b70', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('http://nfdi.fiz-karlsruhe.de/ontology/Organization', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('http://nfdi.fiz-karlsruhe.de/ontology/Publication', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('http://purls.helmholtz-metadaten.de/mwo/Documentation', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('http://nfdi.fiz-karlsruhe.de/ontology/Person', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('http://nfdi.fiz-karlsruhe.de/ontology/AcademicDiscipline', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('http://purls.helmholtz-metadaten.de/mwo/Repository', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('http://nfdi.fiz-karlsruhe.de/ontology/Software', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('http://nfdi.fiz-karlsruhe.de/ontology/Website', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('http://demo.fiz-karlsruhe.de/matwerk/E460362', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E460362', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/ProcessingSoftware'), ('http://demo.fiz-karlsruhe.de/matwerk/E460362', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/ResearchSoftware'), ('http://demo.fiz-karlsruhe.de/matwerk/E460362', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/VisualizationSoftware'), ('http://demo.fiz-karlsruhe.de/matwerk/E1246620', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E1246677', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E1246707', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E411872', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E412779', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E413687', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E414596', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E415506', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E416417', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E417329', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E418242', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E420071', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E420987', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E421904', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E425582', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E426504', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E427427', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E428351', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E429276', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E431129', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E432057', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E432986', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E433916', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E434847', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E435779', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E436712', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E437646', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E438581', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E439517', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E440454', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E441392', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E442331', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E443271', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E444212', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E445154', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E446097', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E447041', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E447986', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E448932', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E449879', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E450827', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E451776', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E452726', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E453677', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E454629', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E455582', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E456536', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E458447', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E459404', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E461321', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E462281', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E463242', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E464204', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E465167', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E466131', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E467096', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E468062', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E469029', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E469997', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E470966', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E471936', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E472907', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E473879', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E474852', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E475826', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E476801', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E477777', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E478754', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E479732', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E480711', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E481691', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E482672', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E483654', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E484637', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E485621', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E486606', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E487592', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E488579', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E489567', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E490556', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E491546', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E492537', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E493529', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E494522', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E495516', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E496511', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E497507', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E498504', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E499502', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E500501', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E502502', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E503504', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E504507', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E505511', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E506516', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E507522', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E508529', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E509537', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E510546', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E512567', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E513579', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E514592', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E515606', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E516621', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E517637', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E518654', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E519672', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E520691', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E521711', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E522732', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E523754', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E524777', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E525801', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E526826', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E527852', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E528879', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E529907', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E530936', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E531966', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E532997', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E534029', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E536096', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E538167', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E539204', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E540242', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E541281', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E542321', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E544404', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E545447', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E547536', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E548582', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E549629', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E550677', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E551726', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E552776', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E553827', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E554879', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E555932', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E556986', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E558041', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E559097', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E560154', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E561212', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/</t>
+          <t>[('https://w3id.org/skgo/modsci#LaboratoryInstrument', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('http://demo.fiz-karlsruhe.de/matwerk/E460362', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E460362', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/ResearchSoftware'), ('http://demo.fiz-karlsruhe.de/matwerk/E460362', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/ProcessingSoftware'), ('http://demo.fiz-karlsruhe.de/matwerk/E460362', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/VisualizationSoftware'), ('http://demo.fiz-karlsruhe.de/matwerk/E411872', 'mwo:usesMethod', 'http://demo.fiz-karlsruhe.de/matwerk/E63482'), ('http://demo.fiz-karlsruhe.de/matwerk/E413687', 'mwo:usesMethod', 'http://demo.fiz-karlsruhe.de/matwerk/E63482'), ('http://demo.fiz-karlsruhe.de/matwerk/E412779', 'mwo:usesMethod', 'http://demo.fiz-karlsruhe.de/matwerk/E63482'), ('http://demo.fiz-karlsruhe.de/matwerk/E449879', 'mwo:usesMethod', 'http://demo.fiz-karlsruhe.de/matwerk/E63482'), ('http://demo.fiz-karlsruhe.de/matwerk/E433916', 'mwo:usesMethod', 'http://demo.fiz-karlsruhe.de/matwerk/E63482'), ('http://demo.fiz-karlsruhe.de/matwerk/E450827', 'mwo:usesMethod', 'http://demo.fiz-karlsruhe.de/matwerk/E63482'), ('http://demo.fiz-karlsruhe.de/matwerk/E448932', 'mwo:usesMethod', 'http://demo.fiz-karlsruhe.de/matwerk/E63482'), ('http://demo.fiz-karlsruhe.de/matwerk/E447986', 'mwo:usesMethod', 'http://demo.fiz-karlsruhe.de/matwerk/E63482'), ('http://demo.fiz-karlsruhe.de/matwerk/E460362', 'mwo:usesMethod', 'http://demo.fiz-karlsruhe.de/matwerk/E63482'), ('http://demo.fiz-karlsruhe.de/matwerk/E460362', 'dcterms:description', '"set of tools and Python modules for setting up, manipulating, running, visualizing and analyzing atomistic simulations"'), ('http://purls.helmholtz-metadaten.de/mwo/ElectronicLabNotebook', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('http://demo.fiz-karlsruhe.de/matwerk/E1199927', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/ObjectType'), "('http://demo.fiz-karlsruhe.de/matwerk/E1170686', 'nfdicore:objectType', 'http://demo.fiz-karlsruhe.de/matwerk/E1199927')", ('http://purls.helmholtz-metadaten.de/mwo/ExperimentalWorkflow', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class')]</t>
         </is>
       </c>
     </row>
@@ -1109,32 +1109,32 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>['has software', 'uses software', 'required tool', 'has operating system ', 'uses technology', 'has instrument model', 'has file Extension', 'has website', 'has programming Language ']</t>
+          <t>['uses software', 'required tool', 'has operating system ', 'uses technology', 'has instrument model', 'has file Extension', 'has website', 'has programming Language ', 'has work package']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>['https://nfdi.fiz-karlsruhe.de/ontology/Software', 'http://www.ebi.ac.uk/swo/SWO_0000082', 'http://purls.helmholtz-metadaten.de/mwo/requiredTool', 'https://schema.org/operatingSystem', 'http://purls.helmholtz-metadaten.de/mwo/usesTechnology', 'http://purls.helmholtz-metadaten.de/mwo/instrumentModel', 'http://nfdi.fiz-karlsruhe.de/ontology/fileExtension', 'http://purls.helmholtz-metadaten.de/mwo/hasWebsite', 'http://nfdi.fiz-karlsruhe.de/ontology/programmingLanguage']</t>
+          <t>['http://purls.helmholtz-metadaten.de/mwo/hasContributor', 'http://purls.helmholtz-metadaten.de/mwo/hasWebsite', 'http://www.w3.org/2004/02/skos/core#definition', 'http://purls.helmholtz-metadaten.de/mwo/conformsToSpecification', 'http://www.w3.org/2004/02/skos/core#prefLabel', 'http://purl.obolibrary.org/obo/IAO_0000118', 'http://nfdi.fiz-karlsruhe.de/ontology/parentOrganisation', 'http://purl.obolibrary.org/obo/IAO_0000117', 'https://nfdi.fiz-karlsruhe.de/ontology/example']</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>['nfdicore:Software', 'ns3:SWO_0000082', 'mwo:requiredTool', 'schema:operatingSystem', 'mwo:usesTechnology', 'mwo:instrumentModel', 'nfdicore:fileExtension', 'mwo:hasWebsite', 'nfdicore:programmingLanguage', 'mwo:description', 'dcterms:description']</t>
+          <t>['ns3:SWO_0000082', 'mwo:requiredTool', 'schema:operatingSystem', 'mwo:usesTechnology', 'mwo:instrumentModel', 'nfdicore:fileExtension', 'mwo:hasWebsite', 'nfdicore:programmingLanguage', 'mwo:hasWorkPackage', 'mwo:description', 'dcterms:description', 'rdf:type']</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['Brunswick', 'Quantum Chemistry', 'molecular dynamics', 'abbreviation', 'Silicon', 'Computational Chemistry', 'Visual Molecular Dynamics', 'Crystallography Open Database (COD)', 'Molecular Dynamics (MD)']</t>
+          <t>['Silicon', 'Computational Chemistry', 'FitSNAP', 'freud', 'acronym', 'QuickFF', 'matminer', 'Vienna Ab initio Simulation Package', 'Crystallography Open Database (COD)', 'Molecular Dynamics (MD)', 'computational mechanics', 'dynasor', 'abbreviation', 'molecular dynamics', 'Visual Molecular Dynamics', 'Yet another force field', 'Simmate', 'Quantum Chemistry']</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['http://demo.fiz-karlsruhe.de/matwerk/E70752', 'http://demo.fiz-karlsruhe.de/matwerk/E1247879', 'http://demo.fiz-karlsruhe.de/matwerk/E61379', 'http://demo.fiz-karlsruhe.de/matwerk/E38676', 'http://www.wikidata.org/entity/Q7936565', 'http://www.wikidata.org/entity/Q2773', 'http://demo.fiz-karlsruhe.de/matwerk/E1024166', 'http://purl.obolibrary.org/obo/NCIT_C42610', 'http://demo.fiz-karlsruhe.de/matwerk/E616496', 'http://demo.fiz-karlsruhe.de/matwerk/E465167']</t>
+          <t>['http://purl.obolibrary.org/obo/NCIT_C42610', 'http://demo.fiz-karlsruhe.de/matwerk/E1247879', 'http://demo.fiz-karlsruhe.de/matwerk/E594506', 'http://demo.fiz-karlsruhe.de/matwerk/E497507', 'http://demo.fiz-karlsruhe.de/matwerk/E616496', 'http://demo.fiz-karlsruhe.de/matwerk/E483654', 'http://demo.fiz-karlsruhe.de/matwerk/E38676', 'http://demo.fiz-karlsruhe.de/matwerk/E70752', 'http://demo.fiz-karlsruhe.de/matwerk/E496511', 'http://demo.fiz-karlsruhe.de/matwerk/E61379', 'http://purl.obolibrary.org/obo/NCIT_C93495', 'http://demo.fiz-karlsruhe.de/matwerk/E425582', 'http://demo.fiz-karlsruhe.de/matwerk/E487592', 'http://demo.fiz-karlsruhe.de/matwerk/E505511', 'http://demo.fiz-karlsruhe.de/matwerk/E465167', 'http://demo.fiz-karlsruhe.de/matwerk/E1024166', 'http://demo.fiz-karlsruhe.de/matwerk/E36512', 'http://demo.fiz-karlsruhe.de/matwerk/E485621']</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>[('http://demo.fiz-karlsruhe.de/matwerk/E1024166', 'mwo:hasWebsite', 'http://demo.fiz-karlsruhe.de/matwerk/E346697'), ('http://demo.fiz-karlsruhe.de/matwerk/E1024166', 'mwo:description', '"Open-access collection of crystal structures of organic, inorganic, metal-organic compounds and minerals, excluding biopolymers."'), ('http://demo.fiz-karlsruhe.de/matwerk/E465167', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000022'), ('http://demo.fiz-karlsruhe.de/matwerk/E465167', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000149'), ('http://demo.fiz-karlsruhe.de/matwerk/E465167', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_9000072'), ('http://demo.fiz-karlsruhe.de/matwerk/E1246620', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000022'), ('http://demo.fiz-karlsruhe.de/matwerk/E1246677', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000022'), ('http://demo.fiz-karlsruhe.de/matwerk/E1246707', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000022'), ('http://demo.fiz-karlsruhe.de/matwerk/E411872', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000022'), ('http://demo.fiz-karlsruhe.de/matwerk/E413687', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000022'), ('http://demo.fiz-karlsruhe.de/matwerk/E418242', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000022'), ('http://demo.fiz-karlsruhe.de/matwerk/E427427', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000022'), ('http://demo.fiz-karlsruhe.de/matwerk/E440454', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000022'), ('http://demo.fiz-karlsruhe.de/matwerk/E445154', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000022'), ('http://demo.fiz-karlsruhe.de/matwerk/E454629', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000022'), ('http://demo.fiz-karlsruhe.de/matwerk/E455582', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000022'), ('http://demo.fiz-karlsruhe.de/matwerk/E459404', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000022'), ('http://demo.fiz-karlsruhe.de/matwerk/E460362', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000022'), ('http://demo.fiz-karlsruhe.de/matwerk/E461321', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000022'), ('http://demo.fiz-karlsruhe.de/matwerk/E463242', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000022'), ('http://demo.fiz-karlsruhe.de/matwerk/E464204', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000022'), ('http://demo.fiz-karlsruhe.de/matwerk/E466131', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000022'), ('http://demo.fiz-karlsruhe.de/matwerk/E524777', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000022'), ('http://demo.fiz-karlsruhe.de/matwerk/E525801', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000022'), ('http://demo.fiz-karlsruhe.de/matwerk/E526826', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000022'), ('http://demo.fiz-karlsruhe.de/matwerk/E527852', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000022'), ('http://demo.fiz-karlsruhe.de/matwerk/E553827', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000022'), ('http://demo.fiz-karlsruhe.de/matwerk/E1246567', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000022'), ('http://demo.fiz-karlsruhe.de/matwerk/E1246593', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000022'), ('http://demo.fiz-karlsruhe.de/matwerk/E1246648', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000022'), ('http://demo.fiz-karlsruhe.de/matwerk/E419156', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000022'), ('http://demo.fiz-karlsruhe.de/matwerk/E658232', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000022'), ('http://demo.fiz-karlsruhe.de/matwerk/E465167', 'mwo:hasWebsite', 'http://demo.fiz-karlsruhe.de/matwerk/E115482'), ('http://demo.fiz-karlsruhe.de/matwerk/E465167', 'dcterms:description', '"molecular modelling and visualization computer program"')]</t>
+          <t>[('http://purl.obolibrary.org/obo/NCIT_C42610', 'rdf:type', 'http://www.w3.org/2002/07/owl#AnnotationProperty'), ('http://demo.fiz-karlsruhe.de/matwerk/E1247879', 'rdf:type', 'http://emmo.info/emmo#EMMO_4207e895_8b83_4318_996a_72cfb32acd94'), ('http://demo.fiz-karlsruhe.de/matwerk/E594506', 'mwo:hasWebsite', 'http://demo.fiz-karlsruhe.de/matwerk/E156962'), ('http://demo.fiz-karlsruhe.de/matwerk/E594506', 'dcterms:description', '"The Simulated Materials Ecosystem (Simmate) is a toolbox and framework for computational materials research. It lets you explore various crystal databases, predict new materials, and quickly calculate properties."'), ('http://demo.fiz-karlsruhe.de/matwerk/E594506', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E497507', 'mwo:hasWebsite', 'http://demo.fiz-karlsruhe.de/matwerk/E126251'), ('http://demo.fiz-karlsruhe.de/matwerk/E434847', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E481691', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E458447', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E467096', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E492537', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E497507', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E479732', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E484637', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E494522', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E498504', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E433916', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E1246567', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E493529', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E466131', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E499502', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E473879', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E475826', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E496511', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E474852', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E428351', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E477777', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E457491', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E420987', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E502502', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E483654', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E422822', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E495516', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E453677', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E411872', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E456536', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E489567', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E460362', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E1246593', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E413687', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E446097', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E485621', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E593417', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E1246648', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E500501', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E490556', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E455582', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E471936', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E468062', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E486606', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E414596', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E480711', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E504507', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E655941', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E476801', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E503504', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E552776', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E478754', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E417329', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E491546', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E487592', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E497507', 'dcterms:description', '"Python library for data mining the properties of materials."'), ('http://demo.fiz-karlsruhe.de/matwerk/E497507', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E616496', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/Method'), ('http://demo.fiz-karlsruhe.de/matwerk/E448932', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E828542'), ('http://demo.fiz-karlsruhe.de/matwerk/E436712', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E828542'), ('http://demo.fiz-karlsruhe.de/matwerk/E494522', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E828542'), ('http://demo.fiz-karlsruhe.de/matwerk/E466131', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E828542'), ('http://demo.fiz-karlsruhe.de/matwerk/E450827', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E828542'), ('http://demo.fiz-karlsruhe.de/matwerk/E447986', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E828542'), ('http://demo.fiz-karlsruhe.de/matwerk/E483654', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E828542'), ('http://demo.fiz-karlsruhe.de/matwerk/E453677', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E828542'), ('http://demo.fiz-karlsruhe.de/matwerk/E495516', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E828542'), ('http://demo.fiz-karlsruhe.de/matwerk/E419156', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E828542'), ('http://demo.fiz-karlsruhe.de/matwerk/E416417', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E828542'), ('http://demo.fiz-karlsruhe.de/matwerk/E472907', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E828542'), ('http://demo.fiz-karlsruhe.de/matwerk/E413687', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E828542'), ('http://demo.fiz-karlsruhe.de/matwerk/E452726', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E828542'), ('http://demo.fiz-karlsruhe.de/matwerk/E455582', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E828542'), ('http://demo.fiz-karlsruhe.de/matwerk/E483654', 'dcterms:description', '"The freud Python library provides a simple, flexible, powerful set of tools for analyzing trajectories obtained from molecular dynamics or Monte Carlo simulations. "'), ('http://demo.fiz-karlsruhe.de/matwerk/E483654', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E38676', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/AcademicDiscipline'), ('http://demo.fiz-karlsruhe.de/matwerk/E70752', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/AcademicDiscipline'), ('http://demo.fiz-karlsruhe.de/matwerk/E496511', 'mwo:hasWebsite', 'http://demo.fiz-karlsruhe.de/matwerk/E125751'), ('http://demo.fiz-karlsruhe.de/matwerk/E492537', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E845351'), ('http://demo.fiz-karlsruhe.de/matwerk/E496511', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E845351'), ('http://demo.fiz-karlsruhe.de/matwerk/E496511', 'dcterms:description', '"A Python Package For Training SNAP Interatomic Potentials for use in the LAMMPS molecular dynamics package"'), ('http://demo.fiz-karlsruhe.de/matwerk/E496511', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E61379', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/AcademicDiscipline'), ('http://purl.obolibrary.org/obo/NCIT_C93495', 'rdf:type', 'http://www.w3.org/2002/07/owl#AnnotationProperty'), ('http://demo.fiz-karlsruhe.de/matwerk/E425582', 'mwo:hasWebsite', 'http://demo.fiz-karlsruhe.de/matwerk/E96267'), ('http://demo.fiz-karlsruhe.de/matwerk/E456536', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E841457'), ('http://demo.fiz-karlsruhe.de/matwerk/E447986', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E841457'), ('http://demo.fiz-karlsruhe.de/matwerk/E428351', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E841457'), ('http://demo.fiz-karlsruhe.de/matwerk/E446097', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E841457'), ('http://demo.fiz-karlsruhe.de/matwerk/E425582', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E841457'), ('http://demo.fiz-karlsruhe.de/matwerk/E427427', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E841457'), ('http://demo.fiz-karlsruhe.de/matwerk/E433916', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E841457'), ('http://demo.fiz-karlsruhe.de/matwerk/E419156', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E841457'), ('http://demo.fiz-karlsruhe.de/matwerk/E425582', 'dcterms:description', '"The Vienna Ab initio Simulation Package (VASP) is a computer program for atomic scale materials modelling, e.g. electronic structure calculations and quantum-mechanical molecular dynamics, from first principles."'), ('http://demo.fiz-karlsruhe.de/matwerk/E425582', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E425582', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/ResearchSoftware'), ('http://demo.fiz-karlsruhe.de/matwerk/E487592', 'mwo:hasWebsite', 'http://demo.fiz-karlsruhe.de/matwerk/E123761'), ('http://demo.fiz-karlsruhe.de/matwerk/E419156', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E844052'), ('http://demo.fiz-karlsruhe.de/matwerk/E446097', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E844052'), ('http://demo.fiz-karlsruhe.de/matwerk/E448932', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E844052'), ('http://demo.fiz-karlsruhe.de/matwerk/E487592', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E844052'), ('http://demo.fiz-karlsruhe.de/matwerk/E467096', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E844052'), ('http://demo.fiz-karlsruhe.de/matwerk/E487592', 'dcterms:description', '" pythonic force-field (FF) code used at the Center for Molecular Modeling (CMM) to test-drive new FF models"'), ('http://demo.fiz-karlsruhe.de/matwerk/E487592', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E505511', 'mwo:hasWebsite', 'http://demo.fiz-karlsruhe.de/matwerk/E128766'), ('http://demo.fiz-karlsruhe.de/matwerk/E505511', 'dcterms:description', '"dynasor is a simple tool for calculating total and partial dynamical structure factors as well as current correlation functions from molecular dynamics (MD) simulations."'), ('http://demo.fiz-karlsruhe.de/matwerk/E505511', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E526826', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000022'), ('http://demo.fiz-karlsruhe.de/matwerk/E527852', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000022'), ('http://demo.fiz-karlsruhe.de/matwerk/E461321', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000149'), ('http://demo.fiz-karlsruhe.de/matwerk/E445154', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000022'), ('http://demo.fiz-karlsruhe.de/matwerk/E1246567', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000022'), ('http://demo.fiz-karlsruhe.de/matwerk/E464204', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000022'), ('http://demo.fiz-karlsruhe.de/matwerk/E466131', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000022'), ('http://demo.fiz-karlsruhe.de/matwerk/E525801', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000022'), ('http://demo.fiz-karlsruhe.de/matwerk/E553827', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000022'), ('http://demo.fiz-karlsruhe.de/matwerk/E454629', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_9000072'), ('http://demo.fiz-karlsruhe.de/matwerk/E526826', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_9000072'), ('http://demo.fiz-karlsruhe.de/matwerk/E440454', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000149'), ('http://demo.fiz-karlsruhe.de/matwerk/E1246677', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000022'), ('http://demo.fiz-karlsruhe.de/matwerk/E1246707', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000022'), ('http://demo.fiz-karlsruhe.de/matwerk/E460362', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000149'), ('http://demo.fiz-karlsruhe.de/matwerk/E1246620', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000149'), ('http://demo.fiz-karlsruhe.de/matwerk/E465167', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_9000072'), ('http://demo.fiz-karlsruhe.de/matwerk/E419156', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000149'), ('http://demo.fiz-karlsruhe.de/matwerk/E524777', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_9000072'), ('http://demo.fiz-karlsruhe.de/matwerk/E1246648', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000149'), ('http://demo.fiz-karlsruhe.de/matwerk/E527852', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_9000072'), ('http://demo.fiz-karlsruhe.de/matwerk/E418242', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000149'), ('http://demo.fiz-karlsruhe.de/matwerk/E466131', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_9000072'), ('http://demo.fiz-karlsruhe.de/matwerk/E1246593', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000149'), ('http://demo.fiz-karlsruhe.de/matwerk/E658232', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000149'), ('http://demo.fiz-karlsruhe.de/matwerk/E461321', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000022'), ('http://demo.fiz-karlsruhe.de/matwerk/E463242', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000149'), ('http://demo.fiz-karlsruhe.de/matwerk/E525801', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_9000072'), ('http://demo.fiz-karlsruhe.de/matwerk/E553827', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_9000072'), ('http://demo.fiz-karlsruhe.de/matwerk/E455582', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000149'), ('http://demo.fiz-karlsruhe.de/matwerk/E459404', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000022'), ('http://demo.fiz-karlsruhe.de/matwerk/E440454', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000022'), ('http://demo.fiz-karlsruhe.de/matwerk/E427427', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000022'), ('http://demo.fiz-karlsruhe.de/matwerk/E460362', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000022'), ('http://demo.fiz-karlsruhe.de/matwerk/E1246648', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000022'), ('http://demo.fiz-karlsruhe.de/matwerk/E1246620', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000022'), ('http://demo.fiz-karlsruhe.de/matwerk/E419156', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000022'), ('http://demo.fiz-karlsruhe.de/matwerk/E461321', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_9000072'), ('http://demo.fiz-karlsruhe.de/matwerk/E411872', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000022'), ('http://demo.fiz-karlsruhe.de/matwerk/E418242', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000022'), ('http://demo.fiz-karlsruhe.de/matwerk/E1246593', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000022'), ('http://demo.fiz-karlsruhe.de/matwerk/E413687', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000022'), ('http://demo.fiz-karlsruhe.de/matwerk/E658232', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000022'), ('http://demo.fiz-karlsruhe.de/matwerk/E459404', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_9000072'), ('http://demo.fiz-karlsruhe.de/matwerk/E463242', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000022'), ('http://demo.fiz-karlsruhe.de/matwerk/E526826', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000149'), ('http://demo.fiz-karlsruhe.de/matwerk/E527852', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000149'), ('http://demo.fiz-karlsruhe.de/matwerk/E524777', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000149'), ('http://demo.fiz-karlsruhe.de/matwerk/E440454', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_9000072'), ('http://demo.fiz-karlsruhe.de/matwerk/E465167', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000149'), ('http://demo.fiz-karlsruhe.de/matwerk/E455582', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000022'), ('http://demo.fiz-karlsruhe.de/matwerk/E1246648', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_9000072'), ('http://demo.fiz-karlsruhe.de/matwerk/E1246620', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_9000072'), ('http://demo.fiz-karlsruhe.de/matwerk/E419156', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_9000072'), ('http://demo.fiz-karlsruhe.de/matwerk/E466131', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000149'), ('http://demo.fiz-karlsruhe.de/matwerk/E553827', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000149'), ('http://demo.fiz-karlsruhe.de/matwerk/E413687', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_9000072'), ('http://demo.fiz-karlsruhe.de/matwerk/E418242', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_9000072'), ('http://demo.fiz-karlsruhe.de/matwerk/E463242', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_9000072'), ('http://demo.fiz-karlsruhe.de/matwerk/E454629', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000022'), ('http://demo.fiz-karlsruhe.de/matwerk/E1246677', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000149'), ('http://demo.fiz-karlsruhe.de/matwerk/E1246707', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000149'), ('http://demo.fiz-karlsruhe.de/matwerk/E525801', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000149'), ('http://demo.fiz-karlsruhe.de/matwerk/E1246593', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_9000072'), ('http://demo.fiz-karlsruhe.de/matwerk/E455582', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_9000072'), ('http://demo.fiz-karlsruhe.de/matwerk/E524777', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000022'), ('http://demo.fiz-karlsruhe.de/matwerk/E465167', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000022'), ('http://demo.fiz-karlsruhe.de/matwerk/E465167', 'mwo:hasWebsite', 'http://demo.fiz-karlsruhe.de/matwerk/E115482'), ('http://demo.fiz-karlsruhe.de/matwerk/E465167', 'dcterms:description', '"molecular modelling and visualization computer program"'), ('http://demo.fiz-karlsruhe.de/matwerk/E465167', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E1024166', 'mwo:hasWebsite', 'http://demo.fiz-karlsruhe.de/matwerk/E346697'), ('http://demo.fiz-karlsruhe.de/matwerk/E1024166', 'mwo:description', '"Open-access collection of crystal structures of organic, inorganic, metal-organic compounds and minerals, excluding biopolymers."'), ('http://demo.fiz-karlsruhe.de/matwerk/E1024166', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal'), ('http://demo.fiz-karlsruhe.de/matwerk/E36512', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/AcademicDiscipline'), ('http://demo.fiz-karlsruhe.de/matwerk/E485621', 'mwo:hasWebsite', 'http://demo.fiz-karlsruhe.de/matwerk/E123266'), ('http://demo.fiz-karlsruhe.de/matwerk/E485621', 'dcterms:description', '"Python package developed at the Center for Molecular Modeling (CMM) to quickly derive accurate force fields from ab initio calculations. "'), ('http://demo.fiz-karlsruhe.de/matwerk/E485621', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software')]</t>
         </is>
       </c>
     </row>
@@ -1156,32 +1156,32 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>['has ontology', 'has bibliographic citation', 'has  description', 'has description', 'has definition', 'has definition', 'has semantic expressivity', 'has elucidation', 'has definition source']</t>
+          <t>['has bibliographic citation', 'has  description', 'has description', 'has definition', 'has definition', 'has semantic expressivity', 'has elucidation', 'has definition source', 'has documentation']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>['https://nfdi.fiz-karlsruhe.de/ontology/Ontology', 'http://purl.org/dc/terms/bibliographicCitation', 'http://purl.org/dc/terms/description', 'http://purls.helmholtz-metadaten.de/mwo/description', 'http://www.geneontology.org/formats/oboInOwl#hasDefinition', 'http://www.w3.org/2004/02/skos/core#definition', 'http://nfdi.fiz-karlsruhe.de/ontology/semanticExpressivity', 'http://purl.obolibrary.org/obo/IAO_0000600', 'http://purl.obolibrary.org/obo/IAO_0000119']</t>
+          <t>['http://www.w3.org/2002/07/owl#sameAs', 'http://purl.obolibrary.org/obo/IAO_0000115', 'http://www.w3.org/2002/07/owl#onProperty', 'http://xmlns.com/foaf/0.1/firstName', 'http://www.w3.org/1999/02/22-rdf-syntax-ns#type', 'http://nfdi.fiz-karlsruhe.de/ontology/url', 'http://purls.helmholtz-metadaten.de/mwo/hasVersion', 'http://purls.helmholtz-metadaten.de/mwo/hasContactPoint', 'https://w3id.org/scholarlydata/ontology/conference-ontology.owl#duration']</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>['nfdicore:Ontology', 'dcterms:bibliographicCitation', 'dcterms:description', 'mwo:description', 'ns4:hasDefinition', 'skos:definition', 'nfdicore:semanticExpressivity', 'ns2:IAO_0000600', 'ns2:IAO_0000119']</t>
+          <t>['dcterms:bibliographicCitation', 'dcterms:description', 'mwo:description', 'ns4:hasDefinition', 'skos:definition', 'nfdicore:semanticExpressivity', 'ns2:IAO_0000600', 'ns2:IAO_0000119', 'mwo:hasDocumentation', 'rdf:type']</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['Computational Materials Science', 'Nanocrystalline materials', 'computational materials science', 'Computational materials science']</t>
+          <t>['eNanoMapper ontology', 'computational materials science', 'Computational Material Sample Ontology', 'HybriD³ materials database', 'Computational materials science', 'Knowledge Graphs (openHPI Massive Open Online Course (MOOC))', 'Computational Materials Science', 'Materials Design Ontology (MDO)', 'Nanocrystalline materials', 'SimPhoNy', 'Materials And Molecules Basic Ontology (MAMBO)', 'MaterialsMine (MM)', 'Essential Source of Schemas and Examples (ESSE)']</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['http://demo.fiz-karlsruhe.de/matwerk/E43779', 'http://demo.fiz-karlsruhe.de/matwerk/E42042', 'http://demo.fiz-karlsruhe.de/matwerk/E67431', 'http://demo.fiz-karlsruhe.de/matwerk/E49517', 'http://www.wikidata.org/entity/Q85753722']</t>
+          <t>['http://demo.fiz-karlsruhe.de/matwerk/E1245261', 'http://demo.fiz-karlsruhe.de/matwerk/E67431', 'http://demo.fiz-karlsruhe.de/matwerk/E1128252', 'http://demo.fiz-karlsruhe.de/matwerk/E1131257', 'http://demo.fiz-karlsruhe.de/matwerk/E43779', 'http://demo.fiz-karlsruhe.de/matwerk/E42042', 'http://demo.fiz-karlsruhe.de/matwerk/E1137279', 'http://demo.fiz-karlsruhe.de/matwerk/E514592', 'http://demo.fiz-karlsruhe.de/matwerk/E1247323', 'http://demo.fiz-karlsruhe.de/matwerk/E1152404', 'http://demo.fiz-karlsruhe.de/matwerk/E49517', 'http://demo.fiz-karlsruhe.de/matwerk/E1143317', 'http://demo.fiz-karlsruhe.de/matwerk/E1063154']</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('http://demo.fiz-karlsruhe.de/matwerk/E1245261', 'mwo:description', '"In this course you will learn what is necessary to design, implement, and use knowledge graphs. The focus of this course will be on basic semantic technologies including the principles of knowledge representation and symbolic AI. This includes information encoding via RDF triples, knowledge representation via ontologies with OWL, efficiently querying knowledge graphs via SPARQL, latent representation of knowledge in vector space, as well as knowledge graph applications in innovative information systems, as e.g., semantic and exploratory search."'), ('http://demo.fiz-karlsruhe.de/matwerk/E1245261', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/EducationalResource'), ('http://demo.fiz-karlsruhe.de/matwerk/E67431', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/AcademicDiscipline'), ('http://demo.fiz-karlsruhe.de/matwerk/E1128252', 'mwo:description', '"A materials ontology to support data publication involving nanomaterials and metamaterials."'), ('http://demo.fiz-karlsruhe.de/matwerk/E1137279', 'nfdicore:semanticExpressivity', 'http://nfdi.fiz-karlsruhe.de/ontology/Ontology'), ('http://demo.fiz-karlsruhe.de/matwerk/E1134266', 'nfdicore:semanticExpressivity', 'http://nfdi.fiz-karlsruhe.de/ontology/Ontology'), ('http://demo.fiz-karlsruhe.de/matwerk/E1138787', 'nfdicore:semanticExpressivity', 'http://nfdi.fiz-karlsruhe.de/ontology/Ontology'), ('http://demo.fiz-karlsruhe.de/matwerk/E1126751', 'nfdicore:semanticExpressivity', 'http://nfdi.fiz-karlsruhe.de/ontology/Ontology'), ('http://demo.fiz-karlsruhe.de/matwerk/E1129754', 'nfdicore:semanticExpressivity', 'http://nfdi.fiz-karlsruhe.de/ontology/Ontology'), ('http://demo.fiz-karlsruhe.de/matwerk/E1131257', 'nfdicore:semanticExpressivity', 'http://nfdi.fiz-karlsruhe.de/ontology/Ontology'), ('http://demo.fiz-karlsruhe.de/matwerk/E1128252', 'nfdicore:semanticExpressivity', 'http://nfdi.fiz-karlsruhe.de/ontology/Ontology'), ('http://demo.fiz-karlsruhe.de/matwerk/E1141806', 'nfdicore:semanticExpressivity', 'http://nfdi.fiz-karlsruhe.de/ontology/Ontology'), ('http://demo.fiz-karlsruhe.de/matwerk/E1132761', 'nfdicore:semanticExpressivity', 'http://nfdi.fiz-karlsruhe.de/ontology/Ontology'), ('http://demo.fiz-karlsruhe.de/matwerk/E1140296', 'nfdicore:semanticExpressivity', 'http://nfdi.fiz-karlsruhe.de/ontology/Ontology'), ('http://demo.fiz-karlsruhe.de/matwerk/E1143317', 'nfdicore:semanticExpressivity', 'http://nfdi.fiz-karlsruhe.de/ontology/Ontology'), ('http://demo.fiz-karlsruhe.de/matwerk/E1135772', 'nfdicore:semanticExpressivity', 'http://nfdi.fiz-karlsruhe.de/ontology/Ontology'), ('http://demo.fiz-karlsruhe.de/matwerk/E1166102', 'nfdicore:semanticExpressivity', 'http://nfdi.fiz-karlsruhe.de/ontology/Ontology'), ('http://demo.fiz-karlsruhe.de/matwerk/E1247323', 'nfdicore:semanticExpressivity', 'http://nfdi.fiz-karlsruhe.de/ontology/Ontology'), ('http://demo.fiz-karlsruhe.de/matwerk/E1163051', 'nfdicore:semanticExpressivity', 'http://nfdi.fiz-karlsruhe.de/ontology/Ontology'), ('http://demo.fiz-karlsruhe.de/matwerk/E1128252', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/SemanticResource'), ('http://demo.fiz-karlsruhe.de/matwerk/E1131257', 'mwo:description', '"MDO is an ontology for materials design field, representing the domain knowledge specifically related to solid-state physics and computational materials science."'), ('http://demo.fiz-karlsruhe.de/matwerk/E1131257', 'mwo:hasDocumentation', 'http://demo.fiz-karlsruhe.de/matwerk/E322202'), ('http://demo.fiz-karlsruhe.de/matwerk/E1131257', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/SemanticResource'), ('http://demo.fiz-karlsruhe.de/matwerk/E43779', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/AcademicDiscipline'), ('http://demo.fiz-karlsruhe.de/matwerk/E42042', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/AcademicDiscipline'), ('http://demo.fiz-karlsruhe.de/matwerk/E1137279', 'mwo:description', '"The eNanoMapper ontologies aim to provide a comprehensive suite of ontologies for the nanomaterial safety assessment domain"'), ('http://demo.fiz-karlsruhe.de/matwerk/E1137279', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/SemanticResource'), ('http://demo.fiz-karlsruhe.de/matwerk/E514592', 'dcterms:description', '"Simulation framework for multi-scale phenomena in micro- and nanosystems"'), ('http://demo.fiz-karlsruhe.de/matwerk/E514592', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E1247323', 'mwo:description', '"CMSO is an ontology that aims to describe computational materials science samples (or structures), including crystalline defects."'), ('http://demo.fiz-karlsruhe.de/matwerk/E1247323', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/SemanticResource'), ('http://demo.fiz-karlsruhe.de/matwerk/E1247323', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Resource'), ('http://demo.fiz-karlsruhe.de/matwerk/E1152404', 'mwo:description', '"JSON schemas and examples representing structural data, characteristic properties, modeling workflows and related data about materials standardizing the diverse landscape of information"'), ('http://demo.fiz-karlsruhe.de/matwerk/E1152404', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Specification'), ('http://demo.fiz-karlsruhe.de/matwerk/E49517', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/AcademicDiscipline'), ('http://demo.fiz-karlsruhe.de/matwerk/E1143317', 'mwo:description', '"MAMBO (Materials And Molecules Basic Ontology) is a domain ontology for molecular materials. "'), ('http://demo.fiz-karlsruhe.de/matwerk/E1143317', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/SemanticResource'), ('http://demo.fiz-karlsruhe.de/matwerk/E1063154', 'mwo:description', '"The HybriD³ materials database provides a comprehensive collection of experimental and computational materials data for crystalline organic-inorganic compounds, predominantly based on the perovskite paradigm."'), ('http://demo.fiz-karlsruhe.de/matwerk/E1063154', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal')]</t>
         </is>
       </c>
     </row>
@@ -1208,7 +1208,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>['http://www.w3.org/1999/02/22-rdf-syntax-ns#type', 'http://nfdi.fiz-karlsruhe.de/ontology/objectType', 'http://purl.org/dc/elements/1.1/contributor', 'http://purls.helmholtz-metadaten.de/mwo/usesMethod', 'http://purl.obolibrary.org/obo/IAO_0000112', 'http://purl.obolibrary.org/obo/IAO_0000119', 'http://purls.helmholtz-metadaten.de/mwo/instrumentModel', 'http://www.geneontology.org/formats/oboInOwl#hasDefinition', 'http://www.w3.org/2004/02/skos/core#definition']</t>
+          <t>['http://purl.obolibrary.org/obo/IAO_0000111', 'http://purls.helmholtz-metadaten.de/mwo/hasAcronym', 'http://www.w3.org/2002/07/owl#annotatedSource', 'http://purl.obolibrary.org/obo/IAO_0000600', 'http://nfdi.fiz-karlsruhe.de/ontology/relatedProject', 'http://purls.helmholtz-metadaten.de/mwo/hasContactPoint', 'http://www.w3.org/2004/02/skos/core#prefLabel', 'http://xmlns.com/foaf/0.1/firstName', 'http://www.w3.org/1999/02/22-rdf-syntax-ns#type']</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1218,17 +1218,17 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>["['Dusseldorf Advanced Material Simulation Kit (DAMASK)',  'Elk',  'Elk',  'Novel Materials Discovery (NOMAD)',  'NOMAD]"]</t>
+          <t>['Silicon', 'Novel Materials Discovery (NOMAD)', 'Dryad', 'Elk', 'NOMAD']</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>['http://demo.fiz-karlsruhe.de/matwerk/E858396', 'http://demo.fiz-karlsruhe.de/matwerk/E456536', 'http://www.wikidata.org/entity/Q114833975', 'http://demo.fiz-karlsruhe.de/matwerk/E1028462', 'http://demo.fiz-karlsruhe.de/matwerk/E444212']</t>
+          <t>['http://demo.fiz-karlsruhe.de/matwerk/E1247879', 'http://demo.fiz-karlsruhe.de/matwerk/E1007072', 'http://demo.fiz-karlsruhe.de/matwerk/E858396', 'http://demo.fiz-karlsruhe.de/matwerk/E1028462', 'http://demo.fiz-karlsruhe.de/matwerk/E444212']</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>[('http://demo.fiz-karlsruhe.de/matwerk/E858396', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/fundingProject'), ('http://demo.fiz-karlsruhe.de/matwerk/E851861', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/fundingProject'), ('http://demo.fiz-karlsruhe.de/matwerk/E853166', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/fundingProject'), ('http://demo.fiz-karlsruhe.de/matwerk/E854472', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/fundingProject'), ('http://demo.fiz-karlsruhe.de/matwerk/E855779', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/fundingProject'), ('http://demo.fiz-karlsruhe.de/matwerk/E859706', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/fundingProject'), ('http://demo.fiz-karlsruhe.de/matwerk/E1247062', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/fundingProject'), ('http://demo.fiz-karlsruhe.de/matwerk/E857087', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/fundingProject'), ('http://demo.fiz-karlsruhe.de/matwerk/E1247022', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/fundingProject'), ('http://demo.fiz-karlsruhe.de/matwerk/E456536', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E456536', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/ResearchSoftware'), ('http://demo.fiz-karlsruhe.de/matwerk/E1246620', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E1246677', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E1246707', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E411872', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E412779', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E413687', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E414596', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E415506', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E416417', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E417329', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E418242', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E420071', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E420987', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E421904', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E425582', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E426504', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E427427', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E428351', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E429276', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E431129', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E432057', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E432986', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E433916', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E434847', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E435779', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E436712', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E437646', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E438581', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E439517', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E440454', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E441392', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E442331', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E443271', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E444212', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E445154', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E446097', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E447041', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E447986', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E448932', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E449879', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E450827', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E451776', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E452726', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E453677', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E454629', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E455582', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E458447', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E459404', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E460362', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E461321', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E462281', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E463242', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E464204', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E465167', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E466131', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E467096', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E468062', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E469029', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E469997', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E470966', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E471936', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E472907', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E473879', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E474852', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E475826', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E476801', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E477777', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E478754', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E479732', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E480711', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E481691', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E482672', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E483654', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E484637', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E485621', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E486606', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E487592', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E488579', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E489567', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E490556', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E491546', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E492537', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E493529', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E494522', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E495516', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E496511', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E497507', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E498504', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E499502', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E500501', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E502502', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E503504', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E504507', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E505511', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E506516', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E507522', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E508529', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E509537', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E510546', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E512567', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E513579', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E514592', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E515606', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E516621', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E517637', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E518654', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E519672', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E520691', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E521711', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E522732', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E523754', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E524777', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E525801', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E526826', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E527852', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E528879', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E529907', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E530936', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E531966', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E532997', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E534029', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E536096', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E538167', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E539204', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E540242', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E541281', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E542321', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E544404', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E545447', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E547536', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E548582', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E549629', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E550677', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E551726', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E552776', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E553827', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E554879', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E555932', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E556986', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E558041', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E559097', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E560154', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E561212', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E562271', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E563331', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E564392', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E565454', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E566517', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E567581', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E568646', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E569712', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E570779', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E571847', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E572916', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E573986', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E575057', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E576129', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E577202', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E578276', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E579351', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E580427', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E581504', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E582582', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E583661', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E584741', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E585822', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E586904', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E587987', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E589071', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E590156', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E591242', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E593417', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E594506', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E595596', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E596687', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E597779', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E598872', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E599966', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E601061', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E602157', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E603254', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E604352', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E605451', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E606551', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E607652', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E1238952', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E1246567', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E1246593', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E1246648', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E419156', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E511556', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E543362', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E546491', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E592329', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E654797', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E655941', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E658232', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E422822', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E636629', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E637757', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E457491', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E456536', 'mwo:usesMethod', 'http://demo.fiz-karlsruhe.de/matwerk/E622056'), ('http://demo.fiz-karlsruhe.de/matwerk/E456536', 'dcterms:description', '"DAMASK is a unified multi-physics crystal plasticity simulation package. The solution of continuum mechanical boundary value problems requires a constitutive response that connects deformation and stress at each material point. This problem is solved in DAMASK on the basis of crystal plasticity using a variety of constitutive models and homogenization approaches. However, treating mechanics in isolation is no longer sufficient to study emergent advanced high-strength materials. In these materials, deformation happens interrelated with displacive phase transformation, significant heating, and potential damage evolution. Therefore, DAMASK is capable of handling multi-physics problems. Following a modular approach, additional field equations are solved in a fully coupled way using a staggered approach.\r\n\r\n"'), ('http://demo.fiz-karlsruhe.de/matwerk/E1028462', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal'), ('http://demo.fiz-karlsruhe.de/matwerk/E1004237', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal'), ('http://demo.fiz-karlsruhe.de/matwerk/E1005654', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal'), ('http://demo.fiz-karlsruhe.de/matwerk/E1007072', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal'), ('http://demo.fiz-karlsruhe.de/matwerk/E1008491', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal'), ('http://demo.fiz-karlsruhe.de/matwerk/E1009911', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal'), ('http://demo.fiz-karlsruhe.de/matwerk/E1011332', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal'), ('http://demo.fiz-karlsruhe.de/matwerk/E1012754', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal'), ('http://demo.fiz-karlsruhe.de/matwerk/E1014177', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal'), ('http://demo.fiz-karlsruhe.de/matwerk/E1015601', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal'), ('http://demo.fiz-karlsruhe.de/matwerk/E1017026', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal'), ('http://demo.fiz-karlsruhe.de/matwerk/E1018452', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal'), ('http://demo.fiz-karlsruhe.de/matwerk/E1019879', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal'), ('http://demo.fiz-karlsruhe.de/matwerk/E1021307', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal'), ('http://demo.fiz-karlsruhe.de/matwerk/E1022736', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal'), ('http://demo.fiz-karlsruhe.de/matwerk/E1024166', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal'), ('http://demo.fiz-karlsruhe.de/matwerk/E1025597', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal'), ('http://demo.fiz-karlsruhe.de/matwerk/E1029896', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal'), ('http://demo.fiz-karlsruhe.de/matwerk/E1031331', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal'), ('http://demo.fiz-karlsruhe.de/matwerk/E1032767', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal'), ('http://demo.fiz-karlsruhe.de/matwerk/E1034204', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal'), ('http://demo.fiz-karlsruhe.de/matwerk/E1035642', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal'), ('http://demo.fiz-karlsruhe.de/matwerk/E1037081', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal'), ('http://demo.fiz-karlsruhe.de/matwerk/E1038521', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal'), ('http://demo.fiz-karlsruhe.de/matwerk/E1039962', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal'), ('http://demo.fiz-karlsruhe.de/matwerk/E1041404', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal'), ('http://demo.fiz-karlsruhe.de/matwerk/E1042847', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal'), ('http://demo.fiz-karlsruhe.de/matwerk/E1044291', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal'), ('http://demo.fiz-karlsruhe.de/matwerk/E1045736', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal'), ('http://demo.fiz-karlsruhe.de/matwerk/E1047182', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal'), ('http://demo.fiz-karlsruhe.de/matwerk/E1048629', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal'), ('http://demo.fiz-karlsruhe.de/matwerk/E1050077', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal'), ('http://demo.fiz-karlsruhe.de/matwerk/E1051526', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal'), ('http://demo.fiz-karlsruhe.de/matwerk/E1052976', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal'), ('http://demo.fiz-karlsruhe.de/matwerk/E1054427', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal'), ('http://demo.fiz-karlsruhe.de/matwerk/E1055879', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal'), ('http://demo.fiz-karlsruhe.de/matwerk/E1057332', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal'), ('http://demo.fiz-karlsruhe.de/matwerk/E1058786', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal'), ('http://demo.fiz-karlsruhe.de/matwerk/E1060241', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal'), ('http://demo.fiz-karlsruhe.de/matwerk/E1061697', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal'), ('http://demo.fiz-karlsruhe.de/matwerk/E1063154', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal'), ('http://demo.fiz-karlsruhe.de/matwerk/E1064612', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal'), ('http://demo.fiz-karlsruhe.de/matwerk/E1066071', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal'), ('http://demo.fiz-karlsruhe.de/matwerk/E1067531', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal'), ('http://demo.fiz-karlsruhe.de/matwerk/E1068992', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal'), ('http://demo.fiz-karlsruhe.de/matwerk/E1070454', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal'), ('http://demo.fiz-karlsruhe.de/matwerk/E1071917', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal'), ('http://demo.fiz-karlsruhe.de/matwerk/E1073381', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal'), ('http://demo.fiz-karlsruhe.de/matwerk/E1074846', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal'), ('http://demo.fiz-karlsruhe.de/matwerk/E1076312', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal'), ('http://demo.fiz-karlsruhe.de/matwerk/E1077779', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal'), ('http://demo.fiz-karlsruhe.de/matwerk/E1079247', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal'), ('http://demo.fiz-karlsruhe.de/matwerk/E1080716', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal'), ('http://demo.fiz-karlsruhe.de/matwerk/E1082186', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal'), ('http://demo.fiz-karlsruhe.de/matwerk/E1083657', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal'), ('http://demo.fiz-karlsruhe.de/matwerk/E1085129', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal'), ('http://demo.fiz-karlsruhe.de/matwerk/E1086602', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal'), ('http://demo.fiz-karlsruhe.de/matwerk/E1088076', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal'), ('http://demo.fiz-karlsruhe.de/matwerk/E1089551', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal'), ('http://demo.fiz-karlsruhe.de/matwerk/E1027029', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal'), ('http://demo.fiz-karlsruhe.de/matwerk/E643412', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal'), ('http://demo.fiz-karlsruhe.de/matwerk/E1028462', 'mwo:description', '"The Novel Materials Discovery (NOMAD) Laboratory maintains the largest worldwide repository for input and output files of all important computational materials science computer programs."'), ('http://demo.fiz-karlsruhe.de/matwerk/E444212', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/ResearchSoftware'), ('http://demo.fiz-karlsruhe.de/matwerk/E444212', 'mwo:usesMethod', 'http://demo.fiz-karlsruhe.de/matwerk/E613172'), ('http://demo.fiz-karlsruhe.de/matwerk/E425582', 'mwo:usesMethod', 'http://demo.fiz-karlsruhe.de/matwerk/E613172'), ('http://demo.fiz-karlsruhe.de/matwerk/E426504', 'mwo:usesMethod', 'http://demo.fiz-karlsruhe.de/matwerk/E613172'), ('http://demo.fiz-karlsruhe.de/matwerk/E427427', 'mwo:usesMethod', 'http://demo.fiz-karlsruhe.de/matwerk/E613172'), ('http://demo.fiz-karlsruhe.de/matwerk/E428351', 'mwo:usesMethod', 'http:/</t>
+          <t>[('http://demo.fiz-karlsruhe.de/matwerk/E1247879', 'rdf:type', 'http://emmo.info/emmo#EMMO_4207e895_8b83_4318_996a_72cfb32acd94'), ('http://demo.fiz-karlsruhe.de/matwerk/E1007072', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal'), ('http://demo.fiz-karlsruhe.de/matwerk/E1007072', 'mwo:description', '"Dryad is an international open-access repository of research data, especially data underlying scientific and medical publications. Dryad is a curated general-purpose repository that makes data discoverable, freely reusable, and citable."'), ('http://demo.fiz-karlsruhe.de/matwerk/E858396', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/fundingProject'), ('http://demo.fiz-karlsruhe.de/matwerk/E1028462', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal'), ('http://demo.fiz-karlsruhe.de/matwerk/E1028462', 'mwo:description', '"The Novel Materials Discovery (NOMAD) Laboratory maintains the largest worldwide repository for input and output files of all important computational materials science computer programs."'), ('http://demo.fiz-karlsruhe.de/matwerk/E444212', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/ResearchSoftware'), ('http://demo.fiz-karlsruhe.de/matwerk/E444212', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E439517', 'mwo:usesMethod', 'http://demo.fiz-karlsruhe.de/matwerk/E613172'), ('http://demo.fiz-karlsruhe.de/matwerk/E658232', 'mwo:usesMethod', 'http://demo.fiz-karlsruhe.de/matwerk/E613172'), ('http://demo.fiz-karlsruhe.de/matwerk/E431129', 'mwo:usesMethod', 'http://demo.fiz-karlsruhe.de/matwerk/E613172'), ('http://demo.fiz-karlsruhe.de/matwerk/E429276', 'mwo:usesMethod', 'http://demo.fiz-karlsruhe.de/matwerk/E613172'), ('http://demo.fiz-karlsruhe.de/matwerk/E432986', 'mwo:usesMethod', 'http://demo.fiz-karlsruhe.de/matwerk/E613172'), ('http://demo.fiz-karlsruhe.de/matwerk/E425582', 'mwo:usesMethod', 'http://demo.fiz-karlsruhe.de/matwerk/E613172'), ('http://demo.fiz-karlsruhe.de/matwerk/E426504', 'mwo:usesMethod', 'http://demo.fiz-karlsruhe.de/matwerk/E613172'), ('http://demo.fiz-karlsruhe.de/matwerk/E444212', 'mwo:usesMethod', 'http://demo.fiz-karlsruhe.de/matwerk/E613172'), ('http://demo.fiz-karlsruhe.de/matwerk/E436712', 'mwo:usesMethod', 'http://demo.fiz-karlsruhe.de/matwerk/E613172'), ('http://demo.fiz-karlsruhe.de/matwerk/E437646', 'mwo:usesMethod', 'http://demo.fiz-karlsruhe.de/matwerk/E613172'), ('http://demo.fiz-karlsruhe.de/matwerk/E445154', 'mwo:usesMethod', 'http://demo.fiz-karlsruhe.de/matwerk/E613172'), ('http://demo.fiz-karlsruhe.de/matwerk/E434847', 'mwo:usesMethod', 'http://demo.fiz-karlsruhe.de/matwerk/E613172'), ('http://demo.fiz-karlsruhe.de/matwerk/E433916', 'mwo:usesMethod', 'http://demo.fiz-karlsruhe.de/matwerk/E613172'), ('http://demo.fiz-karlsruhe.de/matwerk/E428351', 'mwo:usesMethod', 'http://demo.fiz-karlsruhe.de/matwerk/E613172'), ('http://demo.fiz-karlsruhe.de/matwerk/E435779', 'mwo:usesMethod', 'http://demo.fiz-karlsruhe.de/matwerk/E613172'), ('http://demo.fiz-karlsruhe.de/matwerk/E442331', 'mwo:usesMethod', 'http://demo.fiz-karlsruhe.de/matwerk/E613172'), ('http://demo.fiz-karlsruhe.de/matwerk/E440454', 'mwo:usesMethod', 'http://demo.fiz-karlsruhe.de/matwerk/E613172'), ('http://demo.fiz-karlsruhe.de/matwerk/E427427', 'mwo:usesMethod', 'http://demo.fiz-karlsruhe.de/matwerk/E613172'), ('http://demo.fiz-karlsruhe.de/matwerk/E446097', 'mwo:usesMethod', 'http://demo.fiz-karlsruhe.de/matwerk/E613172'), ('http://demo.fiz-karlsruhe.de/matwerk/E432057', 'mwo:usesMethod', 'http://demo.fiz-karlsruhe.de/matwerk/E613172'), ('http://demo.fiz-karlsruhe.de/matwerk/E443271', 'mwo:usesMethod', 'http://demo.fiz-karlsruhe.de/matwerk/E613172'), ('http://demo.fiz-karlsruhe.de/matwerk/E447041', 'mwo:usesMethod', 'http://demo.fiz-karlsruhe.de/matwerk/E613172'), ('http://demo.fiz-karlsruhe.de/matwerk/E441392', 'mwo:usesMethod', 'http://demo.fiz-karlsruhe.de/matwerk/E613172'), ('http://demo.fiz-karlsruhe.de/matwerk/E438581', 'mwo:usesMethod', 'http://demo.fiz-karlsruhe.de/matwerk/E613172'), ('http://demo.fiz-karlsruhe.de/matwerk/E444212', 'dcterms:description', '"An all-electron full-potential linearised augmented-plane wave (LAPW) code with many advanced features. Written originally at Karl-Franzens-Universität Graz as a milestone of the EXCITING EU Research and Training Network, the code is designed to be as simple as possible so that new developments in the field of density functional theory (DFT) can be added quickly and reliably. "')]</t>
         </is>
       </c>
     </row>
@@ -1255,27 +1255,27 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>['http://purls.helmholtz-metadaten.de/mwo/hasRepository', 'http://purls.helmholtz-metadaten.de/mwo/hasWebsite', 'http://purl.obolibrary.org/obo/IAO_0000119', 'http://www.w3.org/2002/07/owl#annotatedSource', 'http://www.w3.org/2000/01/rdf-schema#domain', 'http://nfdi.fiz-karlsruhe.de/ontology/location', 'http://purls.helmholtz-metadaten.de/mwo/hasContactPoint', 'http://purls.helmholtz-metadaten.de/mwo/mainTaskArea', 'http://nfdi.fiz-karlsruhe.de/ontology/fileExtension']</t>
+          <t>['http://purls.helmholtz-metadaten.de/mwo/usesTechnology', 'http://nfdi.fiz-karlsruhe.de/ontology/parentOrganisation', 'http://purls.helmholtz-metadaten.de/mwo/hasContactPoint', 'http://emmo.info/emmo#EMMO_967080e5_2f42_4eb2_a3a9_c58143e835f9', 'http://purl.org/dc/terms/description', 'http://purl.org/dc/terms/license', 'http://xmlns.com/foaf/0.1/surname', 'http://purl.org/dc/elements/1.1/contributor', 'http://purl.obolibrary.org/obo/IAO_0000118']</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>['mwo:hasRepository', 'mwo:hasWebsite', 'ns2:IAO_0000119', 'owl:annotatedSource', 'rdfs:domain', 'nfdicore:location', 'mwo:hasContactPoint', 'mwo:mainTaskArea', 'nfdicore:fileExtension', 'mwo:description', 'dcterms:description']</t>
+          <t>['mwo:hasRepository', 'mwo:hasWebsite', 'ns2:IAO_0000119', 'owl:annotatedSource', 'rdfs:domain', 'nfdicore:location', 'mwo:hasContactPoint', 'mwo:mainTaskArea', 'nfdicore:fileExtension', 'mwo:description', 'dcterms:description', 'rdf:type']</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>['Computational Material Sample Ontology', 'Ontologies for Materials Science', 'Computational materials science', 'Computational Materials Science', 'Computational Material Science']</t>
+          <t>['Computational Material Science', 'computational materials science', 'MatPortal', 'Ontologies for Materials Science', 'materials database', 'Computational Material Sample Ontology', 'Computational Materials Science', 'Materials Design Ontology (MDO)', 'Materials And Molecules Basic Ontology (MAMBO)', 'MGI JSON Schema', 'MaterialsMine (MM)', 'Simmate', 'Essential Source of Schemas and Examples (ESSE)']</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>['http://demo.fiz-karlsruhe.de/matwerk/E1247323', 'http://demo.fiz-karlsruhe.de/matwerk/E42042', 'http://demo.fiz-karlsruhe.de/matwerk/E1247883', 'http://demo.fiz-karlsruhe.de/matwerk/E49517', 'http://demo.fiz-karlsruhe.de/matwerk/E71126']</t>
+          <t>['http://purls.helmholtz-metadaten.de/mwo/MaterialsDatabase', 'http://demo.fiz-karlsruhe.de/matwerk/E67431', 'http://demo.fiz-karlsruhe.de/matwerk/E1128252', 'http://demo.fiz-karlsruhe.de/matwerk/E1131257', 'http://demo.fiz-karlsruhe.de/matwerk/E594506', 'http://demo.fiz-karlsruhe.de/matwerk/E71126', 'http://demo.fiz-karlsruhe.de/matwerk/E42042', 'http://demo.fiz-karlsruhe.de/matwerk/E1143317', 'http://demo.fiz-karlsruhe.de/matwerk/E1247883', 'http://demo.fiz-karlsruhe.de/matwerk/E1247323', 'http://demo.fiz-karlsruhe.de/matwerk/E1029896', 'http://demo.fiz-karlsruhe.de/matwerk/E1161527', 'http://demo.fiz-karlsruhe.de/matwerk/E1152404']</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>[('http://demo.fiz-karlsruhe.de/matwerk/E1247323', 'mwo:hasRepository', 'http://demo.fiz-karlsruhe.de/matwerk/E1247672'), ('http://demo.fiz-karlsruhe.de/matwerk/E1247323', 'mwo:hasContactPoint', 'http://demo.fiz-karlsruhe.de/matwerk/E10046'), ('http://demo.fiz-karlsruhe.de/matwerk/E1247323', 'mwo:description', '"CMSO is an ontology that aims to describe computational materials science samples (or structures), including crystalline defects."'), "('http://demo.fiz-karlsruhe.de/matwerk/E1248688', 'mwo:mainTaskArea', 'http://demo.fiz-karlsruhe.de/matwerk/E1247883')", "('http://demo.fiz-karlsruhe.de/matwerk/E1248727', 'mwo:mainTaskArea', 'http://demo.fiz-karlsruhe.de/matwerk/E1247883')", "('http://demo.fiz-karlsruhe.de/matwerk/E1248767', 'mwo:mainTaskArea', 'http://demo.fiz-karlsruhe.de/matwerk/E1247883')", "('http://demo.fiz-karlsruhe.de/matwerk/E1248808', 'mwo:mainTaskArea', 'http://demo.fiz-karlsruhe.de/matwerk/E1247883')", "('http://demo.fiz-karlsruhe.de/matwerk/E1248850', 'mwo:mainTaskArea', 'http://demo.fiz-karlsruhe.de/matwerk/E1247883')", "('http://demo.fiz-karlsruhe.de/matwerk/E1248893', 'mwo:mainTaskArea', 'http://demo.fiz-karlsruhe.de/matwerk/E1247883')", "('http://demo.fiz-karlsruhe.de/matwerk/E1248937', 'mwo:mainTaskArea', 'http://demo.fiz-karlsruhe.de/matwerk/E1247883')", ('http://demo.fiz-karlsruhe.de/matwerk/E1247883', 'mwo:description', '"This TA develops Ontologies and metadata schemes in close cooperation with the stakeholders, tailored to their respective needs."')]</t>
+          <t>[('http://purls.helmholtz-metadaten.de/mwo/MaterialsDatabase', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('http://demo.fiz-karlsruhe.de/matwerk/E67431', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/AcademicDiscipline'), ('http://demo.fiz-karlsruhe.de/matwerk/E1128252', 'mwo:hasRepository', 'http://demo.fiz-karlsruhe.de/matwerk/E306372'), ('http://demo.fiz-karlsruhe.de/matwerk/E1128252', 'mwo:description', '"A materials ontology to support data publication involving nanomaterials and metamaterials."'), ('http://demo.fiz-karlsruhe.de/matwerk/E1128252', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/SemanticResource'), ('http://demo.fiz-karlsruhe.de/matwerk/E1131257', 'mwo:hasRepository', 'http://demo.fiz-karlsruhe.de/matwerk/E307937'), ('http://demo.fiz-karlsruhe.de/matwerk/E1131257', 'mwo:description', '"MDO is an ontology for materials design field, representing the domain knowledge specifically related to solid-state physics and computational materials science."'), ('http://demo.fiz-karlsruhe.de/matwerk/E1131257', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/SemanticResource'), ('http://demo.fiz-karlsruhe.de/matwerk/E594506', 'mwo:hasRepository', 'http://demo.fiz-karlsruhe.de/matwerk/E226457'), ('http://demo.fiz-karlsruhe.de/matwerk/E594506', 'mwo:hasWebsite', 'http://demo.fiz-karlsruhe.de/matwerk/E156962'), ('http://demo.fiz-karlsruhe.de/matwerk/E594506', 'dcterms:description', '"The Simulated Materials Ecosystem (Simmate) is a toolbox and framework for computational materials research. It lets you explore various crystal databases, predict new materials, and quickly calculate properties."'), ('http://demo.fiz-karlsruhe.de/matwerk/E594506', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E71126', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/AcademicDiscipline'), ('http://demo.fiz-karlsruhe.de/matwerk/E42042', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/AcademicDiscipline'), ('http://demo.fiz-karlsruhe.de/matwerk/E1143317', 'mwo:hasRepository', 'http://demo.fiz-karlsruhe.de/matwerk/E314237'), ('http://demo.fiz-karlsruhe.de/matwerk/E1143317', 'mwo:description', '"MAMBO (Materials And Molecules Basic Ontology) is a domain ontology for molecular materials. "'), ('http://demo.fiz-karlsruhe.de/matwerk/E1143317', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/SemanticResource'), "('http://demo.fiz-karlsruhe.de/matwerk/E1248727', 'mwo:mainTaskArea', 'http://demo.fiz-karlsruhe.de/matwerk/E1247883')", "('http://demo.fiz-karlsruhe.de/matwerk/E1248808', 'mwo:mainTaskArea', 'http://demo.fiz-karlsruhe.de/matwerk/E1247883')", "('http://demo.fiz-karlsruhe.de/matwerk/E1248767', 'mwo:mainTaskArea', 'http://demo.fiz-karlsruhe.de/matwerk/E1247883')", "('http://demo.fiz-karlsruhe.de/matwerk/E1248937', 'mwo:mainTaskArea', 'http://demo.fiz-karlsruhe.de/matwerk/E1247883')", "('http://demo.fiz-karlsruhe.de/matwerk/E1248688', 'mwo:mainTaskArea', 'http://demo.fiz-karlsruhe.de/matwerk/E1247883')", "('http://demo.fiz-karlsruhe.de/matwerk/E1248850', 'mwo:mainTaskArea', 'http://demo.fiz-karlsruhe.de/matwerk/E1247883')", "('http://demo.fiz-karlsruhe.de/matwerk/E1248893', 'mwo:mainTaskArea', 'http://demo.fiz-karlsruhe.de/matwerk/E1247883')", ('http://demo.fiz-karlsruhe.de/matwerk/E1247883', 'mwo:description', '"This TA develops Ontologies and metadata schemes in close cooperation with the stakeholders, tailored to their respective needs."'), ('http://demo.fiz-karlsruhe.de/matwerk/E1247323', 'mwo:hasRepository', 'http://demo.fiz-karlsruhe.de/matwerk/E1247672'), ('http://demo.fiz-karlsruhe.de/matwerk/E1247323', 'mwo:hasContactPoint', 'http://demo.fiz-karlsruhe.de/matwerk/E10046'), ('http://demo.fiz-karlsruhe.de/matwerk/E1247323', 'mwo:description', '"CMSO is an ontology that aims to describe computational materials science samples (or structures), including crystalline defects."'), ('http://demo.fiz-karlsruhe.de/matwerk/E1247323', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/SemanticResource'), ('http://demo.fiz-karlsruhe.de/matwerk/E1247323', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Resource'), ('http://demo.fiz-karlsruhe.de/matwerk/E1029896', 'mwo:hasWebsite', 'http://demo.fiz-karlsruhe.de/matwerk/E350031'), ('http://demo.fiz-karlsruhe.de/matwerk/E1029896', 'mwo:description', '"Ontology repository for materials science."'), ('http://demo.fiz-karlsruhe.de/matwerk/E1029896', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal'), ('http://demo.fiz-karlsruhe.de/matwerk/E1161527', 'mwo:hasRepository', 'http://demo.fiz-karlsruhe.de/matwerk/E317411'), ('http://demo.fiz-karlsruhe.de/matwerk/E1161527', 'mwo:description', '"The purpose of this repository is to enable community development of JSON schema within materials science and engineering."'), ('http://demo.fiz-karlsruhe.de/matwerk/E1161527', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/MetadataSchema'), ('http://demo.fiz-karlsruhe.de/matwerk/E1152404', 'mwo:hasRepository', 'http://demo.fiz-karlsruhe.de/matwerk/E315029'), ('http://demo.fiz-karlsruhe.de/matwerk/E1152404', 'mwo:description', '"JSON schemas and examples representing structural data, characteristic properties, modeling workflows and related data about materials standardizing the diverse landscape of information"'), ('http://demo.fiz-karlsruhe.de/matwerk/E1152404', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Specification')]</t>
         </is>
       </c>
     </row>
@@ -1302,27 +1302,27 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>['http://purls.helmholtz-metadaten.de/mwo/instrumentModel', 'http://www.w3.org/1999/02/22-rdf-syntax-ns#first', 'http://purls.helmholtz-metadaten.de/mwo/hasDocumentation', 'http://www.geneontology.org/formats/oboInOwl#hasDefinition', 'http://www.w3.org/2004/02/skos/core#definition', 'https://schema.org/operatingSystem', 'http://purl.obolibrary.org/obo/IAO_0000114', 'http://purls.helmholtz-metadaten.de/mwo/requiredTool', 'https://schema.org/citation']</t>
+          <t>['http://www.w3.org/2004/02/skos/core#prefLabel', 'http://xmlns.com/foaf/0.1/depiction', 'https://w3id.org/scholarlydata/ontology/conference-ontology.owl#duration', 'http://xmlns.com/foaf/0.1/firstName', 'http://www.w3.org/1999/02/22-rdf-syntax-ns#type', 'http://www.w3.org/2004/02/skos/core#definition', 'http://purl.org/dc/terms/bibliographicCitation', 'http://purls.helmholtz-metadaten.de/mwo/hasWebsite', 'http://www.w3.org/1999/02/22-rdf-syntax-ns#rest']</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>['mwo:instrumentModel', 'rdf:first', 'mwo:hasDocumentation', 'ns4:hasDefinition', 'skos:definition', 'schema:operatingSystem', 'ns2:IAO_0000114', 'mwo:requiredTool', 'schema:citation', 'mwo:description', 'dcterms:description']</t>
+          <t>['mwo:instrumentModel', 'rdf:first', 'mwo:hasDocumentation', 'ns4:hasDefinition', 'skos:definition', 'schema:operatingSystem', 'ns2:IAO_0000114', 'mwo:requiredTool', 'schema:citation', 'mwo:description', 'dcterms:description', 'rdf:type']</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>['acronym', 'Instrument', 'APT analysis using CompositionSpace and pyiron', 'Silicon', 'Crystallography Open Database (COD)', 'SIRIUS']</t>
+          <t>['Silicon', 'SIRIUS', 'acronym', 'Crystallography Open Database (COD)', 'APT analysis using CompositionSpace and pyiron', 'Instrument']</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>['http://demo.fiz-karlsruhe.de/matwerk/E1247879', 'http://demo.fiz-karlsruhe.de/matwerk/E542321', 'http://purl.obolibrary.org/obo/NCIT_C93495', 'http://demo.fiz-karlsruhe.de/matwerk/E1246677', 'http://demo.fiz-karlsruhe.de/matwerk/E1024166', 'https://w3id.org/skgo/modsci#Instrument']</t>
+          <t>['http://demo.fiz-karlsruhe.de/matwerk/E542321', 'https://w3id.org/skgo/modsci#Instrument', 'http://demo.fiz-karlsruhe.de/matwerk/E1246677', 'http://purl.obolibrary.org/obo/NCIT_C93495', 'http://demo.fiz-karlsruhe.de/matwerk/E1247879', 'http://demo.fiz-karlsruhe.de/matwerk/E1024166']</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>[('http://demo.fiz-karlsruhe.de/matwerk/E1246677', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000020'), ('http://demo.fiz-karlsruhe.de/matwerk/E1246677', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000022'), ('http://demo.fiz-karlsruhe.de/matwerk/E1246677', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000149'), ('http://demo.fiz-karlsruhe.de/matwerk/E1246707', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000020'), ('http://demo.fiz-karlsruhe.de/matwerk/E418242', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000020'), ('http://demo.fiz-karlsruhe.de/matwerk/E440454', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000020'), ('http://demo.fiz-karlsruhe.de/matwerk/E445154', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000020'), ('http://demo.fiz-karlsruhe.de/matwerk/E518654', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000020'), ('http://demo.fiz-karlsruhe.de/matwerk/E419156', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000020'), ('http://demo.fiz-karlsruhe.de/matwerk/E1246677', 'dcterms:description', '"Workflow to analyse APT data using CompositionSpace jobs implemented in pyiron"'), ('http://demo.fiz-karlsruhe.de/matwerk/E1024166', 'schema:citation', 'http://demo.fiz-karlsruhe.de/matwerk/E974711'), ('http://demo.fiz-karlsruhe.de/matwerk/E1024166', 'mwo:description', '"Open-access collection of crystal structures of organic, inorganic, metal-organic compounds and minerals, excluding biopolymers."'), "(':n1020c7c5c2274736a55b1427c54afb30b27', 'rdf:first', 'https://w3id.org/skgo/modsci#Instrument')"]</t>
+          <t>[('http://demo.fiz-karlsruhe.de/matwerk/E542321', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), "(':n94a127d864c147f2b1a38333b654e1d0b27', 'rdf:first', 'https://w3id.org/skgo/modsci#Instrument')", ('https://w3id.org/skgo/modsci#Instrument', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), "('http://demo.fiz-karlsruhe.de/matwerk/E1247528', 'rdf:type', 'https://w3id.org/skgo/modsci#Instrument')", "('http://demo.fiz-karlsruhe.de/matwerk/E1110306', 'rdf:type', 'https://w3id.org/skgo/modsci#Instrument')", "('http://demo.fiz-karlsruhe.de/matwerk/E1247524', 'rdf:type', 'https://w3id.org/skgo/modsci#Instrument')", "('http://demo.fiz-karlsruhe.de/matwerk/E1247521', 'rdf:type', 'https://w3id.org/skgo/modsci#Instrument')", "('http://demo.fiz-karlsruhe.de/matwerk/E1247519', 'rdf:type', 'https://w3id.org/skgo/modsci#Instrument')", "('http://demo.fiz-karlsruhe.de/matwerk/E1108817', 'rdf:type', 'https://w3id.org/skgo/modsci#Instrument')", "('http://demo.fiz-karlsruhe.de/matwerk/E1113287', 'rdf:type', 'https://w3id.org/skgo/modsci#Instrument')", "('http://demo.fiz-karlsruhe.de/matwerk/E1111796', 'rdf:type', 'https://w3id.org/skgo/modsci#Instrument')", ('http://demo.fiz-karlsruhe.de/matwerk/E526826', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000022'), ('http://demo.fiz-karlsruhe.de/matwerk/E527852', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000022'), ('http://demo.fiz-karlsruhe.de/matwerk/E461321', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000149'), ('http://demo.fiz-karlsruhe.de/matwerk/E445154', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000022'), ('http://demo.fiz-karlsruhe.de/matwerk/E440454', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000020'), ('http://demo.fiz-karlsruhe.de/matwerk/E1246567', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000022'), ('http://demo.fiz-karlsruhe.de/matwerk/E518654', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000020'), ('http://demo.fiz-karlsruhe.de/matwerk/E464204', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000022'), ('http://demo.fiz-karlsruhe.de/matwerk/E419156', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000020'), ('http://demo.fiz-karlsruhe.de/matwerk/E466131', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000022'), ('http://demo.fiz-karlsruhe.de/matwerk/E525801', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000022'), ('http://demo.fiz-karlsruhe.de/matwerk/E553827', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000022'), ('http://demo.fiz-karlsruhe.de/matwerk/E440454', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000149'), ('http://demo.fiz-karlsruhe.de/matwerk/E1246677', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000022'), ('http://demo.fiz-karlsruhe.de/matwerk/E1246707', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000022'), ('http://demo.fiz-karlsruhe.de/matwerk/E460362', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000149'), ('http://demo.fiz-karlsruhe.de/matwerk/E1246620', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000149'), ('http://demo.fiz-karlsruhe.de/matwerk/E419156', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000149'), ('http://demo.fiz-karlsruhe.de/matwerk/E418242', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000020'), ('http://demo.fiz-karlsruhe.de/matwerk/E1246648', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000149'), ('http://demo.fiz-karlsruhe.de/matwerk/E418242', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000149'), ('http://demo.fiz-karlsruhe.de/matwerk/E1246593', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000149'), ('http://demo.fiz-karlsruhe.de/matwerk/E658232', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000149'), ('http://demo.fiz-karlsruhe.de/matwerk/E461321', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000022'), ('http://demo.fiz-karlsruhe.de/matwerk/E463242', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000149'), ('http://demo.fiz-karlsruhe.de/matwerk/E455582', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000149'), ('http://demo.fiz-karlsruhe.de/matwerk/E459404', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000022'), ('http://demo.fiz-karlsruhe.de/matwerk/E440454', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000022'), ('http://demo.fiz-karlsruhe.de/matwerk/E427427', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000022'), ('http://demo.fiz-karlsruhe.de/matwerk/E460362', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000022'), ('http://demo.fiz-karlsruhe.de/matwerk/E1246648', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000022'), ('http://demo.fiz-karlsruhe.de/matwerk/E1246620', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000022'), ('http://demo.fiz-karlsruhe.de/matwerk/E419156', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000022'), ('http://demo.fiz-karlsruhe.de/matwerk/E411872', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000022'), ('http://demo.fiz-karlsruhe.de/matwerk/E418242', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000022'), ('http://demo.fiz-karlsruhe.de/matwerk/E1246593', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000022'), ('http://demo.fiz-karlsruhe.de/matwerk/E413687', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000022'), ('http://demo.fiz-karlsruhe.de/matwerk/E658232', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000022'), ('http://demo.fiz-karlsruhe.de/matwerk/E463242', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000022'), ('http://demo.fiz-karlsruhe.de/matwerk/E526826', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000149'), ('http://demo.fiz-karlsruhe.de/matwerk/E527852', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000149'), ('http://demo.fiz-karlsruhe.de/matwerk/E524777', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000149'), ('http://demo.fiz-karlsruhe.de/matwerk/E455582', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000022'), ('http://demo.fiz-karlsruhe.de/matwerk/E465167', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000149'), ('http://demo.fiz-karlsruhe.de/matwerk/E445154', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000020'), ('http://demo.fiz-karlsruhe.de/matwerk/E1246677', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000020'), ('http://demo.fiz-karlsruhe.de/matwerk/E466131', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000149'), ('http://demo.fiz-karlsruhe.de/matwerk/E553827', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000149'), ('http://demo.fiz-karlsruhe.de/matwerk/E1246707', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000020'), ('http://demo.fiz-karlsruhe.de/matwerk/E1246677', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000149'), ('http://demo.fiz-karlsruhe.de/matwerk/E454629', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000022'), ('http://demo.fiz-karlsruhe.de/matwerk/E1246707', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000149'), ('http://demo.fiz-karlsruhe.de/matwerk/E525801', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000149'), ('http://demo.fiz-karlsruhe.de/matwerk/E524777', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000022'), ('http://demo.fiz-karlsruhe.de/matwerk/E465167', 'schema:operatingSystem', 'http://www.ebi.ac.uk/swo/SWO_0000022'), ('http://demo.fiz-karlsruhe.de/matwerk/E1246677', 'dcterms:description', '"Workflow to analyse APT data using CompositionSpace jobs implemented in pyiron"'), ('http://demo.fiz-karlsruhe.de/matwerk/E1246677', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E1246677', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/ComputationalWorkflow'), ('http://purl.obolibrary.org/obo/NCIT_C93495', 'rdf:type', 'http://www.w3.org/2002/07/owl#AnnotationProperty'), ('http://demo.fiz-karlsruhe.de/matwerk/E1247879', 'rdf:type', 'http://emmo.info/emmo#EMMO_4207e895_8b83_4318_996a_72cfb32acd94'), ('http://demo.fiz-karlsruhe.de/matwerk/E1024166', 'schema:citation', 'http://demo.fiz-karlsruhe.de/matwerk/E974711'), ('http://demo.fiz-karlsruhe.de/matwerk/E1024166', 'mwo:description', '"Open-access collection of crystal structures of organic, inorganic, metal-organic compounds and minerals, excluding biopolymers."'), ('http://demo.fiz-karlsruhe.de/matwerk/E1024166', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal')]</t>
         </is>
       </c>
     </row>
@@ -1349,27 +1349,27 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>['http://purl.org/dc/terms/description', 'http://purls.helmholtz-metadaten.de/mwo/description', 'http://purl.org/dc/terms/bibliographicCitation', 'http://www.geneontology.org/formats/oboInOwl#hasDefinition', 'http://www.w3.org/2004/02/skos/core#definition', 'http://purls.helmholtz-metadaten.de/mwo/hasDocumentation', 'https://schema.org/citation', 'http://purl.obolibrary.org/obo/IAO_0000119', 'http://purl.obolibrary.org/obo/IAO_0000600']</t>
+          <t>['http://purl.obolibrary.org/obo/IAO_0000115', 'http://www.w3.org/2002/07/owl#onProperty', 'http://www.w3.org/2002/07/owl#sameAs', 'http://xmlns.com/foaf/0.1/firstName', 'http://www.w3.org/1999/02/22-rdf-syntax-ns#type', 'https://w3id.org/scholarlydata/ontology/conference-ontology.owl#duration', 'http://www.w3.org/1999/02/22-rdf-syntax-ns#rest', 'http://purls.helmholtz-metadaten.de/mwo/hasContactPoint', 'http://purls.helmholtz-metadaten.de/mwo/hasVersion']</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>['dcterms:description', 'mwo:description', 'dcterms:bibliographicCitation', 'ns4:hasDefinition', 'skos:definition', 'mwo:hasDocumentation', 'schema:citation', 'ns2:IAO_0000119', 'ns2:IAO_0000600']</t>
+          <t>['dcterms:description', 'mwo:description', 'dcterms:bibliographicCitation', 'ns4:hasDefinition', 'skos:definition', 'mwo:hasDocumentation', 'schema:citation', 'ns2:IAO_0000119', 'ns2:IAO_0000600', 'rdf:type']</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>['project', 'acronym', 'Instrument', 'X-ray imaging', 'X-ray computed tomography', 'computed tomography', 'Tomography and Microstructure-based Modelling (Tomography)', 'Atom Probe Tomography', 'Project']</t>
+          <t>['X-ray computed tomography', 'Tomography and Microstructure-based Modelling (Tomography)', 'acronym', 'Atom Probe Tomography', 'X-ray imaging', 'project', 'X-ray microscopy', 'Project', 'Instrument']</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>['http://nfdi.fiz-karlsruhe.de/ontology/Project', 'http://purl.obolibrary.org/obo/NCIT_C93495', 'http://www.wikidata.org/entity/Q32566', 'http://demo.fiz-karlsruhe.de/matwerk/E62426', 'https://nfdi.fiz-karlsruhe.de/ontology/Project', 'http://demo.fiz-karlsruhe.de/matwerk/E612066', 'http://schema.org/Project', 'http://demo.fiz-karlsruhe.de/matwerk/E1246872', 'https://w3id.org/skgo/modsci#Instrument', 'http://demo.fiz-karlsruhe.de/matwerk/E1248178']</t>
+          <t>['http://demo.fiz-karlsruhe.de/matwerk/E1248178', 'http://nfdi.fiz-karlsruhe.de/ontology/Project', 'http://schema.org/Project', 'http://demo.fiz-karlsruhe.de/matwerk/E1246872', 'https://w3id.org/skgo/modsci#Instrument', 'http://demo.fiz-karlsruhe.de/matwerk/E612066', 'http://purl.obolibrary.org/obo/NCIT_C93495', 'http://demo.fiz-karlsruhe.de/matwerk/E62426', 'https://nfdi.fiz-karlsruhe.de/ontology/Project', 'http://demo.fiz-karlsruhe.de/matwerk/E62777']</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>["('http://demo.fiz-karlsruhe.de/matwerk/E1247935', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Project')", "('http://demo.fiz-karlsruhe.de/matwerk/E870222', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Project')", "('http://demo.fiz-karlsruhe.de/matwerk/E876827', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Project')", "('http://demo.fiz-karlsruhe.de/matwerk/E861017', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Project')", "('http://demo.fiz-karlsruhe.de/matwerk/E1247062', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Project')", "('http://demo.fiz-karlsruhe.de/matwerk/E866271', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Project')", "('http://demo.fiz-karlsruhe.de/matwerk/E878151', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Project')", "('http://demo.fiz-karlsruhe.de/matwerk/E1247022', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Project')", "('http://demo.fiz-karlsruhe.de/matwerk/E862329', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Project')", "('http://demo.fiz-karlsruhe.de/matwerk/E1247908', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Project')", "('http://demo.fiz-karlsruhe.de/matwerk/E1247946', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Project')", "('http://demo.fiz-karlsruhe.de/matwerk/E1247895', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Project')", "('http://demo.fiz-karlsruhe.de/matwerk/E874182', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Project')", "('http://demo.fiz-karlsruhe.de/matwerk/E1247901', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Project')", "('http://demo.fiz-karlsruhe.de/matwerk/E1247925', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Project')", "('http://demo.fiz-karlsruhe.de/matwerk/E867587', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Project')", "('http://demo.fiz-karlsruhe.de/matwerk/E1247916', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Project')", "('http://demo.fiz-karlsruhe.de/matwerk/E872861', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Project')", ('http://nfdi.fiz-karlsruhe.de/ontology/Project', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), "('http://demo.fiz-karlsruhe.de/matwerk/E871541', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Project')", "('http://demo.fiz-karlsruhe.de/matwerk/E879476', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Project')", "('http://demo.fiz-karlsruhe.de/matwerk/E875504', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Project')", "('http://demo.fiz-karlsruhe.de/matwerk/E864956', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Project')", "('http://demo.fiz-karlsruhe.de/matwerk/E863642', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Project')", "('http://demo.fiz-karlsruhe.de/matwerk/E868904', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Project')", ('http://schema.org/Project', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('http://demo.fiz-karlsruhe.de/matwerk/E1246872', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/Method'), ('https://w3id.org/skgo/modsci#Instrument', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), "('http://demo.fiz-karlsruhe.de/matwerk/E1247528', 'rdf:type', 'https://w3id.org/skgo/modsci#Instrument')", "('http://demo.fiz-karlsruhe.de/matwerk/E1110306', 'rdf:type', 'https://w3id.org/skgo/modsci#Instrument')", "('http://demo.fiz-karlsruhe.de/matwerk/E1247524', 'rdf:type', 'https://w3id.org/skgo/modsci#Instrument')", "('http://demo.fiz-karlsruhe.de/matwerk/E1247521', 'rdf:type', 'https://w3id.org/skgo/modsci#Instrument')", "('http://demo.fiz-karlsruhe.de/matwerk/E1247519', 'rdf:type', 'https://w3id.org/skgo/modsci#Instrument')", "('http://demo.fiz-karlsruhe.de/matwerk/E1108817', 'rdf:type', 'https://w3id.org/skgo/modsci#Instrument')", "('http://demo.fiz-karlsruhe.de/matwerk/E1113287', 'rdf:type', 'https://w3id.org/skgo/modsci#Instrument')", "('http://demo.fiz-karlsruhe.de/matwerk/E1111796', 'rdf:type', 'https://w3id.org/skgo/modsci#Instrument')", ('http://demo.fiz-karlsruhe.de/matwerk/E612066', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/Method'), ('http://purl.obolibrary.org/obo/NCIT_C93495', 'rdf:type', 'http://www.w3.org/2002/07/owl#AnnotationProperty'), ('http://demo.fiz-karlsruhe.de/matwerk/E62426', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/AcademicDiscipline'), ('http://demo.fiz-karlsruhe.de/matwerk/E62426', 'rdf:type', 'https://w3id.org/skgo/modsci#Technology'), ('https://nfdi.fiz-karlsruhe.de/ontology/Project', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('http://demo.fiz-karlsruhe.de/matwerk/E62777', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/AcademicDiscipline')]</t>
         </is>
       </c>
     </row>
@@ -1396,27 +1396,27 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>['http://purls.helmholtz-metadaten.de/mwo/hasRelatedResource', 'http://purls.helmholtz-metadaten.de/mwo/relatedParticipantProject', 'http://purls.helmholtz-metadaten.de/mwo/hasDocumentation', 'http://nfdi.fiz-karlsruhe.de/ontology/relatedProject', 'http://nfdi.fiz-karlsruhe.de/ontology/fundingProject', 'http://nfdi.fiz-karlsruhe.de/ontology/parentOrganisation', 'http://purl.org/dc/terms/bibliographicCitation', 'http://purl.obolibrary.org/obo/IAO_0000119', 'http://purls.helmholtz-metadaten.de/mwo/hasExpertiseIn']</t>
+          <t>['http://purls.helmholtz-metadaten.de/mwo/hasLecturer', 'http://nfdi.fiz-karlsruhe.de/ontology/objectType', 'https://w3id.org/scholarlydata/ontology/conference-ontology.owl#duration', 'https://schema.org/dateCreated', 'http://nfdi.fiz-karlsruhe.de/ontology/programmingLanguage', 'http://purls.helmholtz-metadaten.de/mwo/usesMethod', 'http://www.w3.org/2002/07/owl#sameAs', 'http://purls.helmholtz-metadaten.de/mwo/hasContactPoint', 'http://purls.helmholtz-metadaten.de/mwo/description']</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>['mwo:hasRelatedResource', 'mwo:relatedParticipantProject', 'mwo:hasDocumentation', 'nfdicore:relatedProject', 'nfdicore:fundingProject', 'nfdicore:parentOrganisation', 'dcterms:bibliographicCitation', 'ns2:IAO_0000119', 'mwo:hasExpertiseIn', 'mwo:description', 'dcterms:description']</t>
+          <t>['mwo:hasRelatedResource', 'mwo:relatedParticipantProject', 'mwo:hasDocumentation', 'nfdicore:relatedProject', 'nfdicore:fundingProject', 'nfdicore:parentOrganisation', 'dcterms:bibliographicCitation', 'ns2:IAO_0000119', 'mwo:hasExpertiseIn', 'mwo:description', 'dcterms:description', 'rdf:type']</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>['ontology alignment', 'The MatWerk ontology', 'ontology matching', 'Ontologies for Materials Science', 'ontology', 'PMD Core Ontology']</t>
+          <t>['The MatWerk ontology', 'MatPortal', 'ontology matching', 'Ontologies for Materials Science', 'ontology', 'glossary', 'Density functional theory', 'Material Science and Engineering Ontology (MSEO)']</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>['https://nfdi.fiz-karlsruhe.de/ontology/Ontology', 'http://demo.fiz-karlsruhe.de/matwerk/E37586', 'http://demo.fiz-karlsruhe.de/matwerk/E1247883', 'http://www.wikidata.org/entity/Q4339878', 'http://demo.fiz-karlsruhe.de/matwerk/E1140296', 'http://purls.helmholtz-metadaten.de/mwo/']</t>
+          <t>['https://nfdi.fiz-karlsruhe.de/ontology/Ontology', 'http://nfdi.fiz-karlsruhe.de/ontology/Glossary', 'http://demo.fiz-karlsruhe.de/matwerk/E37586', 'http://purls.helmholtz-metadaten.de/mwo/', 'http://demo.fiz-karlsruhe.de/matwerk/E1247883', 'https://nfdi.fiz-karlsruhe.de/ontology/Glossary', 'http://demo.fiz-karlsruhe.de/matwerk/E1138787', 'http://demo.fiz-karlsruhe.de/matwerk/E1029896', 'http://demo.fiz-karlsruhe.de/matwerk/E613172']</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>["('http://demo.fiz-karlsruhe.de/matwerk/E8876', 'mwo:hasExpertiseIn', 'http://demo.fiz-karlsruhe.de/matwerk/E37586')", ('http://demo.fiz-karlsruhe.de/matwerk/E1247883', 'mwo:description', '"This TA develops Ontologies and metadata schemes in close cooperation with the stakeholders, tailored to their respective needs."'), ('http://demo.fiz-karlsruhe.de/matwerk/E1140296', 'nfdicore:relatedProject', 'http://demo.fiz-karlsruhe.de/matwerk/E879476'), ('http://demo.fiz-karlsruhe.de/matwerk/E1140296', 'mwo:description', '"Ontology used in Platform Material Digital (PMD)"'), ('http://purls.helmholtz-metadaten.de/mwo/', 'dcterms:description', '"The MatWerk ontology represents research data and related activities of the MSE community. A first version of the ontology will be simplified, focusing on (i) community structure: researchers, research projects, universities, and institutions; (ii) infrastructure: software, workflows, ontologies, schemas, APIs, instruments, facilities, educational resources; and (iii) data: repositories, databases, scientific publications, published datasets and reference data."')]</t>
+          <t>[('https://nfdi.fiz-karlsruhe.de/ontology/Ontology', 'rdf:type', 'http://www.w3.org/2002/07/owl#NamedIndividual'), ('http://nfdi.fiz-karlsruhe.de/ontology/Glossary', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/SemanticExpressivity'), ('http://nfdi.fiz-karlsruhe.de/ontology/Glossary', 'rdf:type', 'http://www.w3.org/2002/07/owl#NamedIndividual'), "('http://demo.fiz-karlsruhe.de/matwerk/E8876', 'mwo:hasExpertiseIn', 'http://demo.fiz-karlsruhe.de/matwerk/E37586')", ('http://demo.fiz-karlsruhe.de/matwerk/E37586', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/AcademicDiscipline'), ('http://purls.helmholtz-metadaten.de/mwo/', 'dcterms:description', '"The MatWerk ontology represents research data and related activities of the MSE community. A first version of the ontology will be simplified, focusing on (i) community structure: researchers, research projects, universities, and institutions; (ii) infrastructure: software, workflows, ontologies, schemas, APIs, instruments, facilities, educational resources; and (iii) data: repositories, databases, scientific publications, published datasets and reference data."'), ('http://purls.helmholtz-metadaten.de/mwo/', 'rdf:type', 'http://www.w3.org/2002/07/owl#Ontology'), ('http://demo.fiz-karlsruhe.de/matwerk/E1247883', 'mwo:description', '"This TA develops Ontologies and metadata schemes in close cooperation with the stakeholders, tailored to their respective needs."'), ('https://nfdi.fiz-karlsruhe.de/ontology/Glossary', 'rdf:type', 'http://www.w3.org/2002/07/owl#NamedIndividual'), ('http://demo.fiz-karlsruhe.de/matwerk/E1138787', 'mwo:description', '"MSEO utilizes the Common Core Ontology stack giving materials scientists and engineers the ability to represent their experiments and resulting data. The goal is to create machine and human readable sematic data which can be easily digested by other science domains. It is a product of the joint venture Materials Open Lab Project between the Bundesanstalt für Materialforschung und -prüfung (BAM) and the Fraunhofer Group MATERIALS and used the BWMD ontology created by Fraunhofer IWM as a starting point."'), ('http://demo.fiz-karlsruhe.de/matwerk/E1138787', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/SemanticResource'), ('http://demo.fiz-karlsruhe.de/matwerk/E1029896', 'mwo:description', '"Ontology repository for materials science."'), ('http://demo.fiz-karlsruhe.de/matwerk/E1029896', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal'), ('http://demo.fiz-karlsruhe.de/matwerk/E613172', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/Method')]</t>
         </is>
       </c>
     </row>
@@ -1438,32 +1438,32 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>['has url', 'has file Extension', 'has repository', 'has keyword ', 'has software', 'has website', 'has domain', 'has postal code', 'has email address ']</t>
+          <t>['has url', 'has file Extension', 'has repository', 'has keyword ', 'has website', 'has domain', 'has postal code', 'has email address ', 'has object type']</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>['http://nfdi.fiz-karlsruhe.de/ontology/url', 'http://nfdi.fiz-karlsruhe.de/ontology/fileExtension', 'http://purls.helmholtz-metadaten.de/mwo/hasRepository', 'http://purls.helmholtz-metadaten.de/mwo/keyword', 'https://nfdi.fiz-karlsruhe.de/ontology/Software', 'http://purls.helmholtz-metadaten.de/mwo/hasWebsite', 'http://www.w3.org/2000/01/rdf-schema#domain', 'http://purls.helmholtz-metadaten.de/mwo/hasPostalCode', 'http://purls.helmholtz-metadaten.de/mwo/emailAddress']</t>
+          <t>['http://purls.helmholtz-metadaten.de/mwo/hasRORID', 'http://purl.obolibrary.org/obo/IAO_0000118', 'http://purls.helmholtz-metadaten.de/mwo/usesTechnology', 'http://www.w3.org/2000/01/rdf-schema#subClassOf', 'http://nfdi.fiz-karlsruhe.de/ontology/parentOrganisation', 'http://purl.org/dc/terms/description', 'http://nfdi.fiz-karlsruhe.de/ontology/example', 'http://purl.obolibrary.org/obo/IAO_0000119', 'http://purls.helmholtz-metadaten.de/mwo/hasAcronym']</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>['nfdicore:url', 'nfdicore:fileExtension', 'mwo:hasRepository', 'mwo:keyword', 'nfdicore:Software', 'mwo:hasWebsite', 'rdfs:domain', 'mwo:hasPostalCode', 'mwo:emailAddress', 'mwo:description', 'dcterms:description']</t>
+          <t>['nfdicore:url', 'nfdicore:fileExtension', 'mwo:hasRepository', 'mwo:keyword', 'mwo:hasWebsite', 'rdfs:domain', 'mwo:hasPostalCode', 'mwo:emailAddress', 'nfdicore:objectType', 'mwo:description', 'dcterms:description', 'rdf:type']</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>['Materials Platform for Data Science', 'Materials Cloud', 'MAX (MAterials design at the eXascale)', 'Materials Project API', 'HybriD³ materials database']</t>
+          <t>['Materials Platform for Data Science', 'Materials Cloud', 'MAX (MAterials design at the eXascale)', 'Materials Project API', 'Python Materials Genomics', 'HybriD³ materials database']</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>['http://demo.fiz-karlsruhe.de/matwerk/E547536', 'http://demo.fiz-karlsruhe.de/matwerk/E1063154', 'http://demo.fiz-karlsruhe.de/matwerk/E7107', 'http://demo.fiz-karlsruhe.de/matwerk/E1027029', 'http://demo.fiz-karlsruhe.de/matwerk/E1035642']</t>
+          <t>['http://demo.fiz-karlsruhe.de/matwerk/E478754', 'http://demo.fiz-karlsruhe.de/matwerk/E547536', 'http://demo.fiz-karlsruhe.de/matwerk/E1027029', 'http://demo.fiz-karlsruhe.de/matwerk/E1035642', 'http://demo.fiz-karlsruhe.de/matwerk/E1063154', 'http://demo.fiz-karlsruhe.de/matwerk/E7107']</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>[('http://demo.fiz-karlsruhe.de/matwerk/E1063154', 'mwo:hasWebsite', 'http://demo.fiz-karlsruhe.de/matwerk/E370371'), ('http://demo.fiz-karlsruhe.de/matwerk/E1063154', 'mwo:description', '"The HybriD³ materials database provides a comprehensive collection of experimental and computational materials data for crystalline organic-inorganic compounds, predominantly based on the perovskite paradigm."'), ('http://demo.fiz-karlsruhe.de/matwerk/E1027029', 'mwo:hasRepository', 'http://demo.fiz-karlsruhe.de/matwerk/E390404'), ('http://demo.fiz-karlsruhe.de/matwerk/E1027029', 'mwo:hasWebsite', 'http://demo.fiz-karlsruhe.de/matwerk/E348362'), ('http://demo.fiz-karlsruhe.de/matwerk/E1027029', 'mwo:description', '"Materials Cloud is built to enable the seamless sharing and dissemination of resources in computational materials science, offering educational, research, and archiving tools; simulation software and services; and curated and raw data. These underpin published results and empower data-based discovery, compliant with data management plans and the FAIR principles."'), ('http://demo.fiz-karlsruhe.de/matwerk/E1035642', 'mwo:hasWebsite', 'http://demo.fiz-karlsruhe.de/matwerk/E353381'), ('http://demo.fiz-karlsruhe.de/matwerk/E1035642', 'mwo:description', '"Online materials database (known as PAULING FILE project) with nearly 2 million entries: physical properties, crystal structures, phase diagrams, available via API, ready for modern data-intensive applications. The source of these entries are about 300,000 peer-reviewed publications in materials science, processed during the last 16 years by an international team of PhD editors. The results are presented online with a quick search interface. The basic access is provided for free."')]</t>
+          <t>[('http://demo.fiz-karlsruhe.de/matwerk/E478754', 'mwo:hasRepository', 'http://demo.fiz-karlsruhe.de/matwerk/E185529'), ('http://demo.fiz-karlsruhe.de/matwerk/E478754', 'mwo:hasWebsite', 'http://demo.fiz-karlsruhe.de/matwerk/E120806'), ('http://demo.fiz-karlsruhe.de/matwerk/E478754', 'dcterms:description', '"materials analysis code that defines core object representations for structures and molecules with support for many electronic structure codes. It is currently the core analysis code powering the Materials Project."'), ('http://demo.fiz-karlsruhe.de/matwerk/E478754', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E547536', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E1027029', 'mwo:hasRepository', 'http://demo.fiz-karlsruhe.de/matwerk/E390404'), ('http://demo.fiz-karlsruhe.de/matwerk/E1027029', 'mwo:hasWebsite', 'http://demo.fiz-karlsruhe.de/matwerk/E348362'), ('http://demo.fiz-karlsruhe.de/matwerk/E1027029', 'mwo:description', '"Materials Cloud is built to enable the seamless sharing and dissemination of resources in computational materials science, offering educational, research, and archiving tools; simulation software and services; and curated and raw data. These underpin published results and empower data-based discovery, compliant with data management plans and the FAIR principles."'), ('http://demo.fiz-karlsruhe.de/matwerk/E1027029', 'rdf:type', 'http://www.ebi.ac.uk/swo/SWO_0000001'), ('http://demo.fiz-karlsruhe.de/matwerk/E1027029', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal'), ('http://demo.fiz-karlsruhe.de/matwerk/E1035642', 'mwo:hasWebsite', 'http://demo.fiz-karlsruhe.de/matwerk/E353381'), ('http://demo.fiz-karlsruhe.de/matwerk/E1035642', 'mwo:description', '"Online materials database (known as PAULING FILE project) with nearly 2 million entries: physical properties, crystal structures, phase diagrams, available via API, ready for modern data-intensive applications. The source of these entries are about 300,000 peer-reviewed publications in materials science, processed during the last 16 years by an international team of PhD editors. The results are presented online with a quick search interface. The basic access is provided for free."'), ('http://demo.fiz-karlsruhe.de/matwerk/E1035642', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal'), ('http://demo.fiz-karlsruhe.de/matwerk/E1063154', 'mwo:hasWebsite', 'http://demo.fiz-karlsruhe.de/matwerk/E370371'), ('http://demo.fiz-karlsruhe.de/matwerk/E1063154', 'mwo:description', '"The HybriD³ materials database provides a comprehensive collection of experimental and computational materials data for crystalline organic-inorganic compounds, predominantly based on the perovskite paradigm."'), ('http://demo.fiz-karlsruhe.de/matwerk/E1063154', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal'), ('http://demo.fiz-karlsruhe.de/matwerk/E7107', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Organization')]</t>
         </is>
       </c>
     </row>
@@ -1490,27 +1490,27 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>['http://purl.org/dc/terms/description', 'http://purls.helmholtz-metadaten.de/mwo/description', 'http://purl.org/dc/terms/bibliographicCitation', 'http://www.geneontology.org/formats/oboInOwl#hasDefinition', 'http://www.w3.org/2004/02/skos/core#definition', 'http://purls.helmholtz-metadaten.de/mwo/hasDocumentation', 'https://schema.org/citation', 'http://purl.obolibrary.org/obo/IAO_0000119', 'http://purl.obolibrary.org/obo/IAO_0000600']</t>
+          <t>['http://purl.obolibrary.org/obo/IAO_0000115', 'http://www.w3.org/2002/07/owl#onProperty', 'http://www.w3.org/2002/07/owl#sameAs', 'http://xmlns.com/foaf/0.1/firstName', 'http://www.w3.org/1999/02/22-rdf-syntax-ns#type', 'https://w3id.org/scholarlydata/ontology/conference-ontology.owl#duration', 'http://www.w3.org/1999/02/22-rdf-syntax-ns#rest', 'http://purls.helmholtz-metadaten.de/mwo/hasContactPoint', 'http://purls.helmholtz-metadaten.de/mwo/hasVersion']</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>['dcterms:description', 'mwo:description', 'dcterms:bibliographicCitation', 'ns4:hasDefinition', 'skos:definition', 'mwo:hasDocumentation', 'schema:citation', 'ns2:IAO_0000119', 'ns2:IAO_0000600']</t>
+          <t>['dcterms:description', 'mwo:description', 'dcterms:bibliographicCitation', 'ns4:hasDefinition', 'skos:definition', 'mwo:hasDocumentation', 'schema:citation', 'ns2:IAO_0000119', 'ns2:IAO_0000600', 'rdf:type']</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>['specification', 'acronym', 'software', 'R. S. Elliott and E. B. Tadmor, "Knowledgebase of Interatomic Models (KIM) Application Programming Interface (API)", OpenKIM (2011). doi:10.25950/ff8f563a', 'Silicon']</t>
+          <t>['Silicon', 'programming language', 'py4vasp', 'R. S. Elliott and E. B. Tadmor, "Knowledgebase of Interatomic Models (KIM) Application Programming Interface (API)", OpenKIM (2011). doi:10.25950/ff8f563a', 'icet', 'software', 'acronym', 'OpenPathSampling', 'matminer', 'pycp2k', 'CompositionSpace', 'specification', 'Pyscal']</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>['http://demo.fiz-karlsruhe.de/matwerk/E1247879', 'http://purl.obolibrary.org/obo/NCIT_C93495', 'http://nfdi.fiz-karlsruhe.de/ontology/Software', 'http://demo.fiz-karlsruhe.de/matwerk/E962192', 'http://nfdi.fiz-karlsruhe.de/ontology/Specification', 'http://www.ebi.ac.uk/swo/SWO_0000001']</t>
+          <t>['http://demo.fiz-karlsruhe.de/matwerk/E476801', 'http://nfdi.fiz-karlsruhe.de/ontology/Software', 'http://www.ebi.ac.uk/swo/SWO_0000001', 'http://demo.fiz-karlsruhe.de/matwerk/E466131', 'http://demo.fiz-karlsruhe.de/matwerk/E497507', 'http://nfdi.fiz-karlsruhe.de/ontology/Specification', 'http://demo.fiz-karlsruhe.de/matwerk/E489567', 'http://nfdi.fiz-karlsruhe.de/ontology/ProgrammingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E962192', 'http://demo.fiz-karlsruhe.de/matwerk/E413687', 'http://purl.obolibrary.org/obo/NCIT_C93495', 'http://demo.fiz-karlsruhe.de/matwerk/E1246567', 'http://demo.fiz-karlsruhe.de/matwerk/E1247879', 'http://demo.fiz-karlsruhe.de/matwerk/E474852']</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>["('http://demo.fiz-karlsruhe.de/matwerk/E534029', 'schema:citation', 'http://demo.fiz-karlsruhe.de/matwerk/E962192')", ('http://www.ebi.ac.uk/swo/SWO_0000001', 'ns2:IAO_0000119', '"James Malone"'), ('http://www.ebi.ac.uk/swo/SWO_0000001', 'ns2:IAO_0000119', '"Modified in parts from https://en.wikipedia.org/wiki/Software"'), ('http://www.ebi.ac.uk/swo/SWO_0000001', 'ns2:IAO_0000119', '"Robert Stevens"')]</t>
+          <t>[('http://demo.fiz-karlsruhe.de/matwerk/E476801', 'dcterms:description', '"Python library to facilitate path sampling algorithms."'), ('http://demo.fiz-karlsruhe.de/matwerk/E476801', 'schema:citation', 'http://demo.fiz-karlsruhe.de/matwerk/E919691'), ('http://demo.fiz-karlsruhe.de/matwerk/E476801', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), "('http://demo.fiz-karlsruhe.de/matwerk/E439517', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software')", "('http://demo.fiz-karlsruhe.de/matwerk/E529907', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software')", "('http://demo.fiz-karlsruhe.de/matwerk/E1246593', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software')", "('http://demo.fiz-karlsruhe.de/matwerk/E1238952', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software')", "('http://demo.fiz-karlsruhe.de/matwerk/E431129', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software')", "('http://demo.fiz-karlsruhe.de/matwerk/E571847', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software')", "('http://demo.fiz-karlsruhe.de/matwerk/E593417', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software')", "('http://demo.fiz-karlsruhe.de/matwerk/E595596', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software')", "('http://demo.fiz-karlsruhe.de/matwerk/E489567', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software')", "('http://demo.fiz-karlsruhe.de/matwerk/E469029', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software')", "('http://demo.fiz-karlsruhe.de/matwerk/E482672', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software')", "('http://demo.fiz-karlsruhe.de/matwerk/E542321', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software')", "('http://demo.fiz-karlsruhe.de/matwerk/E586904', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software')", "('http://demo.fiz-karlsruhe.de/matwerk/E494522', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software')", "('http://demo.fiz-karlsruhe.de/matwerk/E466131', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software')", "('http://demo.fiz-karlsruhe.de/matwerk/E414596', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software')", "('http://demo.fiz-karlsruhe.de/matwerk/E592329', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software')", "('http://demo.fiz-karlsruhe.de/matwerk/E547536', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software')", "('http://demo.fiz-karlsruhe.de/matwerk/E445154', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software')", "('http://demo.fiz-karlsruhe.de/matwerk/E453677', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software')", ('http://nfdi.fiz-karlsruhe.de/ontology/Software', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), "('http://demo.fiz-karlsruhe.de/matwerk/E487592', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software')", "('http://demo.fiz-karlsruhe.de/matwerk/E561212', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software')", "('http://demo.fiz-karlsruhe.de/matwerk/E1246620', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software')", "('http://demo.fiz-karlsruhe.de/matwerk/E591242', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software')", "('http://demo.fiz-karlsruhe.de/matwerk/E637757', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software')", "('http://demo.fiz-karlsruhe.de/matwerk/E560154', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software')", "('http://demo.fiz-karlsruhe.de/matwerk/E564392', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software')", "('http://demo.fiz-karlsruhe.de/matwerk/E511556', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software')", "('http://demo.fiz-karlsruhe.de/matwerk/E548582', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software')", "('http://demo.fiz-karlsruhe.de/matwerk/E582582', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software')", "('http://demo.fiz-karlsruhe.de/matwerk/E594506', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software')", "('http://demo.fiz-karlsruhe.de/matwerk/E584741', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software')", "('http://demo.fiz-karlsruhe.de/matwerk/E478754', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software')", "('http://demo.fiz-karlsruhe.de/matwerk/E496511', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software')", "('http://demo.fiz-karlsruhe.de/matwerk/E516621', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software')", "('http://demo.fiz-karlsruhe.de/matwerk/E526826', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software')", "('http://demo.fiz-karlsruhe.de/matwerk/E551726', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software')", "('http://demo.fiz-karlsruhe.de/matwerk/E447986', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software')", "('http://demo.fiz-karlsruhe.de/matwerk/E552776', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software')", "('http://demo.fiz-karlsruhe.de/matwerk/E607652', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software')", "('http://demo.fiz-karlsruhe.de/matwerk/E465167', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software')", "('http://demo.fiz-karlsruhe.de/matwerk/E428351', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software')", "('http://demo.fiz-karlsruhe.de/matwerk/E520691', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software')", "('http://demo.fiz-karlsruhe.de/matwerk/E1246677', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software')", "('http://demo.fiz-karlsruhe.de/matwerk/E583661', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software')", "('http://demo.fiz-karlsruhe.de/matwerk/E422822', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software')", "('http://demo.fiz-karlsruhe.de/matwerk/E472907', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software')", "('http://demo.fiz-karlsruhe.de/matwerk/E554879', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software')", "('http://demo.fiz-karlsruhe.de/matwerk/E1246567', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software')", "('http://demo.fiz-karlsruhe.de/matwerk/E475826', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software')", "('http://demo.fiz-karlsruhe.de/matwerk/E524777', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software')", "('http://demo.fiz-karlsruhe.de/matwerk/E420987', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software')", "('http://demo.fiz-karlsruhe.de/matwerk/E471936', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software')", "('http://demo.fiz-karlsruhe.de/matwerk/E483654', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software')", "('http://demo.fiz-karlsruhe.de/matwerk/E636629', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software')", "('http://demo.fiz-karlsruhe.de/matwerk/E536096', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software')", "('http://demo.fiz-karlsruhe.de/matwerk/E578276', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software')", "('http://demo.fiz-karlsruhe.de/matwerk/E427427', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software')", "('http://demo.fiz-karlsruhe.de/matwerk/E481691', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software')", "('http://demo.fiz-karlsruhe.de/matwerk/E474852', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software')", "('http://demo.fiz-karlsruhe.de/matwerk/E598872', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software')", "('http://demo.fiz-karlsruhe.de/matwerk/E507522', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software')", "('http://demo.fiz-karlsruhe.de/matwerk/E467096', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software')", "('http://demo.fiz-karlsruhe.de/matwerk/E469997', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software')", "('http://demo.fiz-karlsruhe.de/matwerk/E558041', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software')", "('http://demo.fiz-karlsruhe.de/matwerk/E562271', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software')", "('http://demo.fiz-karlsruhe.de/matwerk/E456536', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software')", "('http://demo.fiz-karlsruhe.de/matwerk/E543362', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software')", "('http://demo.fiz-karlsruhe.de/matwerk/E470966', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software')", "('http://demo.fiz-karlsruhe.de/matwerk/E495516', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software')", "('http://demo.fiz-karlsruhe.de/matwerk/E509537', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software')", "('http://demo.fiz-karlsruhe.de/matwerk/E490556', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software')", "('http://demo.fiz-karlsruhe.de/matwerk/E654797', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software')", "('http://demo.fiz-karlsruhe.de/matwerk/E441392', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software')", "('http://demo.fiz-karlsruhe.de/matwerk/E486606', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software')", "('http://demo.fiz-karlsruhe.de/matwerk/E596687', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software')", "('http://demo.fiz-karlsruhe.de/matwerk/E440454', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software')", "('http://demo.fiz-karlsruhe.de/matwerk/E513579', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software')", "('http://demo.fiz-karlsruhe.de/matwerk/E585822', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software')", "('http://demo.fiz-karlsruhe.de/matwerk/E499502', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software')", "('http://demo.fiz-karlsruhe.de/matwerk/E604352', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software')", "('http://demo.fiz-karlsruhe.de/matwerk/E599966', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software')", "('http://demo.fiz-karlsruhe.de/matwerk/E606551', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software')", "('http://demo.fiz-karlsruhe.de/matwerk/E658232', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software')", "('http://demo.fiz-karlsruhe.de/matwerk/E517637', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software')", "('http://demo.fiz-karlsruhe.de/matwerk/E527852', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software')", "('http://demo.fiz-karlsruhe.de/matwerk/E570779', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software')", "('http://demo.fiz-karlsruhe.de/matwerk/E461321', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software')", "('http://demo.fiz-karlsruhe.de/matwerk/E508529', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software')", "('http://demo.fiz-karlsruhe.de/matwerk/E491546', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software')", "('http://demo.fiz-karlsruhe.de/matwerk/E504507', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software')", "('http://demo.fiz-karlsruhe.de/matwerk/E498504', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software')", "('http://demo.fiz-karlsruhe.de/matwerk/E415506', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software')", "('http://demo.fiz-karlsruhe.de/matwerk/E555932', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software')", "('http://demo.fiz-karlsruhe.de/matwerk/E567581', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software')", "('http://demo.fiz-karlsruhe.de/matwerk/E597779', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software')", "('http://demo.fiz-karlsruhe.de/matwerk/E473879', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software')", "('http://demo.fiz-karlsruhe.de/matwerk/E540242', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software')", "('http://demo.fiz-karlsruhe.de/matwerk/E541281', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software')", "('http://demo.fiz-karlsruhe.de/matwerk/E429276', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software')", "('http://demo.fiz-karlsruhe.de/matwerk/E545447', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software')", "('http://demo.fiz-karlsruhe.de/matwerk/E566517', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software')", "('http://demo.fiz-karlsruhe.de/matwerk/E575057', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software')", "('http://demo.fiz-karlsruhe.de/matwerk/E568646', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software')", "('http://demo.fiz-karlsruhe.de/matwerk/E450827', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software')", "('http://demo.fiz-karlsruhe.de/matwerk/E488579', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software')", "('http://demo.fiz-karlsruhe.de/matwerk/E601061', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software')", "('http://demo.fiz-karlsruhe.de/matwerk/E550677', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software')", "('http://demo.fiz-karlsruhe.de/matwerk/E576129', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software')", "('http://demo.fiz-karlsruhe.de/matwerk/E419156', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software')", "('http://demo.fiz-karlsruhe.de/matwerk/E420071', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software')", "('http://demo.fiz-karlsruhe.de/matwerk/E452726', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software')", "('http://demo.fiz-karlsruhe.de/matwerk/E426504', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software')", "('http://demo.fiz-karlsruhe.de/matwerk/E468062', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software')", "('http://demo.fiz-karlsruhe.de/matwerk/E435779', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software')", "('http://demo.fiz-karlsruhe.de/matwerk/E500501', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software')", "('http://demo.fiz-karlsruhe.de/matwerk/E528879', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software')", "('http://demo.fiz-karlsruhe.de/matwerk/E534029', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software')", "('http://demo.fiz-karlsruhe.de/matwerk/E432986', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software')", "('http://demo.fiz-karlsruhe.de/matwerk/E449879', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software')", "('http://demo.fiz-karlsruhe.de/matwerk/E510546', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software')", "('http://demo.fiz-karlsruhe.de/matwerk/E442331', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software')", "('http://demo.fiz-karlsruhe.de/matwerk/E448932', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software')", "('http://demo.fiz-karlsruhe.de/matwerk/E530936', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software')", "('http://demo.fiz-karlsruhe.de/matwerk/E573986', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software')", "('http://demo.fiz-karlsruhe.de/matwerk/E577202', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software')", "('http://demo.fiz-karlsruhe.de/matwerk/E458447', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software')", "('http://demo.fiz-karlsruhe.de/matwerk/E485621', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software')", "('http://demo.fiz-karlsruhe.de/matwerk/E454629', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software')", "('http://demo.fiz-karlsruhe.de/matwerk/E502502', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software')", "('http://demo.fiz-karlsruhe.de/matwerk/E506516', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software')", "('http://demo.fiz-karlsruhe.de/matwerk/E531966', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software')", "('http://demo.fiz-karlsruhe.de/matwerk/E539204', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software')", "('http://demo.fiz-karlsruhe.de/matwerk/E413687', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software')", "('http://demo.fiz-karlsruhe.de/matwerk/E416417', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software')", "('http://demo.fiz-karlsruhe.de/matwerk/E579351', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software')", "('http://demo.fiz-karlsruhe.de/matwerk/E417329', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software')", "('http://demo.fiz-karlsruhe.de/matwerk/E605451', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software')", "('http://demo.fiz-karlsruhe.de/matwerk/E603254', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software')", "('http://demo.fiz-karlsruhe.de/matwerk/E443271', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software')", "('http://demo.fiz-karlsruhe.de/matwerk/E519672', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software')", "('http://demo.fiz-karlsruhe.de/matwerk/E457491', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software')", "('http://demo.fiz-karlsruhe.de/matwerk/E532997', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software')", "('http://demo.fiz-karlsruhe.de/matwerk/E497507', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software')", "('http://demo.fiz-karlsruhe.de/matwerk/E444212', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software')", "('http://demo.fiz-karlsruhe.de/matwerk/E425582', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software')", "('http://demo.fiz-karlsruhe.de/matwerk/E546491', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software')", "('http://demo.fiz-karlsruhe.de/matwerk/E436712', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software')", "('http://demo.fiz-karlsruhe.de/matwerk/E549629', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software')", "('http://demo.fiz-karlsruhe.de/matwerk/E521711', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software')", "('http://demo.fiz-karlsruhe.de/matwerk/E590156', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software')", "('http://demo.fiz-karlsruhe.de/matwerk/E515606', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software')", "('http://demo.fiz-karlsruhe.de/matwerk/E544404', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software')", "('http://demo.fiz-karlsruhe.de/matwerk/E418242', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software')", "('http://demo.fiz-karlsruhe.de/matwerk/E553827', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software')", "('http://demo.fiz-karlsruhe.de/matwerk/E412779', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software')", "('http://demo.fiz-karlsruhe.de/matwerk/E433916', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software')", "('http://demo.fiz-karlsruhe.de/matwerk/E479732', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software')", "('http://demo.fiz-karlsruhe.de/matwerk/E492537', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software')", "('http://demo.fiz-karlsruhe.de/matwerk/E589071', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software')", "('http://demo.fiz-karlsruhe.de/matwerk/E484637', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software')", "('http://demo.fiz-karlsruhe.de/matwerk/E493529', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software')", "('http://demo.fiz-karlsruhe.de/matwerk/E505511', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software')", "('http://demo.fiz-karlsruhe.de/matwerk/E518654', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software')", "('http://demo.fiz-karlsruhe.de/matwerk/E559097', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software')", "('http://demo.fiz-karlsruhe.de/matwerk/E565454', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software')", "('http://demo.fiz-karlsruhe.de/matwerk/E523754', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software')", "('http://demo.fiz-karlsruhe.de/matwerk/E569712', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software')", "('http://demo.fiz-karlsruhe.de/matwerk/E411872', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software')", "('http://demo.fiz-karlsruhe.de/matwerk/E438581', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software')", "('http://demo.fiz-karlsruhe.de/matwerk/E525801', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software')", "('http://demo.fiz-karlsruhe.de/matwerk/E459404', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software')", "('http://demo.fiz-karlsruhe.de/matwerk/E460362', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software')", "('http://demo.fiz-karlsruhe.de/matwerk/E587987', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software')", "('http://demo.fiz-karlsruhe.de/matwerk/E512567', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software')", "('http://demo.fiz-karlsruhe.de/matwerk/E655941', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software')", "('http://demo.fiz-karlsruhe.de/matwerk/E434847', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software')", "('http://demo.fiz-karlsruhe.de/matwerk/E1246707', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software')", "('http://demo.fiz-karlsruhe.de/matwerk/E514592', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software')", "('http://demo.fiz-karlsruhe.de/matwerk/E580427', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software')", "('http://demo.fiz-karlsruhe.de/matwerk/E556986', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software')", "('http://demo.fiz-karlsruhe.de/matwerk/E464204', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software')", "('http://demo.fiz-karlsruhe.de/matwerk/E421904', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software')", "('http://demo.fiz-karlsruhe.de/matwerk/E476801', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software')", "('http://demo.fiz-karlsruhe.de/matwerk/E1246648', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software')", "('http://demo.fiz-karlsruhe.de/matwerk/E451776', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software')", "('http://demo.fiz-karlsruhe.de/matwerk/E503504', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software')", "('http://demo.fiz-karlsruhe.de/matwerk/E538167', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software')", "('http://demo.fiz-karlsruhe.de/matwerk/E437646', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software')", "('http://demo.fiz-karlsruhe.de/matwerk/E522732', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software')", "('http://demo.fiz-karlsruhe.de/matwerk/E563331', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software')", "('http://demo.fiz-karlsruhe.de/matwerk/E602157', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software')", "('http://demo.fiz-karlsruhe.de/matwerk/E462281', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software')", "('http://demo.fiz-karlsruhe.de/matwerk/E455582', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software')", "('http://demo.fiz-karlsruhe.de/matwerk/E581504', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software')", "('http://demo.fiz-karlsruhe.de/matwerk/E572916', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software')", "('http://demo.fiz-karlsruhe.de/matwerk/E480711', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software')", "('http://demo.fiz-karlsruhe.de/matwerk/E432057', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software')", "('http://demo.fiz-karlsruhe.de/matwerk/E446097', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software')", "('http://demo.fiz-karlsruhe.de/matwerk/E477777', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software')", "('http://demo.fiz-karlsruhe.de/matwerk/E447041', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software')", "('http://demo.fiz-karlsruhe.de/matwerk/E463242', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software')", ('http://www.ebi.ac.uk/swo/SWO_0000001', 'ns2:IAO_0000119', '"Modified in parts from https://en.wikipedia.org/wiki/Software"'), ('http://www.ebi.ac.uk/swo/SWO_0000001', 'ns2:IAO_0000119', '"Robert Stevens"'), ('http://www.ebi.ac.uk/swo/SWO_0000001', 'ns2:IAO_0000119', '"James Malone"'), "('http://demo.fiz-karlsruhe.de/matwerk/E1243677', 'rdf:type', 'http://www.ebi.ac.uk/swo/SWO_0000001')", "('http://demo.fiz-karlsruhe.de/matwerk/E1234236', 'rdf:type', 'http://www.ebi.ac.uk/swo/SWO_0000001')", "('http://demo.fiz-karlsruhe.de/matwerk/E1240526', 'rdf:type', 'http://www.ebi.ac.uk/swo/SWO_0000001')", "('http://demo.fiz-karlsruhe.de/matwerk/E836279', 'rdf:type', 'http://www.ebi.ac.uk/swo/SWO_0000001')", "('http://demo.fiz-karlsruhe.de/matwerk/E1232666', 'rdf:type', 'http://www.ebi.ac.uk/swo/SWO_0000001')", "('http://demo.fiz-karlsruhe.de/matwerk/E1245254', 'rdf:type', 'http://www.ebi.ac.uk/swo/SWO_0000001')", "('http://demo.fiz-karlsruhe.de/matwerk/E511556', 'rdf:type', 'http://www.ebi.ac.uk/swo/SWO_0000001')", "('http://demo.fiz-karlsruhe.de/matwerk/E457491', 'rdf:type', 'http://www.ebi.ac.uk/swo/SWO_0000001')", "('http://demo.fiz-karlsruhe.de/matwerk/E583661', 'rdf:type', 'http://www.ebi.ac.uk/swo/SWO_0000001')", "('http://demo.fiz-karlsruhe.de/matwerk/E1027029', 'rdf:type', 'http://www.ebi.ac.uk/swo/SWO_0000001')", "('http://demo.fiz-karlsruhe.de/matwerk/E1231097', 'rdf:type', 'http://www.ebi.ac.uk/swo/SWO_0000001')", "('http://demo.fiz-karlsruhe.de/matwerk/E1242101', 'rdf:type', 'http://www.ebi.ac.uk/swo/SWO_0000001')", ('http://www.ebi.ac.uk/swo/SWO_0000001', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), "('http://demo.fiz-karlsruhe.de/matwerk/E1235807', 'rdf:type', 'http://www.ebi.ac.uk/swo/SWO_0000001')", "('http://demo.fiz-karlsruhe.de/matwerk/E595596', 'rdf:type', 'http://www.ebi.ac.uk/swo/SWO_0000001')", "('http://demo.fiz-karlsruhe.de/matwerk/E1238952', 'rdf:type', 'http://www.ebi.ac.uk/swo/SWO_0000001')", "('http://demo.fiz-karlsruhe.de/matwerk/E1237379', 'rdf:type', 'http://www.ebi.ac.uk/swo/SWO_0000001')", ('http://demo.fiz-karlsruhe.de/matwerk/E466131', 'dcterms:description', '"Python interface to extract data from VASP calculations"'), ('http://demo.fiz-karlsruhe.de/matwerk/E466131', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E497507', 'dcterms:description', '"Python library for data mining the properties of materials."'), ('http://demo.fiz-karlsruhe.de/matwerk/E497507', 'schema:citation', 'http://demo.fiz-karlsruhe.de/matwerk/E936029'), ('http://demo.fiz-karlsruhe.de/matwerk/E497507', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), "('http://demo.fiz-karlsruhe.de/matwerk/E1156961', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Specification')", "('http://demo.fiz-karlsruhe.de/matwerk/E1167629', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Specification')", "('http://demo.fiz-karlsruhe.de/matwerk/E1247727', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Specification')", "('http://demo.fiz-karlsruhe.de/matwerk/E1247738', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Specification')", "('http://demo.fiz-karlsruhe.de/matwerk/E1125251', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Specification')", "('http://demo.fiz-karlsruhe.de/matwerk/E1152404', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Specification')", "('http://demo.fiz-karlsruhe.de/matwerk/E1164576', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Specification')", "('http://demo.fiz-karlsruhe.de/matwerk/E1149371', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Specification')", ('http://nfdi.fiz-karlsruhe.de/ontology/Specification', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), "('http://demo.fiz-karlsruhe.de/matwerk/E1153922', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Specification')", "('http://demo.fiz-karlsruhe.de/matwerk/E1247717', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Specification')", "('http://demo.fiz-karlsruhe.de/matwerk/E1150887', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Specification')", "('http://demo.fiz-karlsruhe.de/matwerk/E1155441', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Specification')", ('http://demo.fiz-karlsruhe.de/matwerk/E489567', 'dcterms:description', '"icet is a python tool for the construction and sampling of alloy cluster expansions."'), ('http://demo.fiz-karlsruhe.de/matwerk/E489567', 'schema:citation', 'http://demo.fiz-karlsruhe.de/matwerk/E926481'), ('http://demo.fiz-karlsruhe.de/matwerk/E489567', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), "('http://demo.fiz-karlsruhe.de/matwerk/E847952', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/ProgrammingLanguage')", "('http://demo.fiz-karlsruhe.de/matwerk/E849254', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/ProgrammingLanguage')", "('http://demo.fiz-karlsruhe.de/matwerk/E828542', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/ProgrammingLanguage')", "('http://demo.fiz-karlsruhe.de/matwerk/E840161', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/ProgrammingLanguage')", "('http://demo.fiz-karlsruhe.de/matwerk/E844052', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/ProgrammingLanguage')", "('http://demo.fiz-karlsruhe.de/matwerk/E841457', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/ProgrammingLanguage')", "('http://demo.fiz-karlsruhe.de/matwerk/E833696', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/ProgrammingLanguage')", "('http://demo.fiz-karlsruhe.de/matwerk/E834987', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/ProgrammingLanguage')", "('http://demo.fiz-karlsruhe.de/matwerk/E846651', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/ProgrammingLanguage')", "('http://demo.fiz-karlsruhe.de/matwerk/E845351', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/ProgrammingLanguage')", "('http://demo.fiz-karlsruhe.de/matwerk/E1247517', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/ProgrammingLanguage')", ('http://nfdi.fiz-karlsruhe.de/ontology/ProgrammingLanguage', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), "('http://demo.fiz-karlsruhe.de/matwerk/E837572', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/ProgrammingLanguage')", "('http://demo.fiz-karlsruhe.de/matwerk/E832406', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/ProgrammingLanguage')", "('http://demo.fiz-karlsruhe.de/matwerk/E836279', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/ProgrammingLanguage')", "('http://demo.fiz-karlsruhe.de/matwerk/E842754', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/ProgrammingLanguage')", "('http://demo.fiz-karlsruhe.de/matwerk/E838866', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/ProgrammingLanguage')", "('http://demo.fiz-karlsruhe.de/matwerk/E534029', 'schema:citation', 'http://demo.fiz-karlsruhe.de/matwerk/E962192')", ('http://demo.fiz-karlsruhe.de/matwerk/E962192', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Publication'), ('http://demo.fiz-karlsruhe.de/matwerk/E413687', 'dcterms:description', '"Python library written in C++ for calculation of local atomic structural environment"'), ('http://demo.fiz-karlsruhe.de/matwerk/E413687', 'mwo:hasDocumentation', 'http://demo.fiz-karlsruhe.de/matwerk/E92379'), ('http://demo.fiz-karlsruhe.de/matwerk/E413687', 'schema:citation', 'http://demo.fiz-karlsruhe.de/matwerk/E882129'), ('http://demo.fiz-karlsruhe.de/matwerk/E413687', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/ProcessingSoftware'), ('http://demo.fiz-karlsruhe.de/matwerk/E413687', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E413687', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/ResearchSoftware'), ('http://purl.obolibrary.org/obo/NCIT_C93495', 'rdf:type', 'http://www.w3.org/2002/07/owl#AnnotationProperty'), ('http://demo.fiz-karlsruhe.de/matwerk/E1246567', 'dcterms:description', '"CompositionSpace is a python library for analysis of APT data. "'), ('http://demo.fiz-karlsruhe.de/matwerk/E1246567', 'mwo:hasDocumentation', 'http://demo.fiz-karlsruhe.de/matwerk/E1246518'), ('http://demo.fiz-karlsruhe.de/matwerk/E1246567', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E1246567', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/ResearchSoftware'), ('http://demo.fiz-karlsruhe.de/matwerk/E1247879', 'rdf:type', 'http://emmo.info/emmo#EMMO_4207e895_8b83_4318_996a_72cfb32acd94'), ('http://demo.fiz-karlsruhe.de/matwerk/E474852', 'dcterms:description', '"Python Cp2k interface"'), ('http://demo.fiz-karlsruhe.de/matwerk/E474852', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software')]</t>
         </is>
       </c>
     </row>
@@ -1537,27 +1537,27 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>['http://purls.helmholtz-metadaten.de/mwo/hasDocumentation', 'http://purl.org/dc/terms/bibliographicCitation', 'https://schema.org/citation', 'http://purl.obolibrary.org/obo/IAO_0000114', 'http://purl.org/dc/terms/description', 'http://purls.helmholtz-metadaten.de/mwo/description', 'http://purls.helmholtz-metadaten.de/mwo/relatedParticipantProject', 'http://purl.obolibrary.org/obo/IAO_0000600', 'http://www.geneontology.org/formats/oboInOwl#hasDefinition']</t>
+          <t>['https://w3id.org/scholarlydata/ontology/conference-ontology.owl#duration', 'http://www.w3.org/2002/07/owl#sameAs', 'http://www.w3.org/1999/02/22-rdf-syntax-ns#rest', 'http://purl.org/dc/terms/bibliographicCitation', 'http://purl.obolibrary.org/obo/IAO_0000115', 'http://www.w3.org/2002/07/owl#onProperty', 'http://nfdi.fiz-karlsruhe.de/ontology/objectType', 'http://purls.helmholtz-metadaten.de/mwo/hasVersion', 'http://xmlns.com/foaf/0.1/firstName']</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>['mwo:hasDocumentation', 'dcterms:bibliographicCitation', 'schema:citation', 'ns2:IAO_0000114', 'dcterms:description', 'mwo:description', 'mwo:relatedParticipantProject', 'ns2:IAO_0000600', 'ns4:hasDefinition']</t>
+          <t>['mwo:hasDocumentation', 'dcterms:bibliographicCitation', 'schema:citation', 'ns2:IAO_0000114', 'dcterms:description', 'mwo:description', 'mwo:relatedParticipantProject', 'ns2:IAO_0000600', 'ns4:hasDefinition', 'rdf:type']</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>['MatDB', 'Organic Materials Database (OMDB)', 'is online', 'MatDB Online', 'MatPortal']</t>
+          <t>['Phonon database at Kyoto university', 'MatPortal', 'Materials Platform for Data Science', 'MatDB Online', 'MatDB', 'NOMAD Metainfo', 'has repository', 'Organic Materials Database (OMDB)', 'Workshop: Simulation workflows in materials modelling', 'Electronic Structure Common Data Format (ESCDF)', 'Metadata schemes for materials science data', 'is online', 'Materials Data Repository']</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>['http://demo.fiz-karlsruhe.de/matwerk/E1146342', 'http://demo.fiz-karlsruhe.de/matwerk/E1073381', 'http://purls.helmholtz-metadaten.de/mwo/isOnline', 'http://demo.fiz-karlsruhe.de/matwerk/E1029896', 'http://demo.fiz-karlsruhe.de/matwerk/E1039962']</t>
+          <t>['http://demo.fiz-karlsruhe.de/matwerk/E1074846', 'http://demo.fiz-karlsruhe.de/matwerk/E1042847', 'http://demo.fiz-karlsruhe.de/matwerk/E1123752', 'http://purls.helmholtz-metadaten.de/mwo/hasRepository', 'http://demo.fiz-karlsruhe.de/matwerk/E1039962', 'http://demo.fiz-karlsruhe.de/matwerk/E1146342', 'http://purls.helmholtz-metadaten.de/mwo/isOnline', 'http://demo.fiz-karlsruhe.de/matwerk/E1156961', 'http://demo.fiz-karlsruhe.de/matwerk/E1073381', 'http://demo.fiz-karlsruhe.de/matwerk/E1153922', 'http://demo.fiz-karlsruhe.de/matwerk/E1245333', 'http://demo.fiz-karlsruhe.de/matwerk/E1029896', 'http://demo.fiz-karlsruhe.de/matwerk/E1035642']</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>[('http://demo.fiz-karlsruhe.de/matwerk/E1146342', 'mwo:hasDocumentation', 'http://demo.fiz-karlsruhe.de/matwerk/E323807'), ('http://demo.fiz-karlsruhe.de/matwerk/E1146342', 'schema:citation', 'http://demo.fiz-karlsruhe.de/matwerk/E999992'), ('http://demo.fiz-karlsruhe.de/matwerk/E1146342', 'mwo:description', '"MatDB Online facility is a Standards-based system for preserving, managing, and exchanging engineering materials test data."'), ('http://demo.fiz-karlsruhe.de/matwerk/E1073381', 'mwo:description', '"The organic materials database is an open access electronic structure database for 3-dimensional organic crystals, developed and hosted at the Nordic Institute for Theoretical Physics – Nordita.\r\n\r\nIt provides tools for search queries based on data-mining and machine learning techniques. The universal features provided on our web interface facilitate the design of novel functional organic materials with a wide-range of applications."'), ('http://demo.fiz-karlsruhe.de/matwerk/E1029896', 'mwo:description', '"Ontology repository for materials science."'), ('http://demo.fiz-karlsruhe.de/matwerk/E1039962', 'mwo:description', '"MatDB is a database application for experimentally measured engineering materials data. It supports open, registered, and restricted access. It presently hosts more than 20.000 unique data sets coming mainly from European and Member State research programmes. It supports web interfaces for entering, browsing, and retrieving data. MatDB is also enabled for innovative services, including data citation and interoperability standards. The data citation service relies on DataCite DOIs. "')]</t>
+          <t>[('http://demo.fiz-karlsruhe.de/matwerk/E1074846', 'mwo:description', '"It’s getting to be a mainstream idea collecting a big set of ab-initio calculations and analyzing them by informatics approach. For scientific purpose, we plan to do it for phonon properties. As an attempt, we have run a set of ab-initio phonon calculations and left the raw data on this static web site. The aim of this web site is just leaving the data to distribute."'), ('http://demo.fiz-karlsruhe.de/matwerk/E1074846', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal'), ('http://demo.fiz-karlsruhe.de/matwerk/E1042847', 'mwo:description', '"MDR is a data repository to collect and store papers, presentation materials, and related materials data to accumulate and release them in a form suitable for the promotion of materials research and materials informatics. Users can search the documents and the data from information (metadata) such as sample, instrument, method, and from the full text of the deposited data, to browse and download them freely. "'), ('http://demo.fiz-karlsruhe.de/matwerk/E1042847', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal'), ('http://demo.fiz-karlsruhe.de/matwerk/E1123752', 'mwo:description', '"Metadata schemes for materials science data in JSON representation as implemented in TTL representation in the application profiles in the version from 01.05.2022 of the research data management platform CoScInE. The schema are actively developed in the SFB1394 with the aim to construct defect phase diagrams in an automated fashion using all data from advanced experimental characterization and computer simulations produced in this project."'), ('http://demo.fiz-karlsruhe.de/matwerk/E1123752', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/MetadataSchema'), ('http://purls.helmholtz-metadaten.de/mwo/hasRepository', 'rdf:type', 'http://www.w3.org/2002/07/owl#ObjectProperty'), ('http://demo.fiz-karlsruhe.de/matwerk/E1039962', 'mwo:description', '"MatDB is a database application for experimentally measured engineering materials data. It supports open, registered, and restricted access. It presently hosts more than 20.000 unique data sets coming mainly from European and Member State research programmes. It supports web interfaces for entering, browsing, and retrieving data. MatDB is also enabled for innovative services, including data citation and interoperability standards. The data citation service relies on DataCite DOIs. "'), ('http://demo.fiz-karlsruhe.de/matwerk/E1039962', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal'), ('http://demo.fiz-karlsruhe.de/matwerk/E1146342', 'mwo:hasDocumentation', 'http://demo.fiz-karlsruhe.de/matwerk/E323807'), ('http://demo.fiz-karlsruhe.de/matwerk/E1146342', 'schema:citation', 'http://demo.fiz-karlsruhe.de/matwerk/E999992'), ('http://demo.fiz-karlsruhe.de/matwerk/E1146342', 'mwo:description', '"MatDB Online facility is a Standards-based system for preserving, managing, and exchanging engineering materials test data."'), ('http://demo.fiz-karlsruhe.de/matwerk/E1146342', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/MetadataSchema'), ('http://purls.helmholtz-metadaten.de/mwo/isOnline', 'rdf:type', 'http://www.w3.org/2002/07/owl#DatatypeProperty'), ('http://demo.fiz-karlsruhe.de/matwerk/E1156961', 'mwo:hasDocumentation', 'http://demo.fiz-karlsruhe.de/matwerk/E327837'), ('http://demo.fiz-karlsruhe.de/matwerk/E1156961', 'mwo:description', '"The NOMAD Metainfo stores descriptive and structured information about materials-science data contained in the NOMAD Archive"'), ('http://demo.fiz-karlsruhe.de/matwerk/E1156961', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Specification'), ('http://demo.fiz-karlsruhe.de/matwerk/E1073381', 'mwo:description', '"The organic materials database is an open access electronic structure database for 3-dimensional organic crystals, developed and hosted at the Nordic Institute for Theoretical Physics – Nordita.\r\n\r\nIt provides tools for search queries based on data-mining and machine learning techniques. The universal features provided on our web interface facilitate the design of novel functional organic materials with a wide-range of applications."'), ('http://demo.fiz-karlsruhe.de/matwerk/E1073381', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal'), ('http://demo.fiz-karlsruhe.de/matwerk/E1153922', 'mwo:description', '"This project gathers the working documents used to design the specifications\r\nof the Electronic Structure Common Data Format (ESCDF), an initiative of the\r\nElectronic Structure Library (ESL) Contributors.\r\n"'), ('http://demo.fiz-karlsruhe.de/matwerk/E1153922', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Specification'), ('http://demo.fiz-karlsruhe.de/matwerk/E1245333', 'mwo:description', '"As part of the workshop for Simulation Workflows in Materials Modelling we present a series of pyiron tutorials, starting from a basic introduction to Pyiron, followed by a focus session on up-scaling existing workflows and finally the implementation of new simulation codes and general open science activities of the pyiron project."'), ('http://demo.fiz-karlsruhe.de/matwerk/E1245333', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/EducationalResource'), ('http://demo.fiz-karlsruhe.de/matwerk/E1029896', 'mwo:description', '"Ontology repository for materials science."'), ('http://demo.fiz-karlsruhe.de/matwerk/E1029896', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal'), ('http://demo.fiz-karlsruhe.de/matwerk/E1035642', 'mwo:description', '"Online materials database (known as PAULING FILE project) with nearly 2 million entries: physical properties, crystal structures, phase diagrams, available via API, ready for modern data-intensive applications. The source of these entries are about 300,000 peer-reviewed publications in materials science, processed during the last 16 years by an international team of PhD editors. The results are presented online with a quick search interface. The basic access is provided for free."'), ('http://demo.fiz-karlsruhe.de/matwerk/E1035642', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal')]</t>
         </is>
       </c>
     </row>
@@ -1584,7 +1584,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>['http://www.w3.org/1999/02/22-rdf-syntax-ns#type', 'http://nfdi.fiz-karlsruhe.de/ontology/objectType', 'http://purl.org/dc/elements/1.1/contributor', 'http://purls.helmholtz-metadaten.de/mwo/usesMethod', 'http://purl.obolibrary.org/obo/IAO_0000112', 'http://purl.obolibrary.org/obo/IAO_0000119', 'http://purls.helmholtz-metadaten.de/mwo/instrumentModel', 'http://www.geneontology.org/formats/oboInOwl#hasDefinition', 'http://www.w3.org/2004/02/skos/core#definition']</t>
+          <t>['http://purl.obolibrary.org/obo/IAO_0000111', 'http://purls.helmholtz-metadaten.de/mwo/hasAcronym', 'http://www.w3.org/2002/07/owl#annotatedSource', 'http://purl.obolibrary.org/obo/IAO_0000600', 'http://nfdi.fiz-karlsruhe.de/ontology/relatedProject', 'http://purls.helmholtz-metadaten.de/mwo/hasContactPoint', 'http://www.w3.org/2004/02/skos/core#prefLabel', 'http://xmlns.com/foaf/0.1/firstName', 'http://www.w3.org/1999/02/22-rdf-syntax-ns#type']</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1594,17 +1594,17 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>['software repository', 'Proprietary license', 'documentation', 'Proprietary commercial software license', 'Commercial license']</t>
+          <t>['Proprietary license', 'documentation', 'software repository', 'has format', 'Commercial license', 'Proprietary commercial software license']</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>['http://demo.fiz-karlsruhe.de/matwerk/E770421', 'http://demo.fiz-karlsruhe.de/matwerk/E748254', 'http://purls.helmholtz-metadaten.de/mwo/Documentation', 'http://purls.helmholtz-metadaten.de/mwo/SoftwareRepository', 'http://www.ebi.ac.uk/swo/license/SWO_1000002']</t>
+          <t>['http://www.ebi.ac.uk/swo/license/SWO_1000002', 'http://demo.fiz-karlsruhe.de/matwerk/E770421', 'http://purls.helmholtz-metadaten.de/mwo/hasFormat', 'http://purls.helmholtz-metadaten.de/mwo/Documentation', 'http://demo.fiz-karlsruhe.de/matwerk/E748254', 'http://purls.helmholtz-metadaten.de/mwo/SoftwareRepository']</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>[('http://demo.fiz-karlsruhe.de/matwerk/E770421', 'rdf:type', 'http://www.ebi.ac.uk/swo/license/SWO_1000002'), ('http://demo.fiz-karlsruhe.de/matwerk/E743372', 'rdf:type', 'http://www.ebi.ac.uk/swo/license/SWO_1000002'), ('http://demo.fiz-karlsruhe.de/matwerk/E753152', 'rdf:type', 'http://www.ebi.ac.uk/swo/license/SWO_1000002'), ('http://demo.fiz-karlsruhe.de/matwerk/E760529', 'rdf:type', 'http://www.ebi.ac.uk/swo/license/SWO_1000002'), ('http://demo.fiz-karlsruhe.de/matwerk/E766704', 'rdf:type', 'http://www.ebi.ac.uk/swo/license/SWO_1000002'), ('http://demo.fiz-karlsruhe.de/matwerk/E748254', 'rdf:type', 'http://www.ebi.ac.uk/swo/SWO_0000002'), ('http://demo.fiz-karlsruhe.de/matwerk/E738506', 'rdf:type', 'http://www.ebi.ac.uk/swo/SWO_0000002'), ('http://demo.fiz-karlsruhe.de/matwerk/E744591', 'rdf:type', 'http://www.ebi.ac.uk/swo/SWO_0000002'), ('http://demo.fiz-karlsruhe.de/matwerk/E749477', 'rdf:type', 'http://www.ebi.ac.uk/swo/SWO_0000002'), ('http://demo.fiz-karlsruhe.de/matwerk/E750701', 'rdf:type', 'http://www.ebi.ac.uk/swo/SWO_0000002'), ('http://demo.fiz-karlsruhe.de/matwerk/E754379', 'rdf:type', 'http://www.ebi.ac.uk/swo/SWO_0000002'), ('http://demo.fiz-karlsruhe.de/matwerk/E756836', 'rdf:type', 'http://www.ebi.ac.uk/swo/SWO_0000002'), ('http://demo.fiz-karlsruhe.de/matwerk/E758066', 'rdf:type', 'http://www.ebi.ac.uk/swo/SWO_0000002'), ('http://demo.fiz-karlsruhe.de/matwerk/E761762', 'rdf:type', 'http://www.ebi.ac.uk/swo/SWO_0000002'), ('http://demo.fiz-karlsruhe.de/matwerk/E774147', 'rdf:type', 'http://www.ebi.ac.uk/swo/SWO_0000002'), ('http://demo.fiz-karlsruhe.de/matwerk/E775391', 'rdf:type', 'http://www.ebi.ac.uk/swo/SWO_0000002'), ('http://demo.fiz-karlsruhe.de/matwerk/E777882', 'rdf:type', 'http://www.ebi.ac.uk/swo/SWO_0000002'), ('http://demo.fiz-karlsruhe.de/matwerk/E780377', 'rdf:type', 'http://www.ebi.ac.uk/swo/SWO_0000002'), ('http://demo.fiz-karlsruhe.de/matwerk/E782876', 'rdf:type', 'http://www.ebi.ac.uk/swo/SWO_0000002'), ('http://demo.fiz-karlsruhe.de/matwerk/E784127', 'rdf:type', 'http://www.ebi.ac.uk/swo/SWO_0000002'), ('http://demo.fiz-karlsruhe.de/matwerk/E789141', 'rdf:type', 'http://www.ebi.ac.uk/swo/SWO_0000002'), ('http://demo.fiz-karlsruhe.de/matwerk/E792912', 'rdf:type', 'http://www.ebi.ac.uk/swo/SWO_0000002'), ('http://demo.fiz-karlsruhe.de/matwerk/E795431', 'rdf:type', 'http://www.ebi.ac.uk/swo/SWO_0000002'), ('http://demo.fiz-karlsruhe.de/matwerk/E796692', 'rdf:type', 'http://www.ebi.ac.uk/swo/SWO_0000002'), ('http://demo.fiz-karlsruhe.de/matwerk/E797954', 'rdf:type', 'http://www.ebi.ac.uk/swo/SWO_0000002'), ('http://demo.fiz-karlsruhe.de/matwerk/E799217', 'rdf:type', 'http://www.ebi.ac.uk/swo/SWO_0000002'), ('http://demo.fiz-karlsruhe.de/matwerk/E800481', 'rdf:type', 'http://www.ebi.ac.uk/swo/SWO_0000002'), ('http://demo.fiz-karlsruhe.de/matwerk/E801746', 'rdf:type', 'http://www.ebi.ac.uk/swo/SWO_0000002'), ('http://demo.fiz-karlsruhe.de/matwerk/E803012', 'rdf:type', 'http://www.ebi.ac.uk/swo/SWO_0000002'), ('http://demo.fiz-karlsruhe.de/matwerk/E805547', 'rdf:type', 'http://www.ebi.ac.uk/swo/SWO_0000002'), ('http://demo.fiz-karlsruhe.de/matwerk/E810629', 'rdf:type', 'http://www.ebi.ac.uk/swo/SWO_0000002'), ('http://demo.fiz-karlsruhe.de/matwerk/E813176', 'rdf:type', 'http://www.ebi.ac.uk/swo/SWO_0000002'), ('http://demo.fiz-karlsruhe.de/matwerk/E823404', 'rdf:type', 'http://www.ebi.ac.uk/swo/SWO_0000002'), ('http://demo.fiz-karlsruhe.de/matwerk/E1246837', 'rdf:type', 'http://www.ebi.ac.uk/swo/SWO_0000002'), ('http://demo.fiz-karlsruhe.de/matwerk/E787886', 'rdf:type', 'http://www.ebi.ac.uk/swo/SWO_0000002'), ('http://demo.fiz-karlsruhe.de/matwerk/E794171', 'rdf:type', 'http://www.ebi.ac.uk/swo/SWO_0000002'), ('http://demo.fiz-karlsruhe.de/matwerk/E785379', 'rdf:type', 'http://www.ebi.ac.uk/swo/SWO_0000002'), ('http://demo.fiz-karlsruhe.de/matwerk/E808086', 'rdf:type', 'http://www.ebi.ac.uk/swo/SWO_0000002'), "('http://demo.fiz-karlsruhe.de/matwerk/E1246518', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/Documentation')", "('http://demo.fiz-karlsruhe.de/matwerk/E1246542', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/Documentation')", "('http://demo.fiz-karlsruhe.de/matwerk/E1247678', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/Documentation')", "('http://demo.fiz-karlsruhe.de/matwerk/E242861', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/Documentation')", "('http://demo.fiz-karlsruhe.de/matwerk/E243557', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/Documentation')", "('http://demo.fiz-karlsruhe.de/matwerk/E244254', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/Documentation')", "('http://demo.fiz-karlsruhe.de/matwerk/E244952', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/Documentation')", "('http://demo.fiz-karlsruhe.de/matwerk/E246351', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/Documentation')", "('http://demo.fiz-karlsruhe.de/matwerk/E247052', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/Documentation')", "('http://demo.fiz-karlsruhe.de/matwerk/E247754', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/Documentation')", "('http://demo.fiz-karlsruhe.de/matwerk/E248457', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/Documentation')", "('http://demo.fiz-karlsruhe.de/matwerk/E249161', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/Documentation')", "('http://demo.fiz-karlsruhe.de/matwerk/E249866', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/Documentation')", "('http://demo.fiz-karlsruhe.de/matwerk/E250572', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/Documentation')", "('http://demo.fiz-karlsruhe.de/matwerk/E251279', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/Documentation')", "('http://demo.fiz-karlsruhe.de/matwerk/E251987', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/Documentation')", "('http://demo.fiz-karlsruhe.de/matwerk/E252696', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/Documentation')", "('http://demo.fiz-karlsruhe.de/matwerk/E253406', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/Documentation')", "('http://demo.fiz-karlsruhe.de/matwerk/E254117', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/Documentation')", "('http://demo.fiz-karlsruhe.de/matwerk/E254829', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/Documentation')", "('http://demo.fiz-karlsruhe.de/matwerk/E255542', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/Documentation')", "('http://demo.fiz-karlsruhe.de/matwerk/E256256', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/Documentation')", "('http://demo.fiz-karlsruhe.de/matwerk/E256971', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/Documentation')", "('http://demo.fiz-karlsruhe.de/matwerk/E257687', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/Documentation')", "('http://demo.fiz-karlsruhe.de/matwerk/E258404', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/Documentation')", "('http://demo.fiz-karlsruhe.de/matwerk/E259122', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/Documentation')", "('http://demo.fiz-karlsruhe.de/matwerk/E259841', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/Documentation')", "('http://demo.fiz-karlsruhe.de/matwerk/E260561', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/Documentation')", "('http://demo.fiz-karlsruhe.de/matwerk/E261282', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/Documentation')", "('http://demo.fiz-karlsruhe.de/matwerk/E262004', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/Documentation')", "('http://demo.fiz-karlsruhe.de/matwerk/E262727', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/Documentation')", "('http://demo.fiz-karlsruhe.de/matwerk/E263451', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/Documentation')", "('http://demo.fiz-karlsruhe.de/matwerk/E264176', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/Documentation')", "('http://demo.fiz-karlsruhe.de/matwerk/E264902', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/Documentation')", "('http://demo.fiz-karlsruhe.de/matwerk/E265629', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/Documentation')", "('http://demo.fiz-karlsruhe.de/matwerk/E266357', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/Documentation')", "('http://demo.fiz-karlsruhe.de/matwerk/E267086', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/Documentation')", "('http://demo.fiz-karlsruhe.de/matwerk/E267816', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/Documentation')", "('http://demo.fiz-karlsruhe.de/matwerk/E268547', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/Documentation')", "('http://demo.fiz-karlsruhe.de/matwerk/E269279', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/Documentation')", "('http://demo.fiz-karlsruhe.de/matwerk/E270012', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/Documentation')", "('http://demo.fiz-karlsruhe.de/matwerk/E270746', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/Documentation')", "('http://demo.fiz-karlsruhe.de/matwerk/E271481', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/Documentation')", "('http://demo.fiz-karlsruhe.de/matwerk/E272217', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/Documentation')", "('http://demo.fiz-karlsruhe.de/matwerk/E272954', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/Documentation')", "('http://demo.fiz-karlsruhe.de/matwerk/E273692', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/Documentation')", "('http://demo.fiz-karlsruhe.de/matwerk/E274431', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/Documentation')", "('http://demo.fiz-karlsruhe.de/matwerk/E275171', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/Documentation')", "('http://demo.fiz-karlsruhe.de/matwerk/E275912', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/Documentation')", "('http://demo.fiz-karlsruhe.de/matwerk/E276654', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/Documentation')", "('http://demo.fiz-karlsruhe.de/matwerk/E277397', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/Documentation')", "('http://demo.fiz-karlsruhe.de/matwerk/E278141', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/Documentation')", "('http://demo.fiz-karlsruhe.de/matwerk/E278886', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/Documentation')", "('http://demo.fiz-karlsruhe.de/matwerk/E279632', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/Documentation')", "('http://demo.fiz-karlsruhe.de/matwerk/E280379', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/Documentation')", "('http://demo.fiz-karlsruhe.de/matwerk/E281127', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/Documentation')", "('http://demo.fiz-karlsruhe.de/matwerk/E281876', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/Documentation')", "('http://demo.fiz-karlsruhe.de/matwerk/E282626', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/Documentation')", "('http://demo.fiz-karlsruhe.de/matwerk/E283377', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/Documentation')", "('http://demo.fiz-karlsruhe.de/matwerk/E284129', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/Documentation')", "('http://demo.fiz-karlsruhe.de/matwerk/E284882', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/Documentation')", "('http://demo.fiz-karlsruhe.de/matwerk/E285636', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/Documentation')", "('http://demo.fiz-karlsruhe.de/matwerk/E286391', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/Documentation')", "('http://demo.fiz-karlsruhe.de/matwerk/E293996', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/Documentation')", "('http://demo.fiz-karlsruhe.de/matwerk/E294762', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/Documentation')", "('http://demo.fiz-karlsruhe.de/matwerk/E295529', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/Documentation')", "('http://demo.fiz-karlsruhe.de/matwerk/E296297', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/Documentation')", "('http://demo.fiz-karlsruhe.de/matwerk/E297066', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/Documentation')", "('http://demo.fiz-karlsruhe.de/matwerk/E297067', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/Documentation')", "('http://demo.fiz-karlsruhe.de/matwerk/E320601', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/Documentation')", "('http://demo.fiz-karlsruhe.de/matwerk/E321401', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/Documentation')", "('http://demo.fiz-karlsruhe.de/matwerk/E322202', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/Documentation')", "('http://demo.fiz-karlsruhe.de/matwerk/E323004', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/Documentation')", "('http://demo.fiz-karlsruhe.de/matwerk/E323807', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/Documentation')", "('http://demo.fiz-karlsruhe.de/matwerk/E324611', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/Documentation')", "('http://demo.fiz-karlsruhe.de/matwerk/E325416', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/Documentation')", "('http://demo.fiz-karlsruhe.de/matwerk/E326222', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/Documentation')", "('http://demo.fiz-karlsruhe.de/matwerk/E327029', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/Documentation')", "('http://demo.fiz-karlsruhe.de/matwerk/E327837', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/Documentation')", "('http://demo.fiz-karlsruhe.de/matwerk/E328646', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/Documentation')", "('http://demo.fiz-karlsruhe.de/matwerk/E329456', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/Documentation')", "('http://demo.fiz-karlsruhe.de/matwerk/E330267', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/Documentation')", "('http://demo.fiz-karlsruhe.de/matwerk/E331079', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/Documentation')", "('http://demo.fiz-karlsruhe.de/matwerk/E331892', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/Documentation')", "('http://demo.fiz-karlsruhe.de/matwerk/E102026', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/Documentation')", "('http://demo.fiz-karlsruhe.de/matwerk/E1247844', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/Documentation')", "('http://demo.fiz-karlsruhe.de/matwerk/E91952', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/Documentation')", "('http://demo.fiz-karlsruhe.de/matwerk/E92379', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/Documentation')", "('http://demo.fiz-karlsruhe.de/matwerk/E245651', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/Documentation')", ('http://purls.helmholtz-metadaten.de/mwo/Documentation', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('http://nfdi.fiz-karlsruhe.de/ontology/Consortium', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('http://nfdi.fiz-karlsruhe.de/ontology/ProvidedResource', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('http://nfdi.fiz-karlsruhe.de/ontology/ServiceType', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('n1020c7c5c2274736a55b1427c54afb30b1', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('n1020c7c5c2274736a55b1427c54afb30b4', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('n1020c7c5c2274736a55b1427c54afb30b7', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('http://purls.helmholtz-metadaten.de/mwo/ChemistryDatabase', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('http://purls.helmholtz-metadaten.de/mwo/ContactPerson', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('http://purls.helmholtz-metadaten.de/mwo/CrystallographyDatabase', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('http://purls.helmholtz-metadaten.de/mwo/DataCollector', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('http://purls.helmholtz-metadaten.de/mwo/ElectronicLabNotebook', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('http://purls.helmholtz-metadaten.de/mwo/ExperimentalWorkflow', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('http://purls.helmholtz-metadaten.de/mwo/GitRepository', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('http://purls.helmholtz-metadaten.de/mwo/Lecture', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('http://purls.helmholtz-metadaten.de/mwo/MaterialsDatabase', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('http://purls.helmholtz-metadaten.de/mwo/OntologyRepository', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('http://purls.helmholtz-metadaten.de/mwo/Patent', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('http://purls.helmholtz-metadaten.de/mwo/PotentialsRepository', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('http://purls.helmholtz-metadaten.de/mwo/ProjectLeader', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('http://purls.helmholtz-metadaten.de/mwo/Seminar', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('http://purls.helmholtz-metadaten.de/mwo/SoftwareRepository', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('http://purls.helmholtz-metadaten.de/mwo/SummerSchool', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('http://purls.helmholtz-metadaten.de/mwo/TrainingCourse', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('n1020c7c5c2274736a55b1427c54afb30b10', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('n1020c7c5c2274736a55b1427c54afb30b13', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('n1020c7c5c2274736a55b1427c54afb30b16', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('n1020c7c5c2274736a55b1427c54afb30b19', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('n1020c7c5c2274736a55b1427c54afb30b22', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('n1020c7c5c2274736a55b1427c54afb30b25', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('n1020c7c5c2274736a55b1427c54afb30b28', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('n1020c7c5c2274736a55b1427c54afb30b31', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('http://www.ebi.ac.uk/swo/interface/SWO_9000054', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('http://www.ebi.ac.uk/swo/license/SWO_1000009', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('http://www.ebi.ac.uk/swo/license/SWO_1000056', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('http://www.ebi.ac.uk/swo/license/SWO_1000069', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('http://www.ebi.ac.uk/swo/license/SWO_1000095', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('http://www.ebi.ac.uk/swo/license/SWO_1000137', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('http://www.ebi.ac.uk/swo/license/SWO_1000140', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('n1020c7c5c2274736a55b1427c54afb30b42', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('https://w3id.org/scholarlydata/ontology/conference-ontology.owl#Conference', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('https://w3id.org/scholarlydata/ontology/conference-ontology.owl#Talk', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('https://w3id.org/scholarlydata/ontology/conference-ontology.owl#Tutorial', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('https://w3id.org/scholarlydata/ontology/conference-ontology.owl#Workshop', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('https://w3id.org/seo#KeynoteSpeaker', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('https://w3id.org/skgo/modsci#LaboratoryInstrument', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('http://nfdi.fiz-karlsruhe.de/ontology/Collection', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('http://nfdi.fiz-karlsruhe.de/ontology/TechnologicalMeans', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('n1020c7c5c2274736a55b1427c54afb30b45', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('http://purl.org/dc/terms/MediaType', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('http://purls.helmholtz-metadaten.de/mwo/GroupLeader', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('http://purls.helmholtz-metadaten.de/mwo/ParticipantProject', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('http://purls.helmholtz-metadaten.de/mwo/ProjectManager', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('http://purls.helmholtz-metadaten.de/mwo/ProjectMember', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('http://purls.helmholtz-metadaten.de/mwo/Supervisor', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('http://purls.helmholtz-metadaten.de/mwo/WebService', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('n1020c7c5c2274736a55b1427c54afb30b48', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('n1020c7c5c2274736a55b1427c54afb30b51', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('http://schema.org/Organization', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('http://schema.org/Person', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('http://schema.org/Project', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('http://www.ebi.ac.uk/swo/interface/SWO_9000051', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('http://www.ebi.ac.uk/swo/license/SWO_1000008', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('http://www.ebi.ac.uk/swo/license/SWO_1000103', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('https://nfdi.fiz-karlsruhe.de/ontology/Person', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('n1020c7c5c2274736a55b1427c54afb30b54', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('n1020c7c5c2274736a55b1427c54afb30b57', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('https://w3id.org/seo#InvitedSpeakers', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('https://w3id.org/skgo/modsci#ModernScience', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('https://w3id.org/skgo/modsci#ProgrammingLanguage', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('http://nfdi.fiz-karlsruhe.de/ontology/FederalState', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('http://nfdi.fiz-karlsruhe.de/ontology/Standard', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('n1020c7c5c2274736a55b1427c54afb30b60', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('http://purls.helmholtz-metadaten.de/mwo/ResearchTopic', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('http://purls.helmholtz-metadaten.de/mwo/SparqlEndpoint', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('http://purls.helmholtz-metadaten.de/mwo/Workflow', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('http://schema.org/ComputerLanguage', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('https://nfdi.fiz-karlsruhe.de/ontology/Consortium', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('https://w3id.org/skgo/modsci#ScientificInstrument', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('http://nfdi.fiz-karlsruhe.de/ontology/TaskArea', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('http://purls.helmholtz-metadaten.de/mwo/Database', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('http://purls.helmholtz-metadaten.de/mwo/ResearchGroup', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('http://purls.helmholtz-metadaten.de/mwo/UseCase', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('http://purls.helmholtz-metadaten.de/mwo/WorkflowEnvironment', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('http://schema.org/CreativeWork', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('http://schema.org/Intangible', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('http://schema.org/Service', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('http://www.ebi.ac.uk/swo/SWO_9000050', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('https://nfdi.fiz-karlsruhe.de/ontology/Project', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('http://nfdi.fiz-karlsruhe.de/ontology/Country', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('http://nfdi.fiz-karlsruhe.de/ontology/Place', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('https://w3id.org/scholarlydata/ontology/conference-ontology.owl#AcademicEvent', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('http://purls.helmholtz-metadaten.de/mwo/ComputationalWorkflow', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('http://www.ebi.ac.uk/swo/license/SWO_1000002', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('http://nfdi.fiz-karlsruhe.de/ontology/SemanticExpressivity', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('http://purls.helmholtz-metadaten.de/mwo/EducationalEvent', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('http://purls.helmholtz-metadaten.de/mwo/LargeScaleFacility', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('https://w3id.org/skgo/modsci#ScientificInstrumentManufacturer', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('http://www.ebi.ac.uk/swo/SWO_0000020', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('https://w3id.org/skgo/modsci#Technology', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('http://purls.helmholtz-metadaten.de/mwo/MetadataSchema', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('http://purls.helmholtz-metadaten.de/mwo/ProcessingSoftware', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('http://purls.helmholtz-metadaten.de/mwo/VisualizationSoftware', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('http://www.ebi.ac.uk/swo/license/SWO_1000001', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('https://nfdi.fiz-karlsruhe.de/ontology/Organization', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('http://emmo.info/emmo#EMMO_4207e895_8b83_4318_996a_72cfb32acd94', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('http://nfdi.fiz-karlsruhe.de/ontology/Dataset', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('http://purl.obolibrary.org/obo/BFO_0000023', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('http://purl.org/dc/terms/FileFormat', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('http://schema.org/Product', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('http://www.ebi.ac.uk/swo/license/SWO_1000061', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('http://www.ebi.ac.uk/swo/SWO_0000021', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('https://w3id.org/scholarlydata/ontology/conference-ontology.owl#OrganisedEvent', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('http://www.ebi.ac.uk/swo/license/SWO_1000043', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('http://nfdi.fiz-karlsruhe.de/ontology/ObjectType', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('https://w3id.org/skgo/modsci#Instrument', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('http://purls.helmholtz-metadaten.de/mwo/EducationalResource', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('http://nfdi.fiz-karlsruhe.de/ontology/ProgrammingLanguage', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('http://purls.helmholtz-metadaten.de/mwo/SemanticResource', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('http://nfdi.fiz-karlsruhe.de/ontology/Specification', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('http://www.ebi.ac.uk/swo/SWO_9000072', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('http://www.ebi.ac.uk/swo/SWO_0000149', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('http://nfdi.fiz-karlsruhe.de/ontology/City', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('http://purls.helmholtz-metadaten.de/mwo/Method', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('http://www.ebi.ac.uk/swo/SWO_0000022', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('http://www.ebi.ac.uk/swo/SWO_0000001', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('http://purls.helmholtz-metadaten.de/mwo/ContactPoint', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('http://nfdi.fiz-karlsruhe.de/ontology/Project', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('http://www.ebi.ac.uk/swo/SWO_0000002', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('http://purls.helmholtz-metadaten.de/mwo/ResearchSoftware', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('http://nfdi.fiz-karlsruhe.de/ontology/DataPortal', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('http://nfdi.fiz-karlsruhe.de/ontology/Resource', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('n1020c7c5c2274736a55b1427c54afb30b70', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('http://nfdi.fiz-karlsruhe.de/ontology/Organization', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('http://nfdi.fiz-karlsruhe.de/ontology/Publication', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('http://nfdi.fiz-karlsruhe.de/ontology/Person', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('http://nfdi.fiz-karlsruhe.de/ontology/AcademicDiscipline', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('http://purls.helmholtz-metadaten.de/mwo/Repository', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('http://nfdi.fiz-karlsruhe.de/ontology/Software', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('http://nfdi.fiz-karlsruhe.de/ontology/Website', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), "('http://demo.fiz-karlsruhe.de/matwerk/E743372', 'rdf:type', 'http://www.ebi.ac.uk/swo/license/SWO_1000002')", "('http://demo.fiz-karlsruhe.de/matwerk/E770421', 'rdf:type', 'http://www.ebi.ac.uk/swo/license/SWO_1000002')", "('http://demo.fiz-karlsruhe.de/matwerk/E753152', 'rdf:type', 'http://www.ebi.ac.uk/swo/license/SWO_1000002')", "('http://demo.fiz-karlsruhe.de/matwerk/E760529', 'rdf:type', 'http://www.ebi.ac.uk/swo/license/SWO_1000002')", "('http://demo.fiz-karlsruhe.de/matwerk/E766704', 'rdf:type', 'http://www.ebi.ac.uk/swo/license/SWO_1000002')"]</t>
+          <t>["('http://demo.fiz-karlsruhe.de/matwerk/E743372', 'rdf:type', 'http://www.ebi.ac.uk/swo/license/SWO_1000002')", "('http://demo.fiz-karlsruhe.de/matwerk/E753152', 'rdf:type', 'http://www.ebi.ac.uk/swo/license/SWO_1000002')", ('http://www.ebi.ac.uk/swo/license/SWO_1000002', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), "('http://demo.fiz-karlsruhe.de/matwerk/E770421', 'rdf:type', 'http://www.ebi.ac.uk/swo/license/SWO_1000002')", "('http://demo.fiz-karlsruhe.de/matwerk/E766704', 'rdf:type', 'http://www.ebi.ac.uk/swo/license/SWO_1000002')", "('http://demo.fiz-karlsruhe.de/matwerk/E760529', 'rdf:type', 'http://www.ebi.ac.uk/swo/license/SWO_1000002')", ('http://demo.fiz-karlsruhe.de/matwerk/E770421', 'rdf:type', 'http://www.ebi.ac.uk/swo/license/SWO_1000002'), ('http://purls.helmholtz-metadaten.de/mwo/hasFormat', 'rdf:type', 'http://www.w3.org/2002/07/owl#ObjectProperty'), "('http://demo.fiz-karlsruhe.de/matwerk/E293996', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/Documentation')", "('http://demo.fiz-karlsruhe.de/matwerk/E1246518', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/Documentation')", "('http://demo.fiz-karlsruhe.de/matwerk/E330267', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/Documentation')", "('http://demo.fiz-karlsruhe.de/matwerk/E266357', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/Documentation')", "('http://demo.fiz-karlsruhe.de/matwerk/E323807', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/Documentation')", "('http://demo.fiz-karlsruhe.de/matwerk/E102026', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/Documentation')", "('http://demo.fiz-karlsruhe.de/matwerk/E260561', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/Documentation')", "('http://demo.fiz-karlsruhe.de/matwerk/E1247678', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/Documentation')", "('http://demo.fiz-karlsruhe.de/matwerk/E264902', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/Documentation')", "('http://demo.fiz-karlsruhe.de/matwerk/E331892', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/Documentation')", "('http://demo.fiz-karlsruhe.de/matwerk/E243557', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/Documentation')", "('http://demo.fiz-karlsruhe.de/matwerk/E264176', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/Documentation')", "('http://demo.fiz-karlsruhe.de/matwerk/E256971', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/Documentation')", "('http://demo.fiz-karlsruhe.de/matwerk/E279632', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/Documentation')", "('http://demo.fiz-karlsruhe.de/matwerk/E294762', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/Documentation')", "('http://demo.fiz-karlsruhe.de/matwerk/E263451', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/Documentation')", "('http://demo.fiz-karlsruhe.de/matwerk/E248457', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/Documentation')", "('http://demo.fiz-karlsruhe.de/matwerk/E297067', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/Documentation')", "('http://demo.fiz-karlsruhe.de/matwerk/E269279', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/Documentation')", "('http://demo.fiz-karlsruhe.de/matwerk/E271481', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/Documentation')", "('http://demo.fiz-karlsruhe.de/matwerk/E285636', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/Documentation')", "('http://demo.fiz-karlsruhe.de/matwerk/E281127', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/Documentation')", "('http://demo.fiz-karlsruhe.de/matwerk/E320601', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/Documentation')", "('http://demo.fiz-karlsruhe.de/matwerk/E282626', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/Documentation')", "('http://demo.fiz-karlsruhe.de/matwerk/E267816', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/Documentation')", "('http://demo.fiz-karlsruhe.de/matwerk/E244952', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/Documentation')", "('http://demo.fiz-karlsruhe.de/matwerk/E278886', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/Documentation')", "('http://demo.fiz-karlsruhe.de/matwerk/E251987', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/Documentation')", "('http://demo.fiz-karlsruhe.de/matwerk/E283377', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/Documentation')", "('http://demo.fiz-karlsruhe.de/matwerk/E255542', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/Documentation')", "('http://demo.fiz-karlsruhe.de/matwerk/E251279', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/Documentation')", "('http://demo.fiz-karlsruhe.de/matwerk/E281876', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/Documentation')", "('http://demo.fiz-karlsruhe.de/matwerk/E321401', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/Documentation')", "('http://demo.fiz-karlsruhe.de/matwerk/E327029', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/Documentation')", "('http://demo.fiz-karlsruhe.de/matwerk/E92379', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/Documentation')", "('http://demo.fiz-karlsruhe.de/matwerk/E270746', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/Documentation')", "('http://demo.fiz-karlsruhe.de/matwerk/E276654', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/Documentation')", "('http://demo.fiz-karlsruhe.de/matwerk/E262727', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/Documentation')", "('http://demo.fiz-karlsruhe.de/matwerk/E275171', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/Documentation')", "('http://demo.fiz-karlsruhe.de/matwerk/E325416', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/Documentation')", "('http://demo.fiz-karlsruhe.de/matwerk/E323004', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/Documentation')", "('http://demo.fiz-karlsruhe.de/matwerk/E242861', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/Documentation')", "('http://demo.fiz-karlsruhe.de/matwerk/E324611', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/Documentation')", ('http://purls.helmholtz-metadaten.de/mwo/Documentation', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), "('http://demo.fiz-karlsruhe.de/matwerk/E267086', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/Documentation')", "('http://demo.fiz-karlsruhe.de/matwerk/E91952', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/Documentation')", "('http://demo.fiz-karlsruhe.de/matwerk/E247052', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/Documentation')", "('http://demo.fiz-karlsruhe.de/matwerk/E256256', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/Documentation')", "('http://demo.fiz-karlsruhe.de/matwerk/E265629', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/Documentation')", "('http://demo.fiz-karlsruhe.de/matwerk/E326222', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/Documentation')", "('http://demo.fiz-karlsruhe.de/matwerk/E254829', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/Documentation')", "('http://demo.fiz-karlsruhe.de/matwerk/E273692', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/Documentation')", "('http://demo.fiz-karlsruhe.de/matwerk/E268547', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/Documentation')", "('http://demo.fiz-karlsruhe.de/matwerk/E297066', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/Documentation')", "('http://demo.fiz-karlsruhe.de/matwerk/E280379', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/Documentation')", "('http://demo.fiz-karlsruhe.de/matwerk/E270012', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/Documentation')", "('http://demo.fiz-karlsruhe.de/matwerk/E259841', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/Documentation')", "('http://demo.fiz-karlsruhe.de/matwerk/E249866', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/Documentation')", "('http://demo.fiz-karlsruhe.de/matwerk/E277397', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/Documentation')", "('http://demo.fiz-karlsruhe.de/matwerk/E278141', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/Documentation')", "('http://demo.fiz-karlsruhe.de/matwerk/E250572', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/Documentation')", "('http://demo.fiz-karlsruhe.de/matwerk/E328646', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/Documentation')", "('http://demo.fiz-karlsruhe.de/matwerk/E327837', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/Documentation')", "('http://demo.fiz-karlsruhe.de/matwerk/E275912', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/Documentation')", "('http://demo.fiz-karlsruhe.de/matwerk/E331079', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/Documentation')", "('http://demo.fiz-karlsruhe.de/matwerk/E329456', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/Documentation')", "('http://demo.fiz-karlsruhe.de/matwerk/E284882', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/Documentation')", "('http://demo.fiz-karlsruhe.de/matwerk/E245651', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/Documentation')", "('http://demo.fiz-karlsruhe.de/matwerk/E1246542', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/Documentation')", "('http://demo.fiz-karlsruhe.de/matwerk/E274431', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/Documentation')", "('http://demo.fiz-karlsruhe.de/matwerk/E322202', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/Documentation')", "('http://demo.fiz-karlsruhe.de/matwerk/E262004', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/Documentation')", "('http://demo.fiz-karlsruhe.de/matwerk/E244254', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/Documentation')", "('http://demo.fiz-karlsruhe.de/matwerk/E258404', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/Documentation')", "('http://demo.fiz-karlsruhe.de/matwerk/E1247844', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/Documentation')", "('http://demo.fiz-karlsruhe.de/matwerk/E252696', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/Documentation')", "('http://demo.fiz-karlsruhe.de/matwerk/E257687', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/Documentation')", "('http://demo.fiz-karlsruhe.de/matwerk/E272217', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/Documentation')", "('http://demo.fiz-karlsruhe.de/matwerk/E249161', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/Documentation')", "('http://demo.fiz-karlsruhe.de/matwerk/E247754', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/Documentation')", "('http://demo.fiz-karlsruhe.de/matwerk/E261282', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/Documentation')", "('http://demo.fiz-karlsruhe.de/matwerk/E272954', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/Documentation')", "('http://demo.fiz-karlsruhe.de/matwerk/E286391', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/Documentation')", "('http://demo.fiz-karlsruhe.de/matwerk/E246351', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/Documentation')", "('http://demo.fiz-karlsruhe.de/matwerk/E253406', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/Documentation')", "('http://demo.fiz-karlsruhe.de/matwerk/E254117', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/Documentation')", "('http://demo.fiz-karlsruhe.de/matwerk/E284129', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/Documentation')", "('http://demo.fiz-karlsruhe.de/matwerk/E295529', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/Documentation')", "('http://demo.fiz-karlsruhe.de/matwerk/E259122', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/Documentation')", "('http://demo.fiz-karlsruhe.de/matwerk/E296297', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/Documentation')", ('http://demo.fiz-karlsruhe.de/matwerk/E748254', 'rdf:type', 'http://www.ebi.ac.uk/swo/SWO_0000002'), ('http://purls.helmholtz-metadaten.de/mwo/SoftwareRepository', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class')]</t>
         </is>
       </c>
     </row>
@@ -1631,27 +1631,27 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>['http://purls.helmholtz-metadaten.de/mwo/conformsToSpecification', 'http://purls.helmholtz-metadaten.de/mwo/belongsTo', 'http://purls.helmholtz-metadaten.de/mwo/requiredTool', 'http://purls.helmholtz-metadaten.de/mwo/hasWorkPackage', 'http://purl.obolibrary.org/obo/IAO_0000112', 'http://purl.org/dc/elements/1.1/contributor', 'http://www.ebi.ac.uk/swo/SWO_0000082', 'http://purl.obolibrary.org/obo/IAO_0000119', 'http://purls.helmholtz-metadaten.de/mwo/usesTechnology']</t>
+          <t>['http://purls.helmholtz-metadaten.de/mwo/hasFormat', 'http://www.ebi.ac.uk/swo/SWO_0000082', 'http://purls.helmholtz-metadaten.de/mwo/hasWebsite', 'https://nfdi.fiz-karlsruhe.de/ontology/example', 'http://nfdi.fiz-karlsruhe.de/ontology/relatedProject', 'http://www.w3.org/2002/07/owl#annotatedSource', 'http://purls.helmholtz-metadaten.de/mwo/hasContributor', 'http://purls.helmholtz-metadaten.de/mwo/hasContactPoint', 'http://purls.helmholtz-metadaten.de/mwo/conformsToSpecification']</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>['mwo:conformsToSpecification', 'mwo:belongsTo', 'mwo:requiredTool', 'mwo:hasWorkPackage', 'ns2:IAO_0000112', 'dc:contributor', 'ns3:SWO_0000082', 'ns2:IAO_0000119', 'mwo:usesTechnology', 'mwo:description', 'dcterms:description']</t>
+          <t>['mwo:conformsToSpecification', 'mwo:belongsTo', 'mwo:requiredTool', 'mwo:hasWorkPackage', 'ns2:IAO_0000112', 'dc:contributor', 'ns3:SWO_0000082', 'ns2:IAO_0000119', 'mwo:usesTechnology', 'mwo:description', 'dcterms:description', 'rdf:type']</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>['Materials Cloud', 'controlled vocabulary', 'Materials Project API', 'Materials Commons']</t>
+          <t>['controlled vocabulary', 'The MatWerk ontology', 'Computational Materials Repository (CMR)', 'NOMAD Metainfo', 'has repository', 'OpenBIS', 'Materials Cloud', 'Electronic Structure Common Data Format (ESCDF)', 'Materials Commons', 'Materials Project API', 'Khazana', 'Materials Data Repository']</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>['http://demo.fiz-karlsruhe.de/matwerk/E547536', 'http://demo.fiz-karlsruhe.de/matwerk/E1086602', 'http://nfdi.fiz-karlsruhe.de/ontology/ControlledVocabulary', 'https://nfdi.fiz-karlsruhe.de/ontology/ControlledVocabulary', 'http://demo.fiz-karlsruhe.de/matwerk/E1027029']</t>
+          <t>['http://nfdi.fiz-karlsruhe.de/ontology/ControlledVocabulary', 'https://nfdi.fiz-karlsruhe.de/ontology/ControlledVocabulary', 'http://demo.fiz-karlsruhe.de/matwerk/E1042847', 'http://demo.fiz-karlsruhe.de/matwerk/E1064612', 'http://demo.fiz-karlsruhe.de/matwerk/E551726', 'http://purls.helmholtz-metadaten.de/mwo/hasRepository', 'http://demo.fiz-karlsruhe.de/matwerk/E547536', 'http://purls.helmholtz-metadaten.de/mwo/', 'http://demo.fiz-karlsruhe.de/matwerk/E1156961', 'http://demo.fiz-karlsruhe.de/matwerk/E1153922', 'http://demo.fiz-karlsruhe.de/matwerk/E1027029', 'http://demo.fiz-karlsruhe.de/matwerk/E1086602', 'http://demo.fiz-karlsruhe.de/matwerk/E1060241']</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>[('http://demo.fiz-karlsruhe.de/matwerk/E1086602', 'mwo:description', '"A site for Materials Scientists to collaborate, store and publish research. The Materials Commons is supported by the U.S. Department of Energy, Office of Basic Energy Sciences, Division of Materials Sciences and Engineering."'), ('http://demo.fiz-karlsruhe.de/matwerk/E1027029', 'mwo:conformsToSpecification', 'http://demo.fiz-karlsruhe.de/matwerk/E1125251'), ('http://demo.fiz-karlsruhe.de/matwerk/E1018452', 'mwo:conformsToSpecification', 'http://demo.fiz-karlsruhe.de/matwerk/E1125251'), ('http://demo.fiz-karlsruhe.de/matwerk/E1024166', 'mwo:conformsToSpecification', 'http://demo.fiz-karlsruhe.de/matwerk/E1125251'), ('http://demo.fiz-karlsruhe.de/matwerk/E1025597', 'mwo:conformsToSpecification', 'http://demo.fiz-karlsruhe.de/matwerk/E1125251'), ('http://demo.fiz-karlsruhe.de/matwerk/E1028462', 'mwo:conformsToSpecification', 'http://demo.fiz-karlsruhe.de/matwerk/E1125251'), ('http://demo.fiz-karlsruhe.de/matwerk/E1032767', 'mwo:conformsToSpecification', 'http://demo.fiz-karlsruhe.de/matwerk/E1125251'), ('http://demo.fiz-karlsruhe.de/matwerk/E1035642', 'mwo:conformsToSpecification', 'http://demo.fiz-karlsruhe.de/matwerk/E1125251'), ('http://demo.fiz-karlsruhe.de/matwerk/E1037081', 'mwo:conformsToSpecification', 'http://demo.fiz-karlsruhe.de/matwerk/E1125251'), ('http://demo.fiz-karlsruhe.de/matwerk/E643412', 'mwo:conformsToSpecification', 'http://demo.fiz-karlsruhe.de/matwerk/E1125251'), "('http://demo.fiz-karlsruhe.de/matwerk/E1245291', 'mwo:requiredTool', 'http://demo.fiz-karlsruhe.de/matwerk/E1027029')", ('http://demo.fiz-karlsruhe.de/matwerk/E1027029', 'mwo:description', '"Materials Cloud is built to enable the seamless sharing and dissemination of resources in computational materials science, offering educational, research, and archiving tools; simulation software and services; and curated and raw data. These underpin published results and empower data-based discovery, compliant with data management plans and the FAIR principles."')]</t>
+          <t>[('http://nfdi.fiz-karlsruhe.de/ontology/ControlledVocabulary', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/SemanticExpressivity'), ('http://nfdi.fiz-karlsruhe.de/ontology/ControlledVocabulary', 'rdf:type', 'http://www.w3.org/2002/07/owl#NamedIndividual'), ('https://nfdi.fiz-karlsruhe.de/ontology/ControlledVocabulary', 'rdf:type', 'http://www.w3.org/2002/07/owl#NamedIndividual'), ('http://demo.fiz-karlsruhe.de/matwerk/E1042847', 'mwo:description', '"MDR is a data repository to collect and store papers, presentation materials, and related materials data to accumulate and release them in a form suitable for the promotion of materials research and materials informatics. Users can search the documents and the data from information (metadata) such as sample, instrument, method, and from the full text of the deposited data, to browse and download them freely. "'), ('http://demo.fiz-karlsruhe.de/matwerk/E1042847', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal'), ('http://demo.fiz-karlsruhe.de/matwerk/E1064612', 'mwo:description', '"A platform to store structure and property data created by atomistic simulations, and toold to design materials by learning from the data"'), ('http://demo.fiz-karlsruhe.de/matwerk/E1064612', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal'), ('http://demo.fiz-karlsruhe.de/matwerk/E551726', 'dcterms:description', '"The openBIS platform has three primary functionalities: 1. Inventory management of laboratory samples, materials, protocols, equipment. 2. Laboratory notebook, to document lab experiments. 3. Data management, to store all data related to lab experiments (raw, processed, analysed data, scripts, Jupyter notebooks, etc.)."'), ('http://demo.fiz-karlsruhe.de/matwerk/E551726', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://purls.helmholtz-metadaten.de/mwo/hasRepository', 'rdf:type', 'http://www.w3.org/2002/07/owl#ObjectProperty'), ('http://demo.fiz-karlsruhe.de/matwerk/E547536', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://purls.helmholtz-metadaten.de/mwo/', 'dc:contributor', 'https://orcid.org/0000-0001-7069-9804'), ('http://purls.helmholtz-metadaten.de/mwo/', 'dc:contributor', 'https://orcid.org/0000-0001-9106-8825'), ('http://purls.helmholtz-metadaten.de/mwo/', 'dc:contributor', 'https://orcid.org/0000-0001-9560-4728'), ('http://purls.helmholtz-metadaten.de/mwo/', 'dc:contributor', 'https://orcid.org/0000-0002-2691-6995'), ('http://purls.helmholtz-metadaten.de/mwo/', 'dc:contributor', 'https://orcid.org/0000-0002-5149-603X'), ('http://purls.helmholtz-metadaten.de/mwo/', 'dc:contributor', 'https://orcid.org/0000-0003-4926-0068'), ('http://purls.helmholtz-metadaten.de/mwo/', 'dcterms:description', '"The MatWerk ontology represents research data and related activities of the MSE community. A first version of the ontology will be simplified, focusing on (i) community structure: researchers, research projects, universities, and institutions; (ii) infrastructure: software, workflows, ontologies, schemas, APIs, instruments, facilities, educational resources; and (iii) data: repositories, databases, scientific publications, published datasets and reference data."'), ('http://purls.helmholtz-metadaten.de/mwo/', 'rdf:type', 'http://www.w3.org/2002/07/owl#Ontology'), ('http://demo.fiz-karlsruhe.de/matwerk/E1156961', 'mwo:description', '"The NOMAD Metainfo stores descriptive and structured information about materials-science data contained in the NOMAD Archive"'), ('http://demo.fiz-karlsruhe.de/matwerk/E1156961', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Specification'), ('http://demo.fiz-karlsruhe.de/matwerk/E1153922', 'mwo:description', '"This project gathers the working documents used to design the specifications\r\nof the Electronic Structure Common Data Format (ESCDF), an initiative of the\r\nElectronic Structure Library (ESL) Contributors.\r\n"'), ('http://demo.fiz-karlsruhe.de/matwerk/E1153922', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Specification'), ('http://demo.fiz-karlsruhe.de/matwerk/E1025597', 'mwo:conformsToSpecification', 'http://demo.fiz-karlsruhe.de/matwerk/E1125251'), ('http://demo.fiz-karlsruhe.de/matwerk/E1037081', 'mwo:conformsToSpecification', 'http://demo.fiz-karlsruhe.de/matwerk/E1125251'), ('http://demo.fiz-karlsruhe.de/matwerk/E643412', 'mwo:conformsToSpecification', 'http://demo.fiz-karlsruhe.de/matwerk/E1125251'), ('http://demo.fiz-karlsruhe.de/matwerk/E1028462', 'mwo:conformsToSpecification', 'http://demo.fiz-karlsruhe.de/matwerk/E1125251'), ('http://demo.fiz-karlsruhe.de/matwerk/E1027029', 'mwo:conformsToSpecification', 'http://demo.fiz-karlsruhe.de/matwerk/E1125251'), ('http://demo.fiz-karlsruhe.de/matwerk/E1024166', 'mwo:conformsToSpecification', 'http://demo.fiz-karlsruhe.de/matwerk/E1125251'), ('http://demo.fiz-karlsruhe.de/matwerk/E1035642', 'mwo:conformsToSpecification', 'http://demo.fiz-karlsruhe.de/matwerk/E1125251'), ('http://demo.fiz-karlsruhe.de/matwerk/E1032767', 'mwo:conformsToSpecification', 'http://demo.fiz-karlsruhe.de/matwerk/E1125251'), ('http://demo.fiz-karlsruhe.de/matwerk/E1018452', 'mwo:conformsToSpecification', 'http://demo.fiz-karlsruhe.de/matwerk/E1125251'), "('http://demo.fiz-karlsruhe.de/matwerk/E1245291', 'mwo:requiredTool', 'http://demo.fiz-karlsruhe.de/matwerk/E1027029')", ('http://demo.fiz-karlsruhe.de/matwerk/E1027029', 'mwo:description', '"Materials Cloud is built to enable the seamless sharing and dissemination of resources in computational materials science, offering educational, research, and archiving tools; simulation software and services; and curated and raw data. These underpin published results and empower data-based discovery, compliant with data management plans and the FAIR principles."'), ('http://demo.fiz-karlsruhe.de/matwerk/E1027029', 'rdf:type', 'http://www.ebi.ac.uk/swo/SWO_0000001'), ('http://demo.fiz-karlsruhe.de/matwerk/E1027029', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal'), ('http://demo.fiz-karlsruhe.de/matwerk/E1086602', 'mwo:description', '"A site for Materials Scientists to collaborate, store and publish research. The Materials Commons is supported by the U.S. Department of Energy, Office of Basic Energy Sciences, Division of Materials Sciences and Engineering."'), ('http://demo.fiz-karlsruhe.de/matwerk/E1086602', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal'), ('http://demo.fiz-karlsruhe.de/matwerk/E1060241', 'mwo:description', '"Each CMR project consists of an ASE-database and a project page describing the data and showing examples of how to work with the data using Python and ASE."'), ('http://demo.fiz-karlsruhe.de/matwerk/E1060241', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal')]</t>
         </is>
       </c>
     </row>
@@ -1673,32 +1673,32 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>['has dataset', 'has definition source', 'has annotated source ', 'related participant project is', 'has related resource', 'has related Project', 'has instrument model', 'has annotated target', 'has repository']</t>
+          <t>['has definition source', 'has annotated source ', 'related participant project is', 'has related resource', 'has related Project', 'has instrument model', 'has annotated target', 'has repository', 'has specification label']</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>['https://nfdi.fiz-karlsruhe.de/ontology/Dataset', 'http://purl.obolibrary.org/obo/IAO_0000119', 'http://www.w3.org/2002/07/owl#annotatedSource', 'http://purls.helmholtz-metadaten.de/mwo/relatedParticipantProject', 'http://purls.helmholtz-metadaten.de/mwo/hasRelatedResource', 'http://nfdi.fiz-karlsruhe.de/ontology/relatedProject', 'http://purls.helmholtz-metadaten.de/mwo/instrumentModel', 'http://www.w3.org/2002/07/owl#annotatedTarget', 'http://purls.helmholtz-metadaten.de/mwo/hasRepository']</t>
+          <t>['http://purls.helmholtz-metadaten.de/mwo/hasContactPoint', 'http://emmo.info/emmo#EMMO_967080e5_2f42_4eb2_a3a9_c58143e835f9', 'http://nfdi.fiz-karlsruhe.de/ontology/objectType', 'http://purls.helmholtz-metadaten.de/mwo/hasLecturer', 'https://schema.org/dateCreated', 'http://www.w3.org/2004/02/skos/core#prefLabel', 'http://purls.helmholtz-metadaten.de/mwo/instrumentModel', 'http://purls.helmholtz-metadaten.de/mwo/usesTechnology', 'http://purls.helmholtz-metadaten.de/mwo/requiredTool']</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>['nfdicore:Dataset', 'ns2:IAO_0000119', 'owl:annotatedSource', 'mwo:relatedParticipantProject', 'mwo:hasRelatedResource', 'nfdicore:relatedProject', 'mwo:instrumentModel', 'owl:annotatedTarget', 'mwo:hasRepository', 'mwo:description', 'dcterms:description']</t>
+          <t>['ns2:IAO_0000119', 'owl:annotatedSource', 'mwo:relatedParticipantProject', 'mwo:hasRelatedResource', 'nfdicore:relatedProject', 'mwo:instrumentModel', 'owl:annotatedTarget', 'mwo:hasRepository', 'ns2:BFO_0000179', 'mwo:description', 'dcterms:description', 'rdf:type']</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>['Brunswick', 'acronym', 'Bundesanstalt für Materialforschung und -prüfung (BAM)', 'BAM', 'bond order potentials (BOP)']</t>
+          <t>['BAM reference data: results of ASTM E139 -11 creep tests on a reference material of Nimonic 75 nickel-base alloy', 'The Materials Data Facility (MDF)', 'Computational Materials Repository (CMR)', 'NOMAD Metainfo', 'bond order potentials (BOP)', 'acronym', 'Bundesanstalt für Materialforschung und -prüfung (BAM)', 'Crystallography Open Database (COD)', 'BAM', 'Electronic Structure Common Data Format (ESCDF)', 'data portal', 'has creator', 'about material', 'provided resource']</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>['http://demo.fiz-karlsruhe.de/matwerk/E1247968', 'http://www.wikidata.org/entity/Q2773', 'http://purl.obolibrary.org/obo/NCIT_C93495', 'http://demo.fiz-karlsruhe.de/matwerk/E64191', 'http://demo.fiz-karlsruhe.de/matwerk/E4571']</t>
+          <t>['http://demo.fiz-karlsruhe.de/matwerk/E4571', 'http://demo.fiz-karlsruhe.de/matwerk/E64191', 'http://purl.obolibrary.org/obo/NCIT_C93495', 'http://purls.helmholtz-metadaten.de/mwo/aboutMaterial', 'http://nfdi.fiz-karlsruhe.de/ontology/ProvidedResource', 'http://demo.fiz-karlsruhe.de/matwerk/E1156961', 'http://purls.helmholtz-metadaten.de/mwo/hasCreator', 'http://demo.fiz-karlsruhe.de/matwerk/E1153922', 'http://demo.fiz-karlsruhe.de/matwerk/E1067531', 'http://demo.fiz-karlsruhe.de/matwerk/E1173747', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal', 'http://demo.fiz-karlsruhe.de/matwerk/E1247968', 'http://demo.fiz-karlsruhe.de/matwerk/E1024166', 'http://demo.fiz-karlsruhe.de/matwerk/E1060241']</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>["('http://demo.fiz-karlsruhe.de/matwerk/E1248382', 'mwo:relatedParticipantProject', 'http://demo.fiz-karlsruhe.de/matwerk/E1247968')", "('http://demo.fiz-karlsruhe.de/matwerk/E1248937', 'mwo:relatedParticipantProject', 'http://demo.fiz-karlsruhe.de/matwerk/E1247968')"]</t>
+          <t>[('http://demo.fiz-karlsruhe.de/matwerk/E4571', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Country'), ('http://demo.fiz-karlsruhe.de/matwerk/E64191', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/AcademicDiscipline'), ('http://purl.obolibrary.org/obo/NCIT_C93495', 'rdf:type', 'http://www.w3.org/2002/07/owl#AnnotationProperty'), ('http://purls.helmholtz-metadaten.de/mwo/aboutMaterial', 'rdf:type', 'http://www.w3.org/2002/07/owl#ObjectProperty'), ('http://nfdi.fiz-karlsruhe.de/ontology/ProvidedResource', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('http://demo.fiz-karlsruhe.de/matwerk/E1156961', 'mwo:description', '"The NOMAD Metainfo stores descriptive and structured information about materials-science data contained in the NOMAD Archive"'), ('http://demo.fiz-karlsruhe.de/matwerk/E1156961', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Specification'), ('http://purls.helmholtz-metadaten.de/mwo/hasCreator', 'rdf:type', 'http://www.w3.org/2002/07/owl#ObjectProperty'), ('http://demo.fiz-karlsruhe.de/matwerk/E1153922', 'mwo:hasRepository', 'http://demo.fiz-karlsruhe.de/matwerk/E315822'), ('http://demo.fiz-karlsruhe.de/matwerk/E1153922', 'mwo:description', '"This project gathers the working documents used to design the specifications\r\nof the Electronic Structure Common Data Format (ESCDF), an initiative of the\r\nElectronic Structure Library (ESL) Contributors.\r\n"'), ('http://demo.fiz-karlsruhe.de/matwerk/E1153922', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Specification'), ('http://demo.fiz-karlsruhe.de/matwerk/E1067531', 'mwo:description', '"A simple way to publish, discover, and access materials datasets"'), ('http://demo.fiz-karlsruhe.de/matwerk/E1067531', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal'), ('http://demo.fiz-karlsruhe.de/matwerk/E1173747', 'mwo:hasRepository', 'http://demo.fiz-karlsruhe.de/matwerk/E291704'), ('http://demo.fiz-karlsruhe.de/matwerk/E1173747', 'mwo:description', '"The creep behavior of a certified reference material was determined according to ASTM E139-11 using calibrated equipment of an accredited testing laboratory"'), ('http://demo.fiz-karlsruhe.de/matwerk/E1173747', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Dataset'), "('http://demo.fiz-karlsruhe.de/matwerk/E1079247', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal')", "('http://demo.fiz-karlsruhe.de/matwerk/E1077779', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal')", "('http://demo.fiz-karlsruhe.de/matwerk/E1054427', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal')", "('http://demo.fiz-karlsruhe.de/matwerk/E1021307', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal')", "('http://demo.fiz-karlsruhe.de/matwerk/E1066071', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal')", "('http://demo.fiz-karlsruhe.de/matwerk/E1080716', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal')", "('http://demo.fiz-karlsruhe.de/matwerk/E1089551', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal')", "('http://demo.fiz-karlsruhe.de/matwerk/E1052976', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal')", "('http://demo.fiz-karlsruhe.de/matwerk/E1060241', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal')", "('http://demo.fiz-karlsruhe.de/matwerk/E1067531', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal')", "('http://demo.fiz-karlsruhe.de/matwerk/E1011332', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal')", "('http://demo.fiz-karlsruhe.de/matwerk/E1027029', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal')", "('http://demo.fiz-karlsruhe.de/matwerk/E1015601', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal')", "('http://demo.fiz-karlsruhe.de/matwerk/E1055879', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal')", "('http://demo.fiz-karlsruhe.de/matwerk/E1073381', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal')", ('http://nfdi.fiz-karlsruhe.de/ontology/DataPortal', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), "('http://demo.fiz-karlsruhe.de/matwerk/E643412', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal')", "('http://demo.fiz-karlsruhe.de/matwerk/E1009911', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal')", "('http://demo.fiz-karlsruhe.de/matwerk/E1008491', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal')", "('http://demo.fiz-karlsruhe.de/matwerk/E1022736', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal')", "('http://demo.fiz-karlsruhe.de/matwerk/E1025597', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal')", "('http://demo.fiz-karlsruhe.de/matwerk/E1031331', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal')", "('http://demo.fiz-karlsruhe.de/matwerk/E1057332', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal')", "('http://demo.fiz-karlsruhe.de/matwerk/E1086602', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal')", "('http://demo.fiz-karlsruhe.de/matwerk/E1037081', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal')", "('http://demo.fiz-karlsruhe.de/matwerk/E1044291', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal')", "('http://demo.fiz-karlsruhe.de/matwerk/E1058786', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal')", "('http://demo.fiz-karlsruhe.de/matwerk/E1039962', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal')", "('http://demo.fiz-karlsruhe.de/matwerk/E1070454', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal')", "('http://demo.fiz-karlsruhe.de/matwerk/E1004237', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal')", "('http://demo.fiz-karlsruhe.de/matwerk/E1029896', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal')", "('http://demo.fiz-karlsruhe.de/matwerk/E1035642', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal')", "('http://demo.fiz-karlsruhe.de/matwerk/E1038521', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal')", "('http://demo.fiz-karlsruhe.de/matwerk/E1064612', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal')", "('http://demo.fiz-karlsruhe.de/matwerk/E1047182', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal')", "('http://demo.fiz-karlsruhe.de/matwerk/E1041404', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal')", "('http://demo.fiz-karlsruhe.de/matwerk/E1048629', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal')", "('http://demo.fiz-karlsruhe.de/matwerk/E1024166', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal')", "('http://demo.fiz-karlsruhe.de/matwerk/E1045736', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal')", "('http://demo.fiz-karlsruhe.de/matwerk/E1082186', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal')", "('http://demo.fiz-karlsruhe.de/matwerk/E1018452', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal')", "('http://demo.fiz-karlsruhe.de/matwerk/E1005654', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal')", "('http://demo.fiz-karlsruhe.de/matwerk/E1034204', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal')", "('http://demo.fiz-karlsruhe.de/matwerk/E1068992', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal')", "('http://demo.fiz-karlsruhe.de/matwerk/E1032767', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal')", "('http://demo.fiz-karlsruhe.de/matwerk/E1074846', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal')", "('http://demo.fiz-karlsruhe.de/matwerk/E1076312', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal')", "('http://demo.fiz-karlsruhe.de/matwerk/E1083657', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal')", "('http://demo.fiz-karlsruhe.de/matwerk/E1019879', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal')", "('http://demo.fiz-karlsruhe.de/matwerk/E1071917', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal')", "('http://demo.fiz-karlsruhe.de/matwerk/E1063154', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal')", "('http://demo.fiz-karlsruhe.de/matwerk/E1028462', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal')", "('http://demo.fiz-karlsruhe.de/matwerk/E1017026', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal')", "('http://demo.fiz-karlsruhe.de/matwerk/E1014177', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal')", "('http://demo.fiz-karlsruhe.de/matwerk/E1051526', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal')", "('http://demo.fiz-karlsruhe.de/matwerk/E1042847', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal')", "('http://demo.fiz-karlsruhe.de/matwerk/E1085129', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal')", "('http://demo.fiz-karlsruhe.de/matwerk/E1061697', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal')", "('http://demo.fiz-karlsruhe.de/matwerk/E1007072', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal')", "('http://demo.fiz-karlsruhe.de/matwerk/E1088076', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal')", "('http://demo.fiz-karlsruhe.de/matwerk/E1012754', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal')", "('http://demo.fiz-karlsruhe.de/matwerk/E1050077', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal')", "('http://demo.fiz-karlsruhe.de/matwerk/E1248937', 'mwo:relatedParticipantProject', 'http://demo.fiz-karlsruhe.de/matwerk/E1247968')", "('http://demo.fiz-karlsruhe.de/matwerk/E1248382', 'mwo:relatedParticipantProject', 'http://demo.fiz-karlsruhe.de/matwerk/E1247968')", ('http://demo.fiz-karlsruhe.de/matwerk/E1024166', 'mwo:description', '"Open-access collection of crystal structures of organic, inorganic, metal-organic compounds and minerals, excluding biopolymers."'), ('http://demo.fiz-karlsruhe.de/matwerk/E1024166', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal'), ('http://demo.fiz-karlsruhe.de/matwerk/E434847', 'mwo:hasRelatedResource', 'http://demo.fiz-karlsruhe.de/matwerk/E641147'), ('http://demo.fiz-karlsruhe.de/matwerk/E552776', 'mwo:hasRelatedResource', 'http://demo.fiz-karlsruhe.de/matwerk/E641147'), ('http://demo.fiz-karlsruhe.de/matwerk/E1060241', 'mwo:hasRelatedResource', 'http://demo.fiz-karlsruhe.de/matwerk/E641147'), ('http://demo.fiz-karlsruhe.de/matwerk/E1060241', 'mwo:description', '"Each CMR project consists of an ASE-database and a project page describing the data and showing examples of how to work with the data using Python and ASE."'), ('http://demo.fiz-karlsruhe.de/matwerk/E1060241', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal')]</t>
         </is>
       </c>
     </row>
@@ -1720,32 +1720,32 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>['has some values from', 'has related resource', 'all values from', 'has dataset', 'has definition source', 'has example of usage', 'has annotated source ', 'has repository', 'related participant project is']</t>
+          <t>['has some values from', 'has related resource', 'all values from', 'has definition source', 'has example of usage', 'has annotated source ', 'has repository', 'related participant project is', 'has annotated target']</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>['http://www.w3.org/2002/07/owl#someValuesFrom', 'http://purls.helmholtz-metadaten.de/mwo/hasRelatedResource', 'http://www.w3.org/2002/07/owl#allValuesFrom', 'https://nfdi.fiz-karlsruhe.de/ontology/Dataset', 'http://purl.obolibrary.org/obo/IAO_0000119', 'http://purl.obolibrary.org/obo/IAO_0000112', 'http://www.w3.org/2002/07/owl#annotatedSource', 'http://purls.helmholtz-metadaten.de/mwo/hasRepository', 'http://purls.helmholtz-metadaten.de/mwo/relatedParticipantProject']</t>
+          <t>['http://purls.helmholtz-metadaten.de/mwo/hasWorkPackage', 'http://purls.helmholtz-metadaten.de/mwo/hasLecturer', 'http://purls.helmholtz-metadaten.de/mwo/hasPostalCode', 'http://purls.helmholtz-metadaten.de/mwo/hasContactPoint', 'http://nfdi.fiz-karlsruhe.de/ontology/relatedProject', 'http://emmo.info/emmo#EMMO_967080e5_2f42_4eb2_a3a9_c58143e835f9', 'http://purls.helmholtz-metadaten.de/mwo/usesTechnology', 'http://nfdi.fiz-karlsruhe.de/ontology/objectType', 'http://purls.helmholtz-metadaten.de/mwo/instrumentModel']</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>['owl:someValuesFrom', 'mwo:hasRelatedResource', 'owl:allValuesFrom', 'nfdicore:Dataset', 'ns2:IAO_0000119', 'ns2:IAO_0000112', 'owl:annotatedSource', 'mwo:hasRepository', 'mwo:relatedParticipantProject', 'mwo:description', 'dcterms:description']</t>
+          <t>['owl:someValuesFrom', 'mwo:hasRelatedResource', 'owl:allValuesFrom', 'ns2:IAO_0000119', 'ns2:IAO_0000112', 'owl:annotatedSource', 'mwo:hasRepository', 'mwo:relatedParticipantProject', 'owl:annotatedTarget', 'mwo:description', 'dcterms:description', 'rdf:type']</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>['Thermodynamics and kinetics of metallic alloys', 'Mechanics of Materials', 'mechanics of materials', 'Mathematical description of microstructures', 'Deformation processes and mechanical behavior']</t>
+          <t>['Polymer Database (PoLyInfo)', 'Elastic Constant Demo', 'Atomic Simulation Recipes', 'materials database', 'Mathematical description of microstructures', 'Elastic Constant Demo Data', 'Inorganic Material Database (AtomWork)', 'mechanics of materials', 'MatDat', 'Thermodynamics and kinetics of metallic alloys', 'Mechanics of Materials', 'Deformation processes and mechanical behavior', 'Diffusion Database (Kakusan)']</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>['http://demo.fiz-karlsruhe.de/matwerk/E47972', 'http://demo.fiz-karlsruhe.de/matwerk/E1245980', 'http://demo.fiz-karlsruhe.de/matwerk/E37857', 'http://demo.fiz-karlsruhe.de/matwerk/E54629', 'http://demo.fiz-karlsruhe.de/matwerk/E52682']</t>
+          <t>['http://purls.helmholtz-metadaten.de/mwo/MaterialsDatabase', 'http://demo.fiz-karlsruhe.de/matwerk/E1045736', 'http://demo.fiz-karlsruhe.de/matwerk/E1246648', 'http://demo.fiz-karlsruhe.de/matwerk/E37857', 'http://demo.fiz-karlsruhe.de/matwerk/E1041404', 'http://demo.fiz-karlsruhe.de/matwerk/E552776', 'http://demo.fiz-karlsruhe.de/matwerk/E52682', 'http://demo.fiz-karlsruhe.de/matwerk/E1050077', 'http://demo.fiz-karlsruhe.de/matwerk/E54629', 'http://demo.fiz-karlsruhe.de/matwerk/E1047182', 'http://demo.fiz-karlsruhe.de/matwerk/E47972', 'http://demo.fiz-karlsruhe.de/matwerk/E1247418', 'http://demo.fiz-karlsruhe.de/matwerk/E1245980']</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('http://purls.helmholtz-metadaten.de/mwo/MaterialsDatabase', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('http://demo.fiz-karlsruhe.de/matwerk/E1045736', 'mwo:description', '"Polymer Database "PoLyInfo" systematically provides various data required for polymeric material design. The main data source is academic literature on polymers. Information on polymers including properties, chemical structures, IUPAC names, processing methods of measured samples, measurement conditions, used monomers and polymerization methods are stored in a object database. About 100 types of properties including thermal, electrical and mechanical properties are covered. Homopolymers, copolymers, furthermore polymer blends, composites and compounds that consist of homopolymers and copolymers are open to the public."'), ('http://demo.fiz-karlsruhe.de/matwerk/E1045736', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal'), "('http://demo.fiz-karlsruhe.de/matwerk/E1247418', 'mwo:hasRelatedResource', 'http://demo.fiz-karlsruhe.de/matwerk/E1246648')", ('http://demo.fiz-karlsruhe.de/matwerk/E1246648', 'mwo:hasRelatedResource', 'http://demo.fiz-karlsruhe.de/matwerk/E1247418'), ('http://demo.fiz-karlsruhe.de/matwerk/E1246648', 'mwo:hasRepository', 'http://demo.fiz-karlsruhe.de/matwerk/E1246473'), ('http://demo.fiz-karlsruhe.de/matwerk/E1246648', 'dcterms:description', '"Workflow to calculate elastic constants of Al alloy"'), ('http://demo.fiz-karlsruhe.de/matwerk/E1246648', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/ComputationalWorkflow'), ('http://demo.fiz-karlsruhe.de/matwerk/E1246648', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Resource'), ('http://demo.fiz-karlsruhe.de/matwerk/E1246648', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E37857', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/AcademicDiscipline'), ('http://demo.fiz-karlsruhe.de/matwerk/E1041404', 'mwo:description', '"Over 1000 detailed, fully referenced and verified datasets for steels, aluminium and titanium alloys, cast irons/steels, weld metals. Materials can be searched according to a number of different criteria. Initial search results are presented in the form of a table from which they can be selected for presentation in form of detailed report or for comparison overview (up to 5 materials). In addition to material information and values of properties/parameters, images of microstructure, specimens and those of stress-strain, stress- and strain-life curves (if available) can be reviewed as well."'), ('http://demo.fiz-karlsruhe.de/matwerk/E1041404', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal'), ('http://demo.fiz-karlsruhe.de/matwerk/E434847', 'mwo:hasRelatedResource', 'http://demo.fiz-karlsruhe.de/matwerk/E641147'), ('http://demo.fiz-karlsruhe.de/matwerk/E552776', 'mwo:hasRelatedResource', 'http://demo.fiz-karlsruhe.de/matwerk/E641147'), ('http://demo.fiz-karlsruhe.de/matwerk/E1060241', 'mwo:hasRelatedResource', 'http://demo.fiz-karlsruhe.de/matwerk/E641147'), ('http://demo.fiz-karlsruhe.de/matwerk/E552776', 'mwo:hasRepository', 'http://demo.fiz-karlsruhe.de/matwerk/E215841'), ('http://demo.fiz-karlsruhe.de/matwerk/E552776', 'dcterms:description', '"Recipes for Atomic Scale Materials Research. Collection of python recipes for common (and not so common)\r\ntasks perfomed in atomic scale materials research. These tasks include\r\nrelaxation of structures, calculating ground states, calculating band\r\nstructures, calculating dielectric functions and so on."'), ('http://demo.fiz-karlsruhe.de/matwerk/E552776', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E52682', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/AcademicDiscipline'), ('http://demo.fiz-karlsruhe.de/matwerk/E1050077', 'mwo:description', '"The Diffusion Database aims to cover all the basic diffusion data of metallic and inorganic materials mainly from the literature sources. The database consists of "diffusion data" and "reference data". Currently the system primarily contains information of pure metals, alloys, semiconductors, ceramics and intermetallics."'), ('http://demo.fiz-karlsruhe.de/matwerk/E1050077', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal'), ('http://demo.fiz-karlsruhe.de/matwerk/E54629', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/AcademicDiscipline'), ('http://demo.fiz-karlsruhe.de/matwerk/E1047182', 'mwo:description', '"The Inorganic Material Database aims to cover all basic crystal structure, x-ray diffraction, property and phase diagram data of inorganic and metallic materials from main literature sources."'), ('http://demo.fiz-karlsruhe.de/matwerk/E1047182', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal'), ('http://demo.fiz-karlsruhe.de/matwerk/E47972', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/AcademicDiscipline'), "('http://demo.fiz-karlsruhe.de/matwerk/E1246648', 'mwo:hasRelatedResource', 'http://demo.fiz-karlsruhe.de/matwerk/E1247418')", ('http://demo.fiz-karlsruhe.de/matwerk/E1247418', 'mwo:hasRelatedResource', 'http://demo.fiz-karlsruhe.de/matwerk/E1246648'), ('http://demo.fiz-karlsruhe.de/matwerk/E1247418', 'mwo:hasRepository', 'http://demo.fiz-karlsruhe.de/matwerk/E1247854'), ('http://demo.fiz-karlsruhe.de/matwerk/E1247418', 'mwo:description', '"Data containing elastic constants of Al alloy"'), ('http://demo.fiz-karlsruhe.de/matwerk/E1247418', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Dataset'), ('http://demo.fiz-karlsruhe.de/matwerk/E1247418', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Resource'), ('http://demo.fiz-karlsruhe.de/matwerk/E1245980', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/AcademicDiscipline')]</t>
         </is>
       </c>
     </row>
@@ -1767,32 +1767,32 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>['has dataset', 'has related resource', 'related participant project is', 'has related Project', 'has annotated target', 'has definition source', 'has annotated source ', 'has object type', 'is about material']</t>
+          <t>['has related resource', 'related participant project is', 'has related Project', 'has annotated target', 'has definition source', 'has annotated source ', 'has object type', 'is about material', 'has repository']</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>['https://nfdi.fiz-karlsruhe.de/ontology/Dataset', 'http://purls.helmholtz-metadaten.de/mwo/hasRelatedResource', 'http://purls.helmholtz-metadaten.de/mwo/relatedParticipantProject', 'http://nfdi.fiz-karlsruhe.de/ontology/relatedProject', 'http://www.w3.org/2002/07/owl#annotatedTarget', 'http://purl.obolibrary.org/obo/IAO_0000119', 'http://www.w3.org/2002/07/owl#annotatedSource', 'http://nfdi.fiz-karlsruhe.de/ontology/objectType', 'http://purls.helmholtz-metadaten.de/mwo/aboutMaterial']</t>
+          <t>['http://purls.helmholtz-metadaten.de/mwo/hasLecturer', 'http://nfdi.fiz-karlsruhe.de/ontology/objectType', 'https://schema.org/dateCreated', 'http://purls.helmholtz-metadaten.de/mwo/instrumentModel', 'http://purls.helmholtz-metadaten.de/mwo/hasContactPoint', 'http://emmo.info/emmo#EMMO_967080e5_2f42_4eb2_a3a9_c58143e835f9', 'http://purls.helmholtz-metadaten.de/mwo/hasAcronym', 'http://www.w3.org/2002/07/owl#inverseOf', 'http://purls.helmholtz-metadaten.de/mwo/usesTechnology']</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>['nfdicore:Dataset', 'mwo:hasRelatedResource', 'mwo:relatedParticipantProject', 'nfdicore:relatedProject', 'owl:annotatedTarget', 'ns2:IAO_0000119', 'owl:annotatedSource', 'nfdicore:objectType', 'mwo:aboutMaterial', 'mwo:description', 'dcterms:description']</t>
+          <t>['mwo:hasRelatedResource', 'mwo:relatedParticipantProject', 'nfdicore:relatedProject', 'owl:annotatedTarget', 'ns2:IAO_0000119', 'owl:annotatedSource', 'nfdicore:objectType', 'mwo:aboutMaterial', 'mwo:hasRepository', 'mwo:description', 'dcterms:description', 'rdf:type']</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>['X-ray microscopy', 'Confocal microscopy', 'X-ray imaging', 'Atom Probe Tomography', 'Transmission electron microscopy']</t>
+          <t>['Thermo-Calc', 'Computational Material Sample Ontology', 'Atomic Simulation Recipes', 'materials database', 'pyXIT', 'Atom Probe Tomography', 'Material Properties Open Database (MPOD)', 'Confocal microscopy', 'X-ray imaging', 'Soprano', 'Transmission electron microscopy', 'pySTEM', 'X-ray microscopy']</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>['http://demo.fiz-karlsruhe.de/matwerk/E625404', 'http://demo.fiz-karlsruhe.de/matwerk/E1247596', 'http://demo.fiz-karlsruhe.de/matwerk/E612066', 'http://demo.fiz-karlsruhe.de/matwerk/E1246872', 'http://demo.fiz-karlsruhe.de/matwerk/E62777']</t>
+          <t>['http://purls.helmholtz-metadaten.de/mwo/MaterialsDatabase', 'http://demo.fiz-karlsruhe.de/matwerk/E522732', 'http://demo.fiz-karlsruhe.de/matwerk/E420987', 'http://demo.fiz-karlsruhe.de/matwerk/E1247596', 'http://demo.fiz-karlsruhe.de/matwerk/E468062', 'http://demo.fiz-karlsruhe.de/matwerk/E1246872', 'http://demo.fiz-karlsruhe.de/matwerk/E1068992', 'http://demo.fiz-karlsruhe.de/matwerk/E552776', 'http://demo.fiz-karlsruhe.de/matwerk/E612066', 'http://demo.fiz-karlsruhe.de/matwerk/E451776', 'http://demo.fiz-karlsruhe.de/matwerk/E625404', 'http://demo.fiz-karlsruhe.de/matwerk/E1247323', 'http://demo.fiz-karlsruhe.de/matwerk/E62777']</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('http://purls.helmholtz-metadaten.de/mwo/MaterialsDatabase', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('http://demo.fiz-karlsruhe.de/matwerk/E522732', 'mwo:hasRepository', 'http://demo.fiz-karlsruhe.de/matwerk/E209982'), ('http://demo.fiz-karlsruhe.de/matwerk/E522732', 'dcterms:description', '"Automatic segmentation of Scanning Transmission Electron Microscope (STEM) images with unsupervised machine learning"'), ('http://demo.fiz-karlsruhe.de/matwerk/E522732', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E420987', 'dcterms:description', '"Volume Reconstrution Software for X-ray computed tomography data: reconstruction of set of 2D projections to a 3D volume based on mathematical algorithms"'), ('http://demo.fiz-karlsruhe.de/matwerk/E420987', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/ResearchSoftware'), ('http://demo.fiz-karlsruhe.de/matwerk/E420987', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/ProcessingSoftware'), ('http://demo.fiz-karlsruhe.de/matwerk/E420987', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E420987', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/VisualizationSoftware'), ('http://demo.fiz-karlsruhe.de/matwerk/E1247596', 'rdf:type', 'https://w3id.org/skgo/modsci#Technology'), ('http://demo.fiz-karlsruhe.de/matwerk/E468062', 'mwo:hasRepository', 'http://demo.fiz-karlsruhe.de/matwerk/E180102'), ('http://demo.fiz-karlsruhe.de/matwerk/E468062', 'dcterms:description', '"Python library for common tasks in computational NMR crystallography and simulations to generate, manipulate, run calculations on and analyse large data sets of crystal structures, with a particular attention to the output of ab-initio random structure searching"'), ('http://demo.fiz-karlsruhe.de/matwerk/E468062', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E1246872', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/Method'), ('http://demo.fiz-karlsruhe.de/matwerk/E1068992', 'mwo:description', '"The Material Properties Open Database (MPOD) is a web-based, open access repository of quantitative information about the physical properties of crystalline materials.\r\n\r\nMPOD is oriented to design engineers, scientists, science teachers and students. Properties are generally treated as tensor magnitudes. In MPOD the compact matrix notation is applied. To bring an intuitive view of tensor properties, so-called longitudinal properties surfaces are displayed."'), ('http://demo.fiz-karlsruhe.de/matwerk/E1068992', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal'), ('http://demo.fiz-karlsruhe.de/matwerk/E434847', 'mwo:hasRelatedResource', 'http://demo.fiz-karlsruhe.de/matwerk/E641147'), ('http://demo.fiz-karlsruhe.de/matwerk/E552776', 'mwo:hasRelatedResource', 'http://demo.fiz-karlsruhe.de/matwerk/E641147'), ('http://demo.fiz-karlsruhe.de/matwerk/E1060241', 'mwo:hasRelatedResource', 'http://demo.fiz-karlsruhe.de/matwerk/E641147'), ('http://demo.fiz-karlsruhe.de/matwerk/E552776', 'mwo:hasRepository', 'http://demo.fiz-karlsruhe.de/matwerk/E215841'), ('http://demo.fiz-karlsruhe.de/matwerk/E552776', 'dcterms:description', '"Recipes for Atomic Scale Materials Research. Collection of python recipes for common (and not so common)\r\ntasks perfomed in atomic scale materials research. These tasks include\r\nrelaxation of structures, calculating ground states, calculating band\r\nstructures, calculating dielectric functions and so on."'), ('http://demo.fiz-karlsruhe.de/matwerk/E552776', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E612066', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/Method'), ('http://demo.fiz-karlsruhe.de/matwerk/E451776', 'dcterms:description', '"Thermo-Calc, is used by materials scientists and engineers to generate material properties data, gain insights about materials, understand a specific observation, and answer direct questions related to a specific material and/or its processing. Used in conjunction with suitable databases, Thermo-Calc can be used for a wide variety of applications."'), ('http://demo.fiz-karlsruhe.de/matwerk/E451776', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/ResearchSoftware'), ('http://demo.fiz-karlsruhe.de/matwerk/E451776', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E625404', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/Method'), "('http://demo.fiz-karlsruhe.de/matwerk/E1246593', 'mwo:hasRelatedResource', 'http://demo.fiz-karlsruhe.de/matwerk/E1247323')", ('http://demo.fiz-karlsruhe.de/matwerk/E1247323', 'mwo:hasRelatedResource', 'http://demo.fiz-karlsruhe.de/matwerk/E1246593'), ('http://demo.fiz-karlsruhe.de/matwerk/E1247738', 'nfdicore:relatedProject', 'http://demo.fiz-karlsruhe.de/matwerk/E1247022'), ('http://demo.fiz-karlsruhe.de/matwerk/E1247323', 'nfdicore:relatedProject', 'http://demo.fiz-karlsruhe.de/matwerk/E1247022'), ('http://demo.fiz-karlsruhe.de/matwerk/E1247727', 'nfdicore:relatedProject', 'http://demo.fiz-karlsruhe.de/matwerk/E1247022'), ('http://demo.fiz-karlsruhe.de/matwerk/E1247323', 'mwo:hasRepository', 'http://demo.fiz-karlsruhe.de/matwerk/E1247672'), ('http://demo.fiz-karlsruhe.de/matwerk/E1247323', 'mwo:description', '"CMSO is an ontology that aims to describe computational materials science samples (or structures), including crystalline defects."'), ('http://demo.fiz-karlsruhe.de/matwerk/E1247323', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/SemanticResource'), ('http://demo.fiz-karlsruhe.de/matwerk/E1247323', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Resource'), ('http://demo.fiz-karlsruhe.de/matwerk/E62777', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/AcademicDiscipline')]</t>
         </is>
       </c>
     </row>
@@ -1814,32 +1814,32 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>['has license', 'has license', 'has affiliation', 'has file Extension', 'has specification label', 'has specification label', 'has documentation', 'has postal code', 'has software']</t>
+          <t>['has license', 'has license', 'has affiliation', 'has file Extension', 'has specification label', 'has specification label', 'has documentation', 'has postal code', 'has annotated property']</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>['http://www.ebi.ac.uk/swo/has_license', 'http://purl.org/dc/terms/license', 'http://purls.helmholtz-metadaten.de/mwo/hasAffiliation', 'http://nfdi.fiz-karlsruhe.de/ontology/fileExtension', 'http://purl.obolibrary.org/obo/BFO_0000179', 'http://purl.obolibrary.org/obo/BFO_0000180', 'http://purls.helmholtz-metadaten.de/mwo/hasDocumentation', 'http://purls.helmholtz-metadaten.de/mwo/hasPostalCode', 'https://nfdi.fiz-karlsruhe.de/ontology/Software']</t>
+          <t>['http://purl.org/dc/terms/format', 'http://www.w3.org/2002/07/owl#annotatedProperty', 'http://purls.helmholtz-metadaten.de/mwo/isOnline', 'http://purl.obolibrary.org/obo/IAO_0000118', 'http://purls.helmholtz-metadaten.de/mwo/requiredTool', 'http://www.w3.org/2002/07/owl#unionOf', 'https://w3id.org/scholarlydata/ontology/conference-ontology.owl#duration', 'http://nfdi.fiz-karlsruhe.de/ontology/example', 'http://www.geneontology.org/formats/oboInOwl#hasDbXref']</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>['ns3:has_license', 'dcterms:license', 'mwo:hasAffiliation', 'nfdicore:fileExtension', 'ns2:BFO_0000179', 'ns2:BFO_0000180', 'mwo:hasDocumentation', 'mwo:hasPostalCode', 'nfdicore:Software', 'mwo:description', 'dcterms:description']</t>
+          <t>['dcterms:license', 'ns3:has_license', 'mwo:hasAffiliation', 'nfdicore:fileExtension', 'ns2:BFO_0000179', 'ns2:BFO_0000180', 'mwo:hasDocumentation', 'mwo:hasPostalCode', 'owl:annotatedProperty', 'mwo:description', 'dcterms:description', 'rdf:type']</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>['NeXus Data Format', 'semantic resource', 'Elastic Constant Demo', 'Elastic Constant Demo Data', 'hardness data']</t>
+          <t>['Fiji', 'Phonon database at Kyoto university', 'Elastic Constant Demo', 'semantic expressivity', 'UDC', 'Elastic Constant Demo Data', 'semantic resource', 'has repository', 'TEMMETA', 'NeXus Data Format', 'Electronic Structure Common Data Format (ESCDF)', 'Metadata schemes for materials science data', 'hardness data']</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>['http://demo.fiz-karlsruhe.de/matwerk/E1213904', 'http://demo.fiz-karlsruhe.de/matwerk/E1246648', 'http://demo.fiz-karlsruhe.de/matwerk/E1247418', 'http://demo.fiz-karlsruhe.de/matwerk/E1160004', 'http://purls.helmholtz-metadaten.de/mwo/SemanticResource']</t>
+          <t>['http://demo.fiz-karlsruhe.de/matwerk/E1074846', 'http://demo.fiz-karlsruhe.de/matwerk/E1246648', 'http://purl.org/dc/elements/1.1/contributor', 'http://purls.helmholtz-metadaten.de/mwo/SemanticResource', 'http://demo.fiz-karlsruhe.de/matwerk/E1160004', 'http://purls.helmholtz-metadaten.de/mwo/hasRepository', 'http://demo.fiz-karlsruhe.de/matwerk/E1123752', 'http://demo.fiz-karlsruhe.de/matwerk/E422822', 'http://demo.fiz-karlsruhe.de/matwerk/E500501', 'http://demo.fiz-karlsruhe.de/matwerk/E1153922', 'http://demo.fiz-karlsruhe.de/matwerk/E1213904', 'http://nfdi.fiz-karlsruhe.de/ontology/SemanticExpressivity', 'http://demo.fiz-karlsruhe.de/matwerk/E1247418']</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>[('http://demo.fiz-karlsruhe.de/matwerk/E1246648', 'ns3:has_license', 'http://demo.fiz-karlsruhe.de/matwerk/E740937'), ('http://demo.fiz-karlsruhe.de/matwerk/E1246620', 'ns3:has_license', 'http://demo.fiz-karlsruhe.de/matwerk/E740937'), ('http://demo.fiz-karlsruhe.de/matwerk/E415506', 'ns3:has_license', 'http://demo.fiz-karlsruhe.de/matwerk/E740937'), ('http://demo.fiz-karlsruhe.de/matwerk/E1247418', 'ns3:has_license', 'http://demo.fiz-karlsruhe.de/matwerk/E740937'), ('http://demo.fiz-karlsruhe.de/matwerk/E1246648', 'dcterms:description', '"Workflow to calculate elastic constants of Al alloy"'), ('http://demo.fiz-karlsruhe.de/matwerk/E1247418', 'nfdicore:fileExtension', '".h5"'), ('http://demo.fiz-karlsruhe.de/matwerk/E1247418', 'mwo:description', '"Data containing elastic constants of Al alloy"'), ('http://demo.fiz-karlsruhe.de/matwerk/E1160004', 'ns3:has_license', 'http://demo.fiz-karlsruhe.de/matwerk/E787886'), ('http://demo.fiz-karlsruhe.de/matwerk/E494522', 'ns3:has_license', 'http://demo.fiz-karlsruhe.de/matwerk/E787886'), ('http://demo.fiz-karlsruhe.de/matwerk/E1160004', 'mwo:hasDocumentation', 'http://demo.fiz-karlsruhe.de/matwerk/E329456'), ('http://demo.fiz-karlsruhe.de/matwerk/E1160004', 'mwo:description', '"NeXus is a common data format for neutron, x-ray, and muon science. It is being developed as an international standard by scientists and programmers representing major scientific facilities in order to facilitate greater cooperation in the analysis and visualization of neutron, x-ray, and muon data."')]</t>
+          <t>[('http://demo.fiz-karlsruhe.de/matwerk/E1074846', 'ns3:has_license', 'http://demo.fiz-karlsruhe.de/matwerk/E811902'), ('http://demo.fiz-karlsruhe.de/matwerk/E1025597', 'ns3:has_license', 'http://demo.fiz-karlsruhe.de/matwerk/E811902'), ('http://demo.fiz-karlsruhe.de/matwerk/E1074846', 'mwo:description', '"It’s getting to be a mainstream idea collecting a big set of ab-initio calculations and analyzing them by informatics approach. For scientific purpose, we plan to do it for phonon properties. As an attempt, we have run a set of ab-initio phonon calculations and left the raw data on this static web site. The aim of this web site is just leaving the data to distribute."'), ('http://demo.fiz-karlsruhe.de/matwerk/E1074846', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal'), ('http://demo.fiz-karlsruhe.de/matwerk/E1246648', 'ns3:has_license', 'http://demo.fiz-karlsruhe.de/matwerk/E740937'), ('http://demo.fiz-karlsruhe.de/matwerk/E1247418', 'ns3:has_license', 'http://demo.fiz-karlsruhe.de/matwerk/E740937'), ('http://demo.fiz-karlsruhe.de/matwerk/E1246620', 'ns3:has_license', 'http://demo.fiz-karlsruhe.de/matwerk/E740937'), ('http://demo.fiz-karlsruhe.de/matwerk/E415506', 'ns3:has_license', 'http://demo.fiz-karlsruhe.de/matwerk/E740937'), ('http://demo.fiz-karlsruhe.de/matwerk/E1246648', 'dcterms:description', '"Workflow to calculate elastic constants of Al alloy"'), ('http://demo.fiz-karlsruhe.de/matwerk/E1246648', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/ComputationalWorkflow'), ('http://demo.fiz-karlsruhe.de/matwerk/E1246648', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Resource'), ('http://demo.fiz-karlsruhe.de/matwerk/E1246648', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://purl.org/dc/elements/1.1/contributor', 'rdf:type', 'http://www.w3.org/2002/07/owl#AnnotationProperty'), "('http://demo.fiz-karlsruhe.de/matwerk/E1128252', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/SemanticResource')", "('http://demo.fiz-karlsruhe.de/matwerk/E1166102', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/SemanticResource')", "('http://demo.fiz-karlsruhe.de/matwerk/E1129754', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/SemanticResource')", "('http://demo.fiz-karlsruhe.de/matwerk/E1163051', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/SemanticResource')", ('http://purls.helmholtz-metadaten.de/mwo/SemanticResource', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), "('http://demo.fiz-karlsruhe.de/matwerk/E1135772', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/SemanticResource')", "('http://demo.fiz-karlsruhe.de/matwerk/E1247323', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/SemanticResource')", "('http://demo.fiz-karlsruhe.de/matwerk/E1132761', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/SemanticResource')", "('http://demo.fiz-karlsruhe.de/matwerk/E1137279', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/SemanticResource')", "('http://demo.fiz-karlsruhe.de/matwerk/E1131257', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/SemanticResource')", "('http://demo.fiz-karlsruhe.de/matwerk/E1126751', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/SemanticResource')", "('http://demo.fiz-karlsruhe.de/matwerk/E1134266', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/SemanticResource')", "('http://demo.fiz-karlsruhe.de/matwerk/E1140296', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/SemanticResource')", "('http://demo.fiz-karlsruhe.de/matwerk/E1138787', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/SemanticResource')", "('http://demo.fiz-karlsruhe.de/matwerk/E1143317', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/SemanticResource')", "('http://demo.fiz-karlsruhe.de/matwerk/E1141806', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/SemanticResource')", ('http://demo.fiz-karlsruhe.de/matwerk/E494522', 'ns3:has_license', 'http://demo.fiz-karlsruhe.de/matwerk/E787886'), ('http://demo.fiz-karlsruhe.de/matwerk/E1160004', 'ns3:has_license', 'http://demo.fiz-karlsruhe.de/matwerk/E787886'), ('http://demo.fiz-karlsruhe.de/matwerk/E1160004', 'mwo:hasDocumentation', 'http://demo.fiz-karlsruhe.de/matwerk/E329456'), ('http://demo.fiz-karlsruhe.de/matwerk/E1160004', 'mwo:description', '"NeXus is a common data format for neutron, x-ray, and muon science. It is being developed as an international standard by scientists and programmers representing major scientific facilities in order to facilitate greater cooperation in the analysis and visualization of neutron, x-ray, and muon data."'), ('http://demo.fiz-karlsruhe.de/matwerk/E1160004', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Resource'), ('http://demo.fiz-karlsruhe.de/matwerk/E1160004', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/MetadataSchema'), ('http://purls.helmholtz-metadaten.de/mwo/hasRepository', 'rdf:type', 'http://www.w3.org/2002/07/owl#ObjectProperty'), ('http://demo.fiz-karlsruhe.de/matwerk/E1123752', 'ns3:has_license', 'http://demo.fiz-karlsruhe.de/matwerk/E817004'), ('http://demo.fiz-karlsruhe.de/matwerk/E1176812', 'ns3:has_license', 'http://demo.fiz-karlsruhe.de/matwerk/E817004'), ('http://demo.fiz-karlsruhe.de/matwerk/E1175279', 'ns3:has_license', 'http://demo.fiz-karlsruhe.de/matwerk/E817004'), ('http://demo.fiz-karlsruhe.de/matwerk/E1247847', 'ns3:has_license', 'http://demo.fiz-karlsruhe.de/matwerk/E817004'), ('http://demo.fiz-karlsruhe.de/matwerk/E1173747', 'ns3:has_license', 'http://demo.fiz-karlsruhe.de/matwerk/E817004'), ('http://demo.fiz-karlsruhe.de/matwerk/E1123752', 'mwo:description', '"Metadata schemes for materials science data in JSON representation as implemented in TTL representation in the application profiles in the version from 01.05.2022 of the research data management platform CoScInE. The schema are actively developed in the SFB1394 with the aim to construct defect phase diagrams in an automated fashion using all data from advanced experimental characterization and computer simulations produced in this project."'), ('http://demo.fiz-karlsruhe.de/matwerk/E1123752', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/MetadataSchema'), ('http://demo.fiz-karlsruhe.de/matwerk/E422822', 'ns3:has_license', 'http://demo.fiz-karlsruhe.de/matwerk/E749477'), ('http://demo.fiz-karlsruhe.de/matwerk/E636629', 'mwo:hasDocumentation', 'http://demo.fiz-karlsruhe.de/matwerk/E245651'), ('http://demo.fiz-karlsruhe.de/matwerk/E422822', 'mwo:hasDocumentation', 'http://demo.fiz-karlsruhe.de/matwerk/E245651'), ('http://demo.fiz-karlsruhe.de/matwerk/E637757', 'mwo:hasDocumentation', 'http://demo.fiz-karlsruhe.de/matwerk/E245651'), ('http://demo.fiz-karlsruhe.de/matwerk/E422822', 'dcterms:description', '"Fiji is an image processing package—a “batteries-included” distribution of ImageJ2, bundling a lot of plugins which facilitate scientific image analysis."'), ('http://demo.fiz-karlsruhe.de/matwerk/E422822', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/VisualizationSoftware'), ('http://demo.fiz-karlsruhe.de/matwerk/E422822', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E422822', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/ProcessingSoftware'), ('http://demo.fiz-karlsruhe.de/matwerk/E422822', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Resource'), ('http://demo.fiz-karlsruhe.de/matwerk/E422822', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/ResearchSoftware'), ('http://demo.fiz-karlsruhe.de/matwerk/E448932', 'ns3:has_license', 'http://demo.fiz-karlsruhe.de/matwerk/E762996'), ('http://demo.fiz-karlsruhe.de/matwerk/E455582', 'ns3:has_license', 'http://demo.fiz-karlsruhe.de/matwerk/E762996'), ('http://demo.fiz-karlsruhe.de/matwerk/E1238952', 'ns3:has_license', 'http://demo.fiz-karlsruhe.de/matwerk/E762996'), ('http://demo.fiz-karlsruhe.de/matwerk/E521711', 'ns3:has_license', 'http://demo.fiz-karlsruhe.de/matwerk/E762996'), ('http://demo.fiz-karlsruhe.de/matwerk/E500501', 'ns3:has_license', 'http://demo.fiz-karlsruhe.de/matwerk/E762996'), ('http://demo.fiz-karlsruhe.de/matwerk/E443271', 'ns3:has_license', 'http://demo.fiz-karlsruhe.de/matwerk/E762996'), ('http://demo.fiz-karlsruhe.de/matwerk/E522732', 'ns3:has_license', 'http://demo.fiz-karlsruhe.de/matwerk/E762996'), ('http://demo.fiz-karlsruhe.de/matwerk/E495516', 'ns3:has_license', 'http://demo.fiz-karlsruhe.de/matwerk/E762996'), ('http://demo.fiz-karlsruhe.de/matwerk/E500501', 'dcterms:description', '"TEMMETA is a library for transmission electron microscopy (TEM) (meta)data manipulation. The aim is to offer a one stop place for very basic to intermediate level operations on (S)TEM data, and be a kind of python version of ImageJ + Digital Micrograph + Velox."'), ('http://demo.fiz-karlsruhe.de/matwerk/E500501', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E1153922', 'mwo:description', '"This project gathers the working documents used to design the specifications\r\nof the Electronic Structure Common Data Format (ESCDF), an initiative of the\r\nElectronic Structure Library (ESL) Contributors.\r\n"'), ('http://demo.fiz-karlsruhe.de/matwerk/E1153922', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Specification'), ('http://demo.fiz-karlsruhe.de/matwerk/E1213904', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/ObjectType'), "('http://nfdi.fiz-karlsruhe.de/ontology/ControlledVocabulary', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/SemanticExpressivity')", "('http://nfdi.fiz-karlsruhe.de/ontology/Glossary', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/SemanticExpressivity')", "('http://nfdi.fiz-karlsruhe.de/ontology/Thesaurus', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/SemanticExpressivity')", "('http://nfdi.fiz-karlsruhe.de/ontology/Taxonomy', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/SemanticExpressivity')", ('http://nfdi.fiz-karlsruhe.de/ontology/SemanticExpressivity', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), "('http://nfdi.fiz-karlsruhe.de/ontology/Ontology', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/SemanticExpressivity')", ('http://demo.fiz-karlsruhe.de/matwerk/E1247418', 'nfdicore:fileExtension', '".h5"'), ('http://demo.fiz-karlsruhe.de/matwerk/E1247418', 'mwo:description', '"Data containing elastic constants of Al alloy"'), ('http://demo.fiz-karlsruhe.de/matwerk/E1247418', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Dataset'), ('http://demo.fiz-karlsruhe.de/matwerk/E1247418', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Resource')]</t>
         </is>
       </c>
     </row>
@@ -1861,32 +1861,32 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>['has repository', 'has annotated source ', 'has definition source', 'has documentation', 'has file Extension', 'has bibliographic citation', 'has annotated property', 'has related resource', 'has dataset']</t>
+          <t>['has repository', 'has annotated source ', 'has definition source', 'has documentation', 'has file Extension', 'has bibliographic citation', 'has annotated property', 'has related resource', 'has  description']</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>['http://purls.helmholtz-metadaten.de/mwo/hasRepository', 'http://www.w3.org/2002/07/owl#annotatedSource', 'http://purl.obolibrary.org/obo/IAO_0000119', 'http://purls.helmholtz-metadaten.de/mwo/hasDocumentation', 'http://nfdi.fiz-karlsruhe.de/ontology/fileExtension', 'http://purl.org/dc/terms/bibliographicCitation', 'http://www.w3.org/2002/07/owl#annotatedProperty', 'http://purls.helmholtz-metadaten.de/mwo/hasRelatedResource', 'https://nfdi.fiz-karlsruhe.de/ontology/Dataset']</t>
+          <t>['http://purls.helmholtz-metadaten.de/mwo/usesTechnology', 'http://emmo.info/emmo#EMMO_967080e5_2f42_4eb2_a3a9_c58143e835f9', 'http://purls.helmholtz-metadaten.de/mwo/hasContactPoint', 'https://w3id.org/scholarlydata/ontology/conference-ontology.owl#duration', 'http://purl.obolibrary.org/obo/IAO_0000118', 'http://www.w3.org/2002/07/owl#sameAs', 'http://www.geneontology.org/formats/oboInOwl#hasDbXref', 'http://purls.helmholtz-metadaten.de/mwo/hasLecturer', 'http://purl.obolibrary.org/obo/IAO_0000115']</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>['mwo:hasRepository', 'owl:annotatedSource', 'ns2:IAO_0000119', 'mwo:hasDocumentation', 'nfdicore:fileExtension', 'dcterms:bibliographicCitation', 'owl:annotatedProperty', 'mwo:hasRelatedResource', 'nfdicore:Dataset', 'mwo:description', 'dcterms:description']</t>
+          <t>['mwo:hasRepository', 'owl:annotatedSource', 'ns2:IAO_0000119', 'mwo:hasDocumentation', 'nfdicore:fileExtension', 'dcterms:bibliographicCitation', 'owl:annotatedProperty', 'mwo:hasRelatedResource', 'dcterms:description', 'mwo:description', 'rdf:type']</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>['BAM reference data: results of ASTM E139 -11 creep tests on a reference material of Nimonic 75 nickel-base alloy', 'Research data infrastructure', 'Carolina Materials Database', 'semantic resource', 'educational resource', 'hardness data']</t>
+          <t>['BAM reference data: results of ASTM E139 -11 creep tests on a reference material of Nimonic 75 nickel-base alloy', 'UDC', 'Research data infrastructure', 'NOMAD Metainfo', 'has repository', 'semantic resource', 'has format', 'Carolina Materials Database', 'object type', 'educational resource', 'hardness data', 'has creator', 'about material', 'provided resource']</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>['http://demo.fiz-karlsruhe.de/matwerk/E1213904', 'http://demo.fiz-karlsruhe.de/matwerk/E1173747', 'http://demo.fiz-karlsruhe.de/matwerk/E1079247', 'http://demo.fiz-karlsruhe.de/matwerk/E66342', 'http://purls.helmholtz-metadaten.de/mwo/SemanticResource', 'http://purls.helmholtz-metadaten.de/mwo/EducationalResource']</t>
+          <t>['http://purl.org/dc/elements/1.1/contributor', 'http://purls.helmholtz-metadaten.de/mwo/SemanticResource', 'http://purls.helmholtz-metadaten.de/mwo/EducationalResource', 'http://purls.helmholtz-metadaten.de/mwo/hasRepository', 'http://demo.fiz-karlsruhe.de/matwerk/E66342', 'http://purls.helmholtz-metadaten.de/mwo/aboutMaterial', 'http://purls.helmholtz-metadaten.de/mwo/hasFormat', 'http://nfdi.fiz-karlsruhe.de/ontology/ProvidedResource', 'http://demo.fiz-karlsruhe.de/matwerk/E1156961', 'http://nfdi.fiz-karlsruhe.de/ontology/ObjectType', 'http://purls.helmholtz-metadaten.de/mwo/hasCreator', 'http://demo.fiz-karlsruhe.de/matwerk/E1213904', 'http://demo.fiz-karlsruhe.de/matwerk/E1079247', 'http://demo.fiz-karlsruhe.de/matwerk/E1173747']</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>[('http://demo.fiz-karlsruhe.de/matwerk/E1173747', 'mwo:hasRepository', 'http://demo.fiz-karlsruhe.de/matwerk/E291704'), ('http://demo.fiz-karlsruhe.de/matwerk/E1173747', 'nfdicore:fileExtension', '"csv"'), ('http://demo.fiz-karlsruhe.de/matwerk/E1173747', 'nfdicore:fileExtension', '"pdf"'), ('http://demo.fiz-karlsruhe.de/matwerk/E1173747', 'mwo:description', '"The creep behavior of a certified reference material was determined according to ASTM E139-11 using calibrated equipment of an accredited testing laboratory"'), ('http://demo.fiz-karlsruhe.de/matwerk/E1079247', 'mwo:description', '"Welcome to Carolina Materials Database created in Jianjun Hu\'s and Ming Hu\'s groups at University of South Carolina. A freely, globally accessible database of 38,716 inorganic material compounds with over 80,000 calculated properties, and growing."')]</t>
+          <t>[('http://purl.org/dc/elements/1.1/contributor', 'rdf:type', 'http://www.w3.org/2002/07/owl#AnnotationProperty'), "('http://demo.fiz-karlsruhe.de/matwerk/E1128252', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/SemanticResource')", "('http://demo.fiz-karlsruhe.de/matwerk/E1166102', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/SemanticResource')", "('http://demo.fiz-karlsruhe.de/matwerk/E1129754', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/SemanticResource')", "('http://demo.fiz-karlsruhe.de/matwerk/E1163051', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/SemanticResource')", ('http://purls.helmholtz-metadaten.de/mwo/SemanticResource', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), "('http://demo.fiz-karlsruhe.de/matwerk/E1135772', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/SemanticResource')", "('http://demo.fiz-karlsruhe.de/matwerk/E1247323', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/SemanticResource')", "('http://demo.fiz-karlsruhe.de/matwerk/E1132761', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/SemanticResource')", "('http://demo.fiz-karlsruhe.de/matwerk/E1137279', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/SemanticResource')", "('http://demo.fiz-karlsruhe.de/matwerk/E1131257', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/SemanticResource')", "('http://demo.fiz-karlsruhe.de/matwerk/E1126751', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/SemanticResource')", "('http://demo.fiz-karlsruhe.de/matwerk/E1134266', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/SemanticResource')", "('http://demo.fiz-karlsruhe.de/matwerk/E1140296', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/SemanticResource')", "('http://demo.fiz-karlsruhe.de/matwerk/E1138787', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/SemanticResource')", "('http://demo.fiz-karlsruhe.de/matwerk/E1143317', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/SemanticResource')", "('http://demo.fiz-karlsruhe.de/matwerk/E1141806', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/SemanticResource')", ('http://purls.helmholtz-metadaten.de/mwo/EducationalResource', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), "('http://demo.fiz-karlsruhe.de/matwerk/E1245256', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/EducationalResource')", "('http://demo.fiz-karlsruhe.de/matwerk/E1245261', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/EducationalResource')", "('http://demo.fiz-karlsruhe.de/matwerk/E1245283', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/EducationalResource')", "('http://demo.fiz-karlsruhe.de/matwerk/E1245255', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/EducationalResource')", "('http://demo.fiz-karlsruhe.de/matwerk/E1245300', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/EducationalResource')", "('http://demo.fiz-karlsruhe.de/matwerk/E1245258', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/EducationalResource')", "('http://demo.fiz-karlsruhe.de/matwerk/E1245265', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/EducationalResource')", "('http://demo.fiz-karlsruhe.de/matwerk/E1245321', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/EducationalResource')", "('http://demo.fiz-karlsruhe.de/matwerk/E1245291', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/EducationalResource')", "('http://demo.fiz-karlsruhe.de/matwerk/E1245276', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/EducationalResource')", "('http://demo.fiz-karlsruhe.de/matwerk/E1245270', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/EducationalResource')", "('http://demo.fiz-karlsruhe.de/matwerk/E1245333', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/EducationalResource')", "('http://demo.fiz-karlsruhe.de/matwerk/E1245310', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/EducationalResource')", ('http://purls.helmholtz-metadaten.de/mwo/hasRepository', 'rdf:type', 'http://www.w3.org/2002/07/owl#ObjectProperty'), ('http://demo.fiz-karlsruhe.de/matwerk/E66342', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/AcademicDiscipline'), ('http://purls.helmholtz-metadaten.de/mwo/aboutMaterial', 'rdf:type', 'http://www.w3.org/2002/07/owl#ObjectProperty'), ('http://purls.helmholtz-metadaten.de/mwo/hasFormat', 'rdf:type', 'http://www.w3.org/2002/07/owl#ObjectProperty'), ('http://nfdi.fiz-karlsruhe.de/ontology/ProvidedResource', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('http://demo.fiz-karlsruhe.de/matwerk/E1156961', 'mwo:hasDocumentation', 'http://demo.fiz-karlsruhe.de/matwerk/E327837'), ('http://demo.fiz-karlsruhe.de/matwerk/E1156961', 'mwo:description', '"The NOMAD Metainfo stores descriptive and structured information about materials-science data contained in the NOMAD Archive"'), ('http://demo.fiz-karlsruhe.de/matwerk/E1156961', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Specification'), "('http://demo.fiz-karlsruhe.de/matwerk/E1199927', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/ObjectType')", "('http://demo.fiz-karlsruhe.de/matwerk/E1198379', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/ObjectType')", "('http://demo.fiz-karlsruhe.de/matwerk/E1210791', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/ObjectType')", "('http://demo.fiz-karlsruhe.de/matwerk/E1215462', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/ObjectType')", "('http://demo.fiz-karlsruhe.de/matwerk/E1209236', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/ObjectType')", "('http://demo.fiz-karlsruhe.de/matwerk/E1212347', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/ObjectType')", "('http://demo.fiz-karlsruhe.de/matwerk/E1213904', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/ObjectType')", "('http://demo.fiz-karlsruhe.de/matwerk/E1206129', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/ObjectType')", "('http://demo.fiz-karlsruhe.de/matwerk/E1201476', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/ObjectType')", "('http://demo.fiz-karlsruhe.de/matwerk/E1204577', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/ObjectType')", "('http://demo.fiz-karlsruhe.de/matwerk/E1217021', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/ObjectType')", ('http://nfdi.fiz-karlsruhe.de/ontology/ObjectType', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), "('http://demo.fiz-karlsruhe.de/matwerk/E1207682', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/ObjectType')", "('http://demo.fiz-karlsruhe.de/matwerk/E1196832', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/ObjectType')", "('http://demo.fiz-karlsruhe.de/matwerk/E1203026', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/ObjectType')", ('http://purls.helmholtz-metadaten.de/mwo/hasCreator', 'rdf:type', 'http://www.w3.org/2002/07/owl#ObjectProperty'), ('http://demo.fiz-karlsruhe.de/matwerk/E1213904', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/ObjectType'), ('http://demo.fiz-karlsruhe.de/matwerk/E1079247', 'mwo:description', '"Welcome to Carolina Materials Database created in Jianjun Hu\'s and Ming Hu\'s groups at University of South Carolina. A freely, globally accessible database of 38,716 inorganic material compounds with over 80,000 calculated properties, and growing."'), ('http://demo.fiz-karlsruhe.de/matwerk/E1079247', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal'), ('http://demo.fiz-karlsruhe.de/matwerk/E1173747', 'mwo:hasRepository', 'http://demo.fiz-karlsruhe.de/matwerk/E291704'), ('http://demo.fiz-karlsruhe.de/matwerk/E1176812', 'nfdicore:fileExtension', 'pdf'), ('http://demo.fiz-karlsruhe.de/matwerk/E1173747', 'nfdicore:fileExtension', '"csv"'), ('http://demo.fiz-karlsruhe.de/matwerk/E1175279', 'nfdicore:fileExtension', 'pdf'), ('http://demo.fiz-karlsruhe.de/matwerk/E1247847', 'nfdicore:fileExtension', 'pdf'), ('http://demo.fiz-karlsruhe.de/matwerk/E1173747', 'nfdicore:fileExtension', '"pdf"'), ('http://demo.fiz-karlsruhe.de/matwerk/E1173747', 'mwo:description', '"The creep behavior of a certified reference material was determined according to ASTM E139-11 using calibrated equipment of an accredited testing laboratory"'), ('http://demo.fiz-karlsruhe.de/matwerk/E1173747', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Dataset')]</t>
         </is>
       </c>
     </row>
@@ -1908,32 +1908,32 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>['has dataset', 'has format', 'has format', 'has documentation', 'has repository', 'has file Extension', 'has related resource', 'has instrument model', 'has software']</t>
+          <t>['has format', 'has format', 'has documentation', 'has repository', 'has file Extension', 'has related resource', 'has instrument model', 'has definition source', 'related participant project is']</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>['https://nfdi.fiz-karlsruhe.de/ontology/Dataset', 'http://purl.org/dc/terms/format', 'http://purls.helmholtz-metadaten.de/mwo/hasFormat', 'http://purls.helmholtz-metadaten.de/mwo/hasDocumentation', 'http://purls.helmholtz-metadaten.de/mwo/hasRepository', 'http://nfdi.fiz-karlsruhe.de/ontology/fileExtension', 'http://purls.helmholtz-metadaten.de/mwo/hasRelatedResource', 'http://purls.helmholtz-metadaten.de/mwo/instrumentModel', 'https://nfdi.fiz-karlsruhe.de/ontology/Software']</t>
+          <t>['http://www.ebi.ac.uk/swo/has_license', 'http://purls.helmholtz-metadaten.de/mwo/hasAuthor', 'https://w3id.org/scholarlydata/ontology/conference-ontology.owl#duration', 'http://purls.helmholtz-metadaten.de/mwo/usesTechnology', 'http://purl.obolibrary.org/obo/IAO_0000118', 'http://purls.helmholtz-metadaten.de/mwo/hasLecturer', 'http://www.w3.org/2004/02/skos/core#prefLabel', 'http://purls.helmholtz-metadaten.de/mwo/hasContactPoint', 'http://nfdi.fiz-karlsruhe.de/ontology/objectType']</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>['nfdicore:Dataset', 'dcterms:format', 'mwo:hasFormat', 'mwo:hasDocumentation', 'mwo:hasRepository', 'nfdicore:fileExtension', 'mwo:hasRelatedResource', 'mwo:instrumentModel', 'nfdicore:Software', 'mwo:description', 'dcterms:description']</t>
+          <t>['dcterms:format', 'mwo:hasFormat', 'mwo:hasDocumentation', 'mwo:hasRepository', 'nfdicore:fileExtension', 'mwo:hasRelatedResource', 'mwo:instrumentModel', 'ns2:IAO_0000119', 'mwo:relatedParticipantProject', 'mwo:description', 'dcterms:description', 'rdf:type']</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>['BAM reference data: results of ASTM E139 -11 creep tests on a reference material of Nimonic 75 nickel-base alloy', 'Research data infrastructure', 'Carolina Materials Database', 'semantic resource', 'educational resource', 'hardness data']</t>
+          <t>['BAM reference data: results of ASTM E139 -11 creep tests on a reference material of Nimonic 75 nickel-base alloy', 'semantic expressivity', 'UDC', 'Computational Materials Repository (CMR)', 'NOMAD Metainfo', 'semantic resource', 'Research data infrastructure', 'File Format', 'has format', 'Carolina Materials Database', 'Electronic Structure Common Data Format (ESCDF)', 'educational resource', 'hardness data', 'about material']</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>['http://demo.fiz-karlsruhe.de/matwerk/E1213904', 'http://demo.fiz-karlsruhe.de/matwerk/E1173747', 'http://demo.fiz-karlsruhe.de/matwerk/E1079247', 'http://demo.fiz-karlsruhe.de/matwerk/E66342', 'http://purls.helmholtz-metadaten.de/mwo/SemanticResource', 'http://purls.helmholtz-metadaten.de/mwo/EducationalResource']</t>
+          <t>['http://purl.org/dc/elements/1.1/contributor', 'http://purls.helmholtz-metadaten.de/mwo/SemanticResource', 'http://purls.helmholtz-metadaten.de/mwo/EducationalResource', 'http://demo.fiz-karlsruhe.de/matwerk/E66342', 'http://purls.helmholtz-metadaten.de/mwo/aboutMaterial', 'http://purls.helmholtz-metadaten.de/mwo/hasFormat', 'http://demo.fiz-karlsruhe.de/matwerk/E1156961', 'http://purl.org/dc/terms/FileFormat', 'http://demo.fiz-karlsruhe.de/matwerk/E1079247', 'http://demo.fiz-karlsruhe.de/matwerk/E1153922', 'http://demo.fiz-karlsruhe.de/matwerk/E1213904', 'http://demo.fiz-karlsruhe.de/matwerk/E1173747', 'http://nfdi.fiz-karlsruhe.de/ontology/SemanticExpressivity', 'http://demo.fiz-karlsruhe.de/matwerk/E1060241']</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>[('http://demo.fiz-karlsruhe.de/matwerk/E1173747', 'mwo:hasRepository', 'http://demo.fiz-karlsruhe.de/matwerk/E291704'), ('http://demo.fiz-karlsruhe.de/matwerk/E1173747', 'nfdicore:fileExtension', '"csv"'), ('http://demo.fiz-karlsruhe.de/matwerk/E1173747', 'nfdicore:fileExtension', '"pdf"'), ('http://demo.fiz-karlsruhe.de/matwerk/E1173747', 'mwo:description', '"The creep behavior of a certified reference material was determined according to ASTM E139-11 using calibrated equipment of an accredited testing laboratory"'), ('http://demo.fiz-karlsruhe.de/matwerk/E1079247', 'mwo:description', '"Welcome to Carolina Materials Database created in Jianjun Hu\'s and Ming Hu\'s groups at University of South Carolina. A freely, globally accessible database of 38,716 inorganic material compounds with over 80,000 calculated properties, and growing."')]</t>
+          <t>[('http://purl.org/dc/elements/1.1/contributor', 'rdf:type', 'http://www.w3.org/2002/07/owl#AnnotationProperty'), "('http://demo.fiz-karlsruhe.de/matwerk/E1128252', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/SemanticResource')", "('http://demo.fiz-karlsruhe.de/matwerk/E1166102', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/SemanticResource')", "('http://demo.fiz-karlsruhe.de/matwerk/E1129754', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/SemanticResource')", "('http://demo.fiz-karlsruhe.de/matwerk/E1163051', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/SemanticResource')", ('http://purls.helmholtz-metadaten.de/mwo/SemanticResource', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), "('http://demo.fiz-karlsruhe.de/matwerk/E1135772', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/SemanticResource')", "('http://demo.fiz-karlsruhe.de/matwerk/E1247323', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/SemanticResource')", "('http://demo.fiz-karlsruhe.de/matwerk/E1132761', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/SemanticResource')", "('http://demo.fiz-karlsruhe.de/matwerk/E1137279', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/SemanticResource')", "('http://demo.fiz-karlsruhe.de/matwerk/E1131257', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/SemanticResource')", "('http://demo.fiz-karlsruhe.de/matwerk/E1126751', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/SemanticResource')", "('http://demo.fiz-karlsruhe.de/matwerk/E1134266', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/SemanticResource')", "('http://demo.fiz-karlsruhe.de/matwerk/E1140296', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/SemanticResource')", "('http://demo.fiz-karlsruhe.de/matwerk/E1138787', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/SemanticResource')", "('http://demo.fiz-karlsruhe.de/matwerk/E1143317', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/SemanticResource')", "('http://demo.fiz-karlsruhe.de/matwerk/E1141806', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/SemanticResource')", ('http://purls.helmholtz-metadaten.de/mwo/EducationalResource', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), "('http://demo.fiz-karlsruhe.de/matwerk/E1245256', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/EducationalResource')", "('http://demo.fiz-karlsruhe.de/matwerk/E1245261', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/EducationalResource')", "('http://demo.fiz-karlsruhe.de/matwerk/E1245283', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/EducationalResource')", "('http://demo.fiz-karlsruhe.de/matwerk/E1245255', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/EducationalResource')", "('http://demo.fiz-karlsruhe.de/matwerk/E1245300', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/EducationalResource')", "('http://demo.fiz-karlsruhe.de/matwerk/E1245258', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/EducationalResource')", "('http://demo.fiz-karlsruhe.de/matwerk/E1245265', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/EducationalResource')", "('http://demo.fiz-karlsruhe.de/matwerk/E1245321', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/EducationalResource')", "('http://demo.fiz-karlsruhe.de/matwerk/E1245291', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/EducationalResource')", "('http://demo.fiz-karlsruhe.de/matwerk/E1245276', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/EducationalResource')", "('http://demo.fiz-karlsruhe.de/matwerk/E1245270', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/EducationalResource')", "('http://demo.fiz-karlsruhe.de/matwerk/E1245333', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/EducationalResource')", "('http://demo.fiz-karlsruhe.de/matwerk/E1245310', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/EducationalResource')", ('http://demo.fiz-karlsruhe.de/matwerk/E66342', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/AcademicDiscipline'), ('http://purls.helmholtz-metadaten.de/mwo/aboutMaterial', 'rdf:type', 'http://www.w3.org/2002/07/owl#ObjectProperty'), ('http://purls.helmholtz-metadaten.de/mwo/hasFormat', 'rdf:type', 'http://www.w3.org/2002/07/owl#ObjectProperty'), ('http://demo.fiz-karlsruhe.de/matwerk/E1156961', 'mwo:hasDocumentation', 'http://demo.fiz-karlsruhe.de/matwerk/E327837'), ('http://demo.fiz-karlsruhe.de/matwerk/E1156961', 'mwo:description', '"The NOMAD Metainfo stores descriptive and structured information about materials-science data contained in the NOMAD Archive"'), ('http://demo.fiz-karlsruhe.de/matwerk/E1156961', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Specification'), "('http://demo.fiz-karlsruhe.de/matwerk/E1221704', 'rdf:type', 'http://purl.org/dc/terms/FileFormat')", "('http://demo.fiz-karlsruhe.de/matwerk/E1224831', 'rdf:type', 'http://purl.org/dc/terms/FileFormat')", "('http://demo.fiz-karlsruhe.de/matwerk/E1247808', 'rdf:type', 'http://purl.org/dc/terms/FileFormat')", "('http://demo.fiz-karlsruhe.de/matwerk/E1226396', 'rdf:type', 'http://purl.org/dc/terms/FileFormat')", "('http://demo.fiz-karlsruhe.de/matwerk/E1247825', 'rdf:type', 'http://purl.org/dc/terms/FileFormat')", ('http://purl.org/dc/terms/FileFormat', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), "('http://demo.fiz-karlsruhe.de/matwerk/E1246252', 'rdf:type', 'http://purl.org/dc/terms/FileFormat')", "('http://demo.fiz-karlsruhe.de/matwerk/E1227962', 'rdf:type', 'http://purl.org/dc/terms/FileFormat')", "('http://demo.fiz-karlsruhe.de/matwerk/E1223267', 'rdf:type', 'http://purl.org/dc/terms/FileFormat')", "('http://demo.fiz-karlsruhe.de/matwerk/E1220142', 'rdf:type', 'http://purl.org/dc/terms/FileFormat')", ('http://demo.fiz-karlsruhe.de/matwerk/E1079247', 'mwo:description', '"Welcome to Carolina Materials Database created in Jianjun Hu\'s and Ming Hu\'s groups at University of South Carolina. A freely, globally accessible database of 38,716 inorganic material compounds with over 80,000 calculated properties, and growing."'), ('http://demo.fiz-karlsruhe.de/matwerk/E1079247', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal'), ('http://demo.fiz-karlsruhe.de/matwerk/E1153922', 'mwo:hasRepository', 'http://demo.fiz-karlsruhe.de/matwerk/E315822'), ('http://demo.fiz-karlsruhe.de/matwerk/E1153922', 'mwo:description', '"This project gathers the working documents used to design the specifications\r\nof the Electronic Structure Common Data Format (ESCDF), an initiative of the\r\nElectronic Structure Library (ESL) Contributors.\r\n"'), ('http://demo.fiz-karlsruhe.de/matwerk/E1153922', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Specification'), ('http://demo.fiz-karlsruhe.de/matwerk/E1213904', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/ObjectType'), ('http://demo.fiz-karlsruhe.de/matwerk/E1173747', 'mwo:hasRepository', 'http://demo.fiz-karlsruhe.de/matwerk/E291704'), ('http://demo.fiz-karlsruhe.de/matwerk/E1176812', 'nfdicore:fileExtension', 'pdf'), ('http://demo.fiz-karlsruhe.de/matwerk/E1173747', 'nfdicore:fileExtension', '"csv"'), ('http://demo.fiz-karlsruhe.de/matwerk/E1175279', 'nfdicore:fileExtension', 'pdf'), ('http://demo.fiz-karlsruhe.de/matwerk/E1247847', 'nfdicore:fileExtension', 'pdf'), ('http://demo.fiz-karlsruhe.de/matwerk/E1173747', 'nfdicore:fileExtension', '"pdf"'), ('http://demo.fiz-karlsruhe.de/matwerk/E1173747', 'mwo:description', '"The creep behavior of a certified reference material was determined according to ASTM E139-11 using calibrated equipment of an accredited testing laboratory"'), ('http://demo.fiz-karlsruhe.de/matwerk/E1173747', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Dataset'), "('http://nfdi.fiz-karlsruhe.de/ontology/ControlledVocabulary', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/SemanticExpressivity')", "('http://nfdi.fiz-karlsruhe.de/ontology/Glossary', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/SemanticExpressivity')", "('http://nfdi.fiz-karlsruhe.de/ontology/Thesaurus', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/SemanticExpressivity')", "('http://nfdi.fiz-karlsruhe.de/ontology/Taxonomy', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/SemanticExpressivity')", ('http://nfdi.fiz-karlsruhe.de/ontology/SemanticExpressivity', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), "('http://nfdi.fiz-karlsruhe.de/ontology/Ontology', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/SemanticExpressivity')", ('http://demo.fiz-karlsruhe.de/matwerk/E434847', 'mwo:hasRelatedResource', 'http://demo.fiz-karlsruhe.de/matwerk/E641147'), ('http://demo.fiz-karlsruhe.de/matwerk/E552776', 'mwo:hasRelatedResource', 'http://demo.fiz-karlsruhe.de/matwerk/E641147'), ('http://demo.fiz-karlsruhe.de/matwerk/E1060241', 'mwo:hasRelatedResource', 'http://demo.fiz-karlsruhe.de/matwerk/E641147'), ('http://demo.fiz-karlsruhe.de/matwerk/E1060241', 'mwo:description', '"Each CMR project consists of an ASE-database and a project page describing the data and showing examples of how to work with the data using Python and ASE."'), ('http://demo.fiz-karlsruhe.de/matwerk/E1060241', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal')]</t>
         </is>
       </c>
     </row>
@@ -1955,32 +1955,32 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>['has software', 'has Version', 'uses software', 'has instrument model', 'has format', 'has format', 'has specification label', 'has specification label', 'has programming Language ']</t>
+          <t>['has Version', 'uses software', 'has instrument model', 'has format', 'has format', 'has specification label', 'has specification label', 'has programming Language ', 'has documentation']</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>['https://nfdi.fiz-karlsruhe.de/ontology/Software', 'http://purls.helmholtz-metadaten.de/mwo/hasVersion', 'http://www.ebi.ac.uk/swo/SWO_0000082', 'http://purls.helmholtz-metadaten.de/mwo/instrumentModel', 'http://purl.org/dc/terms/format', 'http://purls.helmholtz-metadaten.de/mwo/hasFormat', 'http://purl.obolibrary.org/obo/BFO_0000179', 'http://purl.obolibrary.org/obo/BFO_0000180', 'http://nfdi.fiz-karlsruhe.de/ontology/programmingLanguage']</t>
+          <t>['http://purls.helmholtz-metadaten.de/mwo/keyword', 'http://purls.helmholtz-metadaten.de/mwo/hasContributor', 'http://www.w3.org/2004/02/skos/core#prefLabel', 'http://www.ebi.ac.uk/swo/has_license', 'http://purls.helmholtz-metadaten.de/mwo/hasAuthor', 'http://purls.helmholtz-metadaten.de/mwo/requiredTool', 'http://www.w3.org/2002/07/owl#unionOf', 'http://purl.obolibrary.org/obo/IAO_0000117', 'https://w3id.org/scholarlydata/ontology/conference-ontology.owl#duration']</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>['nfdicore:Software', 'mwo:hasVersion', 'ns3:SWO_0000082', 'mwo:instrumentModel', 'dcterms:format', 'mwo:hasFormat', 'ns2:BFO_0000179', 'ns2:BFO_0000180', 'nfdicore:programmingLanguage', 'mwo:description', 'dcterms:description']</t>
+          <t>['mwo:hasVersion', 'ns3:SWO_0000082', 'mwo:instrumentModel', 'dcterms:format', 'mwo:hasFormat', 'ns2:BFO_0000179', 'ns2:BFO_0000180', 'nfdicore:programmingLanguage', 'mwo:hasDocumentation', 'mwo:description', 'dcterms:description', 'rdf:type']</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>['https://pacemaker.readthedocs.io/en/latest/', 'matador', 'electronic lab notebook', 'Plant movement', 'Atomman', 'pacemaker']</t>
+          <t>['Phonon database at Kyoto university', 'pacemaker', 'Atomman', 'Pyrho', 'matador', 'eLabFTW', 'Plant movement', 'electronic lab notebook', 'software interface', 'Graphical Expression of Materials Data (GEMD)', 'Qe-tools']</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>['http://demo.fiz-karlsruhe.de/matwerk/E531966', 'http://demo.fiz-karlsruhe.de/matwerk/E577202', 'http://demo.fiz-karlsruhe.de/matwerk/E511556', 'http://demo.fiz-karlsruhe.de/matwerk/E275912', 'http://purls.helmholtz-metadaten.de/mwo/ElectronicLabNotebook', 'http://demo.fiz-karlsruhe.de/matwerk/E46754']</t>
+          <t>['http://demo.fiz-karlsruhe.de/matwerk/E527852', 'http://demo.fiz-karlsruhe.de/matwerk/E1074846', 'http://demo.fiz-karlsruhe.de/matwerk/E1155441', 'http://demo.fiz-karlsruhe.de/matwerk/E531966', 'http://demo.fiz-karlsruhe.de/matwerk/E46754', 'http://purls.helmholtz-metadaten.de/mwo/ElectronicLabNotebook', 'http://demo.fiz-karlsruhe.de/matwerk/E510546', 'http://demo.fiz-karlsruhe.de/matwerk/E479732', 'http://demo.fiz-karlsruhe.de/matwerk/E577202', 'http://www.ebi.ac.uk/swo/SWO_9000050', 'http://demo.fiz-karlsruhe.de/matwerk/E511556']</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>[('http://demo.fiz-karlsruhe.de/matwerk/E511556', 'mwo:hasVersion', '"0.2.7"'), ('http://demo.fiz-karlsruhe.de/matwerk/E511556', 'dcterms:description', '"a tool for fitting of interatomic potentials in a general nonlinear Atomic Cluster Expansion (ACE) form. "')]</t>
+          <t>[('http://demo.fiz-karlsruhe.de/matwerk/E527852', 'mwo:hasVersion', '"4.3.9"'), ('http://demo.fiz-karlsruhe.de/matwerk/E527852', 'mwo:hasDocumentation', 'http://demo.fiz-karlsruhe.de/matwerk/E279632'), ('http://demo.fiz-karlsruhe.de/matwerk/E527852', 'dcterms:description', '"eLabFTW is an electronic lab notebook manager for research teams. It lets you store and organize your research experiments easily. It also features a database where any kind of objects (such as antibodies, plasmids, cell lines, boxes, etc.) can be stored. It is accessed via the browser"'), ('http://demo.fiz-karlsruhe.de/matwerk/E527852', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E1074846', 'mwo:description', '"It’s getting to be a mainstream idea collecting a big set of ab-initio calculations and analyzing them by informatics approach. For scientific purpose, we plan to do it for phonon properties. As an attempt, we have run a set of ab-initio phonon calculations and left the raw data on this static web site. The aim of this web site is just leaving the data to distribute."'), ('http://demo.fiz-karlsruhe.de/matwerk/E1074846', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal'), ('http://demo.fiz-karlsruhe.de/matwerk/E1155441', 'mwo:hasDocumentation', 'http://demo.fiz-karlsruhe.de/matwerk/E327029'), ('http://demo.fiz-karlsruhe.de/matwerk/E1155441', 'mwo:description', '"GEMD stands for Graphical Expression of Materials Data. It\'s an open-source format initially developed by Citrine Informatics. A version of it is used in their AI platform for materials and chemicals, but as described here it can be used independently.\r\n\r\n"'), ('http://demo.fiz-karlsruhe.de/matwerk/E1155441', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Specification'), ('http://demo.fiz-karlsruhe.de/matwerk/E531966', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E46754', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/AcademicDiscipline'), ('http://purls.helmholtz-metadaten.de/mwo/ElectronicLabNotebook', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('http://demo.fiz-karlsruhe.de/matwerk/E510546', 'dcterms:description', '"Pyrho is a real-space DFT code written in Python. It is not built to be super-fast or scalable- instead, it is built to be super-readable.  There\'s a tutorial notebook (tutorial.ipynb) to guide you through the process of building Pyrho from scratch (starting with the 1D Schroedinger equation). This notebook is based on interactive lectures given by Prof. Joerg Neugebauer."'), ('http://demo.fiz-karlsruhe.de/matwerk/E510546', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E434847', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E481691', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E458447', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E467096', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E492537', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E497507', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E479732', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E484637', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E494522', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E498504', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E433916', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E1246567', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E493529', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E466131', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E499502', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E473879', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E475826', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E496511', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E474852', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E428351', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E477777', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E457491', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E420987', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E502502', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E483654', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E422822', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E495516', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E453677', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E411872', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E456536', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E489567', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E460362', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E1246593', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E413687', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E446097', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E485621', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E593417', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E1246648', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E500501', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E490556', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E455582', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E471936', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E468062', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E486606', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E414596', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E480711', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E504507', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E655941', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E476801', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E503504', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E552776', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E478754', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E417329', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E491546', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E487592', 'nfdicore:programmingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E836279'), ('http://demo.fiz-karlsruhe.de/matwerk/E479732', 'dcterms:description', '"A set of useful tools for Quantum ESPRESSO"'), ('http://demo.fiz-karlsruhe.de/matwerk/E479732', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E577202', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://www.ebi.ac.uk/swo/SWO_9000050', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), ('http://demo.fiz-karlsruhe.de/matwerk/E511556', 'mwo:hasVersion', '"0.2.7"'), ('http://demo.fiz-karlsruhe.de/matwerk/E511556', 'mwo:hasDocumentation', 'http://demo.fiz-karlsruhe.de/matwerk/E275912'), ('http://demo.fiz-karlsruhe.de/matwerk/E511556', 'dcterms:description', '"a tool for fitting of interatomic potentials in a general nonlinear Atomic Cluster Expansion (ACE) form. "'), ('http://demo.fiz-karlsruhe.de/matwerk/E511556', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://demo.fiz-karlsruhe.de/matwerk/E511556', 'rdf:type', 'http://www.ebi.ac.uk/swo/SWO_0000001')]</t>
         </is>
       </c>
     </row>
@@ -2002,32 +2002,32 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>['has related task area', 'has discipline', 'has main task area ', 'has first element', 'related participant project is', 'has expertise in', 'has ontology', 'has related Project', 'has contact point']</t>
+          <t>['has related task area', 'has discipline', 'has main task area ', 'has first element', 'related participant project is', 'has expertise in', 'has related Project', 'has contact point', 'has equivalent Class ']</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>['http://purls.helmholtz-metadaten.de/mwo/relatedTaskArea', 'http://purls.helmholtz-metadaten.de/mwo/hasDiscipline', 'http://purls.helmholtz-metadaten.de/mwo/mainTaskArea', 'http://www.w3.org/1999/02/22-rdf-syntax-ns#first', 'http://purls.helmholtz-metadaten.de/mwo/relatedParticipantProject', 'http://purls.helmholtz-metadaten.de/mwo/hasExpertiseIn', 'https://nfdi.fiz-karlsruhe.de/ontology/Ontology', 'http://nfdi.fiz-karlsruhe.de/ontology/relatedProject', 'http://purls.helmholtz-metadaten.de/mwo/hasContactPoint']</t>
+          <t>['http://purls.helmholtz-metadaten.de/mwo/belongsTo', 'http://purl.org/dc/terms/isPartOf', 'http://purl.org/dc/elements/1.1/contributor', 'http://xmlns.com/foaf/0.1/depiction', 'http://nfdi.fiz-karlsruhe.de/ontology/objectType', 'http://purls.helmholtz-metadaten.de/mwo/description', 'https://schema.org/dateCreated', 'http://xmlns.com/foaf/0.1/surname', 'http://purls.helmholtz-metadaten.de/mwo/aboutMaterial']</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>['mwo:relatedTaskArea', 'mwo:hasDiscipline', 'mwo:mainTaskArea', 'rdf:first', 'mwo:relatedParticipantProject', 'mwo:hasExpertiseIn', 'nfdicore:Ontology', 'nfdicore:relatedProject', 'mwo:hasContactPoint', 'mwo:description', 'dcterms:description']</t>
+          <t>['mwo:relatedTaskArea', 'mwo:hasDiscipline', 'mwo:mainTaskArea', 'rdf:first', 'mwo:relatedParticipantProject', 'mwo:hasExpertiseIn', 'nfdicore:relatedProject', 'mwo:hasContactPoint', 'owl:equivalentClass', 'mwo:description', 'dcterms:description', 'rdf:type']</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>['BAM reference data: results of ASTM E139 -11 creep tests on a reference material of Nimonic 75 nickel-base alloy', 'Research data infrastructure', 'Carolina Materials Database', 'semantic resource', 'educational resource', 'hardness data']</t>
+          <t>['BAM reference data: results of ASTM E139 -11 creep tests on a reference material of Nimonic 75 nickel-base alloy', 'Phonon database at Kyoto university', 'Materials Platform for Data Science', 'Research data infrastructure', 'semantic resource', 'has expertise in', 'Carolina Materials Database', 'Workshop: Simulation workflows in materials modelling', 'has topic', 'Metadata schemes for materials science data', 'educational resource', 'hardness data', 'resource', 'Diffusion Database (Kakusan)']</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>['http://demo.fiz-karlsruhe.de/matwerk/E1213904', 'http://demo.fiz-karlsruhe.de/matwerk/E1173747', 'http://demo.fiz-karlsruhe.de/matwerk/E1079247', 'http://demo.fiz-karlsruhe.de/matwerk/E66342', 'http://purls.helmholtz-metadaten.de/mwo/SemanticResource', 'http://purls.helmholtz-metadaten.de/mwo/EducationalResource']</t>
+          <t>['http://demo.fiz-karlsruhe.de/matwerk/E1074846', 'http://demo.fiz-karlsruhe.de/matwerk/E1213904', 'http://purls.helmholtz-metadaten.de/mwo/hasExpertiseIn', 'http://purls.helmholtz-metadaten.de/mwo/SemanticResource', 'http://purls.helmholtz-metadaten.de/mwo/EducationalResource', 'http://demo.fiz-karlsruhe.de/matwerk/E1123752', 'http://demo.fiz-karlsruhe.de/matwerk/E1245333', 'http://demo.fiz-karlsruhe.de/matwerk/E1050077', 'http://demo.fiz-karlsruhe.de/matwerk/E66342', 'http://purls.helmholtz-metadaten.de/mwo/hasTopic', 'http://demo.fiz-karlsruhe.de/matwerk/E1079247', 'http://demo.fiz-karlsruhe.de/matwerk/E1173747', 'http://nfdi.fiz-karlsruhe.de/ontology/Resource', 'http://demo.fiz-karlsruhe.de/matwerk/E1035642']</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>[('http://demo.fiz-karlsruhe.de/matwerk/E1173747', 'mwo:hasDiscipline', 'http://demo.fiz-karlsruhe.de/matwerk/E1190654'), ('http://demo.fiz-karlsruhe.de/matwerk/E1173747', 'mwo:description', '"The creep behavior of a certified reference material was determined according to ASTM E139-11 using calibrated equipment of an accredited testing laboratory"'), ('http://demo.fiz-karlsruhe.de/matwerk/E1079247', 'mwo:description', '"Welcome to Carolina Materials Database created in Jianjun Hu\'s and Ming Hu\'s groups at University of South Carolina. A freely, globally accessible database of 38,716 inorganic material compounds with over 80,000 calculated properties, and growing."'), "('http://demo.fiz-karlsruhe.de/matwerk/E15536', 'mwo:hasExpertiseIn', 'http://demo.fiz-karlsruhe.de/matwerk/E66342')", "('http://demo.fiz-karlsruhe.de/matwerk/E15707', 'mwo:hasExpertiseIn', 'http://demo.fiz-karlsruhe.de/matwerk/E66342')", "(':n1020c7c5c2274736a55b1427c54afb30b21', 'rdf:first', 'http://purls.helmholtz-metadaten.de/mwo/EducationalResource')", "(':n1020c7c5c2274736a55b1427c54afb30b29', 'rdf:first', 'http://purls.helmholtz-metadaten.de/mwo/EducationalResource')", "(':n1020c7c5c2274736a55b1427c54afb30b33', 'rdf:first', 'http://purls.helmholtz-metadaten.de/mwo/EducationalResource')"]</t>
+          <t>[('http://demo.fiz-karlsruhe.de/matwerk/E1074846', 'mwo:hasContactPoint', 'http://demo.fiz-karlsruhe.de/matwerk/E20307'), ('http://demo.fiz-karlsruhe.de/matwerk/E1074846', 'mwo:description', '"It’s getting to be a mainstream idea collecting a big set of ab-initio calculations and analyzing them by informatics approach. For scientific purpose, we plan to do it for phonon properties. As an attempt, we have run a set of ab-initio phonon calculations and left the raw data on this static web site. The aim of this web site is just leaving the data to distribute."'), ('http://demo.fiz-karlsruhe.de/matwerk/E1074846', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal'), ('http://demo.fiz-karlsruhe.de/matwerk/E1213904', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/ObjectType'), ('http://purls.helmholtz-metadaten.de/mwo/hasExpertiseIn', 'rdf:type', 'http://www.w3.org/2002/07/owl#ObjectProperty'), "('http://demo.fiz-karlsruhe.de/matwerk/E1128252', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/SemanticResource')", "('http://demo.fiz-karlsruhe.de/matwerk/E1166102', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/SemanticResource')", "('http://demo.fiz-karlsruhe.de/matwerk/E1129754', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/SemanticResource')", "('http://demo.fiz-karlsruhe.de/matwerk/E1163051', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/SemanticResource')", ('http://purls.helmholtz-metadaten.de/mwo/SemanticResource', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), "('http://demo.fiz-karlsruhe.de/matwerk/E1135772', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/SemanticResource')", "('http://demo.fiz-karlsruhe.de/matwerk/E1247323', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/SemanticResource')", "('http://demo.fiz-karlsruhe.de/matwerk/E1132761', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/SemanticResource')", "('http://demo.fiz-karlsruhe.de/matwerk/E1137279', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/SemanticResource')", "('http://demo.fiz-karlsruhe.de/matwerk/E1131257', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/SemanticResource')", "('http://demo.fiz-karlsruhe.de/matwerk/E1126751', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/SemanticResource')", "('http://demo.fiz-karlsruhe.de/matwerk/E1134266', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/SemanticResource')", "('http://demo.fiz-karlsruhe.de/matwerk/E1140296', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/SemanticResource')", "('http://demo.fiz-karlsruhe.de/matwerk/E1138787', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/SemanticResource')", "('http://demo.fiz-karlsruhe.de/matwerk/E1143317', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/SemanticResource')", "('http://demo.fiz-karlsruhe.de/matwerk/E1141806', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/SemanticResource')", "(':n94a127d864c147f2b1a38333b654e1d0b29', 'rdf:first', 'http://purls.helmholtz-metadaten.de/mwo/EducationalResource')", "(':n94a127d864c147f2b1a38333b654e1d0b33', 'rdf:first', 'http://purls.helmholtz-metadaten.de/mwo/EducationalResource')", "(':n94a127d864c147f2b1a38333b654e1d0b21', 'rdf:first', 'http://purls.helmholtz-metadaten.de/mwo/EducationalResource')", ('http://purls.helmholtz-metadaten.de/mwo/EducationalResource', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), "('http://demo.fiz-karlsruhe.de/matwerk/E1245256', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/EducationalResource')", "('http://demo.fiz-karlsruhe.de/matwerk/E1245261', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/EducationalResource')", "('http://demo.fiz-karlsruhe.de/matwerk/E1245283', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/EducationalResource')", "('http://demo.fiz-karlsruhe.de/matwerk/E1245255', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/EducationalResource')", "('http://demo.fiz-karlsruhe.de/matwerk/E1245300', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/EducationalResource')", "('http://demo.fiz-karlsruhe.de/matwerk/E1245258', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/EducationalResource')", "('http://demo.fiz-karlsruhe.de/matwerk/E1245265', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/EducationalResource')", "('http://demo.fiz-karlsruhe.de/matwerk/E1245321', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/EducationalResource')", "('http://demo.fiz-karlsruhe.de/matwerk/E1245291', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/EducationalResource')", "('http://demo.fiz-karlsruhe.de/matwerk/E1245276', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/EducationalResource')", "('http://demo.fiz-karlsruhe.de/matwerk/E1245270', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/EducationalResource')", "('http://demo.fiz-karlsruhe.de/matwerk/E1245333', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/EducationalResource')", "('http://demo.fiz-karlsruhe.de/matwerk/E1245310', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/EducationalResource')", ('http://demo.fiz-karlsruhe.de/matwerk/E1123752', 'nfdicore:relatedProject', 'http://demo.fiz-karlsruhe.de/matwerk/E861017'), ('http://demo.fiz-karlsruhe.de/matwerk/E1123752', 'nfdicore:relatedProject', 'http://demo.fiz-karlsruhe.de/matwerk/E862329'), ('http://demo.fiz-karlsruhe.de/matwerk/E1123752', 'mwo:description', '"Metadata schemes for materials science data in JSON representation as implemented in TTL representation in the application profiles in the version from 01.05.2022 of the research data management platform CoScInE. The schema are actively developed in the SFB1394 with the aim to construct defect phase diagrams in an automated fashion using all data from advanced experimental characterization and computer simulations produced in this project."'), ('http://demo.fiz-karlsruhe.de/matwerk/E1123752', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/MetadataSchema'), ('http://demo.fiz-karlsruhe.de/matwerk/E1245333', 'mwo:description', '"As part of the workshop for Simulation Workflows in Materials Modelling we present a series of pyiron tutorials, starting from a basic introduction to Pyiron, followed by a focus session on up-scaling existing workflows and finally the implementation of new simulation codes and general open science activities of the pyiron project."'), ('http://demo.fiz-karlsruhe.de/matwerk/E1245333', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/EducationalResource'), ('http://demo.fiz-karlsruhe.de/matwerk/E1050077', 'mwo:description', '"The Diffusion Database aims to cover all the basic diffusion data of metallic and inorganic materials mainly from the literature sources. The database consists of "diffusion data" and "reference data". Currently the system primarily contains information of pure metals, alloys, semiconductors, ceramics and intermetallics."'), ('http://demo.fiz-karlsruhe.de/matwerk/E1050077', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal'), "('http://demo.fiz-karlsruhe.de/matwerk/E15707', 'mwo:hasExpertiseIn', 'http://demo.fiz-karlsruhe.de/matwerk/E66342')", "('http://demo.fiz-karlsruhe.de/matwerk/E15536', 'mwo:hasExpertiseIn', 'http://demo.fiz-karlsruhe.de/matwerk/E66342')", ('http://demo.fiz-karlsruhe.de/matwerk/E66342', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/AcademicDiscipline'), ('http://purls.helmholtz-metadaten.de/mwo/hasTopic', 'rdf:type', 'http://www.w3.org/2002/07/owl#ObjectProperty'), ('http://demo.fiz-karlsruhe.de/matwerk/E1079247', 'mwo:description', '"Welcome to Carolina Materials Database created in Jianjun Hu\'s and Ming Hu\'s groups at University of South Carolina. A freely, globally accessible database of 38,716 inorganic material compounds with over 80,000 calculated properties, and growing."'), ('http://demo.fiz-karlsruhe.de/matwerk/E1079247', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal'), ('http://demo.fiz-karlsruhe.de/matwerk/E1173747', 'mwo:hasDiscipline', 'http://demo.fiz-karlsruhe.de/matwerk/E1190654'), ('http://demo.fiz-karlsruhe.de/matwerk/E1173747', 'mwo:description', '"The creep behavior of a certified reference material was determined according to ASTM E139-11 using calibrated equipment of an accredited testing laboratory"'), ('http://demo.fiz-karlsruhe.de/matwerk/E1173747', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Dataset'), "(':n94a127d864c147f2b1a38333b654e1d0b47', 'rdf:first', 'http://nfdi.fiz-karlsruhe.de/ontology/Resource')", "(':n94a127d864c147f2b1a38333b654e1d0b55', 'rdf:first', 'http://nfdi.fiz-karlsruhe.de/ontology/Resource')", "(':n94a127d864c147f2b1a38333b654e1d0b6', 'rdf:first', 'http://nfdi.fiz-karlsruhe.de/ontology/Resource')", "('http://demo.fiz-karlsruhe.de/matwerk/E658232', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Resource')", "('http://demo.fiz-karlsruhe.de/matwerk/E1246593', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Resource')", "('http://demo.fiz-karlsruhe.de/matwerk/E635502', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Resource')", "('http://demo.fiz-karlsruhe.de/matwerk/E592329', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Resource')", "('http://demo.fiz-karlsruhe.de/matwerk/E655941', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Resource')", "('http://demo.fiz-karlsruhe.de/matwerk/E457491', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Resource')", "('http://demo.fiz-karlsruhe.de/matwerk/E1246648', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Resource')", "('http://demo.fiz-karlsruhe.de/matwerk/E649092', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Resource')", "('http://demo.fiz-karlsruhe.de/matwerk/E643412', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Resource')", "('http://demo.fiz-karlsruhe.de/matwerk/E634376', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Resource')", "('http://demo.fiz-karlsruhe.de/matwerk/E546491', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Resource')", "('http://demo.fiz-karlsruhe.de/matwerk/E1247370', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Resource')", "('http://demo.fiz-karlsruhe.de/matwerk/E641147', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Resource')", "('http://demo.fiz-karlsruhe.de/matwerk/E652512', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Resource')", "('http://demo.fiz-karlsruhe.de/matwerk/E661676', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Resource')", ('http://nfdi.fiz-karlsruhe.de/ontology/Resource', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), "('http://demo.fiz-karlsruhe.de/matwerk/E1247323', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Resource')", "('http://demo.fiz-karlsruhe.de/matwerk/E631004', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Resource')", "('http://demo.fiz-karlsruhe.de/matwerk/E650231', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Resource')", "('http://demo.fiz-karlsruhe.de/matwerk/E627641', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Resource')", "('http://demo.fiz-karlsruhe.de/matwerk/E653654', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Resource')", "('http://demo.fiz-karlsruhe.de/matwerk/E657086', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Resource')", "('http://demo.fiz-karlsruhe.de/matwerk/E663977', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Resource')", "('http://demo.fiz-karlsruhe.de/matwerk/E644546', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Resource')", "('http://demo.fiz-karlsruhe.de/matwerk/E638886', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Resource')", "('http://demo.fiz-karlsruhe.de/matwerk/E645681', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Resource')", "('http://demo.fiz-karlsruhe.de/matwerk/E654797', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Resource')", "('http://demo.fiz-karlsruhe.de/matwerk/E1247727', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Resource')", "('http://demo.fiz-karlsruhe.de/matwerk/E647954', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Resource')", "('http://demo.fiz-karlsruhe.de/matwerk/E1247866', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Resource')", "('http://demo.fiz-karlsruhe.de/matwerk/E629882', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Resource')", "('http://demo.fiz-karlsruhe.de/matwerk/E642279', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Resource')", "('http://demo.fiz-karlsruhe.de/matwerk/E651371', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Resource')", "('http://demo.fiz-karlsruhe.de/matwerk/E660527', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Resource')", "('http://demo.fiz-karlsruhe.de/matwerk/E626522', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Resource')", "('http://demo.fiz-karlsruhe.de/matwerk/E636629', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Resource')", "('http://demo.fiz-karlsruhe.de/matwerk/E419156', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Resource')", "('http://demo.fiz-karlsruhe.de/matwerk/E632127', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Resource')", "('http://demo.fiz-karlsruhe.de/matwerk/E1160004', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Resource')", "('http://demo.fiz-karlsruhe.de/matwerk/E1247418', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Resource')", "('http://demo.fiz-karlsruhe.de/matwerk/E1247467', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Resource')", "('http://demo.fiz-karlsruhe.de/matwerk/E628761', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Resource')", "('http://demo.fiz-karlsruhe.de/matwerk/E662826', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Resource')", "('http://demo.fiz-karlsruhe.de/matwerk/E543362', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Resource')", "('http://demo.fiz-karlsruhe.de/matwerk/E1234236', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Resource')", "('http://demo.fiz-karlsruhe.de/matwerk/E637757', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Resource')", "('http://demo.fiz-karlsruhe.de/matwerk/E633251', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Resource')", "('http://demo.fiz-karlsruhe.de/matwerk/E422822', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Resource')", "('http://demo.fiz-karlsruhe.de/matwerk/E646817', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Resource')", ('http://demo.fiz-karlsruhe.de/matwerk/E1035642', 'mwo:description', '"Online materials database (known as PAULING FILE project) with nearly 2 million entries: physical properties, crystal structures, phase diagrams, available via API, ready for modern data-intensive applications. The source of these entries are about 300,000 peer-reviewed publications in materials science, processed during the last 16 years by an international team of PhD editors. The results are presented online with a quick search interface. The basic access is provided for free."'), ('http://demo.fiz-karlsruhe.de/matwerk/E1035642', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal')]</t>
         </is>
       </c>
     </row>
@@ -2054,27 +2054,27 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>['http://purl.org/dc/terms/description', 'http://purls.helmholtz-metadaten.de/mwo/description', 'http://purl.org/dc/terms/bibliographicCitation', 'http://www.geneontology.org/formats/oboInOwl#hasDefinition', 'http://www.w3.org/2004/02/skos/core#definition', 'http://purls.helmholtz-metadaten.de/mwo/hasDocumentation', 'https://schema.org/citation', 'http://purl.obolibrary.org/obo/IAO_0000119', 'http://purl.obolibrary.org/obo/IAO_0000600']</t>
+          <t>['http://purl.obolibrary.org/obo/IAO_0000115', 'http://www.w3.org/2002/07/owl#onProperty', 'http://www.w3.org/2002/07/owl#sameAs', 'http://xmlns.com/foaf/0.1/firstName', 'http://www.w3.org/1999/02/22-rdf-syntax-ns#type', 'https://w3id.org/scholarlydata/ontology/conference-ontology.owl#duration', 'http://www.w3.org/1999/02/22-rdf-syntax-ns#rest', 'http://purls.helmholtz-metadaten.de/mwo/hasContactPoint', 'http://purls.helmholtz-metadaten.de/mwo/hasVersion']</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>['dcterms:description', 'mwo:description', 'dcterms:bibliographicCitation', 'ns4:hasDefinition', 'skos:definition', 'mwo:hasDocumentation', 'schema:citation', 'ns2:IAO_0000119', 'ns2:IAO_0000600']</t>
+          <t>['dcterms:description', 'mwo:description', 'dcterms:bibliographicCitation', 'ns4:hasDefinition', 'skos:definition', 'mwo:hasDocumentation', 'schema:citation', 'ns2:IAO_0000119', 'ns2:IAO_0000600', 'rdf:type']</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>['BAM reference data: results of ASTM E139 -11 creep tests on a reference material of Nimonic 75 nickel-base alloy', 'Research data infrastructure', 'Carolina Materials Database', 'semantic resource', 'educational resource', 'hardness data']</t>
+          <t>['BAM reference data: results of ASTM E139 -11 creep tests on a reference material of Nimonic 75 nickel-base alloy', 'UDC', 'Computational Materials Repository (CMR)', 'semantic resource', 'Research data infrastructure', 'glossary', 'has format', 'Carolina Materials Database', 'Electronic Structure Common Data Format (ESCDF)', 'educational resource', 'instrument model', 'hardness data', 'about material']</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>['http://demo.fiz-karlsruhe.de/matwerk/E1213904', 'http://demo.fiz-karlsruhe.de/matwerk/E1173747', 'http://demo.fiz-karlsruhe.de/matwerk/E1079247', 'http://demo.fiz-karlsruhe.de/matwerk/E66342', 'http://purls.helmholtz-metadaten.de/mwo/SemanticResource', 'http://purls.helmholtz-metadaten.de/mwo/EducationalResource']</t>
+          <t>['http://purl.org/dc/elements/1.1/contributor', 'http://purls.helmholtz-metadaten.de/mwo/SemanticResource', 'http://nfdi.fiz-karlsruhe.de/ontology/Glossary', 'http://purls.helmholtz-metadaten.de/mwo/EducationalResource', 'http://demo.fiz-karlsruhe.de/matwerk/E66342', 'http://purls.helmholtz-metadaten.de/mwo/aboutMaterial', 'http://purls.helmholtz-metadaten.de/mwo/instrumentModel', 'http://purls.helmholtz-metadaten.de/mwo/hasFormat', 'http://demo.fiz-karlsruhe.de/matwerk/E1079247', 'https://nfdi.fiz-karlsruhe.de/ontology/Glossary', 'http://demo.fiz-karlsruhe.de/matwerk/E1153922', 'http://demo.fiz-karlsruhe.de/matwerk/E1213904', 'http://demo.fiz-karlsruhe.de/matwerk/E1173747', 'http://demo.fiz-karlsruhe.de/matwerk/E1060241']</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>[('http://demo.fiz-karlsruhe.de/matwerk/E1173747', 'mwo:description', '"The creep behavior of a certified reference material was determined according to ASTM E139-11 using calibrated equipment of an accredited testing laboratory"'), ('http://demo.fiz-karlsruhe.de/matwerk/E1079247', 'mwo:description', '"Welcome to Carolina Materials Database created in Jianjun Hu\'s and Ming Hu\'s groups at University of South Carolina. A freely, globally accessible database of 38,716 inorganic material compounds with over 80,000 calculated properties, and growing."')]</t>
+          <t>[('http://purl.org/dc/elements/1.1/contributor', 'skos:definition', '"A media type or extent."'), ('http://purl.org/dc/elements/1.1/contributor', 'skos:definition', '"The set of conceptual resources specified by the Universal Decimal Classification."'), ('http://purl.org/dc/elements/1.1/contributor', 'rdf:type', 'http://www.w3.org/2002/07/owl#AnnotationProperty'), "('http://demo.fiz-karlsruhe.de/matwerk/E1128252', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/SemanticResource')", "('http://demo.fiz-karlsruhe.de/matwerk/E1166102', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/SemanticResource')", "('http://demo.fiz-karlsruhe.de/matwerk/E1129754', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/SemanticResource')", "('http://demo.fiz-karlsruhe.de/matwerk/E1163051', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/SemanticResource')", ('http://purls.helmholtz-metadaten.de/mwo/SemanticResource', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), "('http://demo.fiz-karlsruhe.de/matwerk/E1135772', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/SemanticResource')", "('http://demo.fiz-karlsruhe.de/matwerk/E1247323', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/SemanticResource')", "('http://demo.fiz-karlsruhe.de/matwerk/E1132761', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/SemanticResource')", "('http://demo.fiz-karlsruhe.de/matwerk/E1137279', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/SemanticResource')", "('http://demo.fiz-karlsruhe.de/matwerk/E1131257', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/SemanticResource')", "('http://demo.fiz-karlsruhe.de/matwerk/E1126751', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/SemanticResource')", "('http://demo.fiz-karlsruhe.de/matwerk/E1134266', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/SemanticResource')", "('http://demo.fiz-karlsruhe.de/matwerk/E1140296', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/SemanticResource')", "('http://demo.fiz-karlsruhe.de/matwerk/E1138787', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/SemanticResource')", "('http://demo.fiz-karlsruhe.de/matwerk/E1143317', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/SemanticResource')", "('http://demo.fiz-karlsruhe.de/matwerk/E1141806', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/SemanticResource')", ('http://nfdi.fiz-karlsruhe.de/ontology/Glossary', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/SemanticExpressivity'), ('http://nfdi.fiz-karlsruhe.de/ontology/Glossary', 'rdf:type', 'http://www.w3.org/2002/07/owl#NamedIndividual'), ('http://purls.helmholtz-metadaten.de/mwo/EducationalResource', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), "('http://demo.fiz-karlsruhe.de/matwerk/E1245256', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/EducationalResource')", "('http://demo.fiz-karlsruhe.de/matwerk/E1245261', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/EducationalResource')", "('http://demo.fiz-karlsruhe.de/matwerk/E1245283', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/EducationalResource')", "('http://demo.fiz-karlsruhe.de/matwerk/E1245255', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/EducationalResource')", "('http://demo.fiz-karlsruhe.de/matwerk/E1245300', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/EducationalResource')", "('http://demo.fiz-karlsruhe.de/matwerk/E1245258', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/EducationalResource')", "('http://demo.fiz-karlsruhe.de/matwerk/E1245265', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/EducationalResource')", "('http://demo.fiz-karlsruhe.de/matwerk/E1245321', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/EducationalResource')", "('http://demo.fiz-karlsruhe.de/matwerk/E1245291', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/EducationalResource')", "('http://demo.fiz-karlsruhe.de/matwerk/E1245276', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/EducationalResource')", "('http://demo.fiz-karlsruhe.de/matwerk/E1245270', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/EducationalResource')", "('http://demo.fiz-karlsruhe.de/matwerk/E1245333', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/EducationalResource')", "('http://demo.fiz-karlsruhe.de/matwerk/E1245310', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/EducationalResource')", ('http://demo.fiz-karlsruhe.de/matwerk/E66342', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/AcademicDiscipline'), ('http://purls.helmholtz-metadaten.de/mwo/aboutMaterial', 'rdf:type', 'http://www.w3.org/2002/07/owl#ObjectProperty'), ('http://purls.helmholtz-metadaten.de/mwo/instrumentModel', 'rdf:type', 'http://www.w3.org/2002/07/owl#DatatypeProperty'), ('http://purls.helmholtz-metadaten.de/mwo/hasFormat', 'rdf:type', 'http://www.w3.org/2002/07/owl#ObjectProperty'), ('http://demo.fiz-karlsruhe.de/matwerk/E1079247', 'mwo:description', '"Welcome to Carolina Materials Database created in Jianjun Hu\'s and Ming Hu\'s groups at University of South Carolina. A freely, globally accessible database of 38,716 inorganic material compounds with over 80,000 calculated properties, and growing."'), ('http://demo.fiz-karlsruhe.de/matwerk/E1079247', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal'), ('https://nfdi.fiz-karlsruhe.de/ontology/Glossary', 'rdf:type', 'http://www.w3.org/2002/07/owl#NamedIndividual'), ('http://demo.fiz-karlsruhe.de/matwerk/E1153922', 'mwo:description', '"This project gathers the working documents used to design the specifications\r\nof the Electronic Structure Common Data Format (ESCDF), an initiative of the\r\nElectronic Structure Library (ESL) Contributors.\r\n"'), ('http://demo.fiz-karlsruhe.de/matwerk/E1153922', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Specification'), ('http://demo.fiz-karlsruhe.de/matwerk/E1213904', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/ObjectType'), ('http://demo.fiz-karlsruhe.de/matwerk/E1173747', 'mwo:description', '"The creep behavior of a certified reference material was determined according to ASTM E139-11 using calibrated equipment of an accredited testing laboratory"'), ('http://demo.fiz-karlsruhe.de/matwerk/E1173747', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Dataset'), ('http://demo.fiz-karlsruhe.de/matwerk/E1060241', 'mwo:description', '"Each CMR project consists of an ASE-database and a project page describing the data and showing examples of how to work with the data using Python and ASE."'), ('http://demo.fiz-karlsruhe.de/matwerk/E1060241', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal')]</t>
         </is>
       </c>
     </row>
@@ -2096,32 +2096,32 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>['has dataset', 'has definition source', 'has annotated source ', 'related participant project is', 'has related resource', 'has related Project', 'has instrument model', 'has annotated target', 'has repository']</t>
+          <t>['has definition source', 'has annotated source ', 'related participant project is', 'has related resource', 'has related Project', 'has instrument model', 'has annotated target', 'has repository', 'has specification label']</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>['https://nfdi.fiz-karlsruhe.de/ontology/Dataset', 'http://purl.obolibrary.org/obo/IAO_0000119', 'http://www.w3.org/2002/07/owl#annotatedSource', 'http://purls.helmholtz-metadaten.de/mwo/relatedParticipantProject', 'http://purls.helmholtz-metadaten.de/mwo/hasRelatedResource', 'http://nfdi.fiz-karlsruhe.de/ontology/relatedProject', 'http://purls.helmholtz-metadaten.de/mwo/instrumentModel', 'http://www.w3.org/2002/07/owl#annotatedTarget', 'http://purls.helmholtz-metadaten.de/mwo/hasRepository']</t>
+          <t>['http://purls.helmholtz-metadaten.de/mwo/hasContactPoint', 'http://emmo.info/emmo#EMMO_967080e5_2f42_4eb2_a3a9_c58143e835f9', 'http://nfdi.fiz-karlsruhe.de/ontology/objectType', 'http://purls.helmholtz-metadaten.de/mwo/hasLecturer', 'https://schema.org/dateCreated', 'http://www.w3.org/2004/02/skos/core#prefLabel', 'http://purls.helmholtz-metadaten.de/mwo/instrumentModel', 'http://purls.helmholtz-metadaten.de/mwo/usesTechnology', 'http://purls.helmholtz-metadaten.de/mwo/requiredTool']</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>['nfdicore:Dataset', 'ns2:IAO_0000119', 'owl:annotatedSource', 'mwo:relatedParticipantProject', 'mwo:hasRelatedResource', 'nfdicore:relatedProject', 'mwo:instrumentModel', 'owl:annotatedTarget', 'mwo:hasRepository', 'mwo:description', 'dcterms:description']</t>
+          <t>['ns2:IAO_0000119', 'owl:annotatedSource', 'mwo:relatedParticipantProject', 'mwo:hasRelatedResource', 'nfdicore:relatedProject', 'mwo:instrumentModel', 'owl:annotatedTarget', 'mwo:hasRepository', 'ns2:BFO_0000179', 'mwo:description', 'dcterms:description', 'rdf:type']</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>['J. Magnus Rahm and Paul Erhart WulffPack: A Python package for Wulff constructions J. Open Source Softw. 5, 1944 (2020) doi: 10.21105/joss.01944', 'De Geest, P., Droesbeke, B., Eguinoa, I., Gaignard, A., Huber, S., Leo, S., Pireddu, L., Rodríguez-Navas, L., Sirvent, R., &amp; Soiland-Reyes, S. (2022). ro-crate-py (Version 0.7.0) [Computer software]. https://doi.org/10.5281/zenodo.3956493', 'Topological Quantum Chemistry Nature 547, 298—305 (2017) A Complete Catalogue of High-Quality Topological Materials Nature 566, 480-485 (2019) All Topological Bands of all Nonmagnetic Stoichiometric Materials Science 376, 6595 (2022)', 'The Abinit project: Impact, environment and recent developments Comput. Phys. Commun. 248, 107042 (2020) URL: https://doi.org/10.1016/j.cpc.2019.107042; ABINIT: Overview, and focus on selected capabilities J. Chem. Phys. 152, 124102 (2020)', 'Machine-learning predictions of polymer properties with Polymer Genome\nH. D. Tran, C. Kim, L. Chen, A. Chandrasekaran, R. Batra, S. Venkatram, D. Kamal, J. P. Lightstone, R. Gurnani, P. Shetty, M. Ramprasad, J. Laws, M. Shelton, R. Ramprasad, J. Appl. Phys., 128, 171104 (2020).\n\nPolymer Genome: A data-powered polymer informatics platform for property predictions\nC. Kim, A. Chandrasekaran, T. D. Huan, D. Das, R. Ramprasad, J. Phys. Chem. C 122, 31, 17575-17585 (2018).\n\nA polymer dataset for accelerated property prediction and design\nT. D. Huan, A. Mannodi-Kanakkithodi, C. Kim, V. Sharma, G. Pilania, R. Ramprasad, Sci. Data, 3 160012 (2016).', 'Bochkarev, A., Lysogorskiy, Y., Menon, S., Qamar, M., Mrovec, M., &amp; Drautz, R. (2022). Efficient parametrization of the atomic cluster expansion. Physical Review Materials, 6(1), 013804_x000D_\nLysogorskiy, Y., Oord, C. V. D., Bochkarev, A., Menon, S., Rinaldi, M., Hammerschmidt, T., ... &amp; Drautz, R. (2021). Performant implementation of the atomic cluster expansion (PACE) and application to copper and silicon. npj Computational Materials, 7(1), 1-12']</t>
+          <t>['The Abinit project: Impact, environment and recent developments Comput. Phys. Commun. 248, 107042 (2020) URL: https://doi.org/10.1016/j.cpc.2019.107042; ABINIT: Overview, and focus on selected capabilities J. Chem. Phys. 152, 124102 (2020)', 'Dunn, A., Wang, Q., Ganose, A., Dopp, D., Jain, A. Benchmarking Materials Property Prediction Methods: The Matbench Test Set and Automatminer Reference Algorithm. npj  Computational Materials 6, 138 (2020). https://doi.org/10.1038/s41524-020-00406-3', 'De Geest, P., Droesbeke, B., Eguinoa, I., Gaignard, A., Huber, S., Leo, S., Pireddu, L., Rodríguez-Navas, L., Sirvent, R., &amp; Soiland-Reyes, S. (2022). ro-crate-py (Version 0.7.0) [Computer software]. https://doi.org/10.5281/zenodo.3956493', 'Bochkarev, A., Lysogorskiy, Y., Menon, S., Qamar, M., Mrovec, M., &amp; Drautz, R. (2022). Efficient parametrization of the atomic cluster expansion. Physical Review Materials, 6(1), 013804\r\nLysogorskiy, Y., Oord, C. V. D., Bochkarev, A., Menon, S., Rinaldi, M., Hammerschmidt, T., ... &amp; Drautz, R. (2021). Performant implementation of the atomic cluster expansion (PACE) and application to copper and silicon. npj Computational Materials, 7(1), 1-12', 'J. Magnus Rahm and Paul Erhart WulffPack: A Python package for Wulff constructions J. Open Source Softw. 5, 1944 (2020) doi: 10.21105/joss.01944']</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>['http://demo.fiz-karlsruhe.de/matwerk/E941507', 'http://demo.fiz-karlsruhe.de/matwerk/E945626', 'http://demo.fiz-karlsruhe.de/matwerk/E964967', 'http://demo.fiz-karlsruhe.de/matwerk/E892781', 'http://demo.fiz-karlsruhe.de/matwerk/E990122', 'http://demo.fiz-karlsruhe.de/matwerk/E985907']</t>
+          <t>['http://demo.fiz-karlsruhe.de/matwerk/E941507', 'http://demo.fiz-karlsruhe.de/matwerk/E892781', 'http://demo.fiz-karlsruhe.de/matwerk/E964967', 'http://demo.fiz-karlsruhe.de/matwerk/E937397', 'http://demo.fiz-karlsruhe.de/matwerk/E945626']</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('http://demo.fiz-karlsruhe.de/matwerk/E941507', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Publication'), ('http://demo.fiz-karlsruhe.de/matwerk/E892781', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Publication'), ('http://demo.fiz-karlsruhe.de/matwerk/E964967', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Publication'), ('http://demo.fiz-karlsruhe.de/matwerk/E937397', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Publication'), ('http://demo.fiz-karlsruhe.de/matwerk/E945626', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Publication')]</t>
         </is>
       </c>
     </row>
@@ -2148,27 +2148,27 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>['http://purls.helmholtz-metadaten.de/mwo/hasCreator', 'http://purls.helmholtz-metadaten.de/mwo/hasAuthor', 'http://purls.helmholtz-metadaten.de/mwo/hasContributor', 'http://www.ebi.ac.uk/swo/SWO_0000082', 'http://purls.helmholtz-metadaten.de/mwo/usesTechnology', 'http://www.w3.org/2002/07/owl#annotatedSource', 'http://nfdi.fiz-karlsruhe.de/ontology/programmingLanguage', 'http://purl.obolibrary.org/obo/IAO_0000119', 'http://purls.helmholtz-metadaten.de/mwo/hasOwner']</t>
+          <t>['http://purls.helmholtz-metadaten.de/mwo/hasAffiliation', 'http://nfdi.fiz-karlsruhe.de/ontology/semanticExpressivity', 'http://www.geneontology.org/formats/oboInOwl#hasBroadSynonym', 'http://purls.helmholtz-metadaten.de/mwo/hasContributor', 'http://purls.helmholtz-metadaten.de/mwo/conformsToSpecification', 'http://emmo.info/emmo#EMMO_967080e5_2f42_4eb2_a3a9_c58143e835f9', 'http://purl.obolibrary.org/obo/IAO_0000117', 'http://purls.helmholtz-metadaten.de/mwo/hasContactPoint', 'https://schema.org/operatingSystem']</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>['mwo:hasCreator', 'mwo:hasAuthor', 'mwo:hasContributor', 'ns3:SWO_0000082', 'mwo:usesTechnology', 'owl:annotatedSource', 'nfdicore:programmingLanguage', 'ns2:IAO_0000119', 'mwo:hasOwner', 'mwo:description', 'dcterms:description']</t>
+          <t>['mwo:hasCreator', 'mwo:hasAuthor', 'mwo:hasContributor', 'ns3:SWO_0000082', 'mwo:usesTechnology', 'owl:annotatedSource', 'nfdicore:programmingLanguage', 'ns2:IAO_0000119', 'mwo:hasOwner', 'mwo:description', 'dcterms:description', 'rdf:type']</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>['BAM reference data: results of ASTM E139 -11 creep tests on a reference material of Nimonic 75 nickel-base alloy', 'Research data infrastructure', 'Carolina Materials Database', 'semantic resource', 'educational resource', 'hardness data']</t>
+          <t>['dateCreated', 'Phonon database at Kyoto university', 'The MatWerk ontology', 'Atomistictools', 'BAM reference data: results of ASTM E139 -11 creep tests on a reference material of Nimonic 75 nickel-base alloy', 'Research data infrastructure', 'NOMAD Metainfo', 'semantic resource', 'Carolina Materials Database', 'Electronic Structure Common Data Format (ESCDF)', 'educational resource', 'hardness data', 'has creator']</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>['http://demo.fiz-karlsruhe.de/matwerk/E1213904', 'http://demo.fiz-karlsruhe.de/matwerk/E1173747', 'http://demo.fiz-karlsruhe.de/matwerk/E1079247', 'http://demo.fiz-karlsruhe.de/matwerk/E66342', 'http://purls.helmholtz-metadaten.de/mwo/SemanticResource', 'http://purls.helmholtz-metadaten.de/mwo/EducationalResource']</t>
+          <t>['http://demo.fiz-karlsruhe.de/matwerk/E1074846', 'https://schema.org/dateCreated', 'http://purls.helmholtz-metadaten.de/mwo/SemanticResource', 'http://purls.helmholtz-metadaten.de/mwo/EducationalResource', 'http://demo.fiz-karlsruhe.de/matwerk/E66342', 'http://demo.fiz-karlsruhe.de/matwerk/E1031331', 'http://purls.helmholtz-metadaten.de/mwo/', 'http://demo.fiz-karlsruhe.de/matwerk/E1156961', 'http://purls.helmholtz-metadaten.de/mwo/hasCreator', 'http://demo.fiz-karlsruhe.de/matwerk/E1079247', 'http://demo.fiz-karlsruhe.de/matwerk/E1153922', 'http://demo.fiz-karlsruhe.de/matwerk/E1213904', 'http://demo.fiz-karlsruhe.de/matwerk/E1173747']</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>[('http://demo.fiz-karlsruhe.de/matwerk/E1173747', 'mwo:hasCreator', 'http://demo.fiz-karlsruhe.de/matwerk/E32879'), ('http://demo.fiz-karlsruhe.de/matwerk/E1173747', 'mwo:hasCreator', 'http://demo.fiz-karlsruhe.de/matwerk/E9002'), ('http://demo.fiz-karlsruhe.de/matwerk/E1173747', 'mwo:description', '"The creep behavior of a certified reference material was determined according to ASTM E139-11 using calibrated equipment of an accredited testing laboratory"'), ('http://demo.fiz-karlsruhe.de/matwerk/E1079247', 'mwo:description', '"Welcome to Carolina Materials Database created in Jianjun Hu\'s and Ming Hu\'s groups at University of South Carolina. A freely, globally accessible database of 38,716 inorganic material compounds with over 80,000 calculated properties, and growing."')]</t>
+          <t>[('http://demo.fiz-karlsruhe.de/matwerk/E1074846', 'mwo:description', '"It’s getting to be a mainstream idea collecting a big set of ab-initio calculations and analyzing them by informatics approach. For scientific purpose, we plan to do it for phonon properties. As an attempt, we have run a set of ab-initio phonon calculations and left the raw data on this static web site. The aim of this web site is just leaving the data to distribute."'), ('http://demo.fiz-karlsruhe.de/matwerk/E1074846', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal'), ('https://schema.org/dateCreated', 'rdf:type', 'http://www.w3.org/2002/07/owl#DatatypeProperty'), "('http://demo.fiz-karlsruhe.de/matwerk/E1128252', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/SemanticResource')", "('http://demo.fiz-karlsruhe.de/matwerk/E1166102', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/SemanticResource')", "('http://demo.fiz-karlsruhe.de/matwerk/E1129754', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/SemanticResource')", "('http://demo.fiz-karlsruhe.de/matwerk/E1163051', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/SemanticResource')", ('http://purls.helmholtz-metadaten.de/mwo/SemanticResource', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), "('http://demo.fiz-karlsruhe.de/matwerk/E1135772', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/SemanticResource')", "('http://demo.fiz-karlsruhe.de/matwerk/E1247323', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/SemanticResource')", "('http://demo.fiz-karlsruhe.de/matwerk/E1132761', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/SemanticResource')", "('http://demo.fiz-karlsruhe.de/matwerk/E1137279', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/SemanticResource')", "('http://demo.fiz-karlsruhe.de/matwerk/E1131257', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/SemanticResource')", "('http://demo.fiz-karlsruhe.de/matwerk/E1126751', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/SemanticResource')", "('http://demo.fiz-karlsruhe.de/matwerk/E1134266', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/SemanticResource')", "('http://demo.fiz-karlsruhe.de/matwerk/E1140296', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/SemanticResource')", "('http://demo.fiz-karlsruhe.de/matwerk/E1138787', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/SemanticResource')", "('http://demo.fiz-karlsruhe.de/matwerk/E1143317', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/SemanticResource')", "('http://demo.fiz-karlsruhe.de/matwerk/E1141806', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/SemanticResource')", ('http://purls.helmholtz-metadaten.de/mwo/EducationalResource', 'rdf:type', 'http://www.w3.org/2002/07/owl#Class'), "('http://demo.fiz-karlsruhe.de/matwerk/E1245256', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/EducationalResource')", "('http://demo.fiz-karlsruhe.de/matwerk/E1245261', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/EducationalResource')", "('http://demo.fiz-karlsruhe.de/matwerk/E1245283', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/EducationalResource')", "('http://demo.fiz-karlsruhe.de/matwerk/E1245255', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/EducationalResource')", "('http://demo.fiz-karlsruhe.de/matwerk/E1245300', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/EducationalResource')", "('http://demo.fiz-karlsruhe.de/matwerk/E1245258', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/EducationalResource')", "('http://demo.fiz-karlsruhe.de/matwerk/E1245265', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/EducationalResource')", "('http://demo.fiz-karlsruhe.de/matwerk/E1245321', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/EducationalResource')", "('http://demo.fiz-karlsruhe.de/matwerk/E1245291', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/EducationalResource')", "('http://demo.fiz-karlsruhe.de/matwerk/E1245276', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/EducationalResource')", "('http://demo.fiz-karlsruhe.de/matwerk/E1245270', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/EducationalResource')", "('http://demo.fiz-karlsruhe.de/matwerk/E1245333', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/EducationalResource')", "('http://demo.fiz-karlsruhe.de/matwerk/E1245310', 'rdf:type', 'http://purls.helmholtz-metadaten.de/mwo/EducationalResource')", ('http://demo.fiz-karlsruhe.de/matwerk/E66342', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/AcademicDiscipline'), ('http://demo.fiz-karlsruhe.de/matwerk/E1031331', 'mwo:hasContributor', 'http://demo.fiz-karlsruhe.de/matwerk/E1037'), ('http://demo.fiz-karlsruhe.de/matwerk/E452726', 'mwo:hasContributor', 'http://demo.fiz-karlsruhe.de/matwerk/E1037'), ('http://demo.fiz-karlsruhe.de/matwerk/E1245321', 'mwo:hasContributor', 'http://demo.fiz-karlsruhe.de/matwerk/E1037'), ('http://demo.fiz-karlsruhe.de/matwerk/E1245300', 'mwo:hasContributor', 'http://demo.fiz-karlsruhe.de/matwerk/E1037'), ('http://demo.fiz-karlsruhe.de/matwerk/E1031331', 'mwo:description', '"This website provides an interactive interface for the assessment of interatomic potentials presented in OpenKIM, NIST IPR and elsewhere with respect to DFT reference data. The calculations were carried out using the pyiron workflow management tool."'), ('http://demo.fiz-karlsruhe.de/matwerk/E1031331', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal'), ('http://purls.helmholtz-metadaten.de/mwo/', 'dcterms:description', '"The MatWerk ontology represents research data and related activities of the MSE community. A first version of the ontology will be simplified, focusing on (i) community structure: researchers, research projects, universities, and institutions; (ii) infrastructure: software, workflows, ontologies, schemas, APIs, instruments, facilities, educational resources; and (iii) data: repositories, databases, scientific publications, published datasets and reference data."'), ('http://purls.helmholtz-metadaten.de/mwo/', 'rdf:type', 'http://www.w3.org/2002/07/owl#Ontology'), ('http://demo.fiz-karlsruhe.de/matwerk/E1156961', 'mwo:description', '"The NOMAD Metainfo stores descriptive and structured information about materials-science data contained in the NOMAD Archive"'), ('http://demo.fiz-karlsruhe.de/matwerk/E1156961', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Specification'), ('http://purls.helmholtz-metadaten.de/mwo/hasCreator', 'rdf:type', 'http://www.w3.org/2002/07/owl#ObjectProperty'), ('http://demo.fiz-karlsruhe.de/matwerk/E1079247', 'mwo:description', '"Welcome to Carolina Materials Database created in Jianjun Hu\'s and Ming Hu\'s groups at University of South Carolina. A freely, globally accessible database of 38,716 inorganic material compounds with over 80,000 calculated properties, and growing."'), ('http://demo.fiz-karlsruhe.de/matwerk/E1079247', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal'), ('http://demo.fiz-karlsruhe.de/matwerk/E1153922', 'mwo:description', '"This project gathers the working documents used to design the specifications\r\nof the Electronic Structure Common Data Format (ESCDF), an initiative of the\r\nElectronic Structure Library (ESL) Contributors.\r\n"'), ('http://demo.fiz-karlsruhe.de/matwerk/E1153922', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Specification'), ('http://demo.fiz-karlsruhe.de/matwerk/E1213904', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/ObjectType'), ('http://demo.fiz-karlsruhe.de/matwerk/E1247847', 'mwo:hasCreator', 'http://demo.fiz-karlsruhe.de/matwerk/E9002'), ('http://demo.fiz-karlsruhe.de/matwerk/E1175279', 'mwo:hasCreator', 'http://demo.fiz-karlsruhe.de/matwerk/E9002'), ('http://demo.fiz-karlsruhe.de/matwerk/E1176812', 'mwo:hasCreator', 'http://demo.fiz-karlsruhe.de/matwerk/E9002'), ('http://demo.fiz-karlsruhe.de/matwerk/E1173747', 'mwo:hasCreator', 'http://demo.fiz-karlsruhe.de/matwerk/E32879'), ('http://demo.fiz-karlsruhe.de/matwerk/E1173747', 'mwo:hasCreator', 'http://demo.fiz-karlsruhe.de/matwerk/E9002'), ('http://demo.fiz-karlsruhe.de/matwerk/E1173747', 'mwo:description', '"The creep behavior of a certified reference material was determined according to ASTM E139-11 using calibrated equipment of an accredited testing laboratory"'), ('http://demo.fiz-karlsruhe.de/matwerk/E1173747', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Dataset')]</t>
         </is>
       </c>
     </row>
@@ -2190,263 +2190,36 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>['has dataset', 'has repository', 'has bibliographic citation', 'has documentation', 'has annotated source ', 'related participant project is', 'has annotated target', 'has date Published', 'has related resource']</t>
+          <t>['has repository', 'has bibliographic citation', 'has documentation', 'has annotated source ', 'related participant project is', 'has annotated target', 'has date Published', 'has related resource', 'has related Project']</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>['https://nfdi.fiz-karlsruhe.de/ontology/Dataset', 'http://purls.helmholtz-metadaten.de/mwo/hasRepository', 'http://purl.org/dc/terms/bibliographicCitation', 'http://purls.helmholtz-metadaten.de/mwo/hasDocumentation', 'http://www.w3.org/2002/07/owl#annotatedSource', 'http://purls.helmholtz-metadaten.de/mwo/relatedParticipantProject', 'http://www.w3.org/2002/07/owl#annotatedTarget', 'https://schema.org/datePublished', 'http://purls.helmholtz-metadaten.de/mwo/hasRelatedResource']</t>
+          <t>['http://purls.helmholtz-metadaten.de/mwo/usesTechnology', 'http://www.w3.org/2002/07/owl#sameAs', 'https://w3id.org/scholarlydata/ontology/conference-ontology.owl#duration', 'http://emmo.info/emmo#EMMO_967080e5_2f42_4eb2_a3a9_c58143e835f9', 'http://nfdi.fiz-karlsruhe.de/ontology/objectType', 'http://purls.helmholtz-metadaten.de/mwo/instrumentModel', 'http://www.w3.org/2002/07/owl#equivalentClass', 'http://purls.helmholtz-metadaten.de/mwo/hasLecturer', 'https://schema.org/dateCreated']</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>['nfdicore:Dataset', 'mwo:hasRepository', 'dcterms:bibliographicCitation', 'mwo:hasDocumentation', 'owl:annotatedSource', 'mwo:relatedParticipantProject', 'owl:annotatedTarget', 'schema:datePublished', 'mwo:hasRelatedResource', 'mwo:description', 'dcterms:description']</t>
+          <t>['mwo:hasRepository', 'dcterms:bibliographicCitation', 'mwo:hasDocumentation', 'owl:annotatedSource', 'mwo:relatedParticipantProject', 'owl:annotatedTarget', 'schema:datePublished', 'mwo:hasRelatedResource', 'nfdicore:relatedProject', 'mwo:description', 'dcterms:description', 'rdf:type']</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>['Brunswick', 'acronym', 'Bundesanstalt für Materialforschung und -prüfung (BAM)', 'BAM', 'bond order potentials (BOP)']</t>
+          <t>['BAM reference data: results of ASTM E139 -11 creep tests on a reference material of Nimonic 75 nickel-base alloy', 'Phonon database at Kyoto university', 'Computational Materials Repository (CMR)', 'NOMAD Metainfo', 'OpenBIS', 'acronym', 'Bundesanstalt für Materialforschung und -prüfung (BAM)', 'Crystallography Open Database (COD)', 'BAM', 'Electronic Structure Common Data Format (ESCDF)', 'has creator', 'about material', 'Materials Data Repository', 'bond order potentials (BOP)']</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>['http://demo.fiz-karlsruhe.de/matwerk/E1247968', 'http://www.wikidata.org/entity/Q2773', 'http://purl.obolibrary.org/obo/NCIT_C93495', 'http://demo.fiz-karlsruhe.de/matwerk/E64191', 'http://demo.fiz-karlsruhe.de/matwerk/E4571']</t>
+          <t>['http://demo.fiz-karlsruhe.de/matwerk/E4571', 'http://demo.fiz-karlsruhe.de/matwerk/E1074846', 'http://demo.fiz-karlsruhe.de/matwerk/E64191', 'http://demo.fiz-karlsruhe.de/matwerk/E1042847', 'http://demo.fiz-karlsruhe.de/matwerk/E551726', 'http://purls.helmholtz-metadaten.de/mwo/aboutMaterial', 'http://demo.fiz-karlsruhe.de/matwerk/E1156961', 'http://purls.helmholtz-metadaten.de/mwo/hasCreator', 'http://demo.fiz-karlsruhe.de/matwerk/E1173747', 'http://demo.fiz-karlsruhe.de/matwerk/E1153922', 'http://purl.obolibrary.org/obo/NCIT_C93495', 'http://demo.fiz-karlsruhe.de/matwerk/E1247968', 'http://demo.fiz-karlsruhe.de/matwerk/E1024166', 'http://demo.fiz-karlsruhe.de/matwerk/E1060241']</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>["('http://demo.fiz-karlsruhe.de/matwerk/E1248382', 'mwo:relatedParticipantProject', 'http://demo.fiz-karlsruhe.de/matwerk/E1247968')", "('http://demo.fiz-karlsruhe.de/matwerk/E1248937', 'mwo:relatedParticipantProject', 'http://demo.fiz-karlsruhe.de/matwerk/E1247968')"]</t>
+          <t>[('http://demo.fiz-karlsruhe.de/matwerk/E4571', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Country'), ('http://demo.fiz-karlsruhe.de/matwerk/E1074846', 'mwo:description', '"It’s getting to be a mainstream idea collecting a big set of ab-initio calculations and analyzing them by informatics approach. For scientific purpose, we plan to do it for phonon properties. As an attempt, we have run a set of ab-initio phonon calculations and left the raw data on this static web site. The aim of this web site is just leaving the data to distribute."'), ('http://demo.fiz-karlsruhe.de/matwerk/E1074846', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal'), ('http://demo.fiz-karlsruhe.de/matwerk/E64191', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/AcademicDiscipline'), ('http://demo.fiz-karlsruhe.de/matwerk/E1042847', 'mwo:description', '"MDR is a data repository to collect and store papers, presentation materials, and related materials data to accumulate and release them in a form suitable for the promotion of materials research and materials informatics. Users can search the documents and the data from information (metadata) such as sample, instrument, method, and from the full text of the deposited data, to browse and download them freely. "'), ('http://demo.fiz-karlsruhe.de/matwerk/E1042847', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal'), ('http://demo.fiz-karlsruhe.de/matwerk/E551726', 'dcterms:description', '"The openBIS platform has three primary functionalities: 1. Inventory management of laboratory samples, materials, protocols, equipment. 2. Laboratory notebook, to document lab experiments. 3. Data management, to store all data related to lab experiments (raw, processed, analysed data, scripts, Jupyter notebooks, etc.)."'), ('http://demo.fiz-karlsruhe.de/matwerk/E551726', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Software'), ('http://purls.helmholtz-metadaten.de/mwo/aboutMaterial', 'rdf:type', 'http://www.w3.org/2002/07/owl#ObjectProperty'), ('http://demo.fiz-karlsruhe.de/matwerk/E1156961', 'mwo:hasDocumentation', 'http://demo.fiz-karlsruhe.de/matwerk/E327837'), ('http://demo.fiz-karlsruhe.de/matwerk/E1156961', 'mwo:description', '"The NOMAD Metainfo stores descriptive and structured information about materials-science data contained in the NOMAD Archive"'), ('http://demo.fiz-karlsruhe.de/matwerk/E1156961', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Specification'), ('http://purls.helmholtz-metadaten.de/mwo/hasCreator', 'rdf:type', 'http://www.w3.org/2002/07/owl#ObjectProperty'), ('http://demo.fiz-karlsruhe.de/matwerk/E1173747', 'mwo:hasRepository', 'http://demo.fiz-karlsruhe.de/matwerk/E291704'), ('http://demo.fiz-karlsruhe.de/matwerk/E1173747', 'schema:datePublished', '"7/15/2021"'), ('http://demo.fiz-karlsruhe.de/matwerk/E1173747', 'mwo:description', '"The creep behavior of a certified reference material was determined according to ASTM E139-11 using calibrated equipment of an accredited testing laboratory"'), ('http://demo.fiz-karlsruhe.de/matwerk/E1173747', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Dataset'), ('http://demo.fiz-karlsruhe.de/matwerk/E1153922', 'mwo:hasRepository', 'http://demo.fiz-karlsruhe.de/matwerk/E315822'), ('http://demo.fiz-karlsruhe.de/matwerk/E1153922', 'mwo:description', '"This project gathers the working documents used to design the specifications\r\nof the Electronic Structure Common Data Format (ESCDF), an initiative of the\r\nElectronic Structure Library (ESL) Contributors.\r\n"'), ('http://demo.fiz-karlsruhe.de/matwerk/E1153922', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/Specification'), ('http://purl.obolibrary.org/obo/NCIT_C93495', 'rdf:type', 'http://www.w3.org/2002/07/owl#AnnotationProperty'), "('http://demo.fiz-karlsruhe.de/matwerk/E1248937', 'mwo:relatedParticipantProject', 'http://demo.fiz-karlsruhe.de/matwerk/E1247968')", "('http://demo.fiz-karlsruhe.de/matwerk/E1248382', 'mwo:relatedParticipantProject', 'http://demo.fiz-karlsruhe.de/matwerk/E1247968')", ('http://demo.fiz-karlsruhe.de/matwerk/E1024166', 'mwo:description', '"Open-access collection of crystal structures of organic, inorganic, metal-organic compounds and minerals, excluding biopolymers."'), ('http://demo.fiz-karlsruhe.de/matwerk/E1024166', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal'), ('http://demo.fiz-karlsruhe.de/matwerk/E434847', 'mwo:hasRelatedResource', 'http://demo.fiz-karlsruhe.de/matwerk/E641147'), ('http://demo.fiz-karlsruhe.de/matwerk/E552776', 'mwo:hasRelatedResource', 'http://demo.fiz-karlsruhe.de/matwerk/E641147'), ('http://demo.fiz-karlsruhe.de/matwerk/E1060241', 'mwo:hasRelatedResource', 'http://demo.fiz-karlsruhe.de/matwerk/E641147'), ('http://demo.fiz-karlsruhe.de/matwerk/E1060241', 'mwo:description', '"Each CMR project consists of an ASE-database and a project page describing the data and showing examples of how to work with the data using Python and ASE."'), ('http://demo.fiz-karlsruhe.de/matwerk/E1060241', 'rdf:type', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal')]</t>
         </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D4093E08A2E8D84C9AA963E02FD99654" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="84c502d4503dea49fce9d134f7dcc9af">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c09d107b-18dc-489c-bc6f-5ed48cc8c44a" xmlns:ns3="e2225dd1-523d-4404-be3e-841da2544242" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2b8dc0315bcb7427c92a75c96c81d9d2" ns2:_="" ns3:_="">
-    <xsd:import namespace="c09d107b-18dc-489c-bc6f-5ed48cc8c44a"/>
-    <xsd:import namespace="e2225dd1-523d-4404-be3e-841da2544242"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="c09d107b-18dc-489c-bc6f-5ed48cc8c44a" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="10" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceSearchProperties" ma:index="11" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="13" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="89a75c37-6363-466b-83d7-1b9f4a918caf" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="15" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="16" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="17" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="18" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="e2225dd1-523d-4404-be3e-841da2544242" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="TaxCatchAll" ma:index="14" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{3a3b5da6-65bc-40f7-ae0d-c52f7365e2ec}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="e2225dd1-523d-4404-be3e-841da2544242">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="c09d107b-18dc-489c-bc6f-5ed48cc8c44a">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="e2225dd1-523d-4404-be3e-841da2544242" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4F2F4D0-8BB9-478C-BEC0-FBDF426C25B8}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{068DF086-E65C-4978-9037-AB75B0658C1B}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7ADB9CBA-8CD4-441E-B64E-CB9EC81E5B56}"/>
 </file>